--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -771,25 +771,25 @@
         <v>41610</v>
       </c>
       <c r="G9">
-        <v>16409.16666666667</v>
+        <v>1640.916666666667</v>
       </c>
       <c r="H9">
-        <v>3265.631777011462</v>
+        <v>326.5631777011462</v>
       </c>
       <c r="I9">
-        <v>2639.256907561246</v>
+        <v>263.9256907561246</v>
       </c>
       <c r="J9">
-        <v>626.3748694502156</v>
+        <v>62.63748694502156</v>
       </c>
       <c r="K9">
-        <v>10233.38147202104</v>
+        <v>1023.338147202104</v>
       </c>
       <c r="N9">
         <v>68</v>
       </c>
       <c r="P9">
-        <v>2910.15341763417</v>
+        <v>291.015341763417</v>
       </c>
       <c r="U9">
         <v>161</v>
@@ -809,31 +809,31 @@
         <v>41667</v>
       </c>
       <c r="G10">
-        <v>25846.75241845208</v>
+        <v>2584.675241845208</v>
       </c>
       <c r="H10">
-        <v>2393.626374395325</v>
+        <v>239.3626374395325</v>
       </c>
       <c r="K10">
-        <v>8615.903010727459</v>
+        <v>861.5903010727459</v>
       </c>
       <c r="M10">
         <v>509.4977465903335</v>
       </c>
       <c r="O10">
-        <v>11507.99758333334</v>
+        <v>1150.799758333334</v>
       </c>
       <c r="P10">
-        <v>14837.2230333293</v>
+        <v>1483.72230333293</v>
       </c>
       <c r="Q10">
-        <v>3329.225449995962</v>
+        <v>332.9225449995962</v>
       </c>
       <c r="R10">
         <v>32243.51788352088</v>
       </c>
       <c r="S10">
-        <v>35.70216499999999</v>
+        <v>0.03570216499999999</v>
       </c>
       <c r="U10">
         <v>161</v>
@@ -1232,25 +1232,25 @@
         <v>41610</v>
       </c>
       <c r="G28">
-        <v>21613.16666666667</v>
+        <v>2161.316666666667</v>
       </c>
       <c r="H28">
-        <v>4355.643947788602</v>
+        <v>435.5643947788602</v>
       </c>
       <c r="I28">
-        <v>3314.306310559768</v>
+        <v>331.4306310559767</v>
       </c>
       <c r="J28">
-        <v>1041.337637228835</v>
+        <v>104.1337637228835</v>
       </c>
       <c r="K28">
-        <v>13481.65453639717</v>
+        <v>1348.165453639717</v>
       </c>
       <c r="N28">
         <v>68</v>
       </c>
       <c r="P28">
-        <v>3775.868182480894</v>
+        <v>377.5868182480893</v>
       </c>
       <c r="U28">
         <v>161</v>
@@ -1361,31 +1361,31 @@
         <v>41667</v>
       </c>
       <c r="G34">
-        <v>25042.00298569729</v>
+        <v>2504.200298569729</v>
       </c>
       <c r="H34">
-        <v>2389.396794789549</v>
+        <v>238.9396794789549</v>
       </c>
       <c r="K34">
-        <v>8320.785375171703</v>
+        <v>832.0785375171703</v>
       </c>
       <c r="M34">
         <v>535.7001939714582</v>
       </c>
       <c r="O34">
-        <v>11186.81525</v>
+        <v>1118.681525</v>
       </c>
       <c r="P34">
-        <v>14331.82081573604</v>
+        <v>1433.182081573604</v>
       </c>
       <c r="Q34">
-        <v>3145.00556573604</v>
+        <v>314.5005565736041</v>
       </c>
       <c r="R34">
         <v>32004.69101505262</v>
       </c>
       <c r="S34">
-        <v>34.9562725</v>
+        <v>0.0349562725</v>
       </c>
       <c r="U34">
         <v>161</v>
@@ -1542,25 +1542,25 @@
         <v>41610</v>
       </c>
       <c r="G42">
-        <v>20515</v>
+        <v>2051.5</v>
       </c>
       <c r="H42">
-        <v>4496.535229476827</v>
+        <v>449.6535229476827</v>
       </c>
       <c r="I42">
-        <v>3284.723268103161</v>
+        <v>328.4723268103161</v>
       </c>
       <c r="J42">
-        <v>1211.811961373667</v>
+        <v>121.1811961373667</v>
       </c>
       <c r="K42">
-        <v>12561.40470624951</v>
+        <v>1256.140470624951</v>
       </c>
       <c r="N42">
         <v>68</v>
       </c>
       <c r="P42">
-        <v>3457.060064273662</v>
+        <v>345.7060064273662</v>
       </c>
       <c r="U42">
         <v>161</v>
@@ -1580,31 +1580,31 @@
         <v>41667</v>
       </c>
       <c r="G43">
-        <v>24875.52936368594</v>
+        <v>2487.552936368594</v>
       </c>
       <c r="H43">
-        <v>2492.270840001762</v>
+        <v>249.2270840001762</v>
       </c>
       <c r="K43">
-        <v>8395.747086476014</v>
+        <v>839.5747086476015</v>
       </c>
       <c r="M43">
         <v>540.8535622049224</v>
       </c>
       <c r="O43">
-        <v>10748.18591666667</v>
+        <v>1074.818591666667</v>
       </c>
       <c r="P43">
-        <v>13987.51143720816</v>
+        <v>1398.751143720816</v>
       </c>
       <c r="Q43">
-        <v>3239.325520541493</v>
+        <v>323.9325520541493</v>
       </c>
       <c r="R43">
         <v>30819.55222794959</v>
       </c>
       <c r="S43">
-        <v>34.675015</v>
+        <v>0.034675015</v>
       </c>
       <c r="U43">
         <v>161</v>
@@ -1976,25 +1976,25 @@
         <v>41610</v>
       </c>
       <c r="G61">
-        <v>18913.66666666666</v>
+        <v>1891.366666666666</v>
       </c>
       <c r="H61">
-        <v>3985.642865700832</v>
+        <v>398.5642865700832</v>
       </c>
       <c r="I61">
-        <v>2541.071946444935</v>
+        <v>254.1071946444935</v>
       </c>
       <c r="J61">
-        <v>1444.570919255897</v>
+        <v>144.4570919255897</v>
       </c>
       <c r="K61">
-        <v>11694.21375300725</v>
+        <v>1169.421375300725</v>
       </c>
       <c r="N61">
         <v>68</v>
       </c>
       <c r="P61">
-        <v>3233.810047958583</v>
+        <v>323.3810047958583</v>
       </c>
       <c r="U61">
         <v>161</v>
@@ -2100,31 +2100,31 @@
         <v>41667</v>
       </c>
       <c r="G66">
-        <v>26926.74914767512</v>
+        <v>2692.674914767512</v>
       </c>
       <c r="H66">
-        <v>2857.429795072966</v>
+        <v>285.7429795072966</v>
       </c>
       <c r="K66">
-        <v>9024.160598106078</v>
+        <v>902.4160598106079</v>
       </c>
       <c r="M66">
         <v>600.2428725084067</v>
       </c>
       <c r="O66">
-        <v>11765.44783333334</v>
+        <v>1176.544783333333</v>
       </c>
       <c r="P66">
-        <v>15045.15875449608</v>
+        <v>1504.515875449608</v>
       </c>
       <c r="Q66">
-        <v>3279.710921162745</v>
+        <v>327.9710921162745</v>
       </c>
       <c r="R66">
         <v>32120.87112808551</v>
       </c>
       <c r="S66">
-        <v>36.657625</v>
+        <v>0.03665762500000001</v>
       </c>
       <c r="U66">
         <v>161</v>
@@ -2553,25 +2553,25 @@
         <v>41610</v>
       </c>
       <c r="G84">
-        <v>18072</v>
+        <v>1807.2</v>
       </c>
       <c r="H84">
-        <v>3766.723352843999</v>
+        <v>376.6723352843999</v>
       </c>
       <c r="I84">
-        <v>3068.278046457303</v>
+        <v>306.8278046457303</v>
       </c>
       <c r="J84">
-        <v>698.4453063866949</v>
+        <v>69.8445306386695</v>
       </c>
       <c r="K84">
-        <v>11159.26745578787</v>
+        <v>1115.926745578787</v>
       </c>
       <c r="N84">
         <v>68</v>
       </c>
       <c r="P84">
-        <v>3146.009191368133</v>
+        <v>314.6009191368133</v>
       </c>
       <c r="U84">
         <v>161</v>
@@ -2694,31 +2694,31 @@
         <v>41667</v>
       </c>
       <c r="G90">
-        <v>24226.62463859079</v>
+        <v>2422.662463859079</v>
       </c>
       <c r="H90">
-        <v>2271.545819001089</v>
+        <v>227.1545819001089</v>
       </c>
       <c r="K90">
-        <v>8463.20883313758</v>
+        <v>846.320883313758</v>
       </c>
       <c r="M90">
         <v>433.7083853616907</v>
       </c>
       <c r="O90">
-        <v>10118.39566666667</v>
+        <v>1011.839566666667</v>
       </c>
       <c r="P90">
-        <v>13491.86998645212</v>
+        <v>1349.186998645212</v>
       </c>
       <c r="Q90">
-        <v>3373.474319785453</v>
+        <v>337.3474319785453</v>
       </c>
       <c r="R90">
         <v>30176.51226156079</v>
       </c>
       <c r="S90">
-        <v>33.3491375</v>
+        <v>0.0333491375</v>
       </c>
       <c r="U90">
         <v>161</v>
@@ -2875,25 +2875,25 @@
         <v>41592</v>
       </c>
       <c r="G98">
-        <v>21293.66666666667</v>
+        <v>2129.366666666667</v>
       </c>
       <c r="H98">
-        <v>5199.96928822584</v>
+        <v>519.996928822584</v>
       </c>
       <c r="I98">
-        <v>3213.057333606338</v>
+        <v>321.3057333606338</v>
       </c>
       <c r="J98">
-        <v>1986.911954619502</v>
+        <v>198.6911954619501</v>
       </c>
       <c r="K98">
-        <v>13277.6448872078</v>
+        <v>1327.76448872078</v>
       </c>
       <c r="N98">
         <v>61</v>
       </c>
       <c r="P98">
-        <v>2816.052491233028</v>
+        <v>281.6052491233028</v>
       </c>
       <c r="U98">
         <v>199</v>
@@ -2913,31 +2913,31 @@
         <v>41667</v>
       </c>
       <c r="G99">
-        <v>23355.72076309342</v>
+        <v>2335.572076309342</v>
       </c>
       <c r="H99">
-        <v>1730.883881828707</v>
+        <v>173.0883881828707</v>
       </c>
       <c r="K99">
-        <v>9706.776958340302</v>
+        <v>970.6776958340303</v>
       </c>
       <c r="M99">
         <v>495.9320207576073</v>
       </c>
       <c r="O99">
-        <v>9170.449583333333</v>
+        <v>917.0449583333333</v>
       </c>
       <c r="P99">
-        <v>11918.05992292441</v>
+        <v>1191.805992292441</v>
       </c>
       <c r="Q99">
-        <v>2747.610339591076</v>
+        <v>274.7610339591076</v>
       </c>
       <c r="R99">
         <v>26008.24971689271</v>
       </c>
       <c r="S99">
-        <v>35.40561750000001</v>
+        <v>0.03540561750000001</v>
       </c>
       <c r="U99">
         <v>199</v>
@@ -3336,25 +3336,25 @@
         <v>41592</v>
       </c>
       <c r="G117">
-        <v>21668</v>
+        <v>2166.8</v>
       </c>
       <c r="H117">
-        <v>5558.011107906977</v>
+        <v>555.8011107906976</v>
       </c>
       <c r="I117">
-        <v>3541.977082211622</v>
+        <v>354.1977082211621</v>
       </c>
       <c r="J117">
-        <v>2016.034025695355</v>
+        <v>201.6034025695355</v>
       </c>
       <c r="K117">
-        <v>13393.29590856183</v>
+        <v>1339.329590856183</v>
       </c>
       <c r="N117">
         <v>61</v>
       </c>
       <c r="P117">
-        <v>2716.692983531196</v>
+        <v>271.6692983531196</v>
       </c>
       <c r="U117">
         <v>199</v>
@@ -3474,31 +3474,31 @@
         <v>41667</v>
       </c>
       <c r="G123">
-        <v>22365.43979030309</v>
+        <v>2236.543979030309</v>
       </c>
       <c r="H123">
-        <v>1687.024854661649</v>
+        <v>168.7024854661649</v>
       </c>
       <c r="K123">
-        <v>9695.145996518368</v>
+        <v>969.5145996518368</v>
       </c>
       <c r="M123">
         <v>513.9623388442081</v>
       </c>
       <c r="O123">
-        <v>8296.080083333332</v>
+        <v>829.6080083333333</v>
       </c>
       <c r="P123">
-        <v>10983.26893912307</v>
+        <v>1098.326893912307</v>
       </c>
       <c r="Q123">
-        <v>2687.188855789737</v>
+        <v>268.7188855789738</v>
       </c>
       <c r="R123">
         <v>23384.23209300796</v>
       </c>
       <c r="S123">
-        <v>35.15484499999999</v>
+        <v>0.035154845</v>
       </c>
       <c r="U123">
         <v>199</v>
@@ -3655,25 +3655,25 @@
         <v>41592</v>
       </c>
       <c r="G131">
-        <v>18735.5</v>
+        <v>1873.55</v>
       </c>
       <c r="H131">
-        <v>4723.621786505732</v>
+        <v>472.3621786505732</v>
       </c>
       <c r="I131">
-        <v>2995.066371604782</v>
+        <v>299.5066371604781</v>
       </c>
       <c r="J131">
-        <v>1728.555414900951</v>
+        <v>172.855541490095</v>
       </c>
       <c r="K131">
-        <v>11537.70682996144</v>
+        <v>1153.770682996144</v>
       </c>
       <c r="N131">
         <v>61</v>
       </c>
       <c r="P131">
-        <v>2474.171383532822</v>
+        <v>247.4171383532822</v>
       </c>
       <c r="U131">
         <v>199</v>
@@ -3693,31 +3693,31 @@
         <v>41667</v>
       </c>
       <c r="G132">
-        <v>22906.45501280131</v>
+        <v>2290.645501280132</v>
       </c>
       <c r="H132">
-        <v>1761.30754781854</v>
+        <v>176.130754781854</v>
       </c>
       <c r="K132">
-        <v>9478.360529283562</v>
+        <v>947.8360529283561</v>
       </c>
       <c r="M132">
         <v>515.7985211352311</v>
       </c>
       <c r="O132">
-        <v>8826.233333333334</v>
+        <v>882.6233333333333</v>
       </c>
       <c r="P132">
-        <v>11666.78693569921</v>
+        <v>1166.678693569922</v>
       </c>
       <c r="Q132">
-        <v>2840.553602365881</v>
+        <v>284.0553602365882</v>
       </c>
       <c r="R132">
         <v>26926.70501598714</v>
       </c>
       <c r="S132">
-        <v>32.9604825</v>
+        <v>0.0329604825</v>
       </c>
       <c r="U132">
         <v>199</v>
@@ -4086,25 +4086,25 @@
         <v>41592</v>
       </c>
       <c r="G150">
-        <v>20821.16666666667</v>
+        <v>2082.116666666667</v>
       </c>
       <c r="H150">
-        <v>4749.869946474071</v>
+        <v>474.9869946474071</v>
       </c>
       <c r="I150">
-        <v>3185.729227521206</v>
+        <v>318.5729227521206</v>
       </c>
       <c r="J150">
-        <v>1564.140718952865</v>
+        <v>156.4140718952865</v>
       </c>
       <c r="K150">
-        <v>13111.09960198662</v>
+        <v>1311.109960198662</v>
       </c>
       <c r="N150">
         <v>61</v>
       </c>
       <c r="P150">
-        <v>2960.197118205975</v>
+        <v>296.0197118205975</v>
       </c>
       <c r="U150">
         <v>199</v>
@@ -4233,31 +4233,31 @@
         <v>41667</v>
       </c>
       <c r="G156">
-        <v>23751.30907566456</v>
+        <v>2375.130907566456</v>
       </c>
       <c r="H156">
-        <v>1880.221301010396</v>
+        <v>188.0221301010396</v>
       </c>
       <c r="K156">
-        <v>10078.22030676683</v>
+        <v>1007.822030676683</v>
       </c>
       <c r="M156">
         <v>540.9755799755733</v>
       </c>
       <c r="O156">
-        <v>8755.832666666667</v>
+        <v>875.5832666666668</v>
       </c>
       <c r="P156">
-        <v>11792.86746788734</v>
+        <v>1179.286746788734</v>
       </c>
       <c r="Q156">
-        <v>3037.034801220672</v>
+        <v>303.7034801220672</v>
       </c>
       <c r="R156">
         <v>26061.62937654481</v>
       </c>
       <c r="S156">
-        <v>33.5288</v>
+        <v>0.0335288</v>
       </c>
       <c r="U156">
         <v>199</v>
@@ -4686,25 +4686,25 @@
         <v>41592</v>
       </c>
       <c r="G174">
-        <v>20547.66666666667</v>
+        <v>2054.766666666667</v>
       </c>
       <c r="H174">
-        <v>5344.451128706367</v>
+        <v>534.4451128706366</v>
       </c>
       <c r="I174">
-        <v>3089.048930432401</v>
+        <v>308.9048930432401</v>
       </c>
       <c r="J174">
-        <v>2255.402198273966</v>
+        <v>225.5402198273966</v>
       </c>
       <c r="K174">
-        <v>12529.04340049243</v>
+        <v>1252.904340049243</v>
       </c>
       <c r="N174">
         <v>61</v>
       </c>
       <c r="P174">
-        <v>2674.172137467869</v>
+        <v>267.4172137467868</v>
       </c>
       <c r="U174">
         <v>199</v>
@@ -4839,31 +4839,31 @@
         <v>41667</v>
       </c>
       <c r="G180">
-        <v>22660.94755351801</v>
+        <v>2266.094755351801</v>
       </c>
       <c r="H180">
-        <v>1941.597331536135</v>
+        <v>194.1597331536134</v>
       </c>
       <c r="K180">
-        <v>10068.70366368542</v>
+        <v>1006.870366368542</v>
       </c>
       <c r="M180">
         <v>496.0071339958816</v>
       </c>
       <c r="O180">
-        <v>7851.331166666667</v>
+        <v>785.1331166666666</v>
       </c>
       <c r="P180">
-        <v>10650.64655829644</v>
+        <v>1065.064655829644</v>
       </c>
       <c r="Q180">
-        <v>2799.315391629776</v>
+        <v>279.9315391629776</v>
       </c>
       <c r="R180">
         <v>21347.56309206865</v>
       </c>
       <c r="S180">
-        <v>36.6552875</v>
+        <v>0.0366552875</v>
       </c>
       <c r="U180">
         <v>199</v>
@@ -5020,25 +5020,25 @@
         <v>41600</v>
       </c>
       <c r="G188">
-        <v>18594.66666666667</v>
+        <v>1859.466666666667</v>
       </c>
       <c r="H188">
-        <v>4656.466606947403</v>
+        <v>465.6466606947403</v>
       </c>
       <c r="I188">
-        <v>3040.293829111576</v>
+        <v>304.0293829111575</v>
       </c>
       <c r="J188">
-        <v>1616.172777835828</v>
+        <v>161.6172777835828</v>
       </c>
       <c r="K188">
-        <v>11244.45664224088</v>
+        <v>1124.445664224088</v>
       </c>
       <c r="N188">
         <v>61</v>
       </c>
       <c r="P188">
-        <v>2693.743417478385</v>
+        <v>269.3743417478385</v>
       </c>
       <c r="U188">
         <v>178</v>
@@ -5058,31 +5058,31 @@
         <v>41667</v>
       </c>
       <c r="G189">
-        <v>26037.90727909404</v>
+        <v>2603.790727909404</v>
       </c>
       <c r="H189">
-        <v>2503.331756189457</v>
+        <v>250.3331756189457</v>
       </c>
       <c r="K189">
-        <v>9065.353325550634</v>
+        <v>906.5353325550634</v>
       </c>
       <c r="M189">
         <v>545.9125265161234</v>
       </c>
       <c r="O189">
-        <v>11389.77</v>
+        <v>1138.977</v>
       </c>
       <c r="P189">
-        <v>14469.22219735396</v>
+        <v>1446.922219735396</v>
       </c>
       <c r="Q189">
-        <v>3079.452197353953</v>
+        <v>307.9452197353953</v>
       </c>
       <c r="R189">
         <v>30589.62552914513</v>
       </c>
       <c r="S189">
-        <v>37.21036</v>
+        <v>0.03721036</v>
       </c>
       <c r="U189">
         <v>178</v>
@@ -5524,25 +5524,25 @@
         <v>41600</v>
       </c>
       <c r="G209">
-        <v>20022.5</v>
+        <v>2002.25</v>
       </c>
       <c r="H209">
-        <v>4979.105339551962</v>
+        <v>497.9105339551962</v>
       </c>
       <c r="I209">
-        <v>3195.622897037124</v>
+        <v>319.5622897037124</v>
       </c>
       <c r="J209">
-        <v>1783.482442514839</v>
+        <v>178.3482442514839</v>
       </c>
       <c r="K209">
-        <v>12055.91867688938</v>
+        <v>1205.591867688938</v>
       </c>
       <c r="N209">
         <v>61</v>
       </c>
       <c r="P209">
-        <v>2987.475983558656</v>
+        <v>298.7475983558656</v>
       </c>
       <c r="U209">
         <v>178</v>
@@ -5636,31 +5636,31 @@
         <v>41667</v>
       </c>
       <c r="G214">
-        <v>26849.02319823807</v>
+        <v>2684.902319823807</v>
       </c>
       <c r="H214">
-        <v>2657.037668348352</v>
+        <v>265.7037668348352</v>
       </c>
       <c r="K214">
-        <v>9560.525387197637</v>
+        <v>956.0525387197637</v>
       </c>
       <c r="M214">
         <v>629.190967475772</v>
       </c>
       <c r="O214">
-        <v>11431.8885</v>
+        <v>1143.18885</v>
       </c>
       <c r="P214">
-        <v>14631.46014269208</v>
+        <v>1463.146014269208</v>
       </c>
       <c r="Q214">
-        <v>3199.571642692083</v>
+        <v>319.9571642692082</v>
       </c>
       <c r="R214">
         <v>30849.89356684115</v>
       </c>
       <c r="S214">
-        <v>37.07553</v>
+        <v>0.03707553</v>
       </c>
       <c r="U214">
         <v>178</v>
@@ -5817,25 +5817,25 @@
         <v>41600</v>
       </c>
       <c r="G222">
-        <v>19318.16666666667</v>
+        <v>1931.816666666667</v>
       </c>
       <c r="H222">
-        <v>4421.20457965779</v>
+        <v>442.1204579657789</v>
       </c>
       <c r="I222">
-        <v>3053.191942683225</v>
+        <v>305.3191942683225</v>
       </c>
       <c r="J222">
-        <v>1368.012636974565</v>
+        <v>136.8012636974565</v>
       </c>
       <c r="K222">
-        <v>11925.07785239904</v>
+        <v>1192.507785239904</v>
       </c>
       <c r="N222">
         <v>61</v>
       </c>
       <c r="P222">
-        <v>2971.884234609835</v>
+        <v>297.1884234609835</v>
       </c>
       <c r="U222">
         <v>178</v>
@@ -5855,31 +5855,31 @@
         <v>41667</v>
       </c>
       <c r="G223">
-        <v>27515.79279285515</v>
+        <v>2751.579279285515</v>
       </c>
       <c r="H223">
-        <v>2542.883085288903</v>
+        <v>254.2883085288903</v>
       </c>
       <c r="K223">
-        <v>9889.337642336212</v>
+        <v>988.9337642336211</v>
       </c>
       <c r="M223">
         <v>625.5352215175199</v>
       </c>
       <c r="O223">
-        <v>11582.67625</v>
+        <v>1158.267625</v>
       </c>
       <c r="P223">
-        <v>15083.57206523003</v>
+        <v>1508.357206523003</v>
       </c>
       <c r="Q223">
-        <v>3500.895815230033</v>
+        <v>350.0895815230033</v>
       </c>
       <c r="R223">
         <v>31298.39839668478</v>
       </c>
       <c r="S223">
-        <v>37.01871749999999</v>
+        <v>0.03701871749999999</v>
       </c>
       <c r="U223">
         <v>178</v>
@@ -6288,25 +6288,25 @@
         <v>41600</v>
       </c>
       <c r="G243">
-        <v>20489.33333333334</v>
+        <v>2048.933333333333</v>
       </c>
       <c r="H243">
-        <v>5121.831467197823</v>
+        <v>512.1831467197824</v>
       </c>
       <c r="I243">
-        <v>3375.186207871187</v>
+        <v>337.5186207871187</v>
       </c>
       <c r="J243">
-        <v>1746.645259326636</v>
+        <v>174.6645259326636</v>
       </c>
       <c r="K243">
-        <v>12120.76621558574</v>
+        <v>1212.076621558574</v>
       </c>
       <c r="N243">
         <v>61</v>
       </c>
       <c r="P243">
-        <v>3246.735650549771</v>
+        <v>324.6735650549771</v>
       </c>
       <c r="U243">
         <v>178</v>
@@ -6412,31 +6412,31 @@
         <v>41667</v>
       </c>
       <c r="G248">
-        <v>27933.18277850189</v>
+        <v>2793.31827785019</v>
       </c>
       <c r="H248">
-        <v>2721.38273988427</v>
+        <v>272.138273988427</v>
       </c>
       <c r="K248">
-        <v>9909.740325317485</v>
+        <v>990.9740325317485</v>
       </c>
       <c r="M248">
         <v>668.1378638770783</v>
       </c>
       <c r="O248">
-        <v>11943.12666666667</v>
+        <v>1194.312666666667</v>
       </c>
       <c r="P248">
-        <v>15302.05971330014</v>
+        <v>1530.205971330014</v>
       </c>
       <c r="Q248">
-        <v>3358.933046633471</v>
+        <v>335.8933046633471</v>
       </c>
       <c r="R248">
         <v>33018.15774030695</v>
       </c>
       <c r="S248">
-        <v>36.19674</v>
+        <v>0.03619674</v>
       </c>
       <c r="U248">
         <v>178</v>
@@ -6911,25 +6911,25 @@
         <v>41600</v>
       </c>
       <c r="G268">
-        <v>18859.5</v>
+        <v>1885.95</v>
       </c>
       <c r="H268">
-        <v>4079.541815913123</v>
+        <v>407.9541815913123</v>
       </c>
       <c r="I268">
-        <v>3141.987274943643</v>
+        <v>314.1987274943643</v>
       </c>
       <c r="J268">
-        <v>937.5545409694801</v>
+        <v>93.755454096948</v>
       </c>
       <c r="K268">
-        <v>11941.24010778878</v>
+        <v>1194.124010778878</v>
       </c>
       <c r="N268">
         <v>61</v>
       </c>
       <c r="P268">
-        <v>2838.718076298098</v>
+        <v>283.8718076298098</v>
       </c>
       <c r="U268">
         <v>178</v>
@@ -7035,31 +7035,31 @@
         <v>41667</v>
       </c>
       <c r="G273">
-        <v>28281.04346001571</v>
+        <v>2828.104346001571</v>
       </c>
       <c r="H273">
-        <v>2664.296112936768</v>
+        <v>266.4296112936768</v>
       </c>
       <c r="K273">
-        <v>9957.596432754033</v>
+        <v>995.7596432754033</v>
       </c>
       <c r="M273">
         <v>507.774921957335</v>
       </c>
       <c r="O273">
-        <v>12080.67875</v>
+        <v>1208.067875</v>
       </c>
       <c r="P273">
-        <v>15659.15091432491</v>
+        <v>1565.915091432491</v>
       </c>
       <c r="Q273">
-        <v>3578.472164324912</v>
+        <v>357.8472164324912</v>
       </c>
       <c r="R273">
         <v>32691.69924000467</v>
       </c>
       <c r="S273">
-        <v>36.8363925</v>
+        <v>0.0368363925</v>
       </c>
       <c r="U273">
         <v>178</v>
@@ -7397,16 +7397,16 @@
         <v>41870</v>
       </c>
       <c r="G286">
-        <v>5899.090909090908</v>
+        <v>589.9090909090908</v>
       </c>
       <c r="I286">
-        <v>2389.67303497319</v>
+        <v>238.967303497319</v>
       </c>
       <c r="J286">
-        <v>1952.641162855878</v>
+        <v>195.2641162855878</v>
       </c>
       <c r="K286">
-        <v>1556.776711261841</v>
+        <v>155.6776711261841</v>
       </c>
       <c r="L286">
         <v>3.59601488820192</v>
@@ -7588,16 +7588,16 @@
         <v>41964</v>
       </c>
       <c r="G293">
-        <v>23919.68530699639</v>
+        <v>2391.968530699639</v>
       </c>
       <c r="I293">
-        <v>3531.478593317242</v>
+        <v>353.1478593317242</v>
       </c>
       <c r="J293">
-        <v>2047.917303778132</v>
+        <v>204.7917303778132</v>
       </c>
       <c r="K293">
-        <v>15280.3189851555</v>
+        <v>1528.03189851555</v>
       </c>
       <c r="L293">
         <v>4.385455489515548</v>
@@ -7606,7 +7606,7 @@
         <v>65</v>
       </c>
       <c r="P293">
-        <v>3059.970424745515</v>
+        <v>305.9970424745515</v>
       </c>
       <c r="T293">
         <v>0.8342378960196302</v>
@@ -7794,31 +7794,31 @@
         <v>42027</v>
       </c>
       <c r="G300">
-        <v>28378.68849124987</v>
+        <v>2837.868849124987</v>
       </c>
       <c r="H300">
-        <v>2885.3645279349</v>
+        <v>288.53645279349</v>
       </c>
       <c r="K300">
-        <v>10297.95921564261</v>
+        <v>1029.795921564261</v>
       </c>
       <c r="M300">
         <v>585.7928744767264</v>
       </c>
       <c r="O300">
-        <v>12181.91015</v>
+        <v>1218.191015</v>
       </c>
       <c r="P300">
-        <v>15195.36474767236</v>
+        <v>1519.536474767236</v>
       </c>
       <c r="Q300">
-        <v>3013.454597672364</v>
+        <v>301.3454597672364</v>
       </c>
       <c r="R300">
         <v>28532.83749282324</v>
       </c>
       <c r="S300">
-        <v>42.7056775</v>
+        <v>0.0427056775</v>
       </c>
       <c r="U300">
         <v>185</v>
@@ -8156,16 +8156,16 @@
         <v>41870</v>
       </c>
       <c r="G313">
-        <v>4550.30303030303</v>
+        <v>455.030303030303</v>
       </c>
       <c r="I313">
-        <v>2145.085699124066</v>
+        <v>214.5085699124066</v>
       </c>
       <c r="J313">
-        <v>1055.145848587264</v>
+        <v>105.5145848587264</v>
       </c>
       <c r="K313">
-        <v>1350.0714825917</v>
+        <v>135.00714825917</v>
       </c>
       <c r="L313">
         <v>2.873896386623501</v>
@@ -8347,16 +8347,16 @@
         <v>41964</v>
       </c>
       <c r="G320">
-        <v>21572.1906512709</v>
+        <v>2157.219065127089</v>
       </c>
       <c r="I320">
-        <v>3327.98145320531</v>
+        <v>332.798145320531</v>
       </c>
       <c r="J320">
-        <v>1591.933558523076</v>
+        <v>159.1933558523076</v>
       </c>
       <c r="K320">
-        <v>13872.8958406302</v>
+        <v>1387.28958406302</v>
       </c>
       <c r="L320">
         <v>3.923473826296173</v>
@@ -8365,7 +8365,7 @@
         <v>65</v>
       </c>
       <c r="P320">
-        <v>2779.379798912308</v>
+        <v>277.9379798912308</v>
       </c>
       <c r="T320">
         <v>0.8300857691087351</v>
@@ -8553,31 +8553,31 @@
         <v>42027</v>
       </c>
       <c r="G327">
-        <v>28986.0999748734</v>
+        <v>2898.60999748734</v>
       </c>
       <c r="H327">
-        <v>2926.645592894454</v>
+        <v>292.6645592894454</v>
       </c>
       <c r="K327">
-        <v>10128.75679432147</v>
+        <v>1012.875679432147</v>
       </c>
       <c r="M327">
         <v>527.1678060276809</v>
       </c>
       <c r="O327">
-        <v>12754.2748</v>
+        <v>1275.42748</v>
       </c>
       <c r="P327">
-        <v>15930.69758765748</v>
+        <v>1593.069758765748</v>
       </c>
       <c r="Q327">
-        <v>3176.422787657475</v>
+        <v>317.6422787657475</v>
       </c>
       <c r="R327">
         <v>28133.83890305775</v>
       </c>
       <c r="S327">
-        <v>45.173255</v>
+        <v>0.045173255</v>
       </c>
       <c r="U327">
         <v>185</v>
@@ -8932,16 +8932,16 @@
         <v>41844</v>
       </c>
       <c r="G341">
-        <v>5278.636363636363</v>
+        <v>527.8636363636363</v>
       </c>
       <c r="I341">
-        <v>1830.189968397439</v>
+        <v>183.0189968397439</v>
       </c>
       <c r="J341">
-        <v>1789.172125486168</v>
+        <v>178.9172125486168</v>
       </c>
       <c r="K341">
-        <v>1659.274269752755</v>
+        <v>165.9274269752755</v>
       </c>
       <c r="L341">
         <v>2.575383943949289</v>
@@ -9169,16 +9169,16 @@
         <v>41964</v>
       </c>
       <c r="G350">
-        <v>22618.66324691133</v>
+        <v>2261.866324691133</v>
       </c>
       <c r="I350">
-        <v>3162.115340392527</v>
+        <v>316.2115340392527</v>
       </c>
       <c r="J350">
-        <v>2012.503277946285</v>
+        <v>201.2503277946285</v>
       </c>
       <c r="K350">
-        <v>14541.35832602421</v>
+        <v>1454.135832602421</v>
       </c>
       <c r="L350">
         <v>3.624679771461999</v>
@@ -9187,7 +9187,7 @@
         <v>65</v>
       </c>
       <c r="P350">
-        <v>2902.686302548303</v>
+        <v>290.2686302548303</v>
       </c>
       <c r="T350">
         <v>0.8091862090225177</v>
@@ -9363,31 +9363,31 @@
         <v>42027</v>
       </c>
       <c r="G357">
-        <v>30212.141718526</v>
+        <v>3021.2141718526</v>
       </c>
       <c r="H357">
-        <v>3254.612939792964</v>
+        <v>325.4612939792964</v>
       </c>
       <c r="K357">
-        <v>11146.49690562212</v>
+        <v>1114.649690562212</v>
       </c>
       <c r="M357">
         <v>640.8028582747968</v>
       </c>
       <c r="O357">
-        <v>12280.93845</v>
+        <v>1228.093845</v>
       </c>
       <c r="P357">
-        <v>15811.03187311092</v>
+        <v>1581.103187311092</v>
       </c>
       <c r="Q357">
-        <v>3530.093423110921</v>
+        <v>353.0093423110922</v>
       </c>
       <c r="R357">
         <v>29651.43341312517</v>
       </c>
       <c r="S357">
-        <v>41.457765</v>
+        <v>0.041457765</v>
       </c>
       <c r="U357">
         <v>203</v>
@@ -9742,16 +9742,16 @@
         <v>41844</v>
       </c>
       <c r="G371">
-        <v>4227.878787878788</v>
+        <v>422.7878787878788</v>
       </c>
       <c r="I371">
-        <v>1774.585166726713</v>
+        <v>177.4585166726713</v>
       </c>
       <c r="J371">
-        <v>1071.242078772485</v>
+        <v>107.1242078772485</v>
       </c>
       <c r="K371">
-        <v>1382.05154237959</v>
+        <v>138.205154237959</v>
       </c>
       <c r="L371">
         <v>2.573947107022626</v>
@@ -9979,16 +9979,16 @@
         <v>41964</v>
       </c>
       <c r="G380">
-        <v>17628.77136835564</v>
+        <v>1762.877136835564</v>
       </c>
       <c r="I380">
-        <v>2558.731272300797</v>
+        <v>255.8731272300797</v>
       </c>
       <c r="J380">
-        <v>1327.944931826082</v>
+        <v>132.7944931826082</v>
       </c>
       <c r="K380">
-        <v>11424.15088768883</v>
+        <v>1142.415088768883</v>
       </c>
       <c r="L380">
         <v>2.879754809296734</v>
@@ -9997,7 +9997,7 @@
         <v>65</v>
       </c>
       <c r="P380">
-        <v>2317.944276539933</v>
+        <v>231.7944276539933</v>
       </c>
       <c r="T380">
         <v>0.7976702060181773</v>
@@ -10173,31 +10173,31 @@
         <v>42027</v>
       </c>
       <c r="G387">
-        <v>29583.92297838723</v>
+        <v>2958.392297838723</v>
       </c>
       <c r="H387">
-        <v>3360.864253107865</v>
+        <v>336.0864253107865</v>
       </c>
       <c r="K387">
-        <v>10389.95404360197</v>
+        <v>1038.995404360197</v>
       </c>
       <c r="M387">
         <v>587.6126627566146</v>
       </c>
       <c r="O387">
-        <v>12544.81605</v>
+        <v>1254.481605</v>
       </c>
       <c r="P387">
-        <v>15833.10468167739</v>
+        <v>1583.310468167739</v>
       </c>
       <c r="Q387">
-        <v>3288.288631677387</v>
+        <v>328.8288631677387</v>
       </c>
       <c r="R387">
         <v>27974.36535079828</v>
       </c>
       <c r="S387">
-        <v>44.8548675</v>
+        <v>0.0448548675</v>
       </c>
       <c r="U387">
         <v>203</v>
@@ -10502,16 +10502,16 @@
         <v>41912</v>
       </c>
       <c r="G400">
-        <v>4104.090909090908</v>
+        <v>410.4090909090908</v>
       </c>
       <c r="I400">
-        <v>1940.477613668842</v>
+        <v>194.0477613668841</v>
       </c>
       <c r="J400">
-        <v>317.7063493711116</v>
+        <v>31.77063493711116</v>
       </c>
       <c r="K400">
-        <v>1845.906946050955</v>
+        <v>184.5906946050955</v>
       </c>
       <c r="L400">
         <v>2.802732470235022</v>
@@ -10644,16 +10644,16 @@
         <v>41971</v>
       </c>
       <c r="G405">
-        <v>19445.91539877232</v>
+        <v>1944.591539877232</v>
       </c>
       <c r="I405">
-        <v>3802.751419930082</v>
+        <v>380.2751419930082</v>
       </c>
       <c r="J405">
-        <v>571.8173914717798</v>
+        <v>57.18173914717799</v>
       </c>
       <c r="K405">
-        <v>11733.57006833801</v>
+        <v>1173.357006833801</v>
       </c>
       <c r="L405">
         <v>6.589356568744293</v>
@@ -10662,7 +10662,7 @@
         <v>65</v>
       </c>
       <c r="P405">
-        <v>3337.776519032455</v>
+        <v>333.7776519032456</v>
       </c>
       <c r="T405">
         <v>0.8740534868415148</v>
@@ -10801,31 +10801,31 @@
         <v>42037</v>
       </c>
       <c r="G410">
-        <v>28328.48981389705</v>
+        <v>2832.848981389705</v>
       </c>
       <c r="H410">
-        <v>2509.509514041559</v>
+        <v>250.9509514041559</v>
       </c>
       <c r="K410">
-        <v>8838.292052625988</v>
+        <v>883.8292052625987</v>
       </c>
       <c r="M410">
         <v>597.7656202554912</v>
       </c>
       <c r="O410">
-        <v>13569.19775</v>
+        <v>1356.919775</v>
       </c>
       <c r="P410">
-        <v>16980.6882472295</v>
+        <v>1698.06882472295</v>
       </c>
       <c r="Q410">
-        <v>3411.490497229505</v>
+        <v>341.1490497229505</v>
       </c>
       <c r="R410">
         <v>33122.61621057721</v>
       </c>
       <c r="S410">
-        <v>41.032835</v>
+        <v>0.041032835</v>
       </c>
       <c r="U410">
         <v>151</v>
@@ -11130,16 +11130,16 @@
         <v>41912</v>
       </c>
       <c r="G423">
-        <v>2233.484848484848</v>
+        <v>223.3484848484848</v>
       </c>
       <c r="I423">
-        <v>1254.367041870761</v>
+        <v>125.4367041870761</v>
       </c>
       <c r="J423">
-        <v>55.19740124257426</v>
+        <v>5.519740124257426</v>
       </c>
       <c r="K423">
-        <v>923.9204053715127</v>
+        <v>92.39204053715127</v>
       </c>
       <c r="L423">
         <v>1.536605718439236</v>
@@ -11272,16 +11272,16 @@
         <v>41971</v>
       </c>
       <c r="G428">
-        <v>15154.60943040738</v>
+        <v>1515.460943040738</v>
       </c>
       <c r="I428">
-        <v>2905.757151421696</v>
+        <v>290.5757151421695</v>
       </c>
       <c r="J428">
-        <v>172.310214988899</v>
+        <v>17.23102149888989</v>
       </c>
       <c r="K428">
-        <v>9314.608170466474</v>
+        <v>931.4608170466474</v>
       </c>
       <c r="L428">
         <v>4.575043065775461</v>
@@ -11290,7 +11290,7 @@
         <v>65</v>
       </c>
       <c r="P428">
-        <v>2761.933893530309</v>
+        <v>276.1933893530309</v>
       </c>
       <c r="T428">
         <v>0.8694404011051825</v>
@@ -11429,31 +11429,31 @@
         <v>42037</v>
       </c>
       <c r="G433">
-        <v>26284.97178064712</v>
+        <v>2628.497178064712</v>
       </c>
       <c r="H433">
-        <v>1932.108317966561</v>
+        <v>193.2108317966561</v>
       </c>
       <c r="K433">
-        <v>8751.826247258232</v>
+        <v>875.1826247258232</v>
       </c>
       <c r="M433">
         <v>538.6132979492363</v>
       </c>
       <c r="O433">
-        <v>12320.482</v>
+        <v>1232.0482</v>
       </c>
       <c r="P433">
-        <v>15601.03721542233</v>
+        <v>1560.103721542233</v>
       </c>
       <c r="Q433">
-        <v>3280.555215422329</v>
+        <v>328.0555215422329</v>
       </c>
       <c r="R433">
         <v>30860.86689850235</v>
       </c>
       <c r="S433">
-        <v>39.9292925</v>
+        <v>0.0399292925</v>
       </c>
       <c r="U433">
         <v>151</v>
@@ -11779,16 +11779,16 @@
         <v>41891</v>
       </c>
       <c r="G446">
-        <v>6914.090909090908</v>
+        <v>691.4090909090908</v>
       </c>
       <c r="I446">
-        <v>3036.765240048332</v>
+        <v>303.6765240048332</v>
       </c>
       <c r="J446">
-        <v>826.2829240639246</v>
+        <v>82.62829240639246</v>
       </c>
       <c r="K446">
-        <v>3051.042744978653</v>
+        <v>305.1042744978653</v>
       </c>
       <c r="L446">
         <v>4.496022346515447</v>
@@ -11970,16 +11970,16 @@
         <v>41971</v>
       </c>
       <c r="G453">
-        <v>22949.42119196793</v>
+        <v>2294.942119196793</v>
       </c>
       <c r="I453">
-        <v>3548.419801127504</v>
+        <v>354.8419801127504</v>
       </c>
       <c r="J453">
-        <v>925.8855093902264</v>
+        <v>92.58855093902264</v>
       </c>
       <c r="K453">
-        <v>14405.16747221368</v>
+        <v>1440.516747221368</v>
       </c>
       <c r="L453">
         <v>6.105010110004747</v>
@@ -11988,7 +11988,7 @@
         <v>70</v>
       </c>
       <c r="P453">
-        <v>4069.94840923652</v>
+        <v>406.994840923652</v>
       </c>
       <c r="T453">
         <v>0.8224960487856573</v>
@@ -12127,31 +12127,31 @@
         <v>42027</v>
       </c>
       <c r="G458">
-        <v>30360.84598914262</v>
+        <v>3036.084598914262</v>
       </c>
       <c r="H458">
-        <v>3382.891627799886</v>
+        <v>338.2891627799885</v>
       </c>
       <c r="K458">
-        <v>9579.626073834239</v>
+        <v>957.9626073834239</v>
       </c>
       <c r="M458">
         <v>658.8929240993933</v>
       </c>
       <c r="O458">
-        <v>13918.8414</v>
+        <v>1391.88414</v>
       </c>
       <c r="P458">
-        <v>17398.3282875085</v>
+        <v>1739.83282875085</v>
       </c>
       <c r="Q458">
-        <v>3479.486887508498</v>
+        <v>347.9486887508498</v>
       </c>
       <c r="R458">
         <v>32316.07449456217</v>
       </c>
       <c r="S458">
-        <v>43.086955</v>
+        <v>0.043086955</v>
       </c>
       <c r="U458">
         <v>169</v>
@@ -12477,16 +12477,16 @@
         <v>41891</v>
       </c>
       <c r="G471">
-        <v>5338.939393939394</v>
+        <v>533.8939393939394</v>
       </c>
       <c r="I471">
-        <v>2541.233572911538</v>
+        <v>254.1233572911538</v>
       </c>
       <c r="J471">
-        <v>307.8119839973951</v>
+        <v>30.78119839973951</v>
       </c>
       <c r="K471">
-        <v>2489.89383703046</v>
+        <v>248.989383703046</v>
       </c>
       <c r="L471">
         <v>3.432857620014629</v>
@@ -12668,16 +12668,16 @@
         <v>41971</v>
       </c>
       <c r="G478">
-        <v>22627.3326192745</v>
+        <v>2262.73326192745</v>
       </c>
       <c r="I478">
-        <v>3635.790975045762</v>
+        <v>363.5790975045762</v>
       </c>
       <c r="J478">
-        <v>545.8997926333321</v>
+        <v>54.58997926333321</v>
       </c>
       <c r="K478">
-        <v>14712.43922451585</v>
+        <v>1471.243922451585</v>
       </c>
       <c r="L478">
         <v>6.155736276329314</v>
@@ -12686,7 +12686,7 @@
         <v>70</v>
       </c>
       <c r="P478">
-        <v>3733.202627079565</v>
+        <v>373.3202627079565</v>
       </c>
       <c r="T478">
         <v>0.8235848822298067</v>
@@ -12825,31 +12825,31 @@
         <v>42027</v>
       </c>
       <c r="G483">
-        <v>27579.20918598324</v>
+        <v>2757.920918598324</v>
       </c>
       <c r="H483">
-        <v>2590.104042159358</v>
+        <v>259.0104042159358</v>
       </c>
       <c r="K483">
-        <v>8689.69504406269</v>
+        <v>868.9695044062689</v>
       </c>
       <c r="M483">
         <v>442.0936431328107</v>
       </c>
       <c r="O483">
-        <v>13012.3258</v>
+        <v>1301.23258</v>
       </c>
       <c r="P483">
-        <v>16299.41009976118</v>
+        <v>1629.941009976118</v>
       </c>
       <c r="Q483">
-        <v>3287.084299761184</v>
+        <v>328.7084299761183</v>
       </c>
       <c r="R483">
         <v>29382.13510289335</v>
       </c>
       <c r="S483">
-        <v>44.22964</v>
+        <v>0.04422964</v>
       </c>
       <c r="U483">
         <v>169</v>
@@ -13102,16 +13102,16 @@
         <v>42276</v>
       </c>
       <c r="G494">
-        <v>6479.545454545454</v>
+        <v>647.9545454545454</v>
       </c>
       <c r="I494">
-        <v>3237.216728192071</v>
+        <v>323.7216728192071</v>
       </c>
       <c r="J494">
-        <v>309.5607290858738</v>
+        <v>30.95607290858738</v>
       </c>
       <c r="K494">
-        <v>2932.767997267509</v>
+        <v>293.2767997267509</v>
       </c>
       <c r="L494">
         <v>5.813572859556325</v>
@@ -13264,16 +13264,16 @@
         <v>12.8</v>
       </c>
       <c r="G500">
-        <v>26708.21147356695</v>
+        <v>2670.821147356695</v>
       </c>
       <c r="I500">
-        <v>4876.35791749107</v>
+        <v>487.635791749107</v>
       </c>
       <c r="J500">
-        <v>824.3270568242496</v>
+        <v>82.43270568242495</v>
       </c>
       <c r="K500">
-        <v>15792.13905752246</v>
+        <v>1579.213905752246</v>
       </c>
       <c r="L500">
         <v>7.829561760408021</v>
@@ -13282,7 +13282,7 @@
         <v>70.2</v>
       </c>
       <c r="P500">
-        <v>5215.387441729169</v>
+        <v>521.5387441729169</v>
       </c>
       <c r="T500">
         <v>0.8226258028015127</v>
@@ -13351,31 +13351,31 @@
         <v>42411</v>
       </c>
       <c r="G503">
-        <v>33114.10619333982</v>
+        <v>3311.410619333982</v>
       </c>
       <c r="H503">
-        <v>2790.49174999283</v>
+        <v>279.049174999283</v>
       </c>
       <c r="K503">
-        <v>11865.94335009008</v>
+        <v>1186.594335009008</v>
       </c>
       <c r="M503">
         <v>815.9544808845973</v>
       </c>
       <c r="O503">
-        <v>15028.90716666667</v>
+        <v>1502.890716666667</v>
       </c>
       <c r="P503">
-        <v>18457.67109325691</v>
+        <v>1845.767109325691</v>
       </c>
       <c r="Q503">
-        <v>3428.763926590237</v>
+        <v>342.8763926590237</v>
       </c>
       <c r="R503">
         <v>35904.17836038226</v>
       </c>
       <c r="S503">
-        <v>41.833585</v>
+        <v>0.041833585</v>
       </c>
       <c r="U503">
         <v>174</v>
@@ -13672,16 +13672,16 @@
         <v>10.88888888888889</v>
       </c>
       <c r="G515">
-        <v>5663.333333333332</v>
+        <v>566.3333333333333</v>
       </c>
       <c r="I515">
-        <v>2600.742574258816</v>
+        <v>260.0742574258816</v>
       </c>
       <c r="J515">
-        <v>1031.42663543884</v>
+        <v>103.142663543884</v>
       </c>
       <c r="K515">
-        <v>2031.164123635677</v>
+        <v>203.1164123635677</v>
       </c>
       <c r="L515">
         <v>3.530308749471185</v>
@@ -13848,16 +13848,16 @@
         <v>42339</v>
       </c>
       <c r="G522">
-        <v>21400.75602598325</v>
+        <v>2140.075602598326</v>
       </c>
       <c r="I522">
-        <v>3202.15086705453</v>
+        <v>320.215086705453</v>
       </c>
       <c r="J522">
-        <v>1171.58600529455</v>
+        <v>117.158600529455</v>
       </c>
       <c r="K522">
-        <v>13502.29001373405</v>
+        <v>1350.229001373405</v>
       </c>
       <c r="L522">
         <v>5.367600995755375</v>
@@ -13866,7 +13866,7 @@
         <v>67</v>
       </c>
       <c r="P522">
-        <v>3524.729139900121</v>
+        <v>352.472913990012</v>
       </c>
       <c r="T522">
         <v>0.8116430790748934</v>
@@ -13961,31 +13961,31 @@
         <v>42404</v>
       </c>
       <c r="G526">
-        <v>32159.74082724442</v>
+        <v>3215.974082724442</v>
       </c>
       <c r="H526">
-        <v>1817.036279171403</v>
+        <v>181.7036279171403</v>
       </c>
       <c r="K526">
-        <v>12437.47614872039</v>
+        <v>1243.747614872039</v>
       </c>
       <c r="M526">
         <v>764.8507306756017</v>
       </c>
       <c r="O526">
-        <v>14728.29991666667</v>
+        <v>1472.829991666667</v>
       </c>
       <c r="P526">
-        <v>17905.22839935263</v>
+        <v>1790.522839935263</v>
       </c>
       <c r="Q526">
-        <v>3176.928482685965</v>
+        <v>317.6928482685965</v>
       </c>
       <c r="R526">
         <v>36136.08404898574</v>
       </c>
       <c r="S526">
-        <v>40.7707525</v>
+        <v>0.0407707525</v>
       </c>
       <c r="U526">
         <v>198</v>
@@ -14276,16 +14276,16 @@
         <v>42215</v>
       </c>
       <c r="G538">
-        <v>5424.393939393938</v>
+        <v>542.4393939393938</v>
       </c>
       <c r="I538">
-        <v>2184.572936102196</v>
+        <v>218.4572936102196</v>
       </c>
       <c r="J538">
-        <v>1793.711032282385</v>
+        <v>179.3711032282385</v>
       </c>
       <c r="K538">
-        <v>1446.109971009358</v>
+        <v>144.6109971009358</v>
       </c>
       <c r="L538">
         <v>3.35670930403113</v>
@@ -14484,16 +14484,16 @@
         <v>42332</v>
       </c>
       <c r="G546">
-        <v>22052.59039443708</v>
+        <v>2205.259039443707</v>
       </c>
       <c r="I546">
-        <v>3327.73098713229</v>
+        <v>332.7730987132289</v>
       </c>
       <c r="J546">
-        <v>1189.437565237474</v>
+        <v>118.9437565237474</v>
       </c>
       <c r="K546">
-        <v>14236.38048899546</v>
+        <v>1423.638048899546</v>
       </c>
       <c r="L546">
         <v>4.434230703545277</v>
@@ -14502,7 +14502,7 @@
         <v>67</v>
       </c>
       <c r="P546">
-        <v>3299.041353071859</v>
+        <v>329.9041353071859</v>
       </c>
       <c r="T546">
         <v>0.802855551426001</v>
@@ -14617,31 +14617,31 @@
         <v>42404</v>
       </c>
       <c r="G551">
-        <v>30193.06735512329</v>
+        <v>3019.306735512329</v>
       </c>
       <c r="H551">
-        <v>1478.915218311318</v>
+        <v>147.8915218311318</v>
       </c>
       <c r="K551">
-        <v>11576.33359613047</v>
+        <v>1157.633359613047</v>
       </c>
       <c r="M551">
         <v>588.0413214081555</v>
       </c>
       <c r="O551">
-        <v>13866.02483333333</v>
+        <v>1386.602483333334</v>
       </c>
       <c r="P551">
-        <v>17137.8185406815</v>
+        <v>1713.78185406815</v>
       </c>
       <c r="Q551">
-        <v>3271.793707348171</v>
+        <v>327.1793707348171</v>
       </c>
       <c r="R551">
         <v>33625.58143242005</v>
       </c>
       <c r="S551">
-        <v>41.2714975</v>
+        <v>0.0412714975</v>
       </c>
       <c r="U551">
         <v>203</v>
@@ -14932,16 +14932,16 @@
         <v>42268</v>
       </c>
       <c r="G563">
-        <v>6858.030303030301</v>
+        <v>685.8030303030301</v>
       </c>
       <c r="I563">
-        <v>3114.304730888036</v>
+        <v>311.4304730888036</v>
       </c>
       <c r="J563">
-        <v>635.598377436328</v>
+        <v>63.5598377436328</v>
       </c>
       <c r="K563">
-        <v>3108.127194705937</v>
+        <v>310.8127194705937</v>
       </c>
       <c r="L563">
         <v>5.003057559129311</v>
@@ -15088,16 +15088,16 @@
         <v>42339</v>
       </c>
       <c r="G569">
-        <v>26256.73533549979</v>
+        <v>2625.673533549979</v>
       </c>
       <c r="I569">
-        <v>4267.640389347498</v>
+        <v>426.7640389347498</v>
       </c>
       <c r="J569">
-        <v>1519.291558561905</v>
+        <v>151.9291558561905</v>
       </c>
       <c r="K569">
-        <v>16206.53296565727</v>
+        <v>1620.653296565727</v>
       </c>
       <c r="L569">
         <v>7.373078261821733</v>
@@ -15106,7 +15106,7 @@
         <v>67</v>
       </c>
       <c r="P569">
-        <v>4263.270421933118</v>
+        <v>426.3270421933118</v>
       </c>
       <c r="T569">
         <v>0.8231587655255181</v>
@@ -15201,31 +15201,31 @@
         <v>42404</v>
       </c>
       <c r="G573">
-        <v>31428.42934904838</v>
+        <v>3142.842934904838</v>
       </c>
       <c r="H573">
-        <v>1942.35857578689</v>
+        <v>194.235857578689</v>
       </c>
       <c r="K573">
-        <v>11991.90878309134</v>
+        <v>1199.190878309134</v>
       </c>
       <c r="M573">
         <v>709.3103227981819</v>
       </c>
       <c r="O573">
-        <v>14166.6835</v>
+        <v>1416.66835</v>
       </c>
       <c r="P573">
-        <v>17494.16199017015</v>
+        <v>1749.416199017015</v>
       </c>
       <c r="Q573">
-        <v>3327.478490170152</v>
+        <v>332.7478490170152</v>
       </c>
       <c r="R573">
         <v>34015.05427540706</v>
       </c>
       <c r="S573">
-        <v>41.66487499999999</v>
+        <v>0.041664875</v>
       </c>
       <c r="U573">
         <v>188</v>
@@ -15567,16 +15567,16 @@
         <v>42626</v>
       </c>
       <c r="G588">
-        <v>8444.545454545452</v>
+        <v>844.4545454545453</v>
       </c>
       <c r="I588">
-        <v>3921.665193435332</v>
+        <v>392.1665193435332</v>
       </c>
       <c r="J588">
-        <v>1472.049962280208</v>
+        <v>147.2049962280208</v>
       </c>
       <c r="K588">
-        <v>3050.830298829914</v>
+        <v>305.0830298829914</v>
       </c>
       <c r="L588">
         <v>6.163791471829363</v>
@@ -15720,16 +15720,16 @@
         <v>42702</v>
       </c>
       <c r="G594">
-        <v>20937.73375580987</v>
+        <v>2093.773375580987</v>
       </c>
       <c r="I594">
-        <v>2666.410768172578</v>
+        <v>266.6410768172578</v>
       </c>
       <c r="J594">
-        <v>1619.802600106183</v>
+        <v>161.9802600106183</v>
       </c>
       <c r="K594">
-        <v>13188.23870002083</v>
+        <v>1318.823870002083</v>
       </c>
       <c r="L594">
         <v>3.718604940445057</v>
@@ -15738,7 +15738,7 @@
         <v>70.2</v>
       </c>
       <c r="P594">
-        <v>3463.281687510274</v>
+        <v>346.3281687510274</v>
       </c>
       <c r="U594">
         <v>190</v>
@@ -15873,31 +15873,31 @@
         <v>42776</v>
       </c>
       <c r="G600">
-        <v>23543.80997413042</v>
+        <v>2354.380997413042</v>
       </c>
       <c r="H600">
-        <v>1840.392527333479</v>
+        <v>184.0392527333479</v>
       </c>
       <c r="K600">
-        <v>9397.70570270063</v>
+        <v>939.770570270063</v>
       </c>
       <c r="M600">
         <v>598.2594668464424</v>
       </c>
       <c r="O600">
-        <v>9446.364333333335</v>
+        <v>944.6364333333335</v>
       </c>
       <c r="P600">
-        <v>12305.71174409631</v>
+        <v>1230.571174409631</v>
       </c>
       <c r="Q600">
-        <v>2859.347410762975</v>
+        <v>285.9347410762974</v>
       </c>
       <c r="R600">
         <v>24912.91899277225</v>
       </c>
       <c r="S600">
-        <v>38.14485</v>
+        <v>0.03814485</v>
       </c>
       <c r="U600">
         <v>190</v>
@@ -16233,16 +16233,16 @@
         <v>42646</v>
       </c>
       <c r="G615">
-        <v>6894.696969696969</v>
+        <v>689.4696969696969</v>
       </c>
       <c r="I615">
-        <v>3605.546549542588</v>
+        <v>360.5546549542588</v>
       </c>
       <c r="J615">
-        <v>232.8248185927892</v>
+        <v>23.28248185927892</v>
       </c>
       <c r="K615">
-        <v>3056.325601561593</v>
+        <v>305.6325601561592</v>
       </c>
       <c r="L615">
         <v>7.230314447774708</v>
@@ -16346,16 +16346,16 @@
         <v>13.78947368421053</v>
       </c>
       <c r="G619">
-        <v>23013.79368492567</v>
+        <v>2301.379368492567</v>
       </c>
       <c r="I619">
-        <v>3625.904303572834</v>
+        <v>362.5904303572834</v>
       </c>
       <c r="J619">
-        <v>1655.840251074625</v>
+        <v>165.5840251074625</v>
       </c>
       <c r="K619">
-        <v>13950.69645172299</v>
+        <v>1395.069645172299</v>
       </c>
       <c r="L619">
         <v>4.78839803124472</v>
@@ -16364,7 +16364,7 @@
         <v>70.2</v>
       </c>
       <c r="P619">
-        <v>3781.352678555229</v>
+        <v>378.1352678555228</v>
       </c>
       <c r="T619">
         <v>0.8162868739205772</v>
@@ -16476,31 +16476,31 @@
         <v>42776</v>
       </c>
       <c r="G624">
-        <v>29282.45638193763</v>
+        <v>2928.245638193763</v>
       </c>
       <c r="H624">
-        <v>2829.75370436034</v>
+        <v>282.975370436034</v>
       </c>
       <c r="K624">
-        <v>10250.01037526862</v>
+        <v>1025.001037526862</v>
       </c>
       <c r="M624">
         <v>690.3849600843155</v>
       </c>
       <c r="O624">
-        <v>12884.26566666667</v>
+        <v>1288.426566666667</v>
       </c>
       <c r="P624">
-        <v>16202.69230230866</v>
+        <v>1620.269230230866</v>
       </c>
       <c r="Q624">
-        <v>3318.426635641995</v>
+        <v>331.8426635641995</v>
       </c>
       <c r="R624">
         <v>31633.86906667264</v>
       </c>
       <c r="S624">
-        <v>40.7200275</v>
+        <v>0.0407200275</v>
       </c>
       <c r="U624">
         <v>162</v>
@@ -16796,16 +16796,16 @@
         <v>42579</v>
       </c>
       <c r="G637">
-        <v>5607.272727272727</v>
+        <v>560.7272727272727</v>
       </c>
       <c r="I637">
-        <v>2242.530349558918</v>
+        <v>224.2530349558918</v>
       </c>
       <c r="J637">
-        <v>1495.010204162851</v>
+        <v>149.5010204162851</v>
       </c>
       <c r="K637">
-        <v>1869.732173550959</v>
+        <v>186.9732173550959</v>
       </c>
       <c r="L637">
         <v>2.740387967801537</v>
@@ -17038,16 +17038,16 @@
         <v>42702</v>
       </c>
       <c r="G647">
-        <v>19078.7119673023</v>
+        <v>1907.87119673023</v>
       </c>
       <c r="I647">
-        <v>2523.180755182781</v>
+        <v>252.3180755182781</v>
       </c>
       <c r="J647">
-        <v>1154.226861711141</v>
+        <v>115.4226861711141</v>
       </c>
       <c r="K647">
-        <v>12163.79390916977</v>
+        <v>1216.379390916977</v>
       </c>
       <c r="L647">
         <v>3.33603282952915</v>
@@ -17056,7 +17056,7 @@
         <v>70.2</v>
       </c>
       <c r="P647">
-        <v>3237.510441238612</v>
+        <v>323.7510441238612</v>
       </c>
       <c r="U647">
         <v>203</v>
@@ -17191,31 +17191,31 @@
         <v>42776</v>
       </c>
       <c r="G653">
-        <v>24768.61613520806</v>
+        <v>2476.861613520806</v>
       </c>
       <c r="H653">
-        <v>1826.424348824323</v>
+        <v>182.6424348824323</v>
       </c>
       <c r="K653">
-        <v>9611.43017007022</v>
+        <v>961.143017007022</v>
       </c>
       <c r="M653">
         <v>601.8074958148527</v>
       </c>
       <c r="O653">
-        <v>10304.20791666667</v>
+        <v>1030.420791666667</v>
       </c>
       <c r="P653">
-        <v>13330.76161631352</v>
+        <v>1333.076161631352</v>
       </c>
       <c r="Q653">
-        <v>3026.553699646855</v>
+        <v>302.6553699646855</v>
       </c>
       <c r="R653">
         <v>27878.91152793655</v>
       </c>
       <c r="S653">
-        <v>36.807975</v>
+        <v>0.036807975</v>
       </c>
       <c r="U653">
         <v>203</v>
@@ -17531,16 +17531,16 @@
         <v>42626</v>
       </c>
       <c r="G667">
-        <v>6323.484848484848</v>
+        <v>632.3484848484848</v>
       </c>
       <c r="I667">
-        <v>3619.205692268665</v>
+        <v>361.9205692268665</v>
       </c>
       <c r="J667">
-        <v>92.43739851473664</v>
+        <v>9.243739851473665</v>
       </c>
       <c r="K667">
-        <v>2611.841757701446</v>
+        <v>261.1841757701446</v>
       </c>
       <c r="L667">
         <v>5.392639249284982</v>
@@ -17684,16 +17684,16 @@
         <v>42702</v>
       </c>
       <c r="G673">
-        <v>26656.98489414519</v>
+        <v>2665.698489414519</v>
       </c>
       <c r="I673">
-        <v>3903.375635229269</v>
+        <v>390.3375635229269</v>
       </c>
       <c r="J673">
-        <v>1968.9146295394</v>
+        <v>196.89146295394</v>
       </c>
       <c r="K673">
-        <v>16488.98827811888</v>
+        <v>1648.898827811888</v>
       </c>
       <c r="L673">
         <v>6.097600348723867</v>
@@ -17702,7 +17702,7 @@
         <v>70.2</v>
       </c>
       <c r="P673">
-        <v>4295.706351257634</v>
+        <v>429.5706351257634</v>
       </c>
       <c r="U673">
         <v>169</v>
@@ -17837,31 +17837,31 @@
         <v>42776</v>
       </c>
       <c r="G679">
-        <v>29224.67143154353</v>
+        <v>2922.467143154353</v>
       </c>
       <c r="H679">
-        <v>2586.120093138351</v>
+        <v>258.6120093138351</v>
       </c>
       <c r="K679">
-        <v>11422.26750015816</v>
+        <v>1142.226750015816</v>
       </c>
       <c r="M679">
         <v>783.4523547025212</v>
       </c>
       <c r="O679">
-        <v>12135.63466666667</v>
+        <v>1213.563466666667</v>
       </c>
       <c r="P679">
-        <v>15216.28383824701</v>
+        <v>1521.628383824701</v>
       </c>
       <c r="Q679">
-        <v>3080.649171580347</v>
+        <v>308.0649171580347</v>
       </c>
       <c r="R679">
         <v>30650.41657910058</v>
       </c>
       <c r="S679">
-        <v>39.5679725</v>
+        <v>0.03956797250000001</v>
       </c>
       <c r="U679">
         <v>169</v>
@@ -18141,19 +18141,19 @@
         <v>9.9</v>
       </c>
       <c r="G690">
-        <v>3810.136574662879</v>
+        <v>381.0136574662879</v>
       </c>
       <c r="H690">
-        <v>2727.650657356236</v>
+        <v>272.7650657356236</v>
       </c>
       <c r="I690">
-        <v>1605.249837828626</v>
+        <v>160.5249837828626</v>
       </c>
       <c r="J690">
-        <v>1122.400819527609</v>
+        <v>112.2400819527609</v>
       </c>
       <c r="K690">
-        <v>1082.485917306643</v>
+        <v>108.2485917306643</v>
       </c>
       <c r="L690">
         <v>1.157647351244135</v>
@@ -18298,19 +18298,19 @@
         <v>43059</v>
       </c>
       <c r="G695">
-        <v>18340.47486702773</v>
+        <v>1834.047486702773</v>
       </c>
       <c r="H695">
-        <v>4280.130258468276</v>
+        <v>428.0130258468276</v>
       </c>
       <c r="I695">
-        <v>2346.677812846026</v>
+        <v>234.6677812846025</v>
       </c>
       <c r="J695">
-        <v>1933.452445622251</v>
+        <v>193.3452445622251</v>
       </c>
       <c r="K695">
-        <v>11196.12384930807</v>
+        <v>1119.612384930807</v>
       </c>
       <c r="L695">
         <v>3.264475607771212</v>
@@ -18319,7 +18319,7 @@
         <v>68</v>
       </c>
       <c r="P695">
-        <v>2864.220759251379</v>
+        <v>286.4220759251378</v>
       </c>
       <c r="U695">
         <v>185</v>
@@ -18423,34 +18423,34 @@
         <v>43123</v>
       </c>
       <c r="G699">
-        <v>22278.12646359687</v>
+        <v>2227.812646359686</v>
       </c>
       <c r="H699">
-        <v>1412.438110550494</v>
+        <v>141.2438110550494</v>
       </c>
       <c r="J699">
-        <v>1412.438110550494</v>
+        <v>141.2438110550494</v>
       </c>
       <c r="K699">
-        <v>6599.856875788738</v>
+        <v>659.9856875788738</v>
       </c>
       <c r="M699">
         <v>466.4218821747641</v>
       </c>
       <c r="O699">
-        <v>10759.474</v>
+        <v>1075.9474</v>
       </c>
       <c r="P699">
-        <v>14265.83147725763</v>
+        <v>1426.583147725763</v>
       </c>
       <c r="Q699">
-        <v>2577.318551729117</v>
+        <v>257.7318551729117</v>
       </c>
       <c r="R699">
         <v>24417.59180488879</v>
       </c>
       <c r="S699">
-        <v>44.04996000000001</v>
+        <v>0.04404996000000001</v>
       </c>
       <c r="U699">
         <v>185</v>
@@ -18727,19 +18727,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G710">
-        <v>3310.651561431395</v>
+        <v>331.0651561431395</v>
       </c>
       <c r="H710">
-        <v>1941.765171087177</v>
+        <v>194.1765171087177</v>
       </c>
       <c r="I710">
-        <v>1768.436872156953</v>
+        <v>176.8436872156953</v>
       </c>
       <c r="J710">
-        <v>173.3282989302239</v>
+        <v>17.33282989302239</v>
       </c>
       <c r="K710">
-        <v>1368.886390344218</v>
+        <v>136.8886390344218</v>
       </c>
       <c r="L710">
         <v>2.215695698856287</v>
@@ -18826,19 +18826,19 @@
         <v>43067</v>
       </c>
       <c r="G713">
-        <v>16859.80915803542</v>
+        <v>1685.980915803542</v>
       </c>
       <c r="H713">
-        <v>3505.613222058344</v>
+        <v>350.5613222058344</v>
       </c>
       <c r="I713">
-        <v>2823.975239381838</v>
+        <v>282.3975239381838</v>
       </c>
       <c r="J713">
-        <v>681.6379826765055</v>
+        <v>68.16379826765055</v>
       </c>
       <c r="K713">
-        <v>10481.04100041744</v>
+        <v>1048.104100041744</v>
       </c>
       <c r="L713">
         <v>3.840813649580544</v>
@@ -18847,7 +18847,7 @@
         <v>64.375</v>
       </c>
       <c r="P713">
-        <v>2873.154935559629</v>
+        <v>287.3154935559629</v>
       </c>
       <c r="U713">
         <v>159</v>
@@ -18957,34 +18957,34 @@
         <v>13</v>
       </c>
       <c r="G717">
-        <v>24589.20150396688</v>
+        <v>2458.920150396688</v>
       </c>
       <c r="H717">
-        <v>1874.843304537066</v>
+        <v>187.4843304537066</v>
       </c>
       <c r="J717">
-        <v>1874.843304537066</v>
+        <v>187.4843304537066</v>
       </c>
       <c r="K717">
-        <v>7300.619347154407</v>
+        <v>730.0619347154408</v>
       </c>
       <c r="M717">
         <v>499.3664102958605</v>
       </c>
       <c r="O717">
-        <v>11893.75765</v>
+        <v>1189.375765</v>
       </c>
       <c r="P717">
-        <v>15413.73885227541</v>
+        <v>1541.373885227541</v>
       </c>
       <c r="Q717">
-        <v>2127.676876399943</v>
+        <v>212.7676876399943</v>
       </c>
       <c r="R717">
         <v>27975.95541306197</v>
       </c>
       <c r="S717">
-        <v>42.55141500000001</v>
+        <v>0.04255141500000001</v>
       </c>
       <c r="U717">
         <v>159</v>
@@ -19261,19 +19261,19 @@
         <v>9.35</v>
       </c>
       <c r="G728">
-        <v>3110.407774001278</v>
+        <v>311.0407774001278</v>
       </c>
       <c r="H728">
-        <v>1972.782158537069</v>
+        <v>197.2782158537069</v>
       </c>
       <c r="I728">
-        <v>1496.619371839609</v>
+        <v>149.6619371839609</v>
       </c>
       <c r="J728">
-        <v>476.1627866974608</v>
+        <v>47.61627866974608</v>
       </c>
       <c r="K728">
-        <v>1137.625615464208</v>
+        <v>113.7625615464208</v>
       </c>
       <c r="L728">
         <v>1.636017082014512</v>
@@ -19389,19 +19389,19 @@
         <v>43067</v>
       </c>
       <c r="G732">
-        <v>17583.38629920542</v>
+        <v>1758.338629920542</v>
       </c>
       <c r="H732">
-        <v>3684.608990532943</v>
+        <v>368.4608990532943</v>
       </c>
       <c r="I732">
-        <v>2353.926617471184</v>
+        <v>235.3926617471184</v>
       </c>
       <c r="J732">
-        <v>1330.68237306176</v>
+        <v>133.068237306176</v>
       </c>
       <c r="K732">
-        <v>10924.92180615165</v>
+        <v>1092.492180615165</v>
       </c>
       <c r="L732">
         <v>3.149716436882659</v>
@@ -19410,7 +19410,7 @@
         <v>66</v>
       </c>
       <c r="P732">
-        <v>2973.855502520827</v>
+        <v>297.3855502520827</v>
       </c>
       <c r="U732">
         <v>176</v>
@@ -19520,34 +19520,34 @@
         <v>14.6</v>
       </c>
       <c r="G736">
-        <v>24283.32816648994</v>
+        <v>2428.332816648995</v>
       </c>
       <c r="H736">
-        <v>1755.274374367586</v>
+        <v>175.5274374367586</v>
       </c>
       <c r="J736">
-        <v>1755.274374367586</v>
+        <v>175.5274374367586</v>
       </c>
       <c r="K736">
-        <v>7253.949887162224</v>
+        <v>725.3949887162223</v>
       </c>
       <c r="M736">
         <v>520.4898488949865</v>
       </c>
       <c r="O736">
-        <v>11672.3972</v>
+        <v>1167.23972</v>
       </c>
       <c r="P736">
-        <v>15274.10390496013</v>
+        <v>1527.410390496013</v>
       </c>
       <c r="Q736">
-        <v>2571.32583193004</v>
+        <v>257.1325831930041</v>
       </c>
       <c r="R736">
         <v>26972.84684904849</v>
       </c>
       <c r="S736">
-        <v>43.330915</v>
+        <v>0.043330915</v>
       </c>
       <c r="U736">
         <v>176</v>

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -566,9 +566,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
+      <selection activeCell="C624" sqref="C624"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Wheat.Leaf.ExpandedCohortNo</t>
-  </si>
-  <si>
-    <t>Wheat.Structure.FinalLeafNumber</t>
   </si>
   <si>
     <t>Wheat.AboveGround.Wt</t>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>HarvestRipe</t>
+  </si>
+  <si>
+    <t>Wheat.Phenology.FinalLeafNumber</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="C624" sqref="C624"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,63 +594,63 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
         <v>41380</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>41422</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>41456</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>41480</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>41512</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>41520</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>41548</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>41610</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>41667</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>2584.6752418452079</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>41380</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>41393</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>41409</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>41422</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>41431</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>41451</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>41456</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>41473</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>41480</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>41501</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>41512</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>41520</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>41535</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>41548</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>41562</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>41576</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>41597</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>41610</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
         <v>41617</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
         <v>41631</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
         <v>41646</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>41656</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
         <v>41660</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
         <v>41667</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34">
         <v>2504.2002985697291</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2">
         <v>41380</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2">
         <v>41422</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2">
         <v>41456</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2">
         <v>41480</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2">
         <v>41512</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
         <v>41520</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2">
         <v>41548</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2">
         <v>41610</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2">
         <v>41667</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43">
         <v>2487.5529363685941</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2">
         <v>41380</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2">
         <v>41393</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2">
         <v>41409</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2">
         <v>41422</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="2">
         <v>41431</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2">
         <v>41451</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2">
         <v>41456</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" s="2">
         <v>41473</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="2">
         <v>41480</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2">
         <v>41501</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2">
         <v>41512</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2">
         <v>41520</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2">
         <v>41535</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2">
         <v>41548</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2">
         <v>41562</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="2">
         <v>41576</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="2">
         <v>41597</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="2">
         <v>41610</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" s="2">
         <v>41617</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" s="2">
         <v>41631</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" s="2">
         <v>41646</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="2">
         <v>41656</v>
@@ -2125,13 +2125,13 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="2">
         <v>41667</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G66">
         <v>2692.6749147675118</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="2">
         <v>41380</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="2">
         <v>41393</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69" s="2">
         <v>41409</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70" s="2">
         <v>41422</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="2">
         <v>41431</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72" s="2">
         <v>41451</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" s="2">
         <v>41456</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" s="2">
         <v>41473</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75" s="2">
         <v>41480</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" s="2">
         <v>41501</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B77" s="2">
         <v>41512</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B78" s="2">
         <v>41520</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="2">
         <v>41535</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B80" s="2">
         <v>41548</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81" s="2">
         <v>41562</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B82" s="2">
         <v>41576</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83" s="2">
         <v>41597</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="2">
         <v>41610</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="2">
         <v>41617</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="2">
         <v>41631</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="2">
         <v>41646</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="2">
         <v>41656</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89" s="2">
         <v>41660</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B90" s="2">
         <v>41667</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G90">
         <v>2422.6624638590788</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91" s="2">
         <v>41325</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92" s="2">
         <v>41422</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93" s="2">
         <v>41456</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" s="2">
         <v>41480</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95" s="2">
         <v>41512</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96" s="2">
         <v>41520</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" s="2">
         <v>41548</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" s="2">
         <v>41592</v>
@@ -2944,13 +2944,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B99" s="2">
         <v>41667</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G99">
         <v>2335.5720763093418</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100" s="2">
         <v>41325</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101" s="2">
         <v>41380</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102" s="2">
         <v>41393</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" s="2">
         <v>41409</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B104" s="2">
         <v>41422</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B105" s="2">
         <v>41431</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B106" s="2">
         <v>41451</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B107" s="2">
         <v>41456</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B108" s="2">
         <v>41473</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B109" s="2">
         <v>41480</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" s="2">
         <v>41501</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B111" s="2">
         <v>41512</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B112" s="2">
         <v>41520</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="2">
         <v>41535</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" s="2">
         <v>41548</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" s="2">
         <v>41562</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" s="2">
         <v>41576</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B117" s="2">
         <v>41592</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" s="2">
         <v>41597</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119" s="2">
         <v>41617</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B120" s="2">
         <v>41631</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" s="2">
         <v>41646</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B122" s="2">
         <v>41656</v>
@@ -3508,13 +3508,13 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B123" s="2">
         <v>41667</v>
       </c>
       <c r="C123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G123">
         <v>2236.5439790303089</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B124" s="2">
         <v>41325</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125" s="2">
         <v>41422</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126" s="2">
         <v>41456</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B127" s="2">
         <v>41480</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" s="2">
         <v>41512</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B129" s="2">
         <v>41520</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130" s="2">
         <v>41548</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131" s="2">
         <v>41592</v>
@@ -3730,13 +3730,13 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132" s="2">
         <v>41667</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G132">
         <v>2290.6455012801321</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B133" s="2">
         <v>41325</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B134" s="2">
         <v>41380</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B135" s="2">
         <v>41393</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136" s="2">
         <v>41409</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" s="2">
         <v>41422</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138" s="2">
         <v>41431</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B139" s="2">
         <v>41451</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B140" s="2">
         <v>41456</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B141" s="2">
         <v>41473</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B142" s="2">
         <v>41480</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B143" s="2">
         <v>41501</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B144" s="2">
         <v>41512</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B145" s="2">
         <v>41520</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B146" s="2">
         <v>41535</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B147" s="2">
         <v>41548</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B148" s="2">
         <v>41562</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B149" s="2">
         <v>41576</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B150" s="2">
         <v>41592</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B151" s="2">
         <v>41597</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B152" s="2">
         <v>41617</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B153" s="2">
         <v>41631</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B154" s="2">
         <v>41646</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B155" s="2">
         <v>41656</v>
@@ -4273,13 +4273,13 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B156" s="2">
         <v>41667</v>
       </c>
       <c r="C156" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G156">
         <v>2375.1309075664558</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B157" s="2">
         <v>41325</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B158" s="2">
         <v>41380</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B159" s="2">
         <v>41393</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B160" s="2">
         <v>41409</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B161" s="2">
         <v>41422</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B162" s="2">
         <v>41431</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B163" s="2">
         <v>41451</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B164" s="2">
         <v>41456</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B165" s="2">
         <v>41473</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B166" s="2">
         <v>41480</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B167" s="2">
         <v>41501</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B168" s="2">
         <v>41512</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B169" s="2">
         <v>41520</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B170" s="2">
         <v>41535</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B171" s="2">
         <v>41548</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B172" s="2">
         <v>41562</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B173" s="2">
         <v>41576</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B174" s="2">
         <v>41592</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B175" s="2">
         <v>41597</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B176" s="2">
         <v>41617</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B177" s="2">
         <v>41631</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B178" s="2">
         <v>41646</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B179" s="2">
         <v>41656</v>
@@ -4882,13 +4882,13 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B180" s="2">
         <v>41667</v>
       </c>
       <c r="C180" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G180">
         <v>2266.0947553518008</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B181" s="2">
         <v>41359</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B182" s="2">
         <v>41422</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B183" s="2">
         <v>41456</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B184" s="2">
         <v>41480</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B185" s="2">
         <v>41512</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B186" s="2">
         <v>41520</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B187" s="2">
         <v>41548</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B188" s="2">
         <v>41600</v>
@@ -5104,13 +5104,13 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B189" s="2">
         <v>41667</v>
       </c>
       <c r="C189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G189">
         <v>2603.7907279094038</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B190" s="2">
         <v>41359</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B191" s="2">
         <v>41380</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B192" s="2">
         <v>41393</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B193" s="2">
         <v>41409</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B194" s="2">
         <v>41422</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B195" s="2">
         <v>41431</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B196" s="2">
         <v>41451</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B197" s="2">
         <v>41456</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B198" s="2">
         <v>41473</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B199" s="2">
         <v>41480</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B200" s="2">
         <v>41501</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B201" s="2">
         <v>41506</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B202" s="2">
         <v>41512</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B203" s="2">
         <v>41520</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B204" s="2">
         <v>41535</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B205" s="2">
         <v>41548</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B206" s="2">
         <v>41562</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B207" s="2">
         <v>41576</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B208" s="2">
         <v>41597</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B209" s="2">
         <v>41600</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B210" s="2">
         <v>41617</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B211" s="2">
         <v>41631</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B212" s="2">
         <v>41646</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B213" s="2">
         <v>41656</v>
@@ -5685,13 +5685,13 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B214" s="2">
         <v>41667</v>
       </c>
       <c r="C214" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G214">
         <v>2684.9023198238069</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B215" s="2">
         <v>41359</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B216" s="2">
         <v>41422</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B217" s="2">
         <v>41456</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B218" s="2">
         <v>41480</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B219" s="2">
         <v>41512</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B220" s="2">
         <v>41520</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B221" s="2">
         <v>41548</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B222" s="2">
         <v>41600</v>
@@ -5907,13 +5907,13 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B223" s="2">
         <v>41667</v>
       </c>
       <c r="C223" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G223">
         <v>2751.579279285515</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B224" s="2">
         <v>41359</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B225" s="2">
         <v>41380</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B226" s="2">
         <v>41393</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B227" s="2">
         <v>41409</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B228" s="2">
         <v>41422</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B229" s="2">
         <v>41431</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B230" s="2">
         <v>41451</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B231" s="2">
         <v>41456</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B232" s="2">
         <v>41473</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B233" s="2">
         <v>41480</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B234" s="2">
         <v>41501</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B235" s="2">
         <v>41506</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B236" s="2">
         <v>41512</v>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B237" s="2">
         <v>41520</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B238" s="2">
         <v>41535</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B239" s="2">
         <v>41548</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B240" s="2">
         <v>41562</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B241" s="2">
         <v>41576</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B242" s="2">
         <v>41597</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B243" s="2">
         <v>41600</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B244" s="2">
         <v>41617</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B245" s="2">
         <v>41631</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B246" s="2">
         <v>41646</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B247" s="2">
         <v>41656</v>
@@ -6467,13 +6467,13 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B248" s="2">
         <v>41667</v>
       </c>
       <c r="C248" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G248">
         <v>2793.31827785019</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B249" s="2">
         <v>41359</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B250" s="2">
         <v>41380</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B251" s="2">
         <v>41393</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B252" s="2">
         <v>41409</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B253" s="2">
         <v>41422</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B254" s="2">
         <v>41431</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B255" s="2">
         <v>41451</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B256" s="2">
         <v>41456</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B257" s="2">
         <v>41473</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B258" s="2">
         <v>41480</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B259" s="2">
         <v>41501</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B260" s="2">
         <v>41506</v>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B261" s="2">
         <v>41512</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B262" s="2">
         <v>41520</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B263" s="2">
         <v>41535</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B264" s="2">
         <v>41548</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B265" s="2">
         <v>41562</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B266" s="2">
         <v>41576</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B267" s="2">
         <v>41597</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B268" s="2">
         <v>41600</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B269" s="2">
         <v>41617</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B270" s="2">
         <v>41631</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B271" s="2">
         <v>41646</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B272" s="2">
         <v>41656</v>
@@ -7093,13 +7093,13 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B273" s="2">
         <v>41667</v>
       </c>
       <c r="C273" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G273">
         <v>2828.1043460015708</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B274" s="2">
         <v>41708</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B275" s="2">
         <v>41722</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B276" s="2">
         <v>41731</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B277" s="2">
         <v>41738</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B278" s="2">
         <v>41745</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B279" s="2">
         <v>41760</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B280" s="2">
         <v>41768</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B281" s="2">
         <v>41788</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B282" s="2">
         <v>41806</v>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B283" s="2">
         <v>41808</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B284" s="2">
         <v>41835</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B285" s="2">
         <v>41855</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B286" s="2">
         <v>41870</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B287" s="2">
         <v>41883</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B288" s="2">
         <v>41891</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B289" s="2">
         <v>41908</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B290" s="2">
         <v>41912</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B291" s="2">
         <v>41925</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B292" s="2">
         <v>41947</v>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B293" s="2">
         <v>41964</v>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B294" s="2">
         <v>41969</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B295" s="2">
         <v>41971</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B296" s="2">
         <v>41984</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B297" s="2">
         <v>41996</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B298" s="2">
         <v>42016</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B299" s="2">
         <v>42024</v>
@@ -7855,13 +7855,13 @@
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B300" s="2">
         <v>42027</v>
       </c>
       <c r="C300" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G300">
         <v>2837.8688491249868</v>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B301" s="2">
         <v>41708</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B302" s="2">
         <v>41722</v>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B303" s="2">
         <v>41731</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B304" s="2">
         <v>41738</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B305" s="2">
         <v>41745</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B306" s="2">
         <v>41760</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B307" s="2">
         <v>41768</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B308" s="2">
         <v>41788</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B309" s="2">
         <v>41806</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B310" s="2">
         <v>41808</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B311" s="2">
         <v>41835</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B312" s="2">
         <v>41855</v>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B313" s="2">
         <v>41870</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B314" s="2">
         <v>41883</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B315" s="2">
         <v>41891</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B316" s="2">
         <v>41908</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B317" s="2">
         <v>41912</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B318" s="2">
         <v>41925</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B319" s="2">
         <v>41947</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B320" s="2">
         <v>41964</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B321" s="2">
         <v>41969</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B322" s="2">
         <v>41971</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B323" s="2">
         <v>41984</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B324" s="2">
         <v>41996</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B325" s="2">
         <v>42016</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B326" s="2">
         <v>42024</v>
@@ -8617,13 +8617,13 @@
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B327" s="2">
         <v>42027</v>
       </c>
       <c r="C327" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G327">
         <v>2898.60999748734</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B328" s="2">
         <v>41690</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B329" s="2">
         <v>41709</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B330" s="2">
         <v>41710</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B331" s="2">
         <v>41722</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B332" s="2">
         <v>41731</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B333" s="2">
         <v>41738</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B334" s="2">
         <v>41745</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B335" s="2">
         <v>41760</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B336" s="2">
         <v>41768</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B337" s="2">
         <v>41788</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B338" s="2">
         <v>41806</v>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B339" s="2">
         <v>41808</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B340" s="2">
         <v>41835</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B341" s="2">
         <v>41844</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B342" s="2">
         <v>41855</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B343" s="2">
         <v>41870</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B344" s="2">
         <v>41883</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B345" s="2">
         <v>41891</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B346" s="2">
         <v>41908</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B347" s="2">
         <v>41912</v>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B348" s="2">
         <v>41925</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B349" s="2">
         <v>41947</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B350" s="2">
         <v>41964</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B351" s="2">
         <v>41969</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B352" s="2">
         <v>41971</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B353" s="2">
         <v>41984</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B354" s="2">
         <v>41996</v>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B355" s="2">
         <v>42016</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B356" s="2">
         <v>42024</v>
@@ -9430,13 +9430,13 @@
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B357" s="2">
         <v>42027</v>
       </c>
       <c r="C357" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G357">
         <v>3021.2141718526</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B358" s="2">
         <v>41690</v>
@@ -9494,7 +9494,7 @@
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B359" s="2">
         <v>41709</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B360" s="2">
         <v>41710</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B361" s="2">
         <v>41722</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B362" s="2">
         <v>41731</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B363" s="2">
         <v>41738</v>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B364" s="2">
         <v>41745</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B365" s="2">
         <v>41760</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B366" s="2">
         <v>41768</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B367" s="2">
         <v>41788</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B368" s="2">
         <v>41806</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B369" s="2">
         <v>41808</v>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B370" s="2">
         <v>41835</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B371" s="2">
         <v>41844</v>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B372" s="2">
         <v>41855</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B373" s="2">
         <v>41870</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B374" s="2">
         <v>41883</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B375" s="2">
         <v>41891</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B376" s="2">
         <v>41908</v>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B377" s="2">
         <v>41912</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B378" s="2">
         <v>41925</v>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B379" s="2">
         <v>41947</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B380" s="2">
         <v>41964</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B381" s="2">
         <v>41969</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B382" s="2">
         <v>41971</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B383" s="2">
         <v>41984</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B384" s="2">
         <v>41996</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B385" s="2">
         <v>42016</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B386" s="2">
         <v>42024</v>
@@ -10243,13 +10243,13 @@
     </row>
     <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B387" s="2">
         <v>42027</v>
       </c>
       <c r="C387" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G387">
         <v>2958.3922978387232</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B388" s="2">
         <v>41752</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B389" s="2">
         <v>41760</v>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B390" s="2">
         <v>41768</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B391" s="2">
         <v>41788</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B392" s="2">
         <v>41806</v>
@@ -10399,7 +10399,7 @@
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B393" s="2">
         <v>41808</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B394" s="2">
         <v>41835</v>
@@ -10448,7 +10448,7 @@
     </row>
     <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B395" s="2">
         <v>41855</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B396" s="2">
         <v>41870</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B397" s="2">
         <v>41883</v>
@@ -10526,7 +10526,7 @@
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B398" s="2">
         <v>41891</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B399" s="2">
         <v>41908</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B400" s="2">
         <v>41912</v>
@@ -10610,7 +10610,7 @@
     </row>
     <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B401" s="2">
         <v>41925</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B402" s="2">
         <v>41947</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B403" s="2">
         <v>41964</v>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B404" s="2">
         <v>41969</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B405" s="2">
         <v>41971</v>
@@ -10758,7 +10758,7 @@
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B406" s="2">
         <v>41984</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B407" s="2">
         <v>41996</v>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B408" s="2">
         <v>42016</v>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B409" s="2">
         <v>42024</v>
@@ -10874,13 +10874,13 @@
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B410" s="2">
         <v>42037</v>
       </c>
       <c r="C410" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G410">
         <v>2832.8489813897049</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B411" s="2">
         <v>41752</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B412" s="2">
         <v>41760</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B413" s="2">
         <v>41768</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B414" s="2">
         <v>41788</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B415" s="2">
         <v>41806</v>
@@ -11030,7 +11030,7 @@
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B416" s="2">
         <v>41808</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B417" s="2">
         <v>41835</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B418" s="2">
         <v>41855</v>
@@ -11108,7 +11108,7 @@
     </row>
     <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B419" s="2">
         <v>41870</v>
@@ -11128,7 +11128,7 @@
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B420" s="2">
         <v>41883</v>
@@ -11157,7 +11157,7 @@
     </row>
     <row r="421" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B421" s="2">
         <v>41891</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B422" s="2">
         <v>41908</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B423" s="2">
         <v>41912</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B424" s="2">
         <v>41925</v>
@@ -11270,7 +11270,7 @@
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B425" s="2">
         <v>41947</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B426" s="2">
         <v>41964</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B427" s="2">
         <v>41969</v>
@@ -11348,7 +11348,7 @@
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B428" s="2">
         <v>41971</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B429" s="2">
         <v>41984</v>
@@ -11418,7 +11418,7 @@
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B430" s="2">
         <v>41996</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B431" s="2">
         <v>42016</v>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B432" s="2">
         <v>42024</v>
@@ -11505,13 +11505,13 @@
     </row>
     <row r="433" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B433" s="2">
         <v>42037</v>
       </c>
       <c r="C433" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G433">
         <v>2628.497178064712</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="434" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B434" s="2">
         <v>41724</v>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="435" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B435" s="2">
         <v>41738</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="436" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B436" s="2">
         <v>41745</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="437" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B437" s="2">
         <v>41760</v>
@@ -11650,7 +11650,7 @@
     </row>
     <row r="438" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B438" s="2">
         <v>41768</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="439" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B439" s="2">
         <v>41788</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="440" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B440" s="2">
         <v>41806</v>
@@ -11731,7 +11731,7 @@
     </row>
     <row r="441" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B441" s="2">
         <v>41808</v>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="442" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B442" s="2">
         <v>41835</v>
@@ -11780,7 +11780,7 @@
     </row>
     <row r="443" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B443" s="2">
         <v>41855</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="444" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B444" s="2">
         <v>41870</v>
@@ -11829,7 +11829,7 @@
     </row>
     <row r="445" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B445" s="2">
         <v>41883</v>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="446" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B446" s="2">
         <v>41891</v>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="447" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B447" s="2">
         <v>41908</v>
@@ -11922,7 +11922,7 @@
     </row>
     <row r="448" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B448" s="2">
         <v>41912</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B449" s="2">
         <v>41925</v>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B450" s="2">
         <v>41947</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B451" s="2">
         <v>41964</v>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B452" s="2">
         <v>41969</v>
@@ -12049,7 +12049,7 @@
     </row>
     <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B453" s="2">
         <v>41971</v>
@@ -12090,7 +12090,7 @@
     </row>
     <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B454" s="2">
         <v>41984</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B455" s="2">
         <v>41996</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B456" s="2">
         <v>42016</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B457" s="2">
         <v>42024</v>
@@ -12206,13 +12206,13 @@
     </row>
     <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B458" s="2">
         <v>42027</v>
       </c>
       <c r="C458" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G458">
         <v>3036.0845989142622</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B459" s="2">
         <v>41724</v>
@@ -12270,7 +12270,7 @@
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B460" s="2">
         <v>41738</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B461" s="2">
         <v>41745</v>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B462" s="2">
         <v>41760</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B463" s="2">
         <v>41768</v>
@@ -12380,7 +12380,7 @@
     </row>
     <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B464" s="2">
         <v>41788</v>
@@ -12406,7 +12406,7 @@
     </row>
     <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B465" s="2">
         <v>41806</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="466" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B466" s="2">
         <v>41808</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="467" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B467" s="2">
         <v>41835</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B468" s="2">
         <v>41855</v>
@@ -12510,7 +12510,7 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B469" s="2">
         <v>41870</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B470" s="2">
         <v>41883</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B471" s="2">
         <v>41891</v>
@@ -12594,7 +12594,7 @@
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B472" s="2">
         <v>41908</v>
@@ -12623,7 +12623,7 @@
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B473" s="2">
         <v>41912</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B474" s="2">
         <v>41925</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B475" s="2">
         <v>41947</v>
@@ -12701,7 +12701,7 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B476" s="2">
         <v>41964</v>
@@ -12721,7 +12721,7 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B477" s="2">
         <v>41969</v>
@@ -12750,7 +12750,7 @@
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B478" s="2">
         <v>41971</v>
@@ -12791,7 +12791,7 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B479" s="2">
         <v>41984</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B480" s="2">
         <v>41996</v>
@@ -12849,7 +12849,7 @@
     </row>
     <row r="481" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B481" s="2">
         <v>42016</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="482" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B482" s="2">
         <v>42024</v>
@@ -12907,13 +12907,13 @@
     </row>
     <row r="483" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B483" s="2">
         <v>42027</v>
       </c>
       <c r="C483" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G483">
         <v>2757.9209185983241</v>
@@ -12954,7 +12954,7 @@
     </row>
     <row r="484" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B484" s="2">
         <v>42103</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="485" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B485" s="2">
         <v>42118</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B486" s="2">
         <v>42135</v>
@@ -13017,7 +13017,7 @@
     </row>
     <row r="487" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B487" s="2">
         <v>42151</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="488" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B488" s="2">
         <v>42172</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="489" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B489" s="2">
         <v>42202</v>
@@ -13095,7 +13095,7 @@
     </row>
     <row r="490" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B490" s="2">
         <v>42215</v>
@@ -13115,7 +13115,7 @@
     </row>
     <row r="491" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B491" s="2">
         <v>42235</v>
@@ -13141,7 +13141,7 @@
     </row>
     <row r="492" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B492" s="2">
         <v>42255</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B493" s="2">
         <v>42268</v>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B494" s="2">
         <v>42276</v>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B495" s="2">
         <v>42278</v>
@@ -13251,7 +13251,7 @@
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B496" s="2">
         <v>42298</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="497" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B497" s="2">
         <v>42320</v>
@@ -13303,7 +13303,7 @@
     </row>
     <row r="498" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B498" s="2">
         <v>42332</v>
@@ -13323,7 +13323,7 @@
     </row>
     <row r="499" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B499" s="2">
         <v>42339</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="500" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B500" s="2">
         <v>42346</v>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B501" s="2">
         <v>42374</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B502" s="2">
         <v>42394</v>
@@ -13436,13 +13436,13 @@
     </row>
     <row r="503" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B503" s="2">
         <v>42411</v>
       </c>
       <c r="C503" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G503">
         <v>3311.4106193339821</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="504" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B504" s="2">
         <v>42073</v>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="505" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B505" s="2">
         <v>42087</v>
@@ -13526,7 +13526,7 @@
     </row>
     <row r="506" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B506" s="2">
         <v>42096</v>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="507" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B507" s="2">
         <v>42102</v>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="508" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B508" s="2">
         <v>42118</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B509" s="2">
         <v>42135</v>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B510" s="2">
         <v>42151</v>
@@ -13656,7 +13656,7 @@
     </row>
     <row r="511" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B511" s="2">
         <v>42172</v>
@@ -13682,7 +13682,7 @@
     </row>
     <row r="512" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B512" s="2">
         <v>42202</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B513" s="2">
         <v>42215</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B514" s="2">
         <v>42235</v>
@@ -13754,7 +13754,7 @@
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B515" s="2">
         <v>42255</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="516" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B516" s="2">
         <v>42268</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B517" s="2">
         <v>42276</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="518" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B518" s="2">
         <v>42278</v>
@@ -13864,7 +13864,7 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B519" s="2">
         <v>42298</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B520" s="2">
         <v>42320</v>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B521" s="2">
         <v>42332</v>
@@ -13936,7 +13936,7 @@
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B522" s="2">
         <v>42339</v>
@@ -13977,7 +13977,7 @@
     </row>
     <row r="523" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B523" s="2">
         <v>42346</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B524" s="2">
         <v>42374</v>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B525" s="2">
         <v>42394</v>
@@ -14049,13 +14049,13 @@
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B526" s="2">
         <v>42404</v>
       </c>
       <c r="C526" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G526">
         <v>3215.9740827244418</v>
@@ -14096,7 +14096,7 @@
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B527" s="2">
         <v>42055</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B528" s="2">
         <v>42067</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B529" s="2">
         <v>42076</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B530" s="2">
         <v>42087</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B531" s="2">
         <v>42096</v>
@@ -14211,7 +14211,7 @@
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B532" s="2">
         <v>42102</v>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="533" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B533" s="2">
         <v>42118</v>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="534" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B534" s="2">
         <v>42135</v>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B535" s="2">
         <v>42151</v>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B536" s="2">
         <v>42172</v>
@@ -14341,7 +14341,7 @@
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B537" s="2">
         <v>42202</v>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B538" s="2">
         <v>42215</v>
@@ -14405,7 +14405,7 @@
     </row>
     <row r="539" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B539" s="2">
         <v>42235</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B540" s="2">
         <v>42255</v>
@@ -14457,7 +14457,7 @@
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B541" s="2">
         <v>42268</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="542" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B542" s="2">
         <v>42276</v>
@@ -14497,7 +14497,7 @@
     </row>
     <row r="543" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B543" s="2">
         <v>42278</v>
@@ -14523,7 +14523,7 @@
     </row>
     <row r="544" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B544" s="2">
         <v>42298</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="545" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B545" s="2">
         <v>42320</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="546" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B546" s="2">
         <v>42332</v>
@@ -14616,7 +14616,7 @@
     </row>
     <row r="547" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B547" s="2">
         <v>42339</v>
@@ -14636,7 +14636,7 @@
     </row>
     <row r="548" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B548" s="2">
         <v>42346</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="549" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B549" s="2">
         <v>42374</v>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="550" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B550" s="2">
         <v>42394</v>
@@ -14708,13 +14708,13 @@
     </row>
     <row r="551" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B551" s="2">
         <v>42404</v>
       </c>
       <c r="C551" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G551">
         <v>3019.3067355123289</v>
@@ -14755,7 +14755,7 @@
     </row>
     <row r="552" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B552" s="2">
         <v>42083</v>
@@ -14772,7 +14772,7 @@
     </row>
     <row r="553" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B553" s="2">
         <v>42096</v>
@@ -14798,7 +14798,7 @@
     </row>
     <row r="554" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B554" s="2">
         <v>42102</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="555" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B555" s="2">
         <v>42118</v>
@@ -14850,7 +14850,7 @@
     </row>
     <row r="556" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B556" s="2">
         <v>42135</v>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="557" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B557" s="2">
         <v>42151</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="558" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B558" s="2">
         <v>42172</v>
@@ -14928,7 +14928,7 @@
     </row>
     <row r="559" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B559" s="2">
         <v>42202</v>
@@ -14954,7 +14954,7 @@
     </row>
     <row r="560" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B560" s="2">
         <v>42215</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="561" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B561" s="2">
         <v>42235</v>
@@ -15000,7 +15000,7 @@
     </row>
     <row r="562" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B562" s="2">
         <v>42255</v>
@@ -15026,7 +15026,7 @@
     </row>
     <row r="563" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B563" s="2">
         <v>42268</v>
@@ -15064,7 +15064,7 @@
     </row>
     <row r="564" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B564" s="2">
         <v>42276</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="565" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B565" s="2">
         <v>42278</v>
@@ -15110,7 +15110,7 @@
     </row>
     <row r="566" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B566" s="2">
         <v>42298</v>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="567" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B567" s="2">
         <v>42320</v>
@@ -15162,7 +15162,7 @@
     </row>
     <row r="568" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B568" s="2">
         <v>42332</v>
@@ -15182,7 +15182,7 @@
     </row>
     <row r="569" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B569" s="2">
         <v>42339</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="570" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B570" s="2">
         <v>42346</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="571" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B571" s="2">
         <v>42374</v>
@@ -15272,7 +15272,7 @@
     </row>
     <row r="572" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B572" s="2">
         <v>42394</v>
@@ -15295,13 +15295,13 @@
     </row>
     <row r="573" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B573" s="2">
         <v>42404</v>
       </c>
       <c r="C573" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G573">
         <v>3142.8429349048379</v>
@@ -15342,7 +15342,7 @@
     </row>
     <row r="574" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B574" s="2">
         <v>42437</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="575" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B575" s="2">
         <v>42466</v>
@@ -15385,7 +15385,7 @@
     </row>
     <row r="576" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B576" s="2">
         <v>42478</v>
@@ -15411,7 +15411,7 @@
     </row>
     <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B577" s="2">
         <v>42487</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B578" s="2">
         <v>42488</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B579" s="2">
         <v>42500</v>
@@ -15471,7 +15471,7 @@
     </row>
     <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B580" s="2">
         <v>42501</v>
@@ -15497,7 +15497,7 @@
     </row>
     <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B581" s="2">
         <v>42521</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="582" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B582" s="2">
         <v>42544</v>
@@ -15546,7 +15546,7 @@
     </row>
     <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B583" s="2">
         <v>42558</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B584" s="2">
         <v>42565</v>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B585" s="2">
         <v>42590</v>
@@ -15618,7 +15618,7 @@
     </row>
     <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B586" s="2">
         <v>42611</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B587" s="2">
         <v>42612</v>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B588" s="2">
         <v>42626</v>
@@ -15702,7 +15702,7 @@
     </row>
     <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B589" s="2">
         <v>42641</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B590" s="2">
         <v>42646</v>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B591" s="2">
         <v>42663</v>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B592" s="2">
         <v>42689</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="593" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B593" s="2">
         <v>42697</v>
@@ -15817,7 +15817,7 @@
     </row>
     <row r="594" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B594" s="2">
         <v>42702</v>
@@ -15855,7 +15855,7 @@
     </row>
     <row r="595" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B595" s="2">
         <v>42709</v>
@@ -15881,7 +15881,7 @@
     </row>
     <row r="596" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B596" s="2">
         <v>42726</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="597" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B597" s="2">
         <v>42747</v>
@@ -15927,7 +15927,7 @@
     </row>
     <row r="598" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B598" s="2">
         <v>42765</v>
@@ -15947,7 +15947,7 @@
     </row>
     <row r="599" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B599" s="2">
         <v>42766</v>
@@ -15970,13 +15970,13 @@
     </row>
     <row r="600" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B600" s="2">
         <v>42776</v>
       </c>
       <c r="C600" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G600">
         <v>2354.3809974130422</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="601" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B601" s="2">
         <v>42474</v>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="602" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B602" s="2">
         <v>42487</v>
@@ -16054,7 +16054,7 @@
     </row>
     <row r="603" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B603" s="2">
         <v>42488</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="604" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B604" s="2">
         <v>42500</v>
@@ -16094,7 +16094,7 @@
     </row>
     <row r="605" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B605" s="2">
         <v>42501</v>
@@ -16120,7 +16120,7 @@
     </row>
     <row r="606" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B606" s="2">
         <v>42521</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="607" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B607" s="2">
         <v>42544</v>
@@ -16169,7 +16169,7 @@
     </row>
     <row r="608" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B608" s="2">
         <v>42558</v>
@@ -16189,7 +16189,7 @@
     </row>
     <row r="609" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B609" s="2">
         <v>42565</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="610" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B610" s="2">
         <v>42590</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="611" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B611" s="2">
         <v>42611</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B612" s="2">
         <v>42612</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="613" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B613" s="2">
         <v>42626</v>
@@ -16307,7 +16307,7 @@
     </row>
     <row r="614" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B614" s="2">
         <v>42641</v>
@@ -16333,7 +16333,7 @@
     </row>
     <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B615" s="2">
         <v>42646</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="616" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B616" s="2">
         <v>42663</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="617" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B617" s="2">
         <v>42689</v>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="618" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B618" s="2">
         <v>42697</v>
@@ -16440,7 +16440,7 @@
     </row>
     <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B619" s="2">
         <v>42709</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B620" s="2">
         <v>42726</v>
@@ -16510,7 +16510,7 @@
     </row>
     <row r="621" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B621" s="2">
         <v>42747</v>
@@ -16533,7 +16533,7 @@
     </row>
     <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B622" s="2">
         <v>42765</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="623" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B623" s="2">
         <v>42766</v>
@@ -16576,13 +16576,13 @@
     </row>
     <row r="624" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B624" s="2">
         <v>42776</v>
       </c>
       <c r="C624" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G624">
         <v>2928.2456381937632</v>
@@ -16623,7 +16623,7 @@
     </row>
     <row r="625" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B625" s="2">
         <v>42424</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="626" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B626" s="2">
         <v>42447</v>
@@ -16666,7 +16666,7 @@
     </row>
     <row r="627" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B627" s="2">
         <v>42466</v>
@@ -16692,7 +16692,7 @@
     </row>
     <row r="628" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B628" s="2">
         <v>42478</v>
@@ -16718,7 +16718,7 @@
     </row>
     <row r="629" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B629" s="2">
         <v>42487</v>
@@ -16738,7 +16738,7 @@
     </row>
     <row r="630" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B630" s="2">
         <v>42488</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="631" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B631" s="2">
         <v>42500</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="632" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B632" s="2">
         <v>42501</v>
@@ -16804,7 +16804,7 @@
     </row>
     <row r="633" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B633" s="2">
         <v>42521</v>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="634" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B634" s="2">
         <v>42544</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="635" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B635" s="2">
         <v>42558</v>
@@ -16873,7 +16873,7 @@
     </row>
     <row r="636" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B636" s="2">
         <v>42565</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="637" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B637" s="2">
         <v>42579</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="638" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B638" s="2">
         <v>42590</v>
@@ -16960,7 +16960,7 @@
     </row>
     <row r="639" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B639" s="2">
         <v>42611</v>
@@ -16980,7 +16980,7 @@
     </row>
     <row r="640" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B640" s="2">
         <v>42612</v>
@@ -17006,7 +17006,7 @@
     </row>
     <row r="641" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B641" s="2">
         <v>42626</v>
@@ -17026,7 +17026,7 @@
     </row>
     <row r="642" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B642" s="2">
         <v>42641</v>
@@ -17052,7 +17052,7 @@
     </row>
     <row r="643" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B643" s="2">
         <v>42646</v>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="644" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B644" s="2">
         <v>42663</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="645" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B645" s="2">
         <v>42689</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="646" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B646" s="2">
         <v>42697</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="647" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B647" s="2">
         <v>42702</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="648" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B648" s="2">
         <v>42709</v>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="649" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B649" s="2">
         <v>42726</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="650" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B650" s="2">
         <v>42747</v>
@@ -17251,7 +17251,7 @@
     </row>
     <row r="651" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B651" s="2">
         <v>42765</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="652" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B652" s="2">
         <v>42766</v>
@@ -17294,13 +17294,13 @@
     </row>
     <row r="653" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B653" s="2">
         <v>42776</v>
       </c>
       <c r="C653" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G653">
         <v>2476.8616135208058</v>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="654" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B654" s="2">
         <v>42458</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="655" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B655" s="2">
         <v>42478</v>
@@ -17384,7 +17384,7 @@
     </row>
     <row r="656" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B656" s="2">
         <v>42487</v>
@@ -17404,7 +17404,7 @@
     </row>
     <row r="657" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B657" s="2">
         <v>42488</v>
@@ -17424,7 +17424,7 @@
     </row>
     <row r="658" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B658" s="2">
         <v>42500</v>
@@ -17444,7 +17444,7 @@
     </row>
     <row r="659" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B659" s="2">
         <v>42501</v>
@@ -17470,7 +17470,7 @@
     </row>
     <row r="660" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B660" s="2">
         <v>42521</v>
@@ -17493,7 +17493,7 @@
     </row>
     <row r="661" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B661" s="2">
         <v>42544</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="662" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B662" s="2">
         <v>42558</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="663" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B663" s="2">
         <v>42565</v>
@@ -17565,7 +17565,7 @@
     </row>
     <row r="664" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B664" s="2">
         <v>42590</v>
@@ -17591,7 +17591,7 @@
     </row>
     <row r="665" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B665" s="2">
         <v>42611</v>
@@ -17611,7 +17611,7 @@
     </row>
     <row r="666" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B666" s="2">
         <v>42612</v>
@@ -17637,7 +17637,7 @@
     </row>
     <row r="667" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B667" s="2">
         <v>42626</v>
@@ -17675,7 +17675,7 @@
     </row>
     <row r="668" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B668" s="2">
         <v>42641</v>
@@ -17701,7 +17701,7 @@
     </row>
     <row r="669" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B669" s="2">
         <v>42646</v>
@@ -17721,7 +17721,7 @@
     </row>
     <row r="670" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B670" s="2">
         <v>42663</v>
@@ -17744,7 +17744,7 @@
     </row>
     <row r="671" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B671" s="2">
         <v>42689</v>
@@ -17770,7 +17770,7 @@
     </row>
     <row r="672" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B672" s="2">
         <v>42697</v>
@@ -17790,7 +17790,7 @@
     </row>
     <row r="673" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B673" s="2">
         <v>42702</v>
@@ -17828,7 +17828,7 @@
     </row>
     <row r="674" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B674" s="2">
         <v>42709</v>
@@ -17854,7 +17854,7 @@
     </row>
     <row r="675" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B675" s="2">
         <v>42726</v>
@@ -17877,7 +17877,7 @@
     </row>
     <row r="676" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B676" s="2">
         <v>42747</v>
@@ -17900,7 +17900,7 @@
     </row>
     <row r="677" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B677" s="2">
         <v>42765</v>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="678" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B678" s="2">
         <v>42766</v>
@@ -17943,13 +17943,13 @@
     </row>
     <row r="679" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B679" s="2">
         <v>42776</v>
       </c>
       <c r="C679" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G679">
         <v>2922.4671431543529</v>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="680" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B680" s="2">
         <v>42803</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="681" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B681" s="2">
         <v>42818</v>
@@ -18036,7 +18036,7 @@
     </row>
     <row r="682" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B682" s="2">
         <v>42835</v>
@@ -18065,7 +18065,7 @@
     </row>
     <row r="683" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B683" s="2">
         <v>42858</v>
@@ -18091,7 +18091,7 @@
     </row>
     <row r="684" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B684" s="2">
         <v>42863</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="685" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B685" s="2">
         <v>42880</v>
@@ -18140,7 +18140,7 @@
     </row>
     <row r="686" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B686" s="2">
         <v>42898</v>
@@ -18169,7 +18169,7 @@
     </row>
     <row r="687" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B687" s="2">
         <v>42919</v>
@@ -18198,7 +18198,7 @@
     </row>
     <row r="688" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B688" s="2">
         <v>42934</v>
@@ -18218,7 +18218,7 @@
     </row>
     <row r="689" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B689" s="2">
         <v>42947</v>
@@ -18244,7 +18244,7 @@
     </row>
     <row r="690" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B690" s="2">
         <v>42964</v>
@@ -18291,7 +18291,7 @@
     </row>
     <row r="691" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B691" s="2">
         <v>42986</v>
@@ -18320,7 +18320,7 @@
     </row>
     <row r="692" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B692" s="2">
         <v>43013</v>
@@ -18349,7 +18349,7 @@
     </row>
     <row r="693" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B693" s="2">
         <v>43028</v>
@@ -18378,7 +18378,7 @@
     </row>
     <row r="694" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B694" s="2">
         <v>43046</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="695" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B695" s="2">
         <v>43059</v>
@@ -18448,7 +18448,7 @@
     </row>
     <row r="696" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B696" s="2">
         <v>43070</v>
@@ -18474,7 +18474,7 @@
     </row>
     <row r="697" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B697" s="2">
         <v>43090</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="698" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B698" s="2">
         <v>43117</v>
@@ -18532,13 +18532,13 @@
     </row>
     <row r="699" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B699" s="2">
         <v>43123</v>
       </c>
       <c r="C699" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G699">
         <v>2227.8126463596859</v>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="700" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B700" s="2">
         <v>42844</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="701" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B701" s="2">
         <v>42858</v>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="702" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B702" s="2">
         <v>42863</v>
@@ -18642,7 +18642,7 @@
     </row>
     <row r="703" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B703" s="2">
         <v>42880</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="704" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B704" s="2">
         <v>42898</v>
@@ -18700,7 +18700,7 @@
     </row>
     <row r="705" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B705" s="2">
         <v>42919</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="706" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B706" s="2">
         <v>42934</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="707" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B707" s="2">
         <v>42947</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="708" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B708" s="2">
         <v>42964</v>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="709" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B709" s="2">
         <v>42986</v>
@@ -18833,7 +18833,7 @@
     </row>
     <row r="710" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B710" s="2">
         <v>43013</v>
@@ -18880,7 +18880,7 @@
     </row>
     <row r="711" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B711" s="2">
         <v>43028</v>
@@ -18909,7 +18909,7 @@
     </row>
     <row r="712" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B712" s="2">
         <v>43046</v>
@@ -18938,7 +18938,7 @@
     </row>
     <row r="713" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B713" s="2">
         <v>43067</v>
@@ -18979,7 +18979,7 @@
     </row>
     <row r="714" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B714" s="2">
         <v>43070</v>
@@ -19005,7 +19005,7 @@
     </row>
     <row r="715" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B715" s="2">
         <v>43090</v>
@@ -19034,7 +19034,7 @@
     </row>
     <row r="716" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B716" s="2">
         <v>43117</v>
@@ -19063,13 +19063,13 @@
     </row>
     <row r="717" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B717" s="2">
         <v>43129</v>
       </c>
       <c r="C717" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D717">
         <v>13</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="718" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B718" s="2">
         <v>42824</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="719" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B719" s="2">
         <v>42835</v>
@@ -19162,7 +19162,7 @@
     </row>
     <row r="720" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B720" s="2">
         <v>42858</v>
@@ -19188,7 +19188,7 @@
     </row>
     <row r="721" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B721" s="2">
         <v>42863</v>
@@ -19208,7 +19208,7 @@
     </row>
     <row r="722" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B722" s="2">
         <v>42880</v>
@@ -19237,7 +19237,7 @@
     </row>
     <row r="723" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B723" s="2">
         <v>42898</v>
@@ -19266,7 +19266,7 @@
     </row>
     <row r="724" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B724" s="2">
         <v>42919</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="725" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B725" s="2">
         <v>42934</v>
@@ -19315,7 +19315,7 @@
     </row>
     <row r="726" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B726" s="2">
         <v>42947</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="727" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B727" s="2">
         <v>42964</v>
@@ -19370,7 +19370,7 @@
     </row>
     <row r="728" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B728" s="2">
         <v>42986</v>
@@ -19417,7 +19417,7 @@
     </row>
     <row r="729" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B729" s="2">
         <v>43013</v>
@@ -19446,7 +19446,7 @@
     </row>
     <row r="730" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B730" s="2">
         <v>43028</v>
@@ -19475,7 +19475,7 @@
     </row>
     <row r="731" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B731" s="2">
         <v>43046</v>
@@ -19504,7 +19504,7 @@
     </row>
     <row r="732" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B732" s="2">
         <v>43067</v>
@@ -19545,7 +19545,7 @@
     </row>
     <row r="733" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B733" s="2">
         <v>43070</v>
@@ -19571,7 +19571,7 @@
     </row>
     <row r="734" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B734" s="2">
         <v>43090</v>
@@ -19600,7 +19600,7 @@
     </row>
     <row r="735" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B735" s="2">
         <v>43117</v>
@@ -19629,13 +19629,13 @@
     </row>
     <row r="736" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B736" s="2">
         <v>43129</v>
       </c>
       <c r="C736" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D736">
         <v>14.6</v>
@@ -19685,10 +19685,10 @@
     </row>
     <row r="737" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C737" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U737">
         <v>161</v>
@@ -19702,10 +19702,10 @@
     </row>
     <row r="738" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C738" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F738">
         <v>13.631578947368419</v>
@@ -19722,10 +19722,10 @@
     </row>
     <row r="739" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C739" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U739">
         <v>161</v>
@@ -19739,10 +19739,10 @@
     </row>
     <row r="740" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C740" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U740">
         <v>161</v>
@@ -19756,10 +19756,10 @@
     </row>
     <row r="741" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C741" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F741">
         <v>13.611111111111111</v>
@@ -19776,10 +19776,10 @@
     </row>
     <row r="742" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C742" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U742">
         <v>199</v>
@@ -19793,10 +19793,10 @@
     </row>
     <row r="743" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C743" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F743">
         <v>17.533333333333331</v>
@@ -19813,10 +19813,10 @@
     </row>
     <row r="744" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C744" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U744">
         <v>199</v>
@@ -19830,10 +19830,10 @@
     </row>
     <row r="745" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C745" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U745">
         <v>199</v>
@@ -19847,10 +19847,10 @@
     </row>
     <row r="746" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C746" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F746">
         <v>17.84615384615385</v>
@@ -19867,10 +19867,10 @@
     </row>
     <row r="747" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C747" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U747">
         <v>178</v>
@@ -19884,10 +19884,10 @@
     </row>
     <row r="748" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C748" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F748">
         <v>14.65</v>
@@ -19904,10 +19904,10 @@
     </row>
     <row r="749" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C749" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U749">
         <v>178</v>
@@ -19921,10 +19921,10 @@
     </row>
     <row r="750" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C750" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U750">
         <v>178</v>
@@ -19938,10 +19938,10 @@
     </row>
     <row r="751" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C751" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F751">
         <v>15.444444444444439</v>
@@ -19958,10 +19958,10 @@
     </row>
     <row r="752" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C752" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F752">
         <v>15.27777777777778</v>
@@ -19978,10 +19978,10 @@
     </row>
     <row r="753" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C753" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F753">
         <v>16.111111111111111</v>
@@ -19998,10 +19998,10 @@
     </row>
     <row r="754" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C754" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F754">
         <v>17.333333333333329</v>
@@ -20018,10 +20018,10 @@
     </row>
     <row r="755" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C755" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F755">
         <v>18</v>
@@ -20038,10 +20038,10 @@
     </row>
     <row r="756" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C756" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F756">
         <v>12.95</v>
@@ -20058,10 +20058,10 @@
     </row>
     <row r="757" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C757" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F757">
         <v>13.25</v>
@@ -20078,10 +20078,10 @@
     </row>
     <row r="758" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C758" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F758">
         <v>14.45</v>
@@ -20098,10 +20098,10 @@
     </row>
     <row r="759" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C759" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F759">
         <v>14.888888888888889</v>
@@ -20118,10 +20118,10 @@
     </row>
     <row r="760" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C760" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F760">
         <v>12.8</v>
@@ -20138,10 +20138,10 @@
     </row>
     <row r="761" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C761" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F761">
         <v>15</v>
@@ -20158,10 +20158,10 @@
     </row>
     <row r="762" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C762" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F762">
         <v>16.76923076923077</v>
@@ -20178,10 +20178,10 @@
     </row>
     <row r="763" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C763" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F763">
         <v>14.3</v>
@@ -20198,10 +20198,10 @@
     </row>
     <row r="764" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C764" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F764">
         <v>16.07692307692308</v>
@@ -20218,10 +20218,10 @@
     </row>
     <row r="765" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C765" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F765">
         <v>13.789473684210529</v>
@@ -20238,10 +20238,10 @@
     </row>
     <row r="766" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C766" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F766">
         <v>17</v>
@@ -20258,10 +20258,10 @@
     </row>
     <row r="767" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C767" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F767">
         <v>15</v>
@@ -20278,10 +20278,10 @@
     </row>
     <row r="768" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C768" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F768">
         <v>14.94736842105263</v>
@@ -20298,10 +20298,10 @@
     </row>
     <row r="769" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C769" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F769">
         <v>13</v>
@@ -20318,10 +20318,10 @@
     </row>
     <row r="770" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
+        <v>55</v>
+      </c>
+      <c r="C770" t="s">
         <v>56</v>
-      </c>
-      <c r="C770" t="s">
-        <v>57</v>
       </c>
       <c r="F770">
         <v>14.6</v>

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13E6883-C077-43BF-AEBB-8EA89695DF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -28,9 +29,6 @@
   </si>
   <si>
     <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.AppearedCohortNo</t>
   </si>
   <si>
     <t>Wheat.Leaf.ExpandedCohortNo</t>
@@ -52,9 +50,6 @@
   </si>
   <si>
     <t>Wheat.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Wheat.Structure.TotalStemPopn</t>
   </si>
   <si>
     <t>Wheat.Phenology.Zadok.Stage</t>
@@ -192,13 +187,19 @@
     <t>HarvestRipe</t>
   </si>
   <si>
-    <t>Wheat.Phenology.FinalLeafNumber</t>
+    <t>Wheat.Leaf.TillerPopulation</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.FinalLeafNumber</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.HaunStage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -353,6 +354,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -388,6 +406,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,69 +623,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>41380</v>
@@ -667,7 +702,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>41422</v>
@@ -687,7 +722,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>41456</v>
@@ -707,7 +742,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>41480</v>
@@ -727,7 +762,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>41512</v>
@@ -747,7 +782,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>41520</v>
@@ -767,7 +802,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>41548</v>
@@ -787,7 +822,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>41610</v>
@@ -825,13 +860,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>41667</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>2584.6752418452079</v>
@@ -872,7 +907,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>41380</v>
@@ -889,7 +924,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>41393</v>
@@ -912,7 +947,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>41409</v>
@@ -938,7 +973,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>41422</v>
@@ -958,7 +993,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>41431</v>
@@ -981,7 +1016,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>41451</v>
@@ -1004,7 +1039,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>41456</v>
@@ -1024,7 +1059,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>41473</v>
@@ -1047,7 +1082,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>41480</v>
@@ -1067,7 +1102,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>41501</v>
@@ -1090,7 +1125,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>41512</v>
@@ -1110,7 +1145,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>41520</v>
@@ -1130,7 +1165,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>41535</v>
@@ -1153,7 +1188,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>41548</v>
@@ -1173,7 +1208,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>41562</v>
@@ -1199,7 +1234,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
         <v>41576</v>
@@ -1225,7 +1260,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
         <v>41597</v>
@@ -1251,7 +1286,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2">
         <v>41610</v>
@@ -1289,7 +1324,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2">
         <v>41617</v>
@@ -1306,7 +1341,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
         <v>41631</v>
@@ -1326,7 +1361,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2">
         <v>41646</v>
@@ -1346,7 +1381,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2">
         <v>41656</v>
@@ -1363,7 +1398,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2">
         <v>41660</v>
@@ -1380,13 +1415,13 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2">
         <v>41667</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G34">
         <v>2504.2002985697291</v>
@@ -1427,7 +1462,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2">
         <v>41380</v>
@@ -1444,7 +1479,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2">
         <v>41422</v>
@@ -1464,7 +1499,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2">
         <v>41456</v>
@@ -1484,7 +1519,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2">
         <v>41480</v>
@@ -1504,7 +1539,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2">
         <v>41512</v>
@@ -1524,7 +1559,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2">
         <v>41520</v>
@@ -1544,7 +1579,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2">
         <v>41548</v>
@@ -1564,7 +1599,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="2">
         <v>41610</v>
@@ -1602,13 +1637,13 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2">
         <v>41667</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G43">
         <v>2487.5529363685941</v>
@@ -1649,7 +1684,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2">
         <v>41380</v>
@@ -1666,7 +1701,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2">
         <v>41393</v>
@@ -1689,7 +1724,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2">
         <v>41409</v>
@@ -1712,7 +1747,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2">
         <v>41422</v>
@@ -1732,7 +1767,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2">
         <v>41431</v>
@@ -1752,7 +1787,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2">
         <v>41451</v>
@@ -1772,7 +1807,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2">
         <v>41456</v>
@@ -1792,7 +1827,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2">
         <v>41473</v>
@@ -1812,7 +1847,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2">
         <v>41480</v>
@@ -1832,7 +1867,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
         <v>41501</v>
@@ -1852,7 +1887,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2">
         <v>41512</v>
@@ -1872,7 +1907,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2">
         <v>41520</v>
@@ -1892,7 +1927,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" s="2">
         <v>41535</v>
@@ -1912,7 +1947,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2">
         <v>41548</v>
@@ -1932,7 +1967,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2">
         <v>41562</v>
@@ -1955,7 +1990,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2">
         <v>41576</v>
@@ -1978,7 +2013,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2">
         <v>41597</v>
@@ -2001,7 +2036,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61" s="2">
         <v>41610</v>
@@ -2039,7 +2074,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2">
         <v>41617</v>
@@ -2059,7 +2094,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B63" s="2">
         <v>41631</v>
@@ -2082,7 +2117,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2">
         <v>41646</v>
@@ -2105,7 +2140,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B65" s="2">
         <v>41656</v>
@@ -2125,13 +2160,13 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2">
         <v>41667</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>2692.6749147675118</v>
@@ -2172,7 +2207,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B67" s="2">
         <v>41380</v>
@@ -2189,7 +2224,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B68" s="2">
         <v>41393</v>
@@ -2215,7 +2250,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B69" s="2">
         <v>41409</v>
@@ -2244,7 +2279,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70" s="2">
         <v>41422</v>
@@ -2264,7 +2299,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B71" s="2">
         <v>41431</v>
@@ -2290,7 +2325,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B72" s="2">
         <v>41451</v>
@@ -2316,7 +2351,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B73" s="2">
         <v>41456</v>
@@ -2336,7 +2371,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B74" s="2">
         <v>41473</v>
@@ -2362,7 +2397,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B75" s="2">
         <v>41480</v>
@@ -2382,7 +2417,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>41501</v>
@@ -2408,7 +2443,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B77" s="2">
         <v>41512</v>
@@ -2428,7 +2463,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B78" s="2">
         <v>41520</v>
@@ -2448,7 +2483,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B79" s="2">
         <v>41535</v>
@@ -2474,7 +2509,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B80" s="2">
         <v>41548</v>
@@ -2494,7 +2529,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B81" s="2">
         <v>41562</v>
@@ -2523,7 +2558,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B82" s="2">
         <v>41576</v>
@@ -2552,7 +2587,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B83" s="2">
         <v>41597</v>
@@ -2581,7 +2616,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B84" s="2">
         <v>41610</v>
@@ -2619,7 +2654,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85" s="2">
         <v>41617</v>
@@ -2639,7 +2674,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B86" s="2">
         <v>41631</v>
@@ -2662,7 +2697,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B87" s="2">
         <v>41646</v>
@@ -2685,7 +2720,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B88" s="2">
         <v>41656</v>
@@ -2705,7 +2740,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B89" s="2">
         <v>41660</v>
@@ -2722,13 +2757,13 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B90" s="2">
         <v>41667</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G90">
         <v>2422.6624638590788</v>
@@ -2769,7 +2804,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B91" s="2">
         <v>41325</v>
@@ -2786,7 +2821,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B92" s="2">
         <v>41422</v>
@@ -2806,7 +2841,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B93" s="2">
         <v>41456</v>
@@ -2826,7 +2861,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B94" s="2">
         <v>41480</v>
@@ -2846,7 +2881,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B95" s="2">
         <v>41512</v>
@@ -2866,7 +2901,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B96" s="2">
         <v>41520</v>
@@ -2886,7 +2921,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B97" s="2">
         <v>41548</v>
@@ -2906,7 +2941,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B98" s="2">
         <v>41592</v>
@@ -2944,13 +2979,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B99" s="2">
         <v>41667</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G99">
         <v>2335.5720763093418</v>
@@ -2991,7 +3026,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B100" s="2">
         <v>41325</v>
@@ -3008,7 +3043,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101" s="2">
         <v>41380</v>
@@ -3031,7 +3066,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B102" s="2">
         <v>41393</v>
@@ -3057,7 +3092,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B103" s="2">
         <v>41409</v>
@@ -3083,7 +3118,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B104" s="2">
         <v>41422</v>
@@ -3103,7 +3138,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B105" s="2">
         <v>41431</v>
@@ -3126,7 +3161,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B106" s="2">
         <v>41451</v>
@@ -3149,7 +3184,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B107" s="2">
         <v>41456</v>
@@ -3169,7 +3204,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B108" s="2">
         <v>41473</v>
@@ -3192,7 +3227,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B109" s="2">
         <v>41480</v>
@@ -3212,7 +3247,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B110" s="2">
         <v>41501</v>
@@ -3235,7 +3270,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B111" s="2">
         <v>41512</v>
@@ -3255,7 +3290,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B112" s="2">
         <v>41520</v>
@@ -3275,7 +3310,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B113" s="2">
         <v>41535</v>
@@ -3298,7 +3333,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B114" s="2">
         <v>41548</v>
@@ -3318,7 +3353,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B115" s="2">
         <v>41562</v>
@@ -3344,7 +3379,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B116" s="2">
         <v>41576</v>
@@ -3370,7 +3405,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B117" s="2">
         <v>41592</v>
@@ -3408,7 +3443,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B118" s="2">
         <v>41597</v>
@@ -3434,7 +3469,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B119" s="2">
         <v>41617</v>
@@ -3451,7 +3486,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B120" s="2">
         <v>41631</v>
@@ -3471,7 +3506,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B121" s="2">
         <v>41646</v>
@@ -3491,7 +3526,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B122" s="2">
         <v>41656</v>
@@ -3508,13 +3543,13 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B123" s="2">
         <v>41667</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G123">
         <v>2236.5439790303089</v>
@@ -3555,7 +3590,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B124" s="2">
         <v>41325</v>
@@ -3572,7 +3607,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B125" s="2">
         <v>41422</v>
@@ -3592,7 +3627,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B126" s="2">
         <v>41456</v>
@@ -3612,7 +3647,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B127" s="2">
         <v>41480</v>
@@ -3632,7 +3667,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B128" s="2">
         <v>41512</v>
@@ -3652,7 +3687,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B129" s="2">
         <v>41520</v>
@@ -3672,7 +3707,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B130" s="2">
         <v>41548</v>
@@ -3692,7 +3727,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B131" s="2">
         <v>41592</v>
@@ -3730,13 +3765,13 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B132" s="2">
         <v>41667</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G132">
         <v>2290.6455012801321</v>
@@ -3777,7 +3812,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B133" s="2">
         <v>41325</v>
@@ -3794,7 +3829,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B134" s="2">
         <v>41380</v>
@@ -3814,7 +3849,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B135" s="2">
         <v>41393</v>
@@ -3837,7 +3872,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B136" s="2">
         <v>41409</v>
@@ -3860,7 +3895,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B137" s="2">
         <v>41422</v>
@@ -3880,7 +3915,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B138" s="2">
         <v>41431</v>
@@ -3900,7 +3935,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B139" s="2">
         <v>41451</v>
@@ -3920,7 +3955,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B140" s="2">
         <v>41456</v>
@@ -3940,7 +3975,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B141" s="2">
         <v>41473</v>
@@ -3960,7 +3995,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B142" s="2">
         <v>41480</v>
@@ -3980,7 +4015,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B143" s="2">
         <v>41501</v>
@@ -4000,7 +4035,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B144" s="2">
         <v>41512</v>
@@ -4020,7 +4055,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B145" s="2">
         <v>41520</v>
@@ -4040,7 +4075,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B146" s="2">
         <v>41535</v>
@@ -4060,7 +4095,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B147" s="2">
         <v>41548</v>
@@ -4080,7 +4115,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B148" s="2">
         <v>41562</v>
@@ -4103,7 +4138,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B149" s="2">
         <v>41576</v>
@@ -4126,7 +4161,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B150" s="2">
         <v>41592</v>
@@ -4164,7 +4199,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B151" s="2">
         <v>41597</v>
@@ -4187,7 +4222,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B152" s="2">
         <v>41617</v>
@@ -4207,7 +4242,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B153" s="2">
         <v>41631</v>
@@ -4230,7 +4265,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B154" s="2">
         <v>41646</v>
@@ -4253,7 +4288,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B155" s="2">
         <v>41656</v>
@@ -4273,13 +4308,13 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B156" s="2">
         <v>41667</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G156">
         <v>2375.1309075664558</v>
@@ -4320,7 +4355,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B157" s="2">
         <v>41325</v>
@@ -4337,7 +4372,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B158" s="2">
         <v>41380</v>
@@ -4363,7 +4398,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B159" s="2">
         <v>41393</v>
@@ -4392,7 +4427,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B160" s="2">
         <v>41409</v>
@@ -4421,7 +4456,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B161" s="2">
         <v>41422</v>
@@ -4441,7 +4476,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B162" s="2">
         <v>41431</v>
@@ -4467,7 +4502,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B163" s="2">
         <v>41451</v>
@@ -4493,7 +4528,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B164" s="2">
         <v>41456</v>
@@ -4513,7 +4548,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B165" s="2">
         <v>41473</v>
@@ -4539,7 +4574,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B166" s="2">
         <v>41480</v>
@@ -4559,7 +4594,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B167" s="2">
         <v>41501</v>
@@ -4585,7 +4620,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B168" s="2">
         <v>41512</v>
@@ -4605,7 +4640,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B169" s="2">
         <v>41520</v>
@@ -4625,7 +4660,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B170" s="2">
         <v>41535</v>
@@ -4651,7 +4686,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B171" s="2">
         <v>41548</v>
@@ -4671,7 +4706,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B172" s="2">
         <v>41562</v>
@@ -4700,7 +4735,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B173" s="2">
         <v>41576</v>
@@ -4729,7 +4764,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B174" s="2">
         <v>41592</v>
@@ -4767,7 +4802,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B175" s="2">
         <v>41597</v>
@@ -4796,7 +4831,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B176" s="2">
         <v>41617</v>
@@ -4816,7 +4851,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B177" s="2">
         <v>41631</v>
@@ -4839,7 +4874,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B178" s="2">
         <v>41646</v>
@@ -4862,7 +4897,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B179" s="2">
         <v>41656</v>
@@ -4882,13 +4917,13 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B180" s="2">
         <v>41667</v>
       </c>
       <c r="C180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G180">
         <v>2266.0947553518008</v>
@@ -4929,7 +4964,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B181" s="2">
         <v>41359</v>
@@ -4946,7 +4981,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B182" s="2">
         <v>41422</v>
@@ -4966,7 +5001,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B183" s="2">
         <v>41456</v>
@@ -4986,7 +5021,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B184" s="2">
         <v>41480</v>
@@ -5006,7 +5041,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B185" s="2">
         <v>41512</v>
@@ -5026,7 +5061,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B186" s="2">
         <v>41520</v>
@@ -5046,7 +5081,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B187" s="2">
         <v>41548</v>
@@ -5066,7 +5101,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B188" s="2">
         <v>41600</v>
@@ -5104,13 +5139,13 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B189" s="2">
         <v>41667</v>
       </c>
       <c r="C189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G189">
         <v>2603.7907279094038</v>
@@ -5151,7 +5186,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B190" s="2">
         <v>41359</v>
@@ -5168,7 +5203,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B191" s="2">
         <v>41380</v>
@@ -5191,7 +5226,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B192" s="2">
         <v>41393</v>
@@ -5217,7 +5252,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B193" s="2">
         <v>41409</v>
@@ -5243,7 +5278,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B194" s="2">
         <v>41422</v>
@@ -5263,7 +5298,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B195" s="2">
         <v>41431</v>
@@ -5286,7 +5321,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B196" s="2">
         <v>41451</v>
@@ -5309,7 +5344,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B197" s="2">
         <v>41456</v>
@@ -5329,7 +5364,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B198" s="2">
         <v>41473</v>
@@ -5352,7 +5387,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B199" s="2">
         <v>41480</v>
@@ -5372,7 +5407,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B200" s="2">
         <v>41501</v>
@@ -5395,7 +5430,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B201" s="2">
         <v>41506</v>
@@ -5412,7 +5447,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B202" s="2">
         <v>41512</v>
@@ -5432,7 +5467,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B203" s="2">
         <v>41520</v>
@@ -5452,7 +5487,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B204" s="2">
         <v>41535</v>
@@ -5475,7 +5510,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B205" s="2">
         <v>41548</v>
@@ -5495,7 +5530,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B206" s="2">
         <v>41562</v>
@@ -5521,7 +5556,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B207" s="2">
         <v>41576</v>
@@ -5547,7 +5582,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B208" s="2">
         <v>41597</v>
@@ -5573,7 +5608,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B209" s="2">
         <v>41600</v>
@@ -5611,7 +5646,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B210" s="2">
         <v>41617</v>
@@ -5628,7 +5663,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B211" s="2">
         <v>41631</v>
@@ -5648,7 +5683,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B212" s="2">
         <v>41646</v>
@@ -5668,7 +5703,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B213" s="2">
         <v>41656</v>
@@ -5685,13 +5720,13 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B214" s="2">
         <v>41667</v>
       </c>
       <c r="C214" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G214">
         <v>2684.9023198238069</v>
@@ -5732,7 +5767,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B215" s="2">
         <v>41359</v>
@@ -5749,7 +5784,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B216" s="2">
         <v>41422</v>
@@ -5769,7 +5804,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B217" s="2">
         <v>41456</v>
@@ -5789,7 +5824,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B218" s="2">
         <v>41480</v>
@@ -5809,7 +5844,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B219" s="2">
         <v>41512</v>
@@ -5829,7 +5864,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B220" s="2">
         <v>41520</v>
@@ -5849,7 +5884,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B221" s="2">
         <v>41548</v>
@@ -5869,7 +5904,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B222" s="2">
         <v>41600</v>
@@ -5907,13 +5942,13 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B223" s="2">
         <v>41667</v>
       </c>
       <c r="C223" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G223">
         <v>2751.579279285515</v>
@@ -5954,7 +5989,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B224" s="2">
         <v>41359</v>
@@ -5971,7 +6006,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B225" s="2">
         <v>41380</v>
@@ -5991,7 +6026,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B226" s="2">
         <v>41393</v>
@@ -6014,7 +6049,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B227" s="2">
         <v>41409</v>
@@ -6037,7 +6072,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B228" s="2">
         <v>41422</v>
@@ -6057,7 +6092,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B229" s="2">
         <v>41431</v>
@@ -6077,7 +6112,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B230" s="2">
         <v>41451</v>
@@ -6097,7 +6132,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B231" s="2">
         <v>41456</v>
@@ -6117,7 +6152,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B232" s="2">
         <v>41473</v>
@@ -6137,7 +6172,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B233" s="2">
         <v>41480</v>
@@ -6157,7 +6192,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B234" s="2">
         <v>41501</v>
@@ -6177,7 +6212,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B235" s="2">
         <v>41506</v>
@@ -6194,7 +6229,7 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B236" s="2">
         <v>41512</v>
@@ -6214,7 +6249,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B237" s="2">
         <v>41520</v>
@@ -6234,7 +6269,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B238" s="2">
         <v>41535</v>
@@ -6254,7 +6289,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B239" s="2">
         <v>41548</v>
@@ -6274,7 +6309,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B240" s="2">
         <v>41562</v>
@@ -6297,7 +6332,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B241" s="2">
         <v>41576</v>
@@ -6320,7 +6355,7 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B242" s="2">
         <v>41597</v>
@@ -6343,7 +6378,7 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B243" s="2">
         <v>41600</v>
@@ -6381,7 +6416,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B244" s="2">
         <v>41617</v>
@@ -6401,7 +6436,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B245" s="2">
         <v>41631</v>
@@ -6424,7 +6459,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B246" s="2">
         <v>41646</v>
@@ -6447,7 +6482,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B247" s="2">
         <v>41656</v>
@@ -6467,13 +6502,13 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B248" s="2">
         <v>41667</v>
       </c>
       <c r="C248" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G248">
         <v>2793.31827785019</v>
@@ -6514,7 +6549,7 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B249" s="2">
         <v>41359</v>
@@ -6531,7 +6566,7 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B250" s="2">
         <v>41380</v>
@@ -6557,7 +6592,7 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B251" s="2">
         <v>41393</v>
@@ -6586,7 +6621,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B252" s="2">
         <v>41409</v>
@@ -6615,7 +6650,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B253" s="2">
         <v>41422</v>
@@ -6635,7 +6670,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B254" s="2">
         <v>41431</v>
@@ -6661,7 +6696,7 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B255" s="2">
         <v>41451</v>
@@ -6687,7 +6722,7 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B256" s="2">
         <v>41456</v>
@@ -6707,7 +6742,7 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B257" s="2">
         <v>41473</v>
@@ -6733,7 +6768,7 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B258" s="2">
         <v>41480</v>
@@ -6753,7 +6788,7 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B259" s="2">
         <v>41501</v>
@@ -6779,7 +6814,7 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B260" s="2">
         <v>41506</v>
@@ -6796,7 +6831,7 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B261" s="2">
         <v>41512</v>
@@ -6816,7 +6851,7 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B262" s="2">
         <v>41520</v>
@@ -6836,7 +6871,7 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B263" s="2">
         <v>41535</v>
@@ -6862,7 +6897,7 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B264" s="2">
         <v>41548</v>
@@ -6882,7 +6917,7 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B265" s="2">
         <v>41562</v>
@@ -6911,7 +6946,7 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B266" s="2">
         <v>41576</v>
@@ -6940,7 +6975,7 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B267" s="2">
         <v>41597</v>
@@ -6969,7 +7004,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B268" s="2">
         <v>41600</v>
@@ -7007,7 +7042,7 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B269" s="2">
         <v>41617</v>
@@ -7027,7 +7062,7 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B270" s="2">
         <v>41631</v>
@@ -7050,7 +7085,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B271" s="2">
         <v>41646</v>
@@ -7073,7 +7108,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B272" s="2">
         <v>41656</v>
@@ -7093,13 +7128,13 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B273" s="2">
         <v>41667</v>
       </c>
       <c r="C273" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G273">
         <v>2828.1043460015708</v>
@@ -7140,7 +7175,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B274" s="2">
         <v>41708</v>
@@ -7157,7 +7192,7 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B275" s="2">
         <v>41722</v>
@@ -7186,7 +7221,7 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B276" s="2">
         <v>41731</v>
@@ -7215,7 +7250,7 @@
     </row>
     <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B277" s="2">
         <v>41738</v>
@@ -7244,7 +7279,7 @@
     </row>
     <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B278" s="2">
         <v>41745</v>
@@ -7270,7 +7305,7 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B279" s="2">
         <v>41760</v>
@@ -7299,7 +7334,7 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B280" s="2">
         <v>41768</v>
@@ -7328,7 +7363,7 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B281" s="2">
         <v>41788</v>
@@ -7354,7 +7389,7 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B282" s="2">
         <v>41806</v>
@@ -7380,7 +7415,7 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B283" s="2">
         <v>41808</v>
@@ -7400,7 +7435,7 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B284" s="2">
         <v>41835</v>
@@ -7429,7 +7464,7 @@
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B285" s="2">
         <v>41855</v>
@@ -7458,7 +7493,7 @@
     </row>
     <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B286" s="2">
         <v>41870</v>
@@ -7493,7 +7528,7 @@
     </row>
     <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B287" s="2">
         <v>41883</v>
@@ -7522,7 +7557,7 @@
     </row>
     <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B288" s="2">
         <v>41891</v>
@@ -7542,7 +7577,7 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B289" s="2">
         <v>41908</v>
@@ -7571,7 +7606,7 @@
     </row>
     <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B290" s="2">
         <v>41912</v>
@@ -7591,7 +7626,7 @@
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B291" s="2">
         <v>41925</v>
@@ -7620,7 +7655,7 @@
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B292" s="2">
         <v>41947</v>
@@ -7649,7 +7684,7 @@
     </row>
     <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B293" s="2">
         <v>41964</v>
@@ -7690,7 +7725,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B294" s="2">
         <v>41969</v>
@@ -7719,7 +7754,7 @@
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B295" s="2">
         <v>41971</v>
@@ -7739,7 +7774,7 @@
     </row>
     <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B296" s="2">
         <v>41984</v>
@@ -7768,7 +7803,7 @@
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B297" s="2">
         <v>41996</v>
@@ -7797,7 +7832,7 @@
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B298" s="2">
         <v>42016</v>
@@ -7826,7 +7861,7 @@
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B299" s="2">
         <v>42024</v>
@@ -7855,13 +7890,13 @@
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B300" s="2">
         <v>42027</v>
       </c>
       <c r="C300" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G300">
         <v>2837.8688491249868</v>
@@ -7902,7 +7937,7 @@
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B301" s="2">
         <v>41708</v>
@@ -7919,7 +7954,7 @@
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B302" s="2">
         <v>41722</v>
@@ -7948,7 +7983,7 @@
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B303" s="2">
         <v>41731</v>
@@ -7977,7 +8012,7 @@
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B304" s="2">
         <v>41738</v>
@@ -8006,7 +8041,7 @@
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B305" s="2">
         <v>41745</v>
@@ -8032,7 +8067,7 @@
     </row>
     <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B306" s="2">
         <v>41760</v>
@@ -8061,7 +8096,7 @@
     </row>
     <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B307" s="2">
         <v>41768</v>
@@ -8090,7 +8125,7 @@
     </row>
     <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B308" s="2">
         <v>41788</v>
@@ -8116,7 +8151,7 @@
     </row>
     <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B309" s="2">
         <v>41806</v>
@@ -8142,7 +8177,7 @@
     </row>
     <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B310" s="2">
         <v>41808</v>
@@ -8162,7 +8197,7 @@
     </row>
     <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B311" s="2">
         <v>41835</v>
@@ -8191,7 +8226,7 @@
     </row>
     <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B312" s="2">
         <v>41855</v>
@@ -8220,7 +8255,7 @@
     </row>
     <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B313" s="2">
         <v>41870</v>
@@ -8255,7 +8290,7 @@
     </row>
     <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B314" s="2">
         <v>41883</v>
@@ -8284,7 +8319,7 @@
     </row>
     <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B315" s="2">
         <v>41891</v>
@@ -8304,7 +8339,7 @@
     </row>
     <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B316" s="2">
         <v>41908</v>
@@ -8333,7 +8368,7 @@
     </row>
     <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B317" s="2">
         <v>41912</v>
@@ -8353,7 +8388,7 @@
     </row>
     <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B318" s="2">
         <v>41925</v>
@@ -8382,7 +8417,7 @@
     </row>
     <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B319" s="2">
         <v>41947</v>
@@ -8411,7 +8446,7 @@
     </row>
     <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B320" s="2">
         <v>41964</v>
@@ -8452,7 +8487,7 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B321" s="2">
         <v>41969</v>
@@ -8481,7 +8516,7 @@
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B322" s="2">
         <v>41971</v>
@@ -8501,7 +8536,7 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B323" s="2">
         <v>41984</v>
@@ -8530,7 +8565,7 @@
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B324" s="2">
         <v>41996</v>
@@ -8559,7 +8594,7 @@
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B325" s="2">
         <v>42016</v>
@@ -8588,7 +8623,7 @@
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B326" s="2">
         <v>42024</v>
@@ -8617,13 +8652,13 @@
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B327" s="2">
         <v>42027</v>
       </c>
       <c r="C327" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G327">
         <v>2898.60999748734</v>
@@ -8664,7 +8699,7 @@
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B328" s="2">
         <v>41690</v>
@@ -8681,7 +8716,7 @@
     </row>
     <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B329" s="2">
         <v>41709</v>
@@ -8707,7 +8742,7 @@
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B330" s="2">
         <v>41710</v>
@@ -8727,7 +8762,7 @@
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B331" s="2">
         <v>41722</v>
@@ -8756,7 +8791,7 @@
     </row>
     <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B332" s="2">
         <v>41731</v>
@@ -8785,7 +8820,7 @@
     </row>
     <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B333" s="2">
         <v>41738</v>
@@ -8814,7 +8849,7 @@
     </row>
     <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B334" s="2">
         <v>41745</v>
@@ -8840,7 +8875,7 @@
     </row>
     <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B335" s="2">
         <v>41760</v>
@@ -8869,7 +8904,7 @@
     </row>
     <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B336" s="2">
         <v>41768</v>
@@ -8898,7 +8933,7 @@
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B337" s="2">
         <v>41788</v>
@@ -8924,7 +8959,7 @@
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B338" s="2">
         <v>41806</v>
@@ -8950,7 +8985,7 @@
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B339" s="2">
         <v>41808</v>
@@ -8970,7 +9005,7 @@
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B340" s="2">
         <v>41835</v>
@@ -8999,7 +9034,7 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B341" s="2">
         <v>41844</v>
@@ -9031,7 +9066,7 @@
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B342" s="2">
         <v>41855</v>
@@ -9060,7 +9095,7 @@
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B343" s="2">
         <v>41870</v>
@@ -9080,7 +9115,7 @@
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B344" s="2">
         <v>41883</v>
@@ -9109,7 +9144,7 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B345" s="2">
         <v>41891</v>
@@ -9129,7 +9164,7 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B346" s="2">
         <v>41908</v>
@@ -9158,7 +9193,7 @@
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B347" s="2">
         <v>41912</v>
@@ -9178,7 +9213,7 @@
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B348" s="2">
         <v>41925</v>
@@ -9207,7 +9242,7 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B349" s="2">
         <v>41947</v>
@@ -9236,7 +9271,7 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B350" s="2">
         <v>41964</v>
@@ -9277,7 +9312,7 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B351" s="2">
         <v>41969</v>
@@ -9306,7 +9341,7 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B352" s="2">
         <v>41971</v>
@@ -9326,7 +9361,7 @@
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B353" s="2">
         <v>41984</v>
@@ -9352,7 +9387,7 @@
     </row>
     <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B354" s="2">
         <v>41996</v>
@@ -9378,7 +9413,7 @@
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B355" s="2">
         <v>42016</v>
@@ -9404,7 +9439,7 @@
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B356" s="2">
         <v>42024</v>
@@ -9430,13 +9465,13 @@
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B357" s="2">
         <v>42027</v>
       </c>
       <c r="C357" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G357">
         <v>3021.2141718526</v>
@@ -9477,7 +9512,7 @@
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B358" s="2">
         <v>41690</v>
@@ -9494,7 +9529,7 @@
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B359" s="2">
         <v>41709</v>
@@ -9520,7 +9555,7 @@
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B360" s="2">
         <v>41710</v>
@@ -9540,7 +9575,7 @@
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B361" s="2">
         <v>41722</v>
@@ -9569,7 +9604,7 @@
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B362" s="2">
         <v>41731</v>
@@ -9598,7 +9633,7 @@
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B363" s="2">
         <v>41738</v>
@@ -9627,7 +9662,7 @@
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B364" s="2">
         <v>41745</v>
@@ -9653,7 +9688,7 @@
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B365" s="2">
         <v>41760</v>
@@ -9682,7 +9717,7 @@
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B366" s="2">
         <v>41768</v>
@@ -9711,7 +9746,7 @@
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B367" s="2">
         <v>41788</v>
@@ -9737,7 +9772,7 @@
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B368" s="2">
         <v>41806</v>
@@ -9763,7 +9798,7 @@
     </row>
     <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B369" s="2">
         <v>41808</v>
@@ -9783,7 +9818,7 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B370" s="2">
         <v>41835</v>
@@ -9812,7 +9847,7 @@
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B371" s="2">
         <v>41844</v>
@@ -9844,7 +9879,7 @@
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B372" s="2">
         <v>41855</v>
@@ -9873,7 +9908,7 @@
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B373" s="2">
         <v>41870</v>
@@ -9893,7 +9928,7 @@
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B374" s="2">
         <v>41883</v>
@@ -9922,7 +9957,7 @@
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B375" s="2">
         <v>41891</v>
@@ -9942,7 +9977,7 @@
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B376" s="2">
         <v>41908</v>
@@ -9971,7 +10006,7 @@
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B377" s="2">
         <v>41912</v>
@@ -9991,7 +10026,7 @@
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B378" s="2">
         <v>41925</v>
@@ -10020,7 +10055,7 @@
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B379" s="2">
         <v>41947</v>
@@ -10049,7 +10084,7 @@
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B380" s="2">
         <v>41964</v>
@@ -10090,7 +10125,7 @@
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B381" s="2">
         <v>41969</v>
@@ -10119,7 +10154,7 @@
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B382" s="2">
         <v>41971</v>
@@ -10139,7 +10174,7 @@
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B383" s="2">
         <v>41984</v>
@@ -10165,7 +10200,7 @@
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B384" s="2">
         <v>41996</v>
@@ -10191,7 +10226,7 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B385" s="2">
         <v>42016</v>
@@ -10217,7 +10252,7 @@
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B386" s="2">
         <v>42024</v>
@@ -10243,13 +10278,13 @@
     </row>
     <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B387" s="2">
         <v>42027</v>
       </c>
       <c r="C387" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G387">
         <v>2958.3922978387232</v>
@@ -10290,7 +10325,7 @@
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B388" s="2">
         <v>41752</v>
@@ -10307,7 +10342,7 @@
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B389" s="2">
         <v>41760</v>
@@ -10327,7 +10362,7 @@
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B390" s="2">
         <v>41768</v>
@@ -10347,7 +10382,7 @@
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B391" s="2">
         <v>41788</v>
@@ -10373,7 +10408,7 @@
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B392" s="2">
         <v>41806</v>
@@ -10399,7 +10434,7 @@
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B393" s="2">
         <v>41808</v>
@@ -10419,7 +10454,7 @@
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B394" s="2">
         <v>41835</v>
@@ -10448,7 +10483,7 @@
     </row>
     <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B395" s="2">
         <v>41855</v>
@@ -10477,7 +10512,7 @@
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B396" s="2">
         <v>41870</v>
@@ -10497,7 +10532,7 @@
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B397" s="2">
         <v>41883</v>
@@ -10526,7 +10561,7 @@
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B398" s="2">
         <v>41891</v>
@@ -10546,7 +10581,7 @@
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B399" s="2">
         <v>41908</v>
@@ -10575,7 +10610,7 @@
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B400" s="2">
         <v>41912</v>
@@ -10610,7 +10645,7 @@
     </row>
     <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B401" s="2">
         <v>41925</v>
@@ -10639,7 +10674,7 @@
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B402" s="2">
         <v>41947</v>
@@ -10668,7 +10703,7 @@
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B403" s="2">
         <v>41964</v>
@@ -10688,7 +10723,7 @@
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B404" s="2">
         <v>41969</v>
@@ -10717,7 +10752,7 @@
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B405" s="2">
         <v>41971</v>
@@ -10758,7 +10793,7 @@
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B406" s="2">
         <v>41984</v>
@@ -10787,7 +10822,7 @@
     </row>
     <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B407" s="2">
         <v>41996</v>
@@ -10816,7 +10851,7 @@
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B408" s="2">
         <v>42016</v>
@@ -10845,7 +10880,7 @@
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B409" s="2">
         <v>42024</v>
@@ -10874,13 +10909,13 @@
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B410" s="2">
         <v>42037</v>
       </c>
       <c r="C410" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G410">
         <v>2832.8489813897049</v>
@@ -10921,7 +10956,7 @@
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B411" s="2">
         <v>41752</v>
@@ -10938,7 +10973,7 @@
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B412" s="2">
         <v>41760</v>
@@ -10958,7 +10993,7 @@
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B413" s="2">
         <v>41768</v>
@@ -10978,7 +11013,7 @@
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B414" s="2">
         <v>41788</v>
@@ -11004,7 +11039,7 @@
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B415" s="2">
         <v>41806</v>
@@ -11030,7 +11065,7 @@
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B416" s="2">
         <v>41808</v>
@@ -11050,7 +11085,7 @@
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B417" s="2">
         <v>41835</v>
@@ -11079,7 +11114,7 @@
     </row>
     <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B418" s="2">
         <v>41855</v>
@@ -11108,7 +11143,7 @@
     </row>
     <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B419" s="2">
         <v>41870</v>
@@ -11128,7 +11163,7 @@
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B420" s="2">
         <v>41883</v>
@@ -11157,7 +11192,7 @@
     </row>
     <row r="421" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B421" s="2">
         <v>41891</v>
@@ -11177,7 +11212,7 @@
     </row>
     <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B422" s="2">
         <v>41908</v>
@@ -11206,7 +11241,7 @@
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B423" s="2">
         <v>41912</v>
@@ -11241,7 +11276,7 @@
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B424" s="2">
         <v>41925</v>
@@ -11270,7 +11305,7 @@
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B425" s="2">
         <v>41947</v>
@@ -11299,7 +11334,7 @@
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B426" s="2">
         <v>41964</v>
@@ -11319,7 +11354,7 @@
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B427" s="2">
         <v>41969</v>
@@ -11348,7 +11383,7 @@
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B428" s="2">
         <v>41971</v>
@@ -11389,7 +11424,7 @@
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B429" s="2">
         <v>41984</v>
@@ -11418,7 +11453,7 @@
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B430" s="2">
         <v>41996</v>
@@ -11447,7 +11482,7 @@
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B431" s="2">
         <v>42016</v>
@@ -11476,7 +11511,7 @@
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B432" s="2">
         <v>42024</v>
@@ -11505,13 +11540,13 @@
     </row>
     <row r="433" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B433" s="2">
         <v>42037</v>
       </c>
       <c r="C433" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G433">
         <v>2628.497178064712</v>
@@ -11552,7 +11587,7 @@
     </row>
     <row r="434" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B434" s="2">
         <v>41724</v>
@@ -11569,7 +11604,7 @@
     </row>
     <row r="435" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B435" s="2">
         <v>41738</v>
@@ -11595,7 +11630,7 @@
     </row>
     <row r="436" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B436" s="2">
         <v>41745</v>
@@ -11621,7 +11656,7 @@
     </row>
     <row r="437" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B437" s="2">
         <v>41760</v>
@@ -11650,7 +11685,7 @@
     </row>
     <row r="438" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B438" s="2">
         <v>41768</v>
@@ -11679,7 +11714,7 @@
     </row>
     <row r="439" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B439" s="2">
         <v>41788</v>
@@ -11705,7 +11740,7 @@
     </row>
     <row r="440" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B440" s="2">
         <v>41806</v>
@@ -11731,7 +11766,7 @@
     </row>
     <row r="441" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B441" s="2">
         <v>41808</v>
@@ -11751,7 +11786,7 @@
     </row>
     <row r="442" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B442" s="2">
         <v>41835</v>
@@ -11780,7 +11815,7 @@
     </row>
     <row r="443" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B443" s="2">
         <v>41855</v>
@@ -11809,7 +11844,7 @@
     </row>
     <row r="444" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B444" s="2">
         <v>41870</v>
@@ -11829,7 +11864,7 @@
     </row>
     <row r="445" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B445" s="2">
         <v>41883</v>
@@ -11858,7 +11893,7 @@
     </row>
     <row r="446" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B446" s="2">
         <v>41891</v>
@@ -11893,7 +11928,7 @@
     </row>
     <row r="447" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B447" s="2">
         <v>41908</v>
@@ -11922,7 +11957,7 @@
     </row>
     <row r="448" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B448" s="2">
         <v>41912</v>
@@ -11942,7 +11977,7 @@
     </row>
     <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B449" s="2">
         <v>41925</v>
@@ -11971,7 +12006,7 @@
     </row>
     <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B450" s="2">
         <v>41947</v>
@@ -12000,7 +12035,7 @@
     </row>
     <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B451" s="2">
         <v>41964</v>
@@ -12020,7 +12055,7 @@
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B452" s="2">
         <v>41969</v>
@@ -12049,7 +12084,7 @@
     </row>
     <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B453" s="2">
         <v>41971</v>
@@ -12090,7 +12125,7 @@
     </row>
     <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B454" s="2">
         <v>41984</v>
@@ -12119,7 +12154,7 @@
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B455" s="2">
         <v>41996</v>
@@ -12148,7 +12183,7 @@
     </row>
     <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B456" s="2">
         <v>42016</v>
@@ -12177,7 +12212,7 @@
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B457" s="2">
         <v>42024</v>
@@ -12206,13 +12241,13 @@
     </row>
     <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B458" s="2">
         <v>42027</v>
       </c>
       <c r="C458" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G458">
         <v>3036.0845989142622</v>
@@ -12253,7 +12288,7 @@
     </row>
     <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B459" s="2">
         <v>41724</v>
@@ -12270,7 +12305,7 @@
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B460" s="2">
         <v>41738</v>
@@ -12296,7 +12331,7 @@
     </row>
     <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B461" s="2">
         <v>41745</v>
@@ -12322,7 +12357,7 @@
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B462" s="2">
         <v>41760</v>
@@ -12351,7 +12386,7 @@
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B463" s="2">
         <v>41768</v>
@@ -12380,7 +12415,7 @@
     </row>
     <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B464" s="2">
         <v>41788</v>
@@ -12406,7 +12441,7 @@
     </row>
     <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B465" s="2">
         <v>41806</v>
@@ -12432,7 +12467,7 @@
     </row>
     <row r="466" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B466" s="2">
         <v>41808</v>
@@ -12452,7 +12487,7 @@
     </row>
     <row r="467" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B467" s="2">
         <v>41835</v>
@@ -12481,7 +12516,7 @@
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B468" s="2">
         <v>41855</v>
@@ -12510,7 +12545,7 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B469" s="2">
         <v>41870</v>
@@ -12530,7 +12565,7 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B470" s="2">
         <v>41883</v>
@@ -12559,7 +12594,7 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B471" s="2">
         <v>41891</v>
@@ -12594,7 +12629,7 @@
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B472" s="2">
         <v>41908</v>
@@ -12623,7 +12658,7 @@
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B473" s="2">
         <v>41912</v>
@@ -12643,7 +12678,7 @@
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B474" s="2">
         <v>41925</v>
@@ -12672,7 +12707,7 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B475" s="2">
         <v>41947</v>
@@ -12701,7 +12736,7 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B476" s="2">
         <v>41964</v>
@@ -12721,7 +12756,7 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B477" s="2">
         <v>41969</v>
@@ -12750,7 +12785,7 @@
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B478" s="2">
         <v>41971</v>
@@ -12791,7 +12826,7 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B479" s="2">
         <v>41984</v>
@@ -12820,7 +12855,7 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B480" s="2">
         <v>41996</v>
@@ -12849,7 +12884,7 @@
     </row>
     <row r="481" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B481" s="2">
         <v>42016</v>
@@ -12878,7 +12913,7 @@
     </row>
     <row r="482" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B482" s="2">
         <v>42024</v>
@@ -12907,13 +12942,13 @@
     </row>
     <row r="483" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B483" s="2">
         <v>42027</v>
       </c>
       <c r="C483" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G483">
         <v>2757.9209185983241</v>
@@ -12954,7 +12989,7 @@
     </row>
     <row r="484" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B484" s="2">
         <v>42103</v>
@@ -12971,7 +13006,7 @@
     </row>
     <row r="485" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B485" s="2">
         <v>42118</v>
@@ -12991,7 +13026,7 @@
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B486" s="2">
         <v>42135</v>
@@ -13017,7 +13052,7 @@
     </row>
     <row r="487" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B487" s="2">
         <v>42151</v>
@@ -13043,7 +13078,7 @@
     </row>
     <row r="488" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B488" s="2">
         <v>42172</v>
@@ -13069,7 +13104,7 @@
     </row>
     <row r="489" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B489" s="2">
         <v>42202</v>
@@ -13095,7 +13130,7 @@
     </row>
     <row r="490" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B490" s="2">
         <v>42215</v>
@@ -13115,7 +13150,7 @@
     </row>
     <row r="491" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B491" s="2">
         <v>42235</v>
@@ -13141,7 +13176,7 @@
     </row>
     <row r="492" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B492" s="2">
         <v>42255</v>
@@ -13167,7 +13202,7 @@
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B493" s="2">
         <v>42268</v>
@@ -13187,7 +13222,7 @@
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B494" s="2">
         <v>42276</v>
@@ -13225,7 +13260,7 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B495" s="2">
         <v>42278</v>
@@ -13251,7 +13286,7 @@
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B496" s="2">
         <v>42298</v>
@@ -13277,7 +13312,7 @@
     </row>
     <row r="497" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B497" s="2">
         <v>42320</v>
@@ -13303,7 +13338,7 @@
     </row>
     <row r="498" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B498" s="2">
         <v>42332</v>
@@ -13323,7 +13358,7 @@
     </row>
     <row r="499" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B499" s="2">
         <v>42339</v>
@@ -13343,7 +13378,7 @@
     </row>
     <row r="500" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B500" s="2">
         <v>42346</v>
@@ -13390,7 +13425,7 @@
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B501" s="2">
         <v>42374</v>
@@ -13413,7 +13448,7 @@
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B502" s="2">
         <v>42394</v>
@@ -13436,13 +13471,13 @@
     </row>
     <row r="503" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B503" s="2">
         <v>42411</v>
       </c>
       <c r="C503" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G503">
         <v>3311.4106193339821</v>
@@ -13483,7 +13518,7 @@
     </row>
     <row r="504" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B504" s="2">
         <v>42073</v>
@@ -13500,7 +13535,7 @@
     </row>
     <row r="505" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B505" s="2">
         <v>42087</v>
@@ -13526,7 +13561,7 @@
     </row>
     <row r="506" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B506" s="2">
         <v>42096</v>
@@ -13552,7 +13587,7 @@
     </row>
     <row r="507" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B507" s="2">
         <v>42102</v>
@@ -13578,7 +13613,7 @@
     </row>
     <row r="508" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B508" s="2">
         <v>42118</v>
@@ -13604,7 +13639,7 @@
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B509" s="2">
         <v>42135</v>
@@ -13630,7 +13665,7 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B510" s="2">
         <v>42151</v>
@@ -13656,7 +13691,7 @@
     </row>
     <row r="511" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B511" s="2">
         <v>42172</v>
@@ -13682,7 +13717,7 @@
     </row>
     <row r="512" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B512" s="2">
         <v>42202</v>
@@ -13708,7 +13743,7 @@
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B513" s="2">
         <v>42215</v>
@@ -13728,7 +13763,7 @@
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B514" s="2">
         <v>42235</v>
@@ -13754,7 +13789,7 @@
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B515" s="2">
         <v>42255</v>
@@ -13798,7 +13833,7 @@
     </row>
     <row r="516" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B516" s="2">
         <v>42268</v>
@@ -13818,7 +13853,7 @@
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B517" s="2">
         <v>42276</v>
@@ -13838,7 +13873,7 @@
     </row>
     <row r="518" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B518" s="2">
         <v>42278</v>
@@ -13864,7 +13899,7 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B519" s="2">
         <v>42298</v>
@@ -13890,7 +13925,7 @@
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B520" s="2">
         <v>42320</v>
@@ -13916,7 +13951,7 @@
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B521" s="2">
         <v>42332</v>
@@ -13936,7 +13971,7 @@
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B522" s="2">
         <v>42339</v>
@@ -13977,7 +14012,7 @@
     </row>
     <row r="523" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B523" s="2">
         <v>42346</v>
@@ -14003,7 +14038,7 @@
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B524" s="2">
         <v>42374</v>
@@ -14026,7 +14061,7 @@
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B525" s="2">
         <v>42394</v>
@@ -14049,13 +14084,13 @@
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B526" s="2">
         <v>42404</v>
       </c>
       <c r="C526" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G526">
         <v>3215.9740827244418</v>
@@ -14096,7 +14131,7 @@
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B527" s="2">
         <v>42055</v>
@@ -14113,7 +14148,7 @@
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B528" s="2">
         <v>42067</v>
@@ -14133,7 +14168,7 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B529" s="2">
         <v>42076</v>
@@ -14159,7 +14194,7 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B530" s="2">
         <v>42087</v>
@@ -14185,7 +14220,7 @@
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B531" s="2">
         <v>42096</v>
@@ -14211,7 +14246,7 @@
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B532" s="2">
         <v>42102</v>
@@ -14237,7 +14272,7 @@
     </row>
     <row r="533" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B533" s="2">
         <v>42118</v>
@@ -14263,7 +14298,7 @@
     </row>
     <row r="534" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B534" s="2">
         <v>42135</v>
@@ -14289,7 +14324,7 @@
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B535" s="2">
         <v>42151</v>
@@ -14315,7 +14350,7 @@
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B536" s="2">
         <v>42172</v>
@@ -14341,7 +14376,7 @@
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B537" s="2">
         <v>42202</v>
@@ -14367,7 +14402,7 @@
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B538" s="2">
         <v>42215</v>
@@ -14405,7 +14440,7 @@
     </row>
     <row r="539" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B539" s="2">
         <v>42235</v>
@@ -14431,7 +14466,7 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B540" s="2">
         <v>42255</v>
@@ -14457,7 +14492,7 @@
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B541" s="2">
         <v>42268</v>
@@ -14477,7 +14512,7 @@
     </row>
     <row r="542" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B542" s="2">
         <v>42276</v>
@@ -14497,7 +14532,7 @@
     </row>
     <row r="543" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B543" s="2">
         <v>42278</v>
@@ -14523,7 +14558,7 @@
     </row>
     <row r="544" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B544" s="2">
         <v>42298</v>
@@ -14549,7 +14584,7 @@
     </row>
     <row r="545" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B545" s="2">
         <v>42320</v>
@@ -14575,7 +14610,7 @@
     </row>
     <row r="546" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B546" s="2">
         <v>42332</v>
@@ -14616,7 +14651,7 @@
     </row>
     <row r="547" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B547" s="2">
         <v>42339</v>
@@ -14636,7 +14671,7 @@
     </row>
     <row r="548" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B548" s="2">
         <v>42346</v>
@@ -14662,7 +14697,7 @@
     </row>
     <row r="549" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B549" s="2">
         <v>42374</v>
@@ -14685,7 +14720,7 @@
     </row>
     <row r="550" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B550" s="2">
         <v>42394</v>
@@ -14708,13 +14743,13 @@
     </row>
     <row r="551" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B551" s="2">
         <v>42404</v>
       </c>
       <c r="C551" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G551">
         <v>3019.3067355123289</v>
@@ -14755,7 +14790,7 @@
     </row>
     <row r="552" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B552" s="2">
         <v>42083</v>
@@ -14772,7 +14807,7 @@
     </row>
     <row r="553" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B553" s="2">
         <v>42096</v>
@@ -14798,7 +14833,7 @@
     </row>
     <row r="554" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B554" s="2">
         <v>42102</v>
@@ -14824,7 +14859,7 @@
     </row>
     <row r="555" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B555" s="2">
         <v>42118</v>
@@ -14850,7 +14885,7 @@
     </row>
     <row r="556" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B556" s="2">
         <v>42135</v>
@@ -14876,7 +14911,7 @@
     </row>
     <row r="557" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B557" s="2">
         <v>42151</v>
@@ -14902,7 +14937,7 @@
     </row>
     <row r="558" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B558" s="2">
         <v>42172</v>
@@ -14928,7 +14963,7 @@
     </row>
     <row r="559" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B559" s="2">
         <v>42202</v>
@@ -14954,7 +14989,7 @@
     </row>
     <row r="560" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B560" s="2">
         <v>42215</v>
@@ -14974,7 +15009,7 @@
     </row>
     <row r="561" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B561" s="2">
         <v>42235</v>
@@ -15000,7 +15035,7 @@
     </row>
     <row r="562" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B562" s="2">
         <v>42255</v>
@@ -15026,7 +15061,7 @@
     </row>
     <row r="563" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B563" s="2">
         <v>42268</v>
@@ -15064,7 +15099,7 @@
     </row>
     <row r="564" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B564" s="2">
         <v>42276</v>
@@ -15084,7 +15119,7 @@
     </row>
     <row r="565" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B565" s="2">
         <v>42278</v>
@@ -15110,7 +15145,7 @@
     </row>
     <row r="566" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B566" s="2">
         <v>42298</v>
@@ -15136,7 +15171,7 @@
     </row>
     <row r="567" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B567" s="2">
         <v>42320</v>
@@ -15162,7 +15197,7 @@
     </row>
     <row r="568" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B568" s="2">
         <v>42332</v>
@@ -15182,7 +15217,7 @@
     </row>
     <row r="569" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B569" s="2">
         <v>42339</v>
@@ -15223,7 +15258,7 @@
     </row>
     <row r="570" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B570" s="2">
         <v>42346</v>
@@ -15249,7 +15284,7 @@
     </row>
     <row r="571" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B571" s="2">
         <v>42374</v>
@@ -15272,7 +15307,7 @@
     </row>
     <row r="572" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B572" s="2">
         <v>42394</v>
@@ -15295,13 +15330,13 @@
     </row>
     <row r="573" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B573" s="2">
         <v>42404</v>
       </c>
       <c r="C573" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G573">
         <v>3142.8429349048379</v>
@@ -15342,7 +15377,7 @@
     </row>
     <row r="574" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B574" s="2">
         <v>42437</v>
@@ -15359,7 +15394,7 @@
     </row>
     <row r="575" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B575" s="2">
         <v>42466</v>
@@ -15385,7 +15420,7 @@
     </row>
     <row r="576" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B576" s="2">
         <v>42478</v>
@@ -15411,7 +15446,7 @@
     </row>
     <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B577" s="2">
         <v>42487</v>
@@ -15431,7 +15466,7 @@
     </row>
     <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B578" s="2">
         <v>42488</v>
@@ -15451,7 +15486,7 @@
     </row>
     <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B579" s="2">
         <v>42500</v>
@@ -15471,7 +15506,7 @@
     </row>
     <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B580" s="2">
         <v>42501</v>
@@ -15497,7 +15532,7 @@
     </row>
     <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B581" s="2">
         <v>42521</v>
@@ -15520,7 +15555,7 @@
     </row>
     <row r="582" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B582" s="2">
         <v>42544</v>
@@ -15546,7 +15581,7 @@
     </row>
     <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B583" s="2">
         <v>42558</v>
@@ -15566,7 +15601,7 @@
     </row>
     <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B584" s="2">
         <v>42565</v>
@@ -15592,7 +15627,7 @@
     </row>
     <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B585" s="2">
         <v>42590</v>
@@ -15618,7 +15653,7 @@
     </row>
     <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B586" s="2">
         <v>42611</v>
@@ -15638,7 +15673,7 @@
     </row>
     <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B587" s="2">
         <v>42612</v>
@@ -15664,7 +15699,7 @@
     </row>
     <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B588" s="2">
         <v>42626</v>
@@ -15702,7 +15737,7 @@
     </row>
     <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B589" s="2">
         <v>42641</v>
@@ -15728,7 +15763,7 @@
     </row>
     <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B590" s="2">
         <v>42646</v>
@@ -15748,7 +15783,7 @@
     </row>
     <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B591" s="2">
         <v>42663</v>
@@ -15771,7 +15806,7 @@
     </row>
     <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B592" s="2">
         <v>42689</v>
@@ -15797,7 +15832,7 @@
     </row>
     <row r="593" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B593" s="2">
         <v>42697</v>
@@ -15817,7 +15852,7 @@
     </row>
     <row r="594" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B594" s="2">
         <v>42702</v>
@@ -15855,7 +15890,7 @@
     </row>
     <row r="595" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B595" s="2">
         <v>42709</v>
@@ -15881,7 +15916,7 @@
     </row>
     <row r="596" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B596" s="2">
         <v>42726</v>
@@ -15904,7 +15939,7 @@
     </row>
     <row r="597" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B597" s="2">
         <v>42747</v>
@@ -15927,7 +15962,7 @@
     </row>
     <row r="598" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B598" s="2">
         <v>42765</v>
@@ -15947,7 +15982,7 @@
     </row>
     <row r="599" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B599" s="2">
         <v>42766</v>
@@ -15970,13 +16005,13 @@
     </row>
     <row r="600" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B600" s="2">
         <v>42776</v>
       </c>
       <c r="C600" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G600">
         <v>2354.3809974130422</v>
@@ -16017,7 +16052,7 @@
     </row>
     <row r="601" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B601" s="2">
         <v>42474</v>
@@ -16034,7 +16069,7 @@
     </row>
     <row r="602" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B602" s="2">
         <v>42487</v>
@@ -16054,7 +16089,7 @@
     </row>
     <row r="603" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B603" s="2">
         <v>42488</v>
@@ -16074,7 +16109,7 @@
     </row>
     <row r="604" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B604" s="2">
         <v>42500</v>
@@ -16094,7 +16129,7 @@
     </row>
     <row r="605" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B605" s="2">
         <v>42501</v>
@@ -16120,7 +16155,7 @@
     </row>
     <row r="606" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B606" s="2">
         <v>42521</v>
@@ -16143,7 +16178,7 @@
     </row>
     <row r="607" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B607" s="2">
         <v>42544</v>
@@ -16169,7 +16204,7 @@
     </row>
     <row r="608" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B608" s="2">
         <v>42558</v>
@@ -16189,7 +16224,7 @@
     </row>
     <row r="609" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B609" s="2">
         <v>42565</v>
@@ -16215,7 +16250,7 @@
     </row>
     <row r="610" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B610" s="2">
         <v>42590</v>
@@ -16241,7 +16276,7 @@
     </row>
     <row r="611" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B611" s="2">
         <v>42611</v>
@@ -16261,7 +16296,7 @@
     </row>
     <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B612" s="2">
         <v>42612</v>
@@ -16287,7 +16322,7 @@
     </row>
     <row r="613" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B613" s="2">
         <v>42626</v>
@@ -16307,7 +16342,7 @@
     </row>
     <row r="614" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B614" s="2">
         <v>42641</v>
@@ -16333,7 +16368,7 @@
     </row>
     <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B615" s="2">
         <v>42646</v>
@@ -16371,7 +16406,7 @@
     </row>
     <row r="616" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B616" s="2">
         <v>42663</v>
@@ -16394,7 +16429,7 @@
     </row>
     <row r="617" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B617" s="2">
         <v>42689</v>
@@ -16420,7 +16455,7 @@
     </row>
     <row r="618" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B618" s="2">
         <v>42697</v>
@@ -16440,7 +16475,7 @@
     </row>
     <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B619" s="2">
         <v>42709</v>
@@ -16487,7 +16522,7 @@
     </row>
     <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B620" s="2">
         <v>42726</v>
@@ -16510,7 +16545,7 @@
     </row>
     <row r="621" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B621" s="2">
         <v>42747</v>
@@ -16533,7 +16568,7 @@
     </row>
     <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B622" s="2">
         <v>42765</v>
@@ -16553,7 +16588,7 @@
     </row>
     <row r="623" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B623" s="2">
         <v>42766</v>
@@ -16576,13 +16611,13 @@
     </row>
     <row r="624" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B624" s="2">
         <v>42776</v>
       </c>
       <c r="C624" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G624">
         <v>2928.2456381937632</v>
@@ -16623,7 +16658,7 @@
     </row>
     <row r="625" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B625" s="2">
         <v>42424</v>
@@ -16640,7 +16675,7 @@
     </row>
     <row r="626" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B626" s="2">
         <v>42447</v>
@@ -16666,7 +16701,7 @@
     </row>
     <row r="627" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B627" s="2">
         <v>42466</v>
@@ -16692,7 +16727,7 @@
     </row>
     <row r="628" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B628" s="2">
         <v>42478</v>
@@ -16718,7 +16753,7 @@
     </row>
     <row r="629" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B629" s="2">
         <v>42487</v>
@@ -16738,7 +16773,7 @@
     </row>
     <row r="630" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B630" s="2">
         <v>42488</v>
@@ -16758,7 +16793,7 @@
     </row>
     <row r="631" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B631" s="2">
         <v>42500</v>
@@ -16778,7 +16813,7 @@
     </row>
     <row r="632" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B632" s="2">
         <v>42501</v>
@@ -16804,7 +16839,7 @@
     </row>
     <row r="633" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B633" s="2">
         <v>42521</v>
@@ -16827,7 +16862,7 @@
     </row>
     <row r="634" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B634" s="2">
         <v>42544</v>
@@ -16853,7 +16888,7 @@
     </row>
     <row r="635" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B635" s="2">
         <v>42558</v>
@@ -16873,7 +16908,7 @@
     </row>
     <row r="636" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B636" s="2">
         <v>42565</v>
@@ -16899,7 +16934,7 @@
     </row>
     <row r="637" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B637" s="2">
         <v>42579</v>
@@ -16934,7 +16969,7 @@
     </row>
     <row r="638" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B638" s="2">
         <v>42590</v>
@@ -16960,7 +16995,7 @@
     </row>
     <row r="639" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B639" s="2">
         <v>42611</v>
@@ -16980,7 +17015,7 @@
     </row>
     <row r="640" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B640" s="2">
         <v>42612</v>
@@ -17006,7 +17041,7 @@
     </row>
     <row r="641" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B641" s="2">
         <v>42626</v>
@@ -17026,7 +17061,7 @@
     </row>
     <row r="642" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B642" s="2">
         <v>42641</v>
@@ -17052,7 +17087,7 @@
     </row>
     <row r="643" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B643" s="2">
         <v>42646</v>
@@ -17072,7 +17107,7 @@
     </row>
     <row r="644" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B644" s="2">
         <v>42663</v>
@@ -17095,7 +17130,7 @@
     </row>
     <row r="645" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B645" s="2">
         <v>42689</v>
@@ -17121,7 +17156,7 @@
     </row>
     <row r="646" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B646" s="2">
         <v>42697</v>
@@ -17141,7 +17176,7 @@
     </row>
     <row r="647" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B647" s="2">
         <v>42702</v>
@@ -17179,7 +17214,7 @@
     </row>
     <row r="648" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B648" s="2">
         <v>42709</v>
@@ -17205,7 +17240,7 @@
     </row>
     <row r="649" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B649" s="2">
         <v>42726</v>
@@ -17228,7 +17263,7 @@
     </row>
     <row r="650" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B650" s="2">
         <v>42747</v>
@@ -17251,7 +17286,7 @@
     </row>
     <row r="651" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B651" s="2">
         <v>42765</v>
@@ -17271,7 +17306,7 @@
     </row>
     <row r="652" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B652" s="2">
         <v>42766</v>
@@ -17294,13 +17329,13 @@
     </row>
     <row r="653" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B653" s="2">
         <v>42776</v>
       </c>
       <c r="C653" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G653">
         <v>2476.8616135208058</v>
@@ -17341,7 +17376,7 @@
     </row>
     <row r="654" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B654" s="2">
         <v>42458</v>
@@ -17358,7 +17393,7 @@
     </row>
     <row r="655" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B655" s="2">
         <v>42478</v>
@@ -17384,7 +17419,7 @@
     </row>
     <row r="656" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B656" s="2">
         <v>42487</v>
@@ -17404,7 +17439,7 @@
     </row>
     <row r="657" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B657" s="2">
         <v>42488</v>
@@ -17424,7 +17459,7 @@
     </row>
     <row r="658" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B658" s="2">
         <v>42500</v>
@@ -17444,7 +17479,7 @@
     </row>
     <row r="659" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B659" s="2">
         <v>42501</v>
@@ -17470,7 +17505,7 @@
     </row>
     <row r="660" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B660" s="2">
         <v>42521</v>
@@ -17493,7 +17528,7 @@
     </row>
     <row r="661" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B661" s="2">
         <v>42544</v>
@@ -17519,7 +17554,7 @@
     </row>
     <row r="662" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B662" s="2">
         <v>42558</v>
@@ -17539,7 +17574,7 @@
     </row>
     <row r="663" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B663" s="2">
         <v>42565</v>
@@ -17565,7 +17600,7 @@
     </row>
     <row r="664" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B664" s="2">
         <v>42590</v>
@@ -17591,7 +17626,7 @@
     </row>
     <row r="665" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B665" s="2">
         <v>42611</v>
@@ -17611,7 +17646,7 @@
     </row>
     <row r="666" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B666" s="2">
         <v>42612</v>
@@ -17637,7 +17672,7 @@
     </row>
     <row r="667" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B667" s="2">
         <v>42626</v>
@@ -17675,7 +17710,7 @@
     </row>
     <row r="668" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B668" s="2">
         <v>42641</v>
@@ -17701,7 +17736,7 @@
     </row>
     <row r="669" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B669" s="2">
         <v>42646</v>
@@ -17721,7 +17756,7 @@
     </row>
     <row r="670" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B670" s="2">
         <v>42663</v>
@@ -17744,7 +17779,7 @@
     </row>
     <row r="671" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B671" s="2">
         <v>42689</v>
@@ -17770,7 +17805,7 @@
     </row>
     <row r="672" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B672" s="2">
         <v>42697</v>
@@ -17790,7 +17825,7 @@
     </row>
     <row r="673" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B673" s="2">
         <v>42702</v>
@@ -17828,7 +17863,7 @@
     </row>
     <row r="674" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B674" s="2">
         <v>42709</v>
@@ -17854,7 +17889,7 @@
     </row>
     <row r="675" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B675" s="2">
         <v>42726</v>
@@ -17877,7 +17912,7 @@
     </row>
     <row r="676" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B676" s="2">
         <v>42747</v>
@@ -17900,7 +17935,7 @@
     </row>
     <row r="677" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B677" s="2">
         <v>42765</v>
@@ -17920,7 +17955,7 @@
     </row>
     <row r="678" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B678" s="2">
         <v>42766</v>
@@ -17943,13 +17978,13 @@
     </row>
     <row r="679" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B679" s="2">
         <v>42776</v>
       </c>
       <c r="C679" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G679">
         <v>2922.4671431543529</v>
@@ -17990,7 +18025,7 @@
     </row>
     <row r="680" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B680" s="2">
         <v>42803</v>
@@ -18007,7 +18042,7 @@
     </row>
     <row r="681" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B681" s="2">
         <v>42818</v>
@@ -18036,7 +18071,7 @@
     </row>
     <row r="682" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B682" s="2">
         <v>42835</v>
@@ -18065,7 +18100,7 @@
     </row>
     <row r="683" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B683" s="2">
         <v>42858</v>
@@ -18091,7 +18126,7 @@
     </row>
     <row r="684" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B684" s="2">
         <v>42863</v>
@@ -18111,7 +18146,7 @@
     </row>
     <row r="685" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B685" s="2">
         <v>42880</v>
@@ -18140,7 +18175,7 @@
     </row>
     <row r="686" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B686" s="2">
         <v>42898</v>
@@ -18169,7 +18204,7 @@
     </row>
     <row r="687" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B687" s="2">
         <v>42919</v>
@@ -18198,7 +18233,7 @@
     </row>
     <row r="688" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B688" s="2">
         <v>42934</v>
@@ -18218,7 +18253,7 @@
     </row>
     <row r="689" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B689" s="2">
         <v>42947</v>
@@ -18244,7 +18279,7 @@
     </row>
     <row r="690" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B690" s="2">
         <v>42964</v>
@@ -18291,7 +18326,7 @@
     </row>
     <row r="691" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B691" s="2">
         <v>42986</v>
@@ -18320,7 +18355,7 @@
     </row>
     <row r="692" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B692" s="2">
         <v>43013</v>
@@ -18349,7 +18384,7 @@
     </row>
     <row r="693" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B693" s="2">
         <v>43028</v>
@@ -18378,7 +18413,7 @@
     </row>
     <row r="694" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B694" s="2">
         <v>43046</v>
@@ -18407,7 +18442,7 @@
     </row>
     <row r="695" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B695" s="2">
         <v>43059</v>
@@ -18448,7 +18483,7 @@
     </row>
     <row r="696" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B696" s="2">
         <v>43070</v>
@@ -18474,7 +18509,7 @@
     </row>
     <row r="697" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B697" s="2">
         <v>43090</v>
@@ -18503,7 +18538,7 @@
     </row>
     <row r="698" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B698" s="2">
         <v>43117</v>
@@ -18532,13 +18567,13 @@
     </row>
     <row r="699" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B699" s="2">
         <v>43123</v>
       </c>
       <c r="C699" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G699">
         <v>2227.8126463596859</v>
@@ -18582,7 +18617,7 @@
     </row>
     <row r="700" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B700" s="2">
         <v>42844</v>
@@ -18599,7 +18634,7 @@
     </row>
     <row r="701" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B701" s="2">
         <v>42858</v>
@@ -18622,7 +18657,7 @@
     </row>
     <row r="702" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B702" s="2">
         <v>42863</v>
@@ -18642,7 +18677,7 @@
     </row>
     <row r="703" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B703" s="2">
         <v>42880</v>
@@ -18671,7 +18706,7 @@
     </row>
     <row r="704" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B704" s="2">
         <v>42898</v>
@@ -18700,7 +18735,7 @@
     </row>
     <row r="705" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B705" s="2">
         <v>42919</v>
@@ -18729,7 +18764,7 @@
     </row>
     <row r="706" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B706" s="2">
         <v>42934</v>
@@ -18749,7 +18784,7 @@
     </row>
     <row r="707" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B707" s="2">
         <v>42947</v>
@@ -18775,7 +18810,7 @@
     </row>
     <row r="708" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B708" s="2">
         <v>42964</v>
@@ -18804,7 +18839,7 @@
     </row>
     <row r="709" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B709" s="2">
         <v>42986</v>
@@ -18833,7 +18868,7 @@
     </row>
     <row r="710" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B710" s="2">
         <v>43013</v>
@@ -18880,7 +18915,7 @@
     </row>
     <row r="711" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B711" s="2">
         <v>43028</v>
@@ -18909,7 +18944,7 @@
     </row>
     <row r="712" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B712" s="2">
         <v>43046</v>
@@ -18938,7 +18973,7 @@
     </row>
     <row r="713" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B713" s="2">
         <v>43067</v>
@@ -18979,7 +19014,7 @@
     </row>
     <row r="714" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B714" s="2">
         <v>43070</v>
@@ -19005,7 +19040,7 @@
     </row>
     <row r="715" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B715" s="2">
         <v>43090</v>
@@ -19034,7 +19069,7 @@
     </row>
     <row r="716" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B716" s="2">
         <v>43117</v>
@@ -19063,13 +19098,13 @@
     </row>
     <row r="717" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B717" s="2">
         <v>43129</v>
       </c>
       <c r="C717" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D717">
         <v>13</v>
@@ -19119,7 +19154,7 @@
     </row>
     <row r="718" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B718" s="2">
         <v>42824</v>
@@ -19136,7 +19171,7 @@
     </row>
     <row r="719" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B719" s="2">
         <v>42835</v>
@@ -19162,7 +19197,7 @@
     </row>
     <row r="720" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B720" s="2">
         <v>42858</v>
@@ -19188,7 +19223,7 @@
     </row>
     <row r="721" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B721" s="2">
         <v>42863</v>
@@ -19208,7 +19243,7 @@
     </row>
     <row r="722" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B722" s="2">
         <v>42880</v>
@@ -19237,7 +19272,7 @@
     </row>
     <row r="723" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B723" s="2">
         <v>42898</v>
@@ -19266,7 +19301,7 @@
     </row>
     <row r="724" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B724" s="2">
         <v>42919</v>
@@ -19295,7 +19330,7 @@
     </row>
     <row r="725" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B725" s="2">
         <v>42934</v>
@@ -19315,7 +19350,7 @@
     </row>
     <row r="726" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B726" s="2">
         <v>42947</v>
@@ -19341,7 +19376,7 @@
     </row>
     <row r="727" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B727" s="2">
         <v>42964</v>
@@ -19370,7 +19405,7 @@
     </row>
     <row r="728" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B728" s="2">
         <v>42986</v>
@@ -19417,7 +19452,7 @@
     </row>
     <row r="729" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B729" s="2">
         <v>43013</v>
@@ -19446,7 +19481,7 @@
     </row>
     <row r="730" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B730" s="2">
         <v>43028</v>
@@ -19475,7 +19510,7 @@
     </row>
     <row r="731" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B731" s="2">
         <v>43046</v>
@@ -19504,7 +19539,7 @@
     </row>
     <row r="732" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B732" s="2">
         <v>43067</v>
@@ -19545,7 +19580,7 @@
     </row>
     <row r="733" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B733" s="2">
         <v>43070</v>
@@ -19571,7 +19606,7 @@
     </row>
     <row r="734" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B734" s="2">
         <v>43090</v>
@@ -19600,7 +19635,7 @@
     </row>
     <row r="735" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B735" s="2">
         <v>43117</v>
@@ -19629,13 +19664,13 @@
     </row>
     <row r="736" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B736" s="2">
         <v>43129</v>
       </c>
       <c r="C736" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D736">
         <v>14.6</v>
@@ -19685,10 +19720,10 @@
     </row>
     <row r="737" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C737" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U737">
         <v>161</v>
@@ -19702,13 +19737,13 @@
     </row>
     <row r="738" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C738" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F738">
-        <v>13.631578947368419</v>
+        <v>13.63157895</v>
       </c>
       <c r="U738">
         <v>161</v>
@@ -19722,10 +19757,10 @@
     </row>
     <row r="739" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C739" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U739">
         <v>161</v>
@@ -19739,10 +19774,10 @@
     </row>
     <row r="740" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C740" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U740">
         <v>161</v>
@@ -19756,13 +19791,13 @@
     </row>
     <row r="741" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C741" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F741">
-        <v>13.611111111111111</v>
+        <v>13.61111111</v>
       </c>
       <c r="U741">
         <v>161</v>
@@ -19776,10 +19811,10 @@
     </row>
     <row r="742" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C742" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U742">
         <v>199</v>
@@ -19793,13 +19828,13 @@
     </row>
     <row r="743" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C743" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F743">
-        <v>17.533333333333331</v>
+        <v>17.533333330000001</v>
       </c>
       <c r="U743">
         <v>199</v>
@@ -19813,10 +19848,10 @@
     </row>
     <row r="744" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C744" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U744">
         <v>199</v>
@@ -19830,10 +19865,10 @@
     </row>
     <row r="745" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C745" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U745">
         <v>199</v>
@@ -19847,13 +19882,13 @@
     </row>
     <row r="746" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C746" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F746">
-        <v>17.84615384615385</v>
+        <v>17.84615385</v>
       </c>
       <c r="U746">
         <v>199</v>
@@ -19867,10 +19902,10 @@
     </row>
     <row r="747" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C747" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U747">
         <v>178</v>
@@ -19884,10 +19919,10 @@
     </row>
     <row r="748" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C748" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F748">
         <v>14.65</v>
@@ -19904,10 +19939,10 @@
     </row>
     <row r="749" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C749" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U749">
         <v>178</v>
@@ -19921,10 +19956,10 @@
     </row>
     <row r="750" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C750" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U750">
         <v>178</v>
@@ -19938,13 +19973,13 @@
     </row>
     <row r="751" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C751" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F751">
-        <v>15.444444444444439</v>
+        <v>15.44444444</v>
       </c>
       <c r="U751">
         <v>178</v>
@@ -19958,13 +19993,13 @@
     </row>
     <row r="752" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C752" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F752">
-        <v>15.27777777777778</v>
+        <v>15.277777779999999</v>
       </c>
       <c r="U752">
         <v>185</v>
@@ -19978,13 +20013,13 @@
     </row>
     <row r="753" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C753" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F753">
-        <v>16.111111111111111</v>
+        <v>16.11111111</v>
       </c>
       <c r="U753">
         <v>185</v>
@@ -19998,13 +20033,13 @@
     </row>
     <row r="754" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C754" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F754">
-        <v>17.333333333333329</v>
+        <v>17.333333329999999</v>
       </c>
       <c r="U754">
         <v>203</v>
@@ -20018,10 +20053,10 @@
     </row>
     <row r="755" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C755" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F755">
         <v>18</v>
@@ -20038,10 +20073,10 @@
     </row>
     <row r="756" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C756" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F756">
         <v>12.95</v>
@@ -20058,10 +20093,10 @@
     </row>
     <row r="757" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C757" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F757">
         <v>13.25</v>
@@ -20078,10 +20113,10 @@
     </row>
     <row r="758" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C758" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F758">
         <v>14.45</v>
@@ -20098,13 +20133,13 @@
     </row>
     <row r="759" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C759" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F759">
-        <v>14.888888888888889</v>
+        <v>14.88888889</v>
       </c>
       <c r="U759">
         <v>169</v>
@@ -20118,10 +20153,10 @@
     </row>
     <row r="760" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C760" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F760">
         <v>12.8</v>
@@ -20138,10 +20173,10 @@
     </row>
     <row r="761" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C761" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F761">
         <v>15</v>
@@ -20158,13 +20193,13 @@
     </row>
     <row r="762" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C762" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F762">
-        <v>16.76923076923077</v>
+        <v>16.76923077</v>
       </c>
       <c r="U762">
         <v>203</v>
@@ -20178,10 +20213,10 @@
     </row>
     <row r="763" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C763" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F763">
         <v>14.3</v>
@@ -20198,13 +20233,13 @@
     </row>
     <row r="764" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C764" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F764">
-        <v>16.07692307692308</v>
+        <v>16.07692308</v>
       </c>
       <c r="U764">
         <v>190</v>
@@ -20218,13 +20253,13 @@
     </row>
     <row r="765" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C765" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F765">
-        <v>13.789473684210529</v>
+        <v>13.78947368</v>
       </c>
       <c r="U765">
         <v>162</v>
@@ -20238,10 +20273,10 @@
     </row>
     <row r="766" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C766" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F766">
         <v>17</v>
@@ -20258,10 +20293,10 @@
     </row>
     <row r="767" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C767" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F767">
         <v>15</v>
@@ -20278,13 +20313,13 @@
     </row>
     <row r="768" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C768" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F768">
-        <v>14.94736842105263</v>
+        <v>14.94736842</v>
       </c>
       <c r="U768">
         <v>185</v>
@@ -20298,10 +20333,10 @@
     </row>
     <row r="769" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
+        <v>52</v>
+      </c>
+      <c r="C769" t="s">
         <v>54</v>
-      </c>
-      <c r="C769" t="s">
-        <v>56</v>
       </c>
       <c r="F769">
         <v>13</v>
@@ -20318,10 +20353,10 @@
     </row>
     <row r="770" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C770" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F770">
         <v>14.6</v>

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13E6883-C077-43BF-AEBB-8EA89695DF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB80BE4-51D3-426D-9693-3F0E50F727BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Wheat.Stem.Wt</t>
   </si>
   <si>
-    <t>Wheat.Leaf.LAI</t>
-  </si>
-  <si>
     <t>Wheat.Phenology.Zadok.Stage</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
   </si>
   <si>
     <t>Wheat.Grain.Size</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverTotal</t>
   </si>
   <si>
     <t>Wheat.Phenology.TerminalSpikeletDAS</t>
@@ -195,6 +189,12 @@
   <si>
     <t>Wheat.Leaf.HaunStage</t>
   </si>
+  <si>
+    <t>Wheat.Leaf.Canopy.LAI</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Canopy.CoverTotal</t>
+  </si>
 </sst>
 </file>
 
@@ -279,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,9 +319,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,26 +354,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,26 +389,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,18 +567,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F770"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,13 +589,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -647,45 +613,45 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>41380</v>
@@ -700,9 +666,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>41422</v>
@@ -720,9 +686,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>41456</v>
@@ -740,9 +706,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>41480</v>
@@ -760,9 +726,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>41512</v>
@@ -780,9 +746,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>41520</v>
@@ -800,9 +766,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>41548</v>
@@ -820,9 +786,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>41610</v>
@@ -858,15 +824,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>41667</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>2584.6752418452079</v>
@@ -905,9 +871,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>41380</v>
@@ -922,9 +888,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>41393</v>
@@ -945,9 +911,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>41409</v>
@@ -971,9 +937,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>41422</v>
@@ -991,9 +957,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>41431</v>
@@ -1014,9 +980,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>41451</v>
@@ -1037,9 +1003,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>41456</v>
@@ -1057,9 +1023,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>41473</v>
@@ -1080,9 +1046,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>41480</v>
@@ -1100,9 +1066,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>41501</v>
@@ -1123,9 +1089,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>41512</v>
@@ -1143,9 +1109,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>41520</v>
@@ -1163,9 +1129,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>41535</v>
@@ -1186,9 +1152,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>41548</v>
@@ -1206,9 +1172,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>41562</v>
@@ -1232,9 +1198,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>41576</v>
@@ -1258,9 +1224,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>41597</v>
@@ -1284,9 +1250,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
         <v>41610</v>
@@ -1322,9 +1288,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>41617</v>
@@ -1339,9 +1305,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2">
         <v>41631</v>
@@ -1359,9 +1325,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2">
         <v>41646</v>
@@ -1379,9 +1345,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
         <v>41656</v>
@@ -1396,9 +1362,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
         <v>41660</v>
@@ -1413,15 +1379,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2">
         <v>41667</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G34">
         <v>2504.2002985697291</v>
@@ -1460,9 +1426,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2">
         <v>41380</v>
@@ -1477,9 +1443,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2">
         <v>41422</v>
@@ -1497,9 +1463,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2">
         <v>41456</v>
@@ -1517,9 +1483,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2">
         <v>41480</v>
@@ -1537,9 +1503,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2">
         <v>41512</v>
@@ -1557,9 +1523,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2">
         <v>41520</v>
@@ -1577,9 +1543,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2">
         <v>41548</v>
@@ -1597,9 +1563,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" s="2">
         <v>41610</v>
@@ -1635,15 +1601,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2">
         <v>41667</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G43">
         <v>2487.5529363685941</v>
@@ -1682,9 +1648,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2">
         <v>41380</v>
@@ -1699,9 +1665,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2">
         <v>41393</v>
@@ -1722,9 +1688,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2">
         <v>41409</v>
@@ -1745,9 +1711,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2">
         <v>41422</v>
@@ -1765,9 +1731,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2">
         <v>41431</v>
@@ -1785,9 +1751,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2">
         <v>41451</v>
@@ -1805,9 +1771,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2">
         <v>41456</v>
@@ -1825,9 +1791,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2">
         <v>41473</v>
@@ -1845,9 +1811,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2">
         <v>41480</v>
@@ -1865,9 +1831,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2">
         <v>41501</v>
@@ -1885,9 +1851,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2">
         <v>41512</v>
@@ -1905,9 +1871,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2">
         <v>41520</v>
@@ -1925,9 +1891,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2">
         <v>41535</v>
@@ -1945,9 +1911,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>41548</v>
@@ -1965,9 +1931,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2">
         <v>41562</v>
@@ -1988,9 +1954,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2">
         <v>41576</v>
@@ -2011,9 +1977,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2">
         <v>41597</v>
@@ -2034,9 +2000,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2">
         <v>41610</v>
@@ -2072,9 +2038,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2">
         <v>41617</v>
@@ -2092,9 +2058,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2">
         <v>41631</v>
@@ -2115,9 +2081,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2">
         <v>41646</v>
@@ -2138,9 +2104,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2">
         <v>41656</v>
@@ -2158,15 +2124,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2">
         <v>41667</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G66">
         <v>2692.6749147675118</v>
@@ -2205,9 +2171,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67" s="2">
         <v>41380</v>
@@ -2222,9 +2188,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B68" s="2">
         <v>41393</v>
@@ -2248,9 +2214,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69" s="2">
         <v>41409</v>
@@ -2277,9 +2243,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B70" s="2">
         <v>41422</v>
@@ -2297,9 +2263,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B71" s="2">
         <v>41431</v>
@@ -2323,9 +2289,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B72" s="2">
         <v>41451</v>
@@ -2349,9 +2315,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B73" s="2">
         <v>41456</v>
@@ -2369,9 +2335,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B74" s="2">
         <v>41473</v>
@@ -2395,9 +2361,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75" s="2">
         <v>41480</v>
@@ -2415,9 +2381,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B76" s="2">
         <v>41501</v>
@@ -2441,9 +2407,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B77" s="2">
         <v>41512</v>
@@ -2461,9 +2427,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B78" s="2">
         <v>41520</v>
@@ -2481,9 +2447,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79" s="2">
         <v>41535</v>
@@ -2507,9 +2473,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80" s="2">
         <v>41548</v>
@@ -2527,9 +2493,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B81" s="2">
         <v>41562</v>
@@ -2556,9 +2522,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B82" s="2">
         <v>41576</v>
@@ -2585,9 +2551,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83" s="2">
         <v>41597</v>
@@ -2614,9 +2580,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B84" s="2">
         <v>41610</v>
@@ -2652,9 +2618,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B85" s="2">
         <v>41617</v>
@@ -2672,9 +2638,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B86" s="2">
         <v>41631</v>
@@ -2695,9 +2661,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B87" s="2">
         <v>41646</v>
@@ -2718,9 +2684,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B88" s="2">
         <v>41656</v>
@@ -2738,9 +2704,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B89" s="2">
         <v>41660</v>
@@ -2755,15 +2721,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B90" s="2">
         <v>41667</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G90">
         <v>2422.6624638590788</v>
@@ -2802,9 +2768,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B91" s="2">
         <v>41325</v>
@@ -2819,9 +2785,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B92" s="2">
         <v>41422</v>
@@ -2839,9 +2805,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B93" s="2">
         <v>41456</v>
@@ -2859,9 +2825,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B94" s="2">
         <v>41480</v>
@@ -2879,9 +2845,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B95" s="2">
         <v>41512</v>
@@ -2899,9 +2865,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B96" s="2">
         <v>41520</v>
@@ -2919,9 +2885,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B97" s="2">
         <v>41548</v>
@@ -2939,9 +2905,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B98" s="2">
         <v>41592</v>
@@ -2977,15 +2943,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B99" s="2">
         <v>41667</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G99">
         <v>2335.5720763093418</v>
@@ -3024,9 +2990,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B100" s="2">
         <v>41325</v>
@@ -3041,9 +3007,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B101" s="2">
         <v>41380</v>
@@ -3064,9 +3030,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B102" s="2">
         <v>41393</v>
@@ -3090,9 +3056,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B103" s="2">
         <v>41409</v>
@@ -3116,9 +3082,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B104" s="2">
         <v>41422</v>
@@ -3136,9 +3102,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B105" s="2">
         <v>41431</v>
@@ -3159,9 +3125,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B106" s="2">
         <v>41451</v>
@@ -3182,9 +3148,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B107" s="2">
         <v>41456</v>
@@ -3202,9 +3168,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B108" s="2">
         <v>41473</v>
@@ -3225,9 +3191,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B109" s="2">
         <v>41480</v>
@@ -3245,9 +3211,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B110" s="2">
         <v>41501</v>
@@ -3268,9 +3234,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B111" s="2">
         <v>41512</v>
@@ -3288,9 +3254,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B112" s="2">
         <v>41520</v>
@@ -3308,9 +3274,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B113" s="2">
         <v>41535</v>
@@ -3331,9 +3297,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B114" s="2">
         <v>41548</v>
@@ -3351,9 +3317,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B115" s="2">
         <v>41562</v>
@@ -3377,9 +3343,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B116" s="2">
         <v>41576</v>
@@ -3403,9 +3369,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B117" s="2">
         <v>41592</v>
@@ -3441,9 +3407,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B118" s="2">
         <v>41597</v>
@@ -3467,9 +3433,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B119" s="2">
         <v>41617</v>
@@ -3484,9 +3450,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B120" s="2">
         <v>41631</v>
@@ -3504,9 +3470,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B121" s="2">
         <v>41646</v>
@@ -3524,9 +3490,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B122" s="2">
         <v>41656</v>
@@ -3541,15 +3507,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B123" s="2">
         <v>41667</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G123">
         <v>2236.5439790303089</v>
@@ -3588,9 +3554,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B124" s="2">
         <v>41325</v>
@@ -3605,9 +3571,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B125" s="2">
         <v>41422</v>
@@ -3625,9 +3591,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B126" s="2">
         <v>41456</v>
@@ -3645,9 +3611,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B127" s="2">
         <v>41480</v>
@@ -3665,9 +3631,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B128" s="2">
         <v>41512</v>
@@ -3685,9 +3651,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B129" s="2">
         <v>41520</v>
@@ -3705,9 +3671,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B130" s="2">
         <v>41548</v>
@@ -3725,9 +3691,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B131" s="2">
         <v>41592</v>
@@ -3763,15 +3729,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B132" s="2">
         <v>41667</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G132">
         <v>2290.6455012801321</v>
@@ -3810,9 +3776,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B133" s="2">
         <v>41325</v>
@@ -3827,9 +3793,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B134" s="2">
         <v>41380</v>
@@ -3847,9 +3813,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B135" s="2">
         <v>41393</v>
@@ -3870,9 +3836,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B136" s="2">
         <v>41409</v>
@@ -3893,9 +3859,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B137" s="2">
         <v>41422</v>
@@ -3913,9 +3879,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B138" s="2">
         <v>41431</v>
@@ -3933,9 +3899,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B139" s="2">
         <v>41451</v>
@@ -3953,9 +3919,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B140" s="2">
         <v>41456</v>
@@ -3973,9 +3939,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B141" s="2">
         <v>41473</v>
@@ -3993,9 +3959,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B142" s="2">
         <v>41480</v>
@@ -4013,9 +3979,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B143" s="2">
         <v>41501</v>
@@ -4033,9 +3999,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B144" s="2">
         <v>41512</v>
@@ -4053,9 +4019,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B145" s="2">
         <v>41520</v>
@@ -4073,9 +4039,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B146" s="2">
         <v>41535</v>
@@ -4093,9 +4059,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B147" s="2">
         <v>41548</v>
@@ -4113,9 +4079,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B148" s="2">
         <v>41562</v>
@@ -4136,9 +4102,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B149" s="2">
         <v>41576</v>
@@ -4159,9 +4125,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B150" s="2">
         <v>41592</v>
@@ -4197,9 +4163,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B151" s="2">
         <v>41597</v>
@@ -4220,9 +4186,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B152" s="2">
         <v>41617</v>
@@ -4240,9 +4206,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B153" s="2">
         <v>41631</v>
@@ -4263,9 +4229,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B154" s="2">
         <v>41646</v>
@@ -4286,9 +4252,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B155" s="2">
         <v>41656</v>
@@ -4306,15 +4272,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B156" s="2">
         <v>41667</v>
       </c>
       <c r="C156" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G156">
         <v>2375.1309075664558</v>
@@ -4353,9 +4319,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B157" s="2">
         <v>41325</v>
@@ -4370,9 +4336,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B158" s="2">
         <v>41380</v>
@@ -4396,9 +4362,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B159" s="2">
         <v>41393</v>
@@ -4425,9 +4391,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B160" s="2">
         <v>41409</v>
@@ -4454,9 +4420,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B161" s="2">
         <v>41422</v>
@@ -4474,9 +4440,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B162" s="2">
         <v>41431</v>
@@ -4500,9 +4466,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B163" s="2">
         <v>41451</v>
@@ -4526,9 +4492,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B164" s="2">
         <v>41456</v>
@@ -4546,9 +4512,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B165" s="2">
         <v>41473</v>
@@ -4572,9 +4538,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B166" s="2">
         <v>41480</v>
@@ -4592,9 +4558,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B167" s="2">
         <v>41501</v>
@@ -4618,9 +4584,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B168" s="2">
         <v>41512</v>
@@ -4638,9 +4604,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B169" s="2">
         <v>41520</v>
@@ -4658,9 +4624,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B170" s="2">
         <v>41535</v>
@@ -4684,9 +4650,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B171" s="2">
         <v>41548</v>
@@ -4704,9 +4670,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B172" s="2">
         <v>41562</v>
@@ -4733,9 +4699,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B173" s="2">
         <v>41576</v>
@@ -4762,9 +4728,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B174" s="2">
         <v>41592</v>
@@ -4800,9 +4766,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B175" s="2">
         <v>41597</v>
@@ -4829,9 +4795,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B176" s="2">
         <v>41617</v>
@@ -4849,9 +4815,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B177" s="2">
         <v>41631</v>
@@ -4872,9 +4838,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B178" s="2">
         <v>41646</v>
@@ -4895,9 +4861,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B179" s="2">
         <v>41656</v>
@@ -4915,15 +4881,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B180" s="2">
         <v>41667</v>
       </c>
       <c r="C180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G180">
         <v>2266.0947553518008</v>
@@ -4962,9 +4928,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B181" s="2">
         <v>41359</v>
@@ -4979,9 +4945,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B182" s="2">
         <v>41422</v>
@@ -4999,9 +4965,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B183" s="2">
         <v>41456</v>
@@ -5019,9 +4985,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B184" s="2">
         <v>41480</v>
@@ -5039,9 +5005,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B185" s="2">
         <v>41512</v>
@@ -5059,9 +5025,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B186" s="2">
         <v>41520</v>
@@ -5079,9 +5045,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B187" s="2">
         <v>41548</v>
@@ -5099,9 +5065,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B188" s="2">
         <v>41600</v>
@@ -5137,15 +5103,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B189" s="2">
         <v>41667</v>
       </c>
       <c r="C189" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G189">
         <v>2603.7907279094038</v>
@@ -5184,9 +5150,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B190" s="2">
         <v>41359</v>
@@ -5201,9 +5167,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B191" s="2">
         <v>41380</v>
@@ -5224,9 +5190,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B192" s="2">
         <v>41393</v>
@@ -5250,9 +5216,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B193" s="2">
         <v>41409</v>
@@ -5276,9 +5242,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B194" s="2">
         <v>41422</v>
@@ -5296,9 +5262,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B195" s="2">
         <v>41431</v>
@@ -5319,9 +5285,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B196" s="2">
         <v>41451</v>
@@ -5342,9 +5308,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B197" s="2">
         <v>41456</v>
@@ -5362,9 +5328,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B198" s="2">
         <v>41473</v>
@@ -5385,9 +5351,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B199" s="2">
         <v>41480</v>
@@ -5405,9 +5371,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B200" s="2">
         <v>41501</v>
@@ -5428,9 +5394,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B201" s="2">
         <v>41506</v>
@@ -5445,9 +5411,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B202" s="2">
         <v>41512</v>
@@ -5465,9 +5431,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B203" s="2">
         <v>41520</v>
@@ -5485,9 +5451,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B204" s="2">
         <v>41535</v>
@@ -5508,9 +5474,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B205" s="2">
         <v>41548</v>
@@ -5528,9 +5494,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B206" s="2">
         <v>41562</v>
@@ -5554,9 +5520,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B207" s="2">
         <v>41576</v>
@@ -5580,9 +5546,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B208" s="2">
         <v>41597</v>
@@ -5606,9 +5572,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B209" s="2">
         <v>41600</v>
@@ -5644,9 +5610,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B210" s="2">
         <v>41617</v>
@@ -5661,9 +5627,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B211" s="2">
         <v>41631</v>
@@ -5681,9 +5647,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B212" s="2">
         <v>41646</v>
@@ -5701,9 +5667,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B213" s="2">
         <v>41656</v>
@@ -5718,15 +5684,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B214" s="2">
         <v>41667</v>
       </c>
       <c r="C214" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G214">
         <v>2684.9023198238069</v>
@@ -5765,9 +5731,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B215" s="2">
         <v>41359</v>
@@ -5782,9 +5748,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B216" s="2">
         <v>41422</v>
@@ -5802,9 +5768,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B217" s="2">
         <v>41456</v>
@@ -5822,9 +5788,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B218" s="2">
         <v>41480</v>
@@ -5842,9 +5808,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B219" s="2">
         <v>41512</v>
@@ -5862,9 +5828,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B220" s="2">
         <v>41520</v>
@@ -5882,9 +5848,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B221" s="2">
         <v>41548</v>
@@ -5902,9 +5868,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B222" s="2">
         <v>41600</v>
@@ -5940,15 +5906,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B223" s="2">
         <v>41667</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G223">
         <v>2751.579279285515</v>
@@ -5987,9 +5953,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B224" s="2">
         <v>41359</v>
@@ -6004,9 +5970,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B225" s="2">
         <v>41380</v>
@@ -6024,9 +5990,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B226" s="2">
         <v>41393</v>
@@ -6047,9 +6013,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B227" s="2">
         <v>41409</v>
@@ -6070,9 +6036,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B228" s="2">
         <v>41422</v>
@@ -6090,9 +6056,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B229" s="2">
         <v>41431</v>
@@ -6110,9 +6076,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B230" s="2">
         <v>41451</v>
@@ -6130,9 +6096,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B231" s="2">
         <v>41456</v>
@@ -6150,9 +6116,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B232" s="2">
         <v>41473</v>
@@ -6170,9 +6136,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B233" s="2">
         <v>41480</v>
@@ -6190,9 +6156,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B234" s="2">
         <v>41501</v>
@@ -6210,9 +6176,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B235" s="2">
         <v>41506</v>
@@ -6227,9 +6193,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B236" s="2">
         <v>41512</v>
@@ -6247,9 +6213,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B237" s="2">
         <v>41520</v>
@@ -6267,9 +6233,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B238" s="2">
         <v>41535</v>
@@ -6287,9 +6253,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B239" s="2">
         <v>41548</v>
@@ -6307,9 +6273,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B240" s="2">
         <v>41562</v>
@@ -6330,9 +6296,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B241" s="2">
         <v>41576</v>
@@ -6353,9 +6319,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B242" s="2">
         <v>41597</v>
@@ -6376,9 +6342,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B243" s="2">
         <v>41600</v>
@@ -6414,9 +6380,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B244" s="2">
         <v>41617</v>
@@ -6434,9 +6400,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B245" s="2">
         <v>41631</v>
@@ -6457,9 +6423,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B246" s="2">
         <v>41646</v>
@@ -6480,9 +6446,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B247" s="2">
         <v>41656</v>
@@ -6500,15 +6466,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B248" s="2">
         <v>41667</v>
       </c>
       <c r="C248" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G248">
         <v>2793.31827785019</v>
@@ -6547,9 +6513,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B249" s="2">
         <v>41359</v>
@@ -6564,9 +6530,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B250" s="2">
         <v>41380</v>
@@ -6590,9 +6556,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B251" s="2">
         <v>41393</v>
@@ -6619,9 +6585,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B252" s="2">
         <v>41409</v>
@@ -6648,9 +6614,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B253" s="2">
         <v>41422</v>
@@ -6668,9 +6634,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B254" s="2">
         <v>41431</v>
@@ -6694,9 +6660,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B255" s="2">
         <v>41451</v>
@@ -6720,9 +6686,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B256" s="2">
         <v>41456</v>
@@ -6740,9 +6706,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B257" s="2">
         <v>41473</v>
@@ -6766,9 +6732,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B258" s="2">
         <v>41480</v>
@@ -6786,9 +6752,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B259" s="2">
         <v>41501</v>
@@ -6812,9 +6778,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B260" s="2">
         <v>41506</v>
@@ -6829,9 +6795,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B261" s="2">
         <v>41512</v>
@@ -6849,9 +6815,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B262" s="2">
         <v>41520</v>
@@ -6869,9 +6835,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B263" s="2">
         <v>41535</v>
@@ -6895,9 +6861,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B264" s="2">
         <v>41548</v>
@@ -6915,9 +6881,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B265" s="2">
         <v>41562</v>
@@ -6944,9 +6910,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B266" s="2">
         <v>41576</v>
@@ -6973,9 +6939,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B267" s="2">
         <v>41597</v>
@@ -7002,9 +6968,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B268" s="2">
         <v>41600</v>
@@ -7040,9 +7006,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B269" s="2">
         <v>41617</v>
@@ -7060,9 +7026,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B270" s="2">
         <v>41631</v>
@@ -7083,9 +7049,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B271" s="2">
         <v>41646</v>
@@ -7106,9 +7072,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B272" s="2">
         <v>41656</v>
@@ -7126,15 +7092,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B273" s="2">
         <v>41667</v>
       </c>
       <c r="C273" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G273">
         <v>2828.1043460015708</v>
@@ -7173,9 +7139,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B274" s="2">
         <v>41708</v>
@@ -7190,9 +7156,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B275" s="2">
         <v>41722</v>
@@ -7219,9 +7185,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B276" s="2">
         <v>41731</v>
@@ -7248,9 +7214,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B277" s="2">
         <v>41738</v>
@@ -7277,9 +7243,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B278" s="2">
         <v>41745</v>
@@ -7303,9 +7269,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B279" s="2">
         <v>41760</v>
@@ -7332,9 +7298,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B280" s="2">
         <v>41768</v>
@@ -7361,9 +7327,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B281" s="2">
         <v>41788</v>
@@ -7387,9 +7353,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B282" s="2">
         <v>41806</v>
@@ -7413,9 +7379,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B283" s="2">
         <v>41808</v>
@@ -7433,9 +7399,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B284" s="2">
         <v>41835</v>
@@ -7462,9 +7428,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B285" s="2">
         <v>41855</v>
@@ -7491,9 +7457,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B286" s="2">
         <v>41870</v>
@@ -7526,9 +7492,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B287" s="2">
         <v>41883</v>
@@ -7555,9 +7521,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B288" s="2">
         <v>41891</v>
@@ -7575,9 +7541,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B289" s="2">
         <v>41908</v>
@@ -7604,9 +7570,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B290" s="2">
         <v>41912</v>
@@ -7624,9 +7590,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B291" s="2">
         <v>41925</v>
@@ -7653,9 +7619,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B292" s="2">
         <v>41947</v>
@@ -7682,9 +7648,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B293" s="2">
         <v>41964</v>
@@ -7723,9 +7689,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B294" s="2">
         <v>41969</v>
@@ -7752,9 +7718,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B295" s="2">
         <v>41971</v>
@@ -7772,9 +7738,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B296" s="2">
         <v>41984</v>
@@ -7801,9 +7767,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B297" s="2">
         <v>41996</v>
@@ -7830,9 +7796,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B298" s="2">
         <v>42016</v>
@@ -7859,9 +7825,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B299" s="2">
         <v>42024</v>
@@ -7888,15 +7854,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B300" s="2">
         <v>42027</v>
       </c>
       <c r="C300" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G300">
         <v>2837.8688491249868</v>
@@ -7935,9 +7901,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B301" s="2">
         <v>41708</v>
@@ -7952,9 +7918,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B302" s="2">
         <v>41722</v>
@@ -7981,9 +7947,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B303" s="2">
         <v>41731</v>
@@ -8010,9 +7976,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B304" s="2">
         <v>41738</v>
@@ -8039,9 +8005,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B305" s="2">
         <v>41745</v>
@@ -8065,9 +8031,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B306" s="2">
         <v>41760</v>
@@ -8094,9 +8060,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B307" s="2">
         <v>41768</v>
@@ -8123,9 +8089,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B308" s="2">
         <v>41788</v>
@@ -8149,9 +8115,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B309" s="2">
         <v>41806</v>
@@ -8175,9 +8141,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B310" s="2">
         <v>41808</v>
@@ -8195,9 +8161,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B311" s="2">
         <v>41835</v>
@@ -8224,9 +8190,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B312" s="2">
         <v>41855</v>
@@ -8253,9 +8219,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B313" s="2">
         <v>41870</v>
@@ -8288,9 +8254,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B314" s="2">
         <v>41883</v>
@@ -8317,9 +8283,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B315" s="2">
         <v>41891</v>
@@ -8337,9 +8303,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B316" s="2">
         <v>41908</v>
@@ -8366,9 +8332,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B317" s="2">
         <v>41912</v>
@@ -8386,9 +8352,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B318" s="2">
         <v>41925</v>
@@ -8415,9 +8381,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B319" s="2">
         <v>41947</v>
@@ -8444,9 +8410,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B320" s="2">
         <v>41964</v>
@@ -8485,9 +8451,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B321" s="2">
         <v>41969</v>
@@ -8514,9 +8480,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B322" s="2">
         <v>41971</v>
@@ -8534,9 +8500,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B323" s="2">
         <v>41984</v>
@@ -8563,9 +8529,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B324" s="2">
         <v>41996</v>
@@ -8592,9 +8558,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B325" s="2">
         <v>42016</v>
@@ -8621,9 +8587,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B326" s="2">
         <v>42024</v>
@@ -8650,15 +8616,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B327" s="2">
         <v>42027</v>
       </c>
       <c r="C327" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G327">
         <v>2898.60999748734</v>
@@ -8697,9 +8663,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B328" s="2">
         <v>41690</v>
@@ -8714,9 +8680,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B329" s="2">
         <v>41709</v>
@@ -8740,9 +8706,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B330" s="2">
         <v>41710</v>
@@ -8760,9 +8726,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B331" s="2">
         <v>41722</v>
@@ -8789,9 +8755,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B332" s="2">
         <v>41731</v>
@@ -8818,9 +8784,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B333" s="2">
         <v>41738</v>
@@ -8847,9 +8813,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B334" s="2">
         <v>41745</v>
@@ -8873,9 +8839,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B335" s="2">
         <v>41760</v>
@@ -8902,9 +8868,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B336" s="2">
         <v>41768</v>
@@ -8931,9 +8897,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B337" s="2">
         <v>41788</v>
@@ -8957,9 +8923,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B338" s="2">
         <v>41806</v>
@@ -8983,9 +8949,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B339" s="2">
         <v>41808</v>
@@ -9003,9 +8969,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B340" s="2">
         <v>41835</v>
@@ -9032,9 +8998,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B341" s="2">
         <v>41844</v>
@@ -9064,9 +9030,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B342" s="2">
         <v>41855</v>
@@ -9093,9 +9059,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B343" s="2">
         <v>41870</v>
@@ -9113,9 +9079,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B344" s="2">
         <v>41883</v>
@@ -9142,9 +9108,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B345" s="2">
         <v>41891</v>
@@ -9162,9 +9128,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B346" s="2">
         <v>41908</v>
@@ -9191,9 +9157,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B347" s="2">
         <v>41912</v>
@@ -9211,9 +9177,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B348" s="2">
         <v>41925</v>
@@ -9240,9 +9206,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B349" s="2">
         <v>41947</v>
@@ -9269,9 +9235,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B350" s="2">
         <v>41964</v>
@@ -9310,9 +9276,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B351" s="2">
         <v>41969</v>
@@ -9339,9 +9305,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B352" s="2">
         <v>41971</v>
@@ -9359,9 +9325,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B353" s="2">
         <v>41984</v>
@@ -9385,9 +9351,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B354" s="2">
         <v>41996</v>
@@ -9411,9 +9377,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B355" s="2">
         <v>42016</v>
@@ -9437,9 +9403,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B356" s="2">
         <v>42024</v>
@@ -9463,15 +9429,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B357" s="2">
         <v>42027</v>
       </c>
       <c r="C357" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G357">
         <v>3021.2141718526</v>
@@ -9510,9 +9476,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B358" s="2">
         <v>41690</v>
@@ -9527,9 +9493,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B359" s="2">
         <v>41709</v>
@@ -9553,9 +9519,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B360" s="2">
         <v>41710</v>
@@ -9573,9 +9539,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B361" s="2">
         <v>41722</v>
@@ -9602,9 +9568,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B362" s="2">
         <v>41731</v>
@@ -9631,9 +9597,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B363" s="2">
         <v>41738</v>
@@ -9660,9 +9626,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B364" s="2">
         <v>41745</v>
@@ -9686,9 +9652,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B365" s="2">
         <v>41760</v>
@@ -9715,9 +9681,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B366" s="2">
         <v>41768</v>
@@ -9744,9 +9710,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B367" s="2">
         <v>41788</v>
@@ -9770,9 +9736,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B368" s="2">
         <v>41806</v>
@@ -9796,9 +9762,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B369" s="2">
         <v>41808</v>
@@ -9816,9 +9782,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B370" s="2">
         <v>41835</v>
@@ -9845,9 +9811,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B371" s="2">
         <v>41844</v>
@@ -9877,9 +9843,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B372" s="2">
         <v>41855</v>
@@ -9906,9 +9872,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B373" s="2">
         <v>41870</v>
@@ -9926,9 +9892,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B374" s="2">
         <v>41883</v>
@@ -9955,9 +9921,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B375" s="2">
         <v>41891</v>
@@ -9975,9 +9941,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B376" s="2">
         <v>41908</v>
@@ -10004,9 +9970,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B377" s="2">
         <v>41912</v>
@@ -10024,9 +9990,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B378" s="2">
         <v>41925</v>
@@ -10053,9 +10019,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B379" s="2">
         <v>41947</v>
@@ -10082,9 +10048,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B380" s="2">
         <v>41964</v>
@@ -10123,9 +10089,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B381" s="2">
         <v>41969</v>
@@ -10152,9 +10118,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B382" s="2">
         <v>41971</v>
@@ -10172,9 +10138,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B383" s="2">
         <v>41984</v>
@@ -10198,9 +10164,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B384" s="2">
         <v>41996</v>
@@ -10224,9 +10190,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B385" s="2">
         <v>42016</v>
@@ -10250,9 +10216,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B386" s="2">
         <v>42024</v>
@@ -10276,15 +10242,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B387" s="2">
         <v>42027</v>
       </c>
       <c r="C387" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G387">
         <v>2958.3922978387232</v>
@@ -10323,9 +10289,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B388" s="2">
         <v>41752</v>
@@ -10340,9 +10306,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B389" s="2">
         <v>41760</v>
@@ -10360,9 +10326,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B390" s="2">
         <v>41768</v>
@@ -10380,9 +10346,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B391" s="2">
         <v>41788</v>
@@ -10406,9 +10372,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B392" s="2">
         <v>41806</v>
@@ -10432,9 +10398,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B393" s="2">
         <v>41808</v>
@@ -10452,9 +10418,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B394" s="2">
         <v>41835</v>
@@ -10481,9 +10447,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B395" s="2">
         <v>41855</v>
@@ -10510,9 +10476,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B396" s="2">
         <v>41870</v>
@@ -10530,9 +10496,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B397" s="2">
         <v>41883</v>
@@ -10559,9 +10525,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B398" s="2">
         <v>41891</v>
@@ -10579,9 +10545,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B399" s="2">
         <v>41908</v>
@@ -10608,9 +10574,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B400" s="2">
         <v>41912</v>
@@ -10643,9 +10609,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B401" s="2">
         <v>41925</v>
@@ -10672,9 +10638,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B402" s="2">
         <v>41947</v>
@@ -10701,9 +10667,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B403" s="2">
         <v>41964</v>
@@ -10721,9 +10687,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B404" s="2">
         <v>41969</v>
@@ -10750,9 +10716,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B405" s="2">
         <v>41971</v>
@@ -10791,9 +10757,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B406" s="2">
         <v>41984</v>
@@ -10820,9 +10786,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B407" s="2">
         <v>41996</v>
@@ -10849,9 +10815,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B408" s="2">
         <v>42016</v>
@@ -10878,9 +10844,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B409" s="2">
         <v>42024</v>
@@ -10907,15 +10873,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B410" s="2">
         <v>42037</v>
       </c>
       <c r="C410" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G410">
         <v>2832.8489813897049</v>
@@ -10954,9 +10920,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B411" s="2">
         <v>41752</v>
@@ -10971,9 +10937,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B412" s="2">
         <v>41760</v>
@@ -10991,9 +10957,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B413" s="2">
         <v>41768</v>
@@ -11011,9 +10977,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B414" s="2">
         <v>41788</v>
@@ -11037,9 +11003,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B415" s="2">
         <v>41806</v>
@@ -11063,9 +11029,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B416" s="2">
         <v>41808</v>
@@ -11083,9 +11049,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B417" s="2">
         <v>41835</v>
@@ -11112,9 +11078,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B418" s="2">
         <v>41855</v>
@@ -11141,9 +11107,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B419" s="2">
         <v>41870</v>
@@ -11161,9 +11127,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B420" s="2">
         <v>41883</v>
@@ -11190,9 +11156,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B421" s="2">
         <v>41891</v>
@@ -11210,9 +11176,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B422" s="2">
         <v>41908</v>
@@ -11239,9 +11205,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B423" s="2">
         <v>41912</v>
@@ -11274,9 +11240,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B424" s="2">
         <v>41925</v>
@@ -11303,9 +11269,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B425" s="2">
         <v>41947</v>
@@ -11332,9 +11298,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B426" s="2">
         <v>41964</v>
@@ -11352,9 +11318,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B427" s="2">
         <v>41969</v>
@@ -11381,9 +11347,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B428" s="2">
         <v>41971</v>
@@ -11422,9 +11388,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B429" s="2">
         <v>41984</v>
@@ -11451,9 +11417,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B430" s="2">
         <v>41996</v>
@@ -11480,9 +11446,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B431" s="2">
         <v>42016</v>
@@ -11509,9 +11475,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B432" s="2">
         <v>42024</v>
@@ -11538,15 +11504,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B433" s="2">
         <v>42037</v>
       </c>
       <c r="C433" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G433">
         <v>2628.497178064712</v>
@@ -11585,9 +11551,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B434" s="2">
         <v>41724</v>
@@ -11602,9 +11568,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B435" s="2">
         <v>41738</v>
@@ -11628,9 +11594,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B436" s="2">
         <v>41745</v>
@@ -11654,9 +11620,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B437" s="2">
         <v>41760</v>
@@ -11683,9 +11649,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B438" s="2">
         <v>41768</v>
@@ -11712,9 +11678,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B439" s="2">
         <v>41788</v>
@@ -11738,9 +11704,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B440" s="2">
         <v>41806</v>
@@ -11764,9 +11730,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B441" s="2">
         <v>41808</v>
@@ -11784,9 +11750,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B442" s="2">
         <v>41835</v>
@@ -11813,9 +11779,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B443" s="2">
         <v>41855</v>
@@ -11842,9 +11808,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B444" s="2">
         <v>41870</v>
@@ -11862,9 +11828,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B445" s="2">
         <v>41883</v>
@@ -11891,9 +11857,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B446" s="2">
         <v>41891</v>
@@ -11926,9 +11892,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B447" s="2">
         <v>41908</v>
@@ -11955,9 +11921,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B448" s="2">
         <v>41912</v>
@@ -11975,9 +11941,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B449" s="2">
         <v>41925</v>
@@ -12004,9 +11970,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B450" s="2">
         <v>41947</v>
@@ -12033,9 +11999,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B451" s="2">
         <v>41964</v>
@@ -12053,9 +12019,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B452" s="2">
         <v>41969</v>
@@ -12082,9 +12048,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B453" s="2">
         <v>41971</v>
@@ -12123,9 +12089,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B454" s="2">
         <v>41984</v>
@@ -12152,9 +12118,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B455" s="2">
         <v>41996</v>
@@ -12181,9 +12147,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B456" s="2">
         <v>42016</v>
@@ -12210,9 +12176,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B457" s="2">
         <v>42024</v>
@@ -12239,15 +12205,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B458" s="2">
         <v>42027</v>
       </c>
       <c r="C458" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G458">
         <v>3036.0845989142622</v>
@@ -12286,9 +12252,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B459" s="2">
         <v>41724</v>
@@ -12303,9 +12269,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B460" s="2">
         <v>41738</v>
@@ -12329,9 +12295,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B461" s="2">
         <v>41745</v>
@@ -12355,9 +12321,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B462" s="2">
         <v>41760</v>
@@ -12384,9 +12350,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B463" s="2">
         <v>41768</v>
@@ -12413,9 +12379,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B464" s="2">
         <v>41788</v>
@@ -12439,9 +12405,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B465" s="2">
         <v>41806</v>
@@ -12465,9 +12431,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B466" s="2">
         <v>41808</v>
@@ -12485,9 +12451,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B467" s="2">
         <v>41835</v>
@@ -12514,9 +12480,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B468" s="2">
         <v>41855</v>
@@ -12543,9 +12509,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B469" s="2">
         <v>41870</v>
@@ -12563,9 +12529,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B470" s="2">
         <v>41883</v>
@@ -12592,9 +12558,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B471" s="2">
         <v>41891</v>
@@ -12627,9 +12593,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B472" s="2">
         <v>41908</v>
@@ -12656,9 +12622,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B473" s="2">
         <v>41912</v>
@@ -12676,9 +12642,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B474" s="2">
         <v>41925</v>
@@ -12705,9 +12671,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B475" s="2">
         <v>41947</v>
@@ -12734,9 +12700,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B476" s="2">
         <v>41964</v>
@@ -12754,9 +12720,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B477" s="2">
         <v>41969</v>
@@ -12783,9 +12749,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B478" s="2">
         <v>41971</v>
@@ -12824,9 +12790,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B479" s="2">
         <v>41984</v>
@@ -12853,9 +12819,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B480" s="2">
         <v>41996</v>
@@ -12882,9 +12848,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B481" s="2">
         <v>42016</v>
@@ -12911,9 +12877,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B482" s="2">
         <v>42024</v>
@@ -12940,15 +12906,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B483" s="2">
         <v>42027</v>
       </c>
       <c r="C483" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G483">
         <v>2757.9209185983241</v>
@@ -12987,9 +12953,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B484" s="2">
         <v>42103</v>
@@ -13004,9 +12970,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B485" s="2">
         <v>42118</v>
@@ -13024,9 +12990,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B486" s="2">
         <v>42135</v>
@@ -13050,9 +13016,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B487" s="2">
         <v>42151</v>
@@ -13076,9 +13042,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B488" s="2">
         <v>42172</v>
@@ -13102,9 +13068,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B489" s="2">
         <v>42202</v>
@@ -13128,9 +13094,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B490" s="2">
         <v>42215</v>
@@ -13148,9 +13114,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B491" s="2">
         <v>42235</v>
@@ -13174,9 +13140,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B492" s="2">
         <v>42255</v>
@@ -13200,9 +13166,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B493" s="2">
         <v>42268</v>
@@ -13220,9 +13186,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B494" s="2">
         <v>42276</v>
@@ -13258,9 +13224,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B495" s="2">
         <v>42278</v>
@@ -13284,9 +13250,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B496" s="2">
         <v>42298</v>
@@ -13310,9 +13276,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B497" s="2">
         <v>42320</v>
@@ -13336,9 +13302,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B498" s="2">
         <v>42332</v>
@@ -13356,9 +13322,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B499" s="2">
         <v>42339</v>
@@ -13376,9 +13342,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B500" s="2">
         <v>42346</v>
@@ -13423,9 +13389,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B501" s="2">
         <v>42374</v>
@@ -13446,9 +13412,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B502" s="2">
         <v>42394</v>
@@ -13469,15 +13435,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B503" s="2">
         <v>42411</v>
       </c>
       <c r="C503" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G503">
         <v>3311.4106193339821</v>
@@ -13516,9 +13482,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B504" s="2">
         <v>42073</v>
@@ -13533,9 +13499,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B505" s="2">
         <v>42087</v>
@@ -13559,9 +13525,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B506" s="2">
         <v>42096</v>
@@ -13585,9 +13551,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B507" s="2">
         <v>42102</v>
@@ -13611,9 +13577,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B508" s="2">
         <v>42118</v>
@@ -13637,9 +13603,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B509" s="2">
         <v>42135</v>
@@ -13663,9 +13629,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B510" s="2">
         <v>42151</v>
@@ -13689,9 +13655,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B511" s="2">
         <v>42172</v>
@@ -13715,9 +13681,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B512" s="2">
         <v>42202</v>
@@ -13741,9 +13707,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B513" s="2">
         <v>42215</v>
@@ -13761,9 +13727,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B514" s="2">
         <v>42235</v>
@@ -13787,9 +13753,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B515" s="2">
         <v>42255</v>
@@ -13831,9 +13797,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B516" s="2">
         <v>42268</v>
@@ -13851,9 +13817,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B517" s="2">
         <v>42276</v>
@@ -13871,9 +13837,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B518" s="2">
         <v>42278</v>
@@ -13897,9 +13863,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B519" s="2">
         <v>42298</v>
@@ -13923,9 +13889,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B520" s="2">
         <v>42320</v>
@@ -13949,9 +13915,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B521" s="2">
         <v>42332</v>
@@ -13969,9 +13935,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B522" s="2">
         <v>42339</v>
@@ -14010,9 +13976,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B523" s="2">
         <v>42346</v>
@@ -14036,9 +14002,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B524" s="2">
         <v>42374</v>
@@ -14059,9 +14025,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B525" s="2">
         <v>42394</v>
@@ -14082,15 +14048,15 @@
         <v>322</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B526" s="2">
         <v>42404</v>
       </c>
       <c r="C526" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G526">
         <v>3215.9740827244418</v>
@@ -14129,9 +14095,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B527" s="2">
         <v>42055</v>
@@ -14146,9 +14112,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B528" s="2">
         <v>42067</v>
@@ -14166,9 +14132,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B529" s="2">
         <v>42076</v>
@@ -14192,9 +14158,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B530" s="2">
         <v>42087</v>
@@ -14218,9 +14184,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B531" s="2">
         <v>42096</v>
@@ -14244,9 +14210,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B532" s="2">
         <v>42102</v>
@@ -14270,9 +14236,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B533" s="2">
         <v>42118</v>
@@ -14296,9 +14262,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B534" s="2">
         <v>42135</v>
@@ -14322,9 +14288,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B535" s="2">
         <v>42151</v>
@@ -14348,9 +14314,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B536" s="2">
         <v>42172</v>
@@ -14374,9 +14340,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B537" s="2">
         <v>42202</v>
@@ -14400,9 +14366,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B538" s="2">
         <v>42215</v>
@@ -14438,9 +14404,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B539" s="2">
         <v>42235</v>
@@ -14464,9 +14430,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B540" s="2">
         <v>42255</v>
@@ -14490,9 +14456,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B541" s="2">
         <v>42268</v>
@@ -14510,9 +14476,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B542" s="2">
         <v>42276</v>
@@ -14530,9 +14496,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B543" s="2">
         <v>42278</v>
@@ -14556,9 +14522,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B544" s="2">
         <v>42298</v>
@@ -14582,9 +14548,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B545" s="2">
         <v>42320</v>
@@ -14608,9 +14574,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B546" s="2">
         <v>42332</v>
@@ -14649,9 +14615,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B547" s="2">
         <v>42339</v>
@@ -14669,9 +14635,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B548" s="2">
         <v>42346</v>
@@ -14695,9 +14661,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B549" s="2">
         <v>42374</v>
@@ -14718,9 +14684,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B550" s="2">
         <v>42394</v>
@@ -14741,15 +14707,15 @@
         <v>334</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B551" s="2">
         <v>42404</v>
       </c>
       <c r="C551" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G551">
         <v>3019.3067355123289</v>
@@ -14788,9 +14754,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B552" s="2">
         <v>42083</v>
@@ -14805,9 +14771,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B553" s="2">
         <v>42096</v>
@@ -14831,9 +14797,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B554" s="2">
         <v>42102</v>
@@ -14857,9 +14823,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B555" s="2">
         <v>42118</v>
@@ -14883,9 +14849,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B556" s="2">
         <v>42135</v>
@@ -14909,9 +14875,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B557" s="2">
         <v>42151</v>
@@ -14935,9 +14901,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B558" s="2">
         <v>42172</v>
@@ -14961,9 +14927,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B559" s="2">
         <v>42202</v>
@@ -14987,9 +14953,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B560" s="2">
         <v>42215</v>
@@ -15007,9 +14973,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B561" s="2">
         <v>42235</v>
@@ -15033,9 +14999,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B562" s="2">
         <v>42255</v>
@@ -15059,9 +15025,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B563" s="2">
         <v>42268</v>
@@ -15097,9 +15063,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B564" s="2">
         <v>42276</v>
@@ -15117,9 +15083,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B565" s="2">
         <v>42278</v>
@@ -15143,9 +15109,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B566" s="2">
         <v>42298</v>
@@ -15169,9 +15135,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B567" s="2">
         <v>42320</v>
@@ -15195,9 +15161,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B568" s="2">
         <v>42332</v>
@@ -15215,9 +15181,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B569" s="2">
         <v>42339</v>
@@ -15256,9 +15222,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B570" s="2">
         <v>42346</v>
@@ -15282,9 +15248,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B571" s="2">
         <v>42374</v>
@@ -15305,9 +15271,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B572" s="2">
         <v>42394</v>
@@ -15328,15 +15294,15 @@
         <v>312</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B573" s="2">
         <v>42404</v>
       </c>
       <c r="C573" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G573">
         <v>3142.8429349048379</v>
@@ -15375,9 +15341,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B574" s="2">
         <v>42437</v>
@@ -15392,9 +15358,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B575" s="2">
         <v>42466</v>
@@ -15418,9 +15384,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B576" s="2">
         <v>42478</v>
@@ -15444,9 +15410,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B577" s="2">
         <v>42487</v>
@@ -15464,9 +15430,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B578" s="2">
         <v>42488</v>
@@ -15484,9 +15450,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B579" s="2">
         <v>42500</v>
@@ -15504,9 +15470,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B580" s="2">
         <v>42501</v>
@@ -15530,9 +15496,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B581" s="2">
         <v>42521</v>
@@ -15553,9 +15519,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B582" s="2">
         <v>42544</v>
@@ -15579,9 +15545,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B583" s="2">
         <v>42558</v>
@@ -15599,9 +15565,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B584" s="2">
         <v>42565</v>
@@ -15625,9 +15591,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B585" s="2">
         <v>42590</v>
@@ -15651,9 +15617,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B586" s="2">
         <v>42611</v>
@@ -15671,9 +15637,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B587" s="2">
         <v>42612</v>
@@ -15697,9 +15663,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B588" s="2">
         <v>42626</v>
@@ -15735,9 +15701,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B589" s="2">
         <v>42641</v>
@@ -15761,9 +15727,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B590" s="2">
         <v>42646</v>
@@ -15781,9 +15747,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B591" s="2">
         <v>42663</v>
@@ -15804,9 +15770,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B592" s="2">
         <v>42689</v>
@@ -15830,9 +15796,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B593" s="2">
         <v>42697</v>
@@ -15850,9 +15816,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B594" s="2">
         <v>42702</v>
@@ -15888,9 +15854,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B595" s="2">
         <v>42709</v>
@@ -15914,9 +15880,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B596" s="2">
         <v>42726</v>
@@ -15937,9 +15903,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B597" s="2">
         <v>42747</v>
@@ -15960,9 +15926,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B598" s="2">
         <v>42765</v>
@@ -15980,9 +15946,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B599" s="2">
         <v>42766</v>
@@ -16003,15 +15969,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B600" s="2">
         <v>42776</v>
       </c>
       <c r="C600" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G600">
         <v>2354.3809974130422</v>
@@ -16050,9 +16016,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B601" s="2">
         <v>42474</v>
@@ -16067,9 +16033,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B602" s="2">
         <v>42487</v>
@@ -16087,9 +16053,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B603" s="2">
         <v>42488</v>
@@ -16107,9 +16073,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B604" s="2">
         <v>42500</v>
@@ -16127,9 +16093,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B605" s="2">
         <v>42501</v>
@@ -16153,9 +16119,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B606" s="2">
         <v>42521</v>
@@ -16176,9 +16142,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B607" s="2">
         <v>42544</v>
@@ -16202,9 +16168,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B608" s="2">
         <v>42558</v>
@@ -16222,9 +16188,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B609" s="2">
         <v>42565</v>
@@ -16248,9 +16214,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B610" s="2">
         <v>42590</v>
@@ -16274,9 +16240,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B611" s="2">
         <v>42611</v>
@@ -16294,9 +16260,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B612" s="2">
         <v>42612</v>
@@ -16320,9 +16286,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B613" s="2">
         <v>42626</v>
@@ -16340,9 +16306,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B614" s="2">
         <v>42641</v>
@@ -16366,9 +16332,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B615" s="2">
         <v>42646</v>
@@ -16404,9 +16370,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B616" s="2">
         <v>42663</v>
@@ -16427,9 +16393,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B617" s="2">
         <v>42689</v>
@@ -16453,9 +16419,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B618" s="2">
         <v>42697</v>
@@ -16473,9 +16439,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B619" s="2">
         <v>42709</v>
@@ -16520,9 +16486,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B620" s="2">
         <v>42726</v>
@@ -16543,9 +16509,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B621" s="2">
         <v>42747</v>
@@ -16566,9 +16532,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B622" s="2">
         <v>42765</v>
@@ -16586,9 +16552,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B623" s="2">
         <v>42766</v>
@@ -16609,15 +16575,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B624" s="2">
         <v>42776</v>
       </c>
       <c r="C624" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G624">
         <v>2928.2456381937632</v>
@@ -16656,9 +16622,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B625" s="2">
         <v>42424</v>
@@ -16673,9 +16639,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B626" s="2">
         <v>42447</v>
@@ -16699,9 +16665,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B627" s="2">
         <v>42466</v>
@@ -16725,9 +16691,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B628" s="2">
         <v>42478</v>
@@ -16751,9 +16717,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B629" s="2">
         <v>42487</v>
@@ -16771,9 +16737,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B630" s="2">
         <v>42488</v>
@@ -16791,9 +16757,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B631" s="2">
         <v>42500</v>
@@ -16811,9 +16777,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B632" s="2">
         <v>42501</v>
@@ -16837,9 +16803,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B633" s="2">
         <v>42521</v>
@@ -16860,9 +16826,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B634" s="2">
         <v>42544</v>
@@ -16886,9 +16852,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B635" s="2">
         <v>42558</v>
@@ -16906,9 +16872,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B636" s="2">
         <v>42565</v>
@@ -16932,9 +16898,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B637" s="2">
         <v>42579</v>
@@ -16967,9 +16933,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B638" s="2">
         <v>42590</v>
@@ -16993,9 +16959,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B639" s="2">
         <v>42611</v>
@@ -17013,9 +16979,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B640" s="2">
         <v>42612</v>
@@ -17039,9 +17005,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B641" s="2">
         <v>42626</v>
@@ -17059,9 +17025,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B642" s="2">
         <v>42641</v>
@@ -17085,9 +17051,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B643" s="2">
         <v>42646</v>
@@ -17105,9 +17071,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B644" s="2">
         <v>42663</v>
@@ -17128,9 +17094,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B645" s="2">
         <v>42689</v>
@@ -17154,9 +17120,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B646" s="2">
         <v>42697</v>
@@ -17174,9 +17140,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B647" s="2">
         <v>42702</v>
@@ -17212,9 +17178,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B648" s="2">
         <v>42709</v>
@@ -17238,9 +17204,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B649" s="2">
         <v>42726</v>
@@ -17261,9 +17227,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B650" s="2">
         <v>42747</v>
@@ -17284,9 +17250,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B651" s="2">
         <v>42765</v>
@@ -17304,9 +17270,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B652" s="2">
         <v>42766</v>
@@ -17327,15 +17293,15 @@
         <v>329</v>
       </c>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B653" s="2">
         <v>42776</v>
       </c>
       <c r="C653" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G653">
         <v>2476.8616135208058</v>
@@ -17374,9 +17340,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B654" s="2">
         <v>42458</v>
@@ -17391,9 +17357,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B655" s="2">
         <v>42478</v>
@@ -17417,9 +17383,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B656" s="2">
         <v>42487</v>
@@ -17437,9 +17403,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B657" s="2">
         <v>42488</v>
@@ -17457,9 +17423,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B658" s="2">
         <v>42500</v>
@@ -17477,9 +17443,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B659" s="2">
         <v>42501</v>
@@ -17503,9 +17469,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B660" s="2">
         <v>42521</v>
@@ -17526,9 +17492,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B661" s="2">
         <v>42544</v>
@@ -17552,9 +17518,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B662" s="2">
         <v>42558</v>
@@ -17572,9 +17538,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B663" s="2">
         <v>42565</v>
@@ -17598,9 +17564,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="664" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B664" s="2">
         <v>42590</v>
@@ -17624,9 +17590,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B665" s="2">
         <v>42611</v>
@@ -17644,9 +17610,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B666" s="2">
         <v>42612</v>
@@ -17670,9 +17636,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B667" s="2">
         <v>42626</v>
@@ -17708,9 +17674,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B668" s="2">
         <v>42641</v>
@@ -17734,9 +17700,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B669" s="2">
         <v>42646</v>
@@ -17754,9 +17720,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B670" s="2">
         <v>42663</v>
@@ -17777,9 +17743,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B671" s="2">
         <v>42689</v>
@@ -17803,9 +17769,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B672" s="2">
         <v>42697</v>
@@ -17823,9 +17789,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B673" s="2">
         <v>42702</v>
@@ -17861,9 +17827,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B674" s="2">
         <v>42709</v>
@@ -17887,9 +17853,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B675" s="2">
         <v>42726</v>
@@ -17910,9 +17876,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="676" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B676" s="2">
         <v>42747</v>
@@ -17933,9 +17899,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="677" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B677" s="2">
         <v>42765</v>
@@ -17953,9 +17919,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="678" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B678" s="2">
         <v>42766</v>
@@ -17976,15 +17942,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="679" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B679" s="2">
         <v>42776</v>
       </c>
       <c r="C679" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G679">
         <v>2922.4671431543529</v>
@@ -18023,9 +17989,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="680" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B680" s="2">
         <v>42803</v>
@@ -18040,9 +18006,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="681" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B681" s="2">
         <v>42818</v>
@@ -18069,9 +18035,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="682" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B682" s="2">
         <v>42835</v>
@@ -18098,9 +18064,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="683" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B683" s="2">
         <v>42858</v>
@@ -18124,9 +18090,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="684" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B684" s="2">
         <v>42863</v>
@@ -18144,9 +18110,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="685" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B685" s="2">
         <v>42880</v>
@@ -18173,9 +18139,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="686" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B686" s="2">
         <v>42898</v>
@@ -18202,9 +18168,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="687" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B687" s="2">
         <v>42919</v>
@@ -18231,9 +18197,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="688" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B688" s="2">
         <v>42934</v>
@@ -18251,9 +18217,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B689" s="2">
         <v>42947</v>
@@ -18277,9 +18243,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B690" s="2">
         <v>42964</v>
@@ -18324,9 +18290,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B691" s="2">
         <v>42986</v>
@@ -18353,9 +18319,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B692" s="2">
         <v>43013</v>
@@ -18382,9 +18348,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B693" s="2">
         <v>43028</v>
@@ -18411,9 +18377,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B694" s="2">
         <v>43046</v>
@@ -18440,9 +18406,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B695" s="2">
         <v>43059</v>
@@ -18481,9 +18447,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B696" s="2">
         <v>43070</v>
@@ -18507,9 +18473,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B697" s="2">
         <v>43090</v>
@@ -18536,9 +18502,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B698" s="2">
         <v>43117</v>
@@ -18565,15 +18531,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B699" s="2">
         <v>43123</v>
       </c>
       <c r="C699" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G699">
         <v>2227.8126463596859</v>
@@ -18615,9 +18581,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B700" s="2">
         <v>42844</v>
@@ -18632,9 +18598,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B701" s="2">
         <v>42858</v>
@@ -18655,9 +18621,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B702" s="2">
         <v>42863</v>
@@ -18675,9 +18641,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B703" s="2">
         <v>42880</v>
@@ -18704,9 +18670,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B704" s="2">
         <v>42898</v>
@@ -18733,9 +18699,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="705" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B705" s="2">
         <v>42919</v>
@@ -18762,9 +18728,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="706" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B706" s="2">
         <v>42934</v>
@@ -18782,9 +18748,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="707" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B707" s="2">
         <v>42947</v>
@@ -18808,9 +18774,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="708" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B708" s="2">
         <v>42964</v>
@@ -18837,9 +18803,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="709" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B709" s="2">
         <v>42986</v>
@@ -18866,9 +18832,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="710" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B710" s="2">
         <v>43013</v>
@@ -18913,9 +18879,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="711" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B711" s="2">
         <v>43028</v>
@@ -18942,9 +18908,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="712" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B712" s="2">
         <v>43046</v>
@@ -18971,9 +18937,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="713" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B713" s="2">
         <v>43067</v>
@@ -19012,9 +18978,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="714" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B714" s="2">
         <v>43070</v>
@@ -19038,9 +19004,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="715" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B715" s="2">
         <v>43090</v>
@@ -19067,9 +19033,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="716" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B716" s="2">
         <v>43117</v>
@@ -19096,15 +19062,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="717" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B717" s="2">
         <v>43129</v>
       </c>
       <c r="C717" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D717">
         <v>13</v>
@@ -19152,9 +19118,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="718" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B718" s="2">
         <v>42824</v>
@@ -19169,9 +19135,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="719" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B719" s="2">
         <v>42835</v>
@@ -19195,9 +19161,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="720" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B720" s="2">
         <v>42858</v>
@@ -19221,9 +19187,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="721" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B721" s="2">
         <v>42863</v>
@@ -19241,9 +19207,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="722" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B722" s="2">
         <v>42880</v>
@@ -19270,9 +19236,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="723" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B723" s="2">
         <v>42898</v>
@@ -19299,9 +19265,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="724" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B724" s="2">
         <v>42919</v>
@@ -19328,9 +19294,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="725" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B725" s="2">
         <v>42934</v>
@@ -19348,9 +19314,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="726" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B726" s="2">
         <v>42947</v>
@@ -19374,9 +19340,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="727" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B727" s="2">
         <v>42964</v>
@@ -19403,9 +19369,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="728" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B728" s="2">
         <v>42986</v>
@@ -19450,9 +19416,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="729" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B729" s="2">
         <v>43013</v>
@@ -19479,9 +19445,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="730" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B730" s="2">
         <v>43028</v>
@@ -19508,9 +19474,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="731" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B731" s="2">
         <v>43046</v>
@@ -19537,9 +19503,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="732" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B732" s="2">
         <v>43067</v>
@@ -19578,9 +19544,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="733" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B733" s="2">
         <v>43070</v>
@@ -19604,9 +19570,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="734" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B734" s="2">
         <v>43090</v>
@@ -19633,9 +19599,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="735" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B735" s="2">
         <v>43117</v>
@@ -19662,15 +19628,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="736" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B736" s="2">
         <v>43129</v>
       </c>
       <c r="C736" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D736">
         <v>14.6</v>
@@ -19718,12 +19684,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C737" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U737">
         <v>161</v>
@@ -19735,12 +19701,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C738" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F738">
         <v>13.63157895</v>
@@ -19755,12 +19721,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C739" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U739">
         <v>161</v>
@@ -19772,12 +19738,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C740" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U740">
         <v>161</v>
@@ -19789,12 +19755,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C741" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F741">
         <v>13.61111111</v>
@@ -19809,12 +19775,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C742" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U742">
         <v>199</v>
@@ -19826,12 +19792,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C743" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F743">
         <v>17.533333330000001</v>
@@ -19846,12 +19812,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C744" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U744">
         <v>199</v>
@@ -19863,12 +19829,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C745" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U745">
         <v>199</v>
@@ -19880,12 +19846,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C746" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F746">
         <v>17.84615385</v>
@@ -19900,12 +19866,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C747" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U747">
         <v>178</v>
@@ -19917,12 +19883,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C748" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F748">
         <v>14.65</v>
@@ -19937,12 +19903,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C749" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U749">
         <v>178</v>
@@ -19954,12 +19920,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C750" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U750">
         <v>178</v>
@@ -19971,12 +19937,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C751" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F751">
         <v>15.44444444</v>
@@ -19991,12 +19957,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C752" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F752">
         <v>15.277777779999999</v>
@@ -20011,12 +19977,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="753" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C753" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F753">
         <v>16.11111111</v>
@@ -20031,12 +19997,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="754" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C754" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F754">
         <v>17.333333329999999</v>
@@ -20051,12 +20017,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="755" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C755" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F755">
         <v>18</v>
@@ -20071,12 +20037,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="756" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C756" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F756">
         <v>12.95</v>
@@ -20091,12 +20057,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="757" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C757" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F757">
         <v>13.25</v>
@@ -20111,12 +20077,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="758" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C758" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F758">
         <v>14.45</v>
@@ -20131,12 +20097,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="759" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C759" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F759">
         <v>14.88888889</v>
@@ -20151,12 +20117,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="760" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C760" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F760">
         <v>12.8</v>
@@ -20171,12 +20137,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="761" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C761" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F761">
         <v>15</v>
@@ -20191,12 +20157,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="762" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C762" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F762">
         <v>16.76923077</v>
@@ -20211,12 +20177,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="763" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C763" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F763">
         <v>14.3</v>
@@ -20231,12 +20197,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="764" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C764" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F764">
         <v>16.07692308</v>
@@ -20251,12 +20217,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="765" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C765" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F765">
         <v>13.78947368</v>
@@ -20271,12 +20237,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="766" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C766" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F766">
         <v>17</v>
@@ -20291,12 +20257,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="767" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C767" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F767">
         <v>15</v>
@@ -20311,12 +20277,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="768" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C768" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F768">
         <v>14.94736842</v>
@@ -20331,12 +20297,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="769" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
+        <v>50</v>
+      </c>
+      <c r="C769" t="s">
         <v>52</v>
-      </c>
-      <c r="C769" t="s">
-        <v>54</v>
       </c>
       <c r="F769">
         <v>13</v>
@@ -20351,12 +20317,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="770" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C770" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F770">
         <v>14.6</v>

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71C228-8BF6-484B-9FEF-F0DD8D63761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -73,9 +74,6 @@
   </si>
   <si>
     <t>Wheat.Grain.Size</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverTotal</t>
   </si>
   <si>
     <t>Wheat.Phenology.TerminalSpikeletDAS</t>
@@ -194,11 +192,14 @@
   <si>
     <t>Wheat.Phenology.FinalLeafNumber</t>
   </si>
+  <si>
+    <t>Wheat.Leaf.CoverGreen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -278,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,9 +319,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,7 +356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,21 +564,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -636,21 +638,21 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2" s="2">
         <v>41380</v>
@@ -665,9 +667,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
         <v>41422</v>
@@ -685,9 +687,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
         <v>41456</v>
@@ -705,9 +707,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
         <v>41480</v>
@@ -725,9 +727,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>41512</v>
@@ -745,9 +747,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>41520</v>
@@ -765,9 +767,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>41548</v>
@@ -785,9 +787,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>41610</v>
@@ -823,15 +825,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>41667</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>2584.6752418452079</v>
@@ -870,9 +872,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>41380</v>
@@ -887,9 +889,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>41393</v>
@@ -897,9 +899,6 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="T12">
-        <v>-9.2657698149068433E-4</v>
-      </c>
       <c r="U12">
         <v>161</v>
       </c>
@@ -910,9 +909,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>41409</v>
@@ -936,9 +935,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>41422</v>
@@ -956,9 +955,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>41431</v>
@@ -979,9 +978,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>41451</v>
@@ -1002,9 +1001,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>41456</v>
@@ -1022,9 +1021,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>41473</v>
@@ -1045,9 +1044,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>41480</v>
@@ -1065,9 +1064,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>41501</v>
@@ -1088,9 +1087,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>41512</v>
@@ -1108,9 +1107,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>41520</v>
@@ -1128,9 +1127,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>41535</v>
@@ -1151,9 +1150,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>41548</v>
@@ -1171,9 +1170,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>41562</v>
@@ -1197,9 +1196,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>41576</v>
@@ -1223,9 +1222,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>41597</v>
@@ -1249,9 +1248,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
         <v>41610</v>
@@ -1287,9 +1286,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2">
         <v>41617</v>
@@ -1304,9 +1303,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2">
         <v>41631</v>
@@ -1324,9 +1323,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
         <v>41646</v>
@@ -1344,9 +1343,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2">
         <v>41656</v>
@@ -1361,9 +1360,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2">
         <v>41660</v>
@@ -1378,15 +1377,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2">
         <v>41667</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34">
         <v>2504.2002985697291</v>
@@ -1425,9 +1424,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
         <v>41380</v>
@@ -1442,9 +1441,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
         <v>41422</v>
@@ -1462,9 +1461,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2">
         <v>41456</v>
@@ -1482,9 +1481,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <v>41480</v>
@@ -1502,9 +1501,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>41512</v>
@@ -1522,9 +1521,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>41520</v>
@@ -1542,9 +1541,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
         <v>41548</v>
@@ -1562,9 +1561,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
         <v>41610</v>
@@ -1600,15 +1599,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2">
         <v>41667</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43">
         <v>2487.5529363685941</v>
@@ -1647,9 +1646,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2">
         <v>41380</v>
@@ -1664,9 +1663,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2">
         <v>41393</v>
@@ -1674,9 +1673,6 @@
       <c r="N45">
         <v>11</v>
       </c>
-      <c r="T45">
-        <v>-1.4066410774834981E-2</v>
-      </c>
       <c r="U45">
         <v>161</v>
       </c>
@@ -1687,9 +1683,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2">
         <v>41409</v>
@@ -1710,9 +1706,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2">
         <v>41422</v>
@@ -1730,9 +1726,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2">
         <v>41431</v>
@@ -1750,9 +1746,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2">
         <v>41451</v>
@@ -1770,9 +1766,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2">
         <v>41456</v>
@@ -1790,9 +1786,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="2">
         <v>41473</v>
@@ -1810,9 +1806,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="2">
         <v>41480</v>
@@ -1830,9 +1826,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="2">
         <v>41501</v>
@@ -1850,9 +1846,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2">
         <v>41512</v>
@@ -1870,9 +1866,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2">
         <v>41520</v>
@@ -1890,9 +1886,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2">
         <v>41535</v>
@@ -1910,9 +1906,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" s="2">
         <v>41548</v>
@@ -1930,9 +1926,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" s="2">
         <v>41562</v>
@@ -1953,9 +1949,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="2">
         <v>41576</v>
@@ -1976,9 +1972,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="2">
         <v>41597</v>
@@ -1999,9 +1995,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="2">
         <v>41610</v>
@@ -2037,9 +2033,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" s="2">
         <v>41617</v>
@@ -2057,9 +2053,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" s="2">
         <v>41631</v>
@@ -2080,9 +2076,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" s="2">
         <v>41646</v>
@@ -2103,9 +2099,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2">
         <v>41656</v>
@@ -2123,15 +2119,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="2">
         <v>41667</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66">
         <v>2692.6749147675118</v>
@@ -2170,9 +2166,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="2">
         <v>41380</v>
@@ -2187,9 +2183,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" s="2">
         <v>41393</v>
@@ -2200,9 +2196,6 @@
       <c r="N68">
         <v>11</v>
       </c>
-      <c r="T68">
-        <v>-5.8913933668641449E-3</v>
-      </c>
       <c r="U68">
         <v>161</v>
       </c>
@@ -2213,9 +2206,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" s="2">
         <v>41409</v>
@@ -2242,9 +2235,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="2">
         <v>41422</v>
@@ -2262,9 +2255,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="2">
         <v>41431</v>
@@ -2288,9 +2281,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="2">
         <v>41451</v>
@@ -2314,9 +2307,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" s="2">
         <v>41456</v>
@@ -2334,9 +2327,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2">
         <v>41473</v>
@@ -2360,9 +2353,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2">
         <v>41480</v>
@@ -2380,9 +2373,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" s="2">
         <v>41501</v>
@@ -2406,9 +2399,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2">
         <v>41512</v>
@@ -2426,9 +2419,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2">
         <v>41520</v>
@@ -2446,9 +2439,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="2">
         <v>41535</v>
@@ -2472,9 +2465,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" s="2">
         <v>41548</v>
@@ -2492,9 +2485,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" s="2">
         <v>41562</v>
@@ -2521,9 +2514,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" s="2">
         <v>41576</v>
@@ -2550,9 +2543,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83" s="2">
         <v>41597</v>
@@ -2579,9 +2572,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" s="2">
         <v>41610</v>
@@ -2617,9 +2610,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2">
         <v>41617</v>
@@ -2637,9 +2630,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
         <v>41631</v>
@@ -2660,9 +2653,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2">
         <v>41646</v>
@@ -2683,9 +2676,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2">
         <v>41656</v>
@@ -2703,9 +2696,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" s="2">
         <v>41660</v>
@@ -2720,15 +2713,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" s="2">
         <v>41667</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G90">
         <v>2422.6624638590788</v>
@@ -2767,9 +2760,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91" s="2">
         <v>41325</v>
@@ -2784,9 +2777,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92" s="2">
         <v>41422</v>
@@ -2804,9 +2797,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" s="2">
         <v>41456</v>
@@ -2824,9 +2817,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94" s="2">
         <v>41480</v>
@@ -2844,9 +2837,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95" s="2">
         <v>41512</v>
@@ -2864,9 +2857,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B96" s="2">
         <v>41520</v>
@@ -2884,9 +2877,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97" s="2">
         <v>41548</v>
@@ -2904,9 +2897,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B98" s="2">
         <v>41592</v>
@@ -2942,15 +2935,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99" s="2">
         <v>41667</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G99">
         <v>2335.5720763093418</v>
@@ -2989,9 +2982,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100" s="2">
         <v>41325</v>
@@ -3006,9 +2999,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B101" s="2">
         <v>41380</v>
@@ -3029,9 +3022,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="2">
         <v>41393</v>
@@ -3055,9 +3048,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103" s="2">
         <v>41409</v>
@@ -3081,9 +3074,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104" s="2">
         <v>41422</v>
@@ -3101,9 +3094,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105" s="2">
         <v>41431</v>
@@ -3124,9 +3117,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106" s="2">
         <v>41451</v>
@@ -3147,9 +3140,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B107" s="2">
         <v>41456</v>
@@ -3167,9 +3160,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108" s="2">
         <v>41473</v>
@@ -3190,9 +3183,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" s="2">
         <v>41480</v>
@@ -3210,9 +3203,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B110" s="2">
         <v>41501</v>
@@ -3233,9 +3226,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B111" s="2">
         <v>41512</v>
@@ -3253,9 +3246,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B112" s="2">
         <v>41520</v>
@@ -3273,9 +3266,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" s="2">
         <v>41535</v>
@@ -3296,9 +3289,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B114" s="2">
         <v>41548</v>
@@ -3316,9 +3309,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B115" s="2">
         <v>41562</v>
@@ -3342,9 +3335,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B116" s="2">
         <v>41576</v>
@@ -3368,9 +3361,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B117" s="2">
         <v>41592</v>
@@ -3406,9 +3399,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B118" s="2">
         <v>41597</v>
@@ -3432,9 +3425,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B119" s="2">
         <v>41617</v>
@@ -3449,9 +3442,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B120" s="2">
         <v>41631</v>
@@ -3469,9 +3462,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B121" s="2">
         <v>41646</v>
@@ -3489,9 +3482,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B122" s="2">
         <v>41656</v>
@@ -3506,15 +3499,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B123" s="2">
         <v>41667</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123">
         <v>2236.5439790303089</v>
@@ -3553,9 +3546,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124" s="2">
         <v>41325</v>
@@ -3570,9 +3563,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125" s="2">
         <v>41422</v>
@@ -3590,9 +3583,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126" s="2">
         <v>41456</v>
@@ -3610,9 +3603,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="2">
         <v>41480</v>
@@ -3630,9 +3623,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B128" s="2">
         <v>41512</v>
@@ -3650,9 +3643,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B129" s="2">
         <v>41520</v>
@@ -3670,9 +3663,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B130" s="2">
         <v>41548</v>
@@ -3690,9 +3683,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B131" s="2">
         <v>41592</v>
@@ -3728,15 +3721,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" s="2">
         <v>41667</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G132">
         <v>2290.6455012801321</v>
@@ -3775,9 +3768,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B133" s="2">
         <v>41325</v>
@@ -3792,9 +3785,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B134" s="2">
         <v>41380</v>
@@ -3812,9 +3805,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135" s="2">
         <v>41393</v>
@@ -3835,9 +3828,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B136" s="2">
         <v>41409</v>
@@ -3858,9 +3851,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B137" s="2">
         <v>41422</v>
@@ -3878,9 +3871,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B138" s="2">
         <v>41431</v>
@@ -3898,9 +3891,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B139" s="2">
         <v>41451</v>
@@ -3918,9 +3911,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B140" s="2">
         <v>41456</v>
@@ -3938,9 +3931,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B141" s="2">
         <v>41473</v>
@@ -3958,9 +3951,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B142" s="2">
         <v>41480</v>
@@ -3978,9 +3971,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B143" s="2">
         <v>41501</v>
@@ -3998,9 +3991,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B144" s="2">
         <v>41512</v>
@@ -4018,9 +4011,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B145" s="2">
         <v>41520</v>
@@ -4038,9 +4031,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B146" s="2">
         <v>41535</v>
@@ -4058,9 +4051,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B147" s="2">
         <v>41548</v>
@@ -4078,9 +4071,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B148" s="2">
         <v>41562</v>
@@ -4101,9 +4094,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B149" s="2">
         <v>41576</v>
@@ -4124,9 +4117,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B150" s="2">
         <v>41592</v>
@@ -4162,9 +4155,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B151" s="2">
         <v>41597</v>
@@ -4185,9 +4178,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B152" s="2">
         <v>41617</v>
@@ -4205,9 +4198,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B153" s="2">
         <v>41631</v>
@@ -4228,9 +4221,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B154" s="2">
         <v>41646</v>
@@ -4251,9 +4244,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B155" s="2">
         <v>41656</v>
@@ -4271,15 +4264,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B156" s="2">
         <v>41667</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G156">
         <v>2375.1309075664558</v>
@@ -4318,9 +4311,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B157" s="2">
         <v>41325</v>
@@ -4335,9 +4328,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B158" s="2">
         <v>41380</v>
@@ -4361,9 +4354,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B159" s="2">
         <v>41393</v>
@@ -4390,9 +4383,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B160" s="2">
         <v>41409</v>
@@ -4419,9 +4412,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B161" s="2">
         <v>41422</v>
@@ -4439,9 +4432,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B162" s="2">
         <v>41431</v>
@@ -4465,9 +4458,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B163" s="2">
         <v>41451</v>
@@ -4491,9 +4484,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B164" s="2">
         <v>41456</v>
@@ -4511,9 +4504,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B165" s="2">
         <v>41473</v>
@@ -4537,9 +4530,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B166" s="2">
         <v>41480</v>
@@ -4557,9 +4550,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B167" s="2">
         <v>41501</v>
@@ -4583,9 +4576,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B168" s="2">
         <v>41512</v>
@@ -4603,9 +4596,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B169" s="2">
         <v>41520</v>
@@ -4623,9 +4616,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B170" s="2">
         <v>41535</v>
@@ -4649,9 +4642,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B171" s="2">
         <v>41548</v>
@@ -4669,9 +4662,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B172" s="2">
         <v>41562</v>
@@ -4698,9 +4691,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B173" s="2">
         <v>41576</v>
@@ -4727,9 +4720,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B174" s="2">
         <v>41592</v>
@@ -4765,9 +4758,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B175" s="2">
         <v>41597</v>
@@ -4794,9 +4787,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B176" s="2">
         <v>41617</v>
@@ -4814,9 +4807,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B177" s="2">
         <v>41631</v>
@@ -4837,9 +4830,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B178" s="2">
         <v>41646</v>
@@ -4860,9 +4853,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B179" s="2">
         <v>41656</v>
@@ -4880,15 +4873,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B180" s="2">
         <v>41667</v>
       </c>
       <c r="C180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G180">
         <v>2266.0947553518008</v>
@@ -4927,9 +4920,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B181" s="2">
         <v>41359</v>
@@ -4944,9 +4937,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B182" s="2">
         <v>41422</v>
@@ -4964,9 +4957,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B183" s="2">
         <v>41456</v>
@@ -4984,9 +4977,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B184" s="2">
         <v>41480</v>
@@ -5004,9 +4997,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B185" s="2">
         <v>41512</v>
@@ -5024,9 +5017,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B186" s="2">
         <v>41520</v>
@@ -5044,9 +5037,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B187" s="2">
         <v>41548</v>
@@ -5064,9 +5057,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B188" s="2">
         <v>41600</v>
@@ -5102,15 +5095,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B189" s="2">
         <v>41667</v>
       </c>
       <c r="C189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G189">
         <v>2603.7907279094038</v>
@@ -5149,9 +5142,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B190" s="2">
         <v>41359</v>
@@ -5166,9 +5159,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B191" s="2">
         <v>41380</v>
@@ -5189,9 +5182,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B192" s="2">
         <v>41393</v>
@@ -5215,9 +5208,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B193" s="2">
         <v>41409</v>
@@ -5241,9 +5234,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B194" s="2">
         <v>41422</v>
@@ -5261,9 +5254,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B195" s="2">
         <v>41431</v>
@@ -5284,9 +5277,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B196" s="2">
         <v>41451</v>
@@ -5307,9 +5300,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B197" s="2">
         <v>41456</v>
@@ -5327,9 +5320,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B198" s="2">
         <v>41473</v>
@@ -5350,9 +5343,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B199" s="2">
         <v>41480</v>
@@ -5370,9 +5363,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B200" s="2">
         <v>41501</v>
@@ -5393,9 +5386,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B201" s="2">
         <v>41506</v>
@@ -5410,9 +5403,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B202" s="2">
         <v>41512</v>
@@ -5430,9 +5423,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B203" s="2">
         <v>41520</v>
@@ -5450,9 +5443,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B204" s="2">
         <v>41535</v>
@@ -5473,9 +5466,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B205" s="2">
         <v>41548</v>
@@ -5493,9 +5486,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B206" s="2">
         <v>41562</v>
@@ -5519,9 +5512,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B207" s="2">
         <v>41576</v>
@@ -5545,9 +5538,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B208" s="2">
         <v>41597</v>
@@ -5571,9 +5564,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B209" s="2">
         <v>41600</v>
@@ -5609,9 +5602,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B210" s="2">
         <v>41617</v>
@@ -5626,9 +5619,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B211" s="2">
         <v>41631</v>
@@ -5646,9 +5639,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B212" s="2">
         <v>41646</v>
@@ -5666,9 +5659,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B213" s="2">
         <v>41656</v>
@@ -5683,15 +5676,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B214" s="2">
         <v>41667</v>
       </c>
       <c r="C214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G214">
         <v>2684.9023198238069</v>
@@ -5730,9 +5723,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B215" s="2">
         <v>41359</v>
@@ -5747,9 +5740,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B216" s="2">
         <v>41422</v>
@@ -5767,9 +5760,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B217" s="2">
         <v>41456</v>
@@ -5787,9 +5780,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B218" s="2">
         <v>41480</v>
@@ -5807,9 +5800,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B219" s="2">
         <v>41512</v>
@@ -5827,9 +5820,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B220" s="2">
         <v>41520</v>
@@ -5847,9 +5840,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B221" s="2">
         <v>41548</v>
@@ -5867,9 +5860,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B222" s="2">
         <v>41600</v>
@@ -5905,15 +5898,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B223" s="2">
         <v>41667</v>
       </c>
       <c r="C223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G223">
         <v>2751.579279285515</v>
@@ -5952,9 +5945,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B224" s="2">
         <v>41359</v>
@@ -5969,9 +5962,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B225" s="2">
         <v>41380</v>
@@ -5989,9 +5982,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B226" s="2">
         <v>41393</v>
@@ -6012,9 +6005,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B227" s="2">
         <v>41409</v>
@@ -6035,9 +6028,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B228" s="2">
         <v>41422</v>
@@ -6055,9 +6048,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B229" s="2">
         <v>41431</v>
@@ -6075,9 +6068,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B230" s="2">
         <v>41451</v>
@@ -6095,9 +6088,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B231" s="2">
         <v>41456</v>
@@ -6115,9 +6108,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B232" s="2">
         <v>41473</v>
@@ -6135,9 +6128,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B233" s="2">
         <v>41480</v>
@@ -6155,9 +6148,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B234" s="2">
         <v>41501</v>
@@ -6175,9 +6168,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B235" s="2">
         <v>41506</v>
@@ -6192,9 +6185,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B236" s="2">
         <v>41512</v>
@@ -6212,9 +6205,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B237" s="2">
         <v>41520</v>
@@ -6232,9 +6225,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B238" s="2">
         <v>41535</v>
@@ -6252,9 +6245,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B239" s="2">
         <v>41548</v>
@@ -6272,9 +6265,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B240" s="2">
         <v>41562</v>
@@ -6295,9 +6288,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B241" s="2">
         <v>41576</v>
@@ -6318,9 +6311,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B242" s="2">
         <v>41597</v>
@@ -6341,9 +6334,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B243" s="2">
         <v>41600</v>
@@ -6379,9 +6372,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B244" s="2">
         <v>41617</v>
@@ -6399,9 +6392,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B245" s="2">
         <v>41631</v>
@@ -6422,9 +6415,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B246" s="2">
         <v>41646</v>
@@ -6445,9 +6438,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B247" s="2">
         <v>41656</v>
@@ -6465,15 +6458,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B248" s="2">
         <v>41667</v>
       </c>
       <c r="C248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G248">
         <v>2793.31827785019</v>
@@ -6512,9 +6505,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B249" s="2">
         <v>41359</v>
@@ -6529,9 +6522,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B250" s="2">
         <v>41380</v>
@@ -6555,9 +6548,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B251" s="2">
         <v>41393</v>
@@ -6584,9 +6577,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B252" s="2">
         <v>41409</v>
@@ -6613,9 +6606,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B253" s="2">
         <v>41422</v>
@@ -6633,9 +6626,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B254" s="2">
         <v>41431</v>
@@ -6659,9 +6652,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B255" s="2">
         <v>41451</v>
@@ -6685,9 +6678,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B256" s="2">
         <v>41456</v>
@@ -6705,9 +6698,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B257" s="2">
         <v>41473</v>
@@ -6731,9 +6724,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B258" s="2">
         <v>41480</v>
@@ -6751,9 +6744,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B259" s="2">
         <v>41501</v>
@@ -6777,9 +6770,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B260" s="2">
         <v>41506</v>
@@ -6794,9 +6787,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B261" s="2">
         <v>41512</v>
@@ -6814,9 +6807,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B262" s="2">
         <v>41520</v>
@@ -6834,9 +6827,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B263" s="2">
         <v>41535</v>
@@ -6860,9 +6853,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B264" s="2">
         <v>41548</v>
@@ -6880,9 +6873,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B265" s="2">
         <v>41562</v>
@@ -6909,9 +6902,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B266" s="2">
         <v>41576</v>
@@ -6938,9 +6931,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B267" s="2">
         <v>41597</v>
@@ -6967,9 +6960,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B268" s="2">
         <v>41600</v>
@@ -7005,9 +6998,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B269" s="2">
         <v>41617</v>
@@ -7025,9 +7018,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B270" s="2">
         <v>41631</v>
@@ -7048,9 +7041,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B271" s="2">
         <v>41646</v>
@@ -7071,9 +7064,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B272" s="2">
         <v>41656</v>
@@ -7091,15 +7084,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B273" s="2">
         <v>41667</v>
       </c>
       <c r="C273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G273">
         <v>2828.1043460015708</v>
@@ -7138,9 +7131,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B274" s="2">
         <v>41708</v>
@@ -7155,9 +7148,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B275" s="2">
         <v>41722</v>
@@ -7171,9 +7164,6 @@
       <c r="N275">
         <v>12</v>
       </c>
-      <c r="T275">
-        <v>-1.3091725676993449E-2</v>
-      </c>
       <c r="U275">
         <v>185</v>
       </c>
@@ -7184,9 +7174,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B276" s="2">
         <v>41731</v>
@@ -7213,9 +7203,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B277" s="2">
         <v>41738</v>
@@ -7242,9 +7232,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B278" s="2">
         <v>41745</v>
@@ -7268,9 +7258,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B279" s="2">
         <v>41760</v>
@@ -7297,9 +7287,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B280" s="2">
         <v>41768</v>
@@ -7326,9 +7316,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B281" s="2">
         <v>41788</v>
@@ -7352,9 +7342,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B282" s="2">
         <v>41806</v>
@@ -7378,9 +7368,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B283" s="2">
         <v>41808</v>
@@ -7398,9 +7388,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B284" s="2">
         <v>41835</v>
@@ -7427,9 +7417,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B285" s="2">
         <v>41855</v>
@@ -7456,9 +7446,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B286" s="2">
         <v>41870</v>
@@ -7491,9 +7481,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B287" s="2">
         <v>41883</v>
@@ -7520,9 +7510,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B288" s="2">
         <v>41891</v>
@@ -7540,9 +7530,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B289" s="2">
         <v>41908</v>
@@ -7569,9 +7559,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B290" s="2">
         <v>41912</v>
@@ -7589,9 +7579,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B291" s="2">
         <v>41925</v>
@@ -7618,9 +7608,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B292" s="2">
         <v>41947</v>
@@ -7647,9 +7637,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B293" s="2">
         <v>41964</v>
@@ -7688,9 +7678,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B294" s="2">
         <v>41969</v>
@@ -7717,9 +7707,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B295" s="2">
         <v>41971</v>
@@ -7737,9 +7727,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B296" s="2">
         <v>41984</v>
@@ -7766,9 +7756,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B297" s="2">
         <v>41996</v>
@@ -7795,9 +7785,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B298" s="2">
         <v>42016</v>
@@ -7824,9 +7814,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B299" s="2">
         <v>42024</v>
@@ -7840,9 +7830,6 @@
       <c r="N299">
         <v>92</v>
       </c>
-      <c r="T299">
-        <v>-4.3804869583570884E-3</v>
-      </c>
       <c r="U299">
         <v>185</v>
       </c>
@@ -7853,15 +7840,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B300" s="2">
         <v>42027</v>
       </c>
       <c r="C300" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G300">
         <v>2837.8688491249868</v>
@@ -7900,9 +7887,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B301" s="2">
         <v>41708</v>
@@ -7917,9 +7904,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B302" s="2">
         <v>41722</v>
@@ -7933,9 +7920,6 @@
       <c r="N302">
         <v>12</v>
       </c>
-      <c r="T302">
-        <v>-3.4601834309400753E-2</v>
-      </c>
       <c r="U302">
         <v>185</v>
       </c>
@@ -7946,9 +7930,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B303" s="2">
         <v>41731</v>
@@ -7975,9 +7959,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B304" s="2">
         <v>41738</v>
@@ -8004,9 +7988,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B305" s="2">
         <v>41745</v>
@@ -8030,9 +8014,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B306" s="2">
         <v>41760</v>
@@ -8059,9 +8043,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B307" s="2">
         <v>41768</v>
@@ -8088,9 +8072,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B308" s="2">
         <v>41788</v>
@@ -8114,9 +8098,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B309" s="2">
         <v>41806</v>
@@ -8140,9 +8124,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B310" s="2">
         <v>41808</v>
@@ -8160,9 +8144,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B311" s="2">
         <v>41835</v>
@@ -8189,9 +8173,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B312" s="2">
         <v>41855</v>
@@ -8218,9 +8202,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B313" s="2">
         <v>41870</v>
@@ -8253,9 +8237,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B314" s="2">
         <v>41883</v>
@@ -8282,9 +8266,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B315" s="2">
         <v>41891</v>
@@ -8302,9 +8286,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B316" s="2">
         <v>41908</v>
@@ -8331,9 +8315,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B317" s="2">
         <v>41912</v>
@@ -8351,9 +8335,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B318" s="2">
         <v>41925</v>
@@ -8380,9 +8364,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B319" s="2">
         <v>41947</v>
@@ -8409,9 +8393,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B320" s="2">
         <v>41964</v>
@@ -8450,9 +8434,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B321" s="2">
         <v>41969</v>
@@ -8479,9 +8463,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B322" s="2">
         <v>41971</v>
@@ -8499,9 +8483,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B323" s="2">
         <v>41984</v>
@@ -8528,9 +8512,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B324" s="2">
         <v>41996</v>
@@ -8557,9 +8541,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B325" s="2">
         <v>42016</v>
@@ -8586,9 +8570,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B326" s="2">
         <v>42024</v>
@@ -8615,15 +8599,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B327" s="2">
         <v>42027</v>
       </c>
       <c r="C327" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G327">
         <v>2898.60999748734</v>
@@ -8662,9 +8646,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B328" s="2">
         <v>41690</v>
@@ -8679,9 +8663,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B329" s="2">
         <v>41709</v>
@@ -8705,9 +8689,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B330" s="2">
         <v>41710</v>
@@ -8725,9 +8709,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B331" s="2">
         <v>41722</v>
@@ -8754,9 +8738,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B332" s="2">
         <v>41731</v>
@@ -8783,9 +8767,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B333" s="2">
         <v>41738</v>
@@ -8812,9 +8796,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B334" s="2">
         <v>41745</v>
@@ -8838,9 +8822,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B335" s="2">
         <v>41760</v>
@@ -8867,9 +8851,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B336" s="2">
         <v>41768</v>
@@ -8896,9 +8880,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B337" s="2">
         <v>41788</v>
@@ -8922,9 +8906,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B338" s="2">
         <v>41806</v>
@@ -8948,9 +8932,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B339" s="2">
         <v>41808</v>
@@ -8968,9 +8952,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B340" s="2">
         <v>41835</v>
@@ -8997,9 +8981,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B341" s="2">
         <v>41844</v>
@@ -9029,9 +9013,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B342" s="2">
         <v>41855</v>
@@ -9058,9 +9042,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B343" s="2">
         <v>41870</v>
@@ -9078,9 +9062,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B344" s="2">
         <v>41883</v>
@@ -9107,9 +9091,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B345" s="2">
         <v>41891</v>
@@ -9127,9 +9111,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B346" s="2">
         <v>41908</v>
@@ -9156,9 +9140,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B347" s="2">
         <v>41912</v>
@@ -9176,9 +9160,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B348" s="2">
         <v>41925</v>
@@ -9205,9 +9189,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B349" s="2">
         <v>41947</v>
@@ -9234,9 +9218,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B350" s="2">
         <v>41964</v>
@@ -9275,9 +9259,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B351" s="2">
         <v>41969</v>
@@ -9304,9 +9288,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B352" s="2">
         <v>41971</v>
@@ -9324,9 +9308,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B353" s="2">
         <v>41984</v>
@@ -9350,9 +9334,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B354" s="2">
         <v>41996</v>
@@ -9376,9 +9360,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B355" s="2">
         <v>42016</v>
@@ -9402,9 +9386,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B356" s="2">
         <v>42024</v>
@@ -9428,15 +9412,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B357" s="2">
         <v>42027</v>
       </c>
       <c r="C357" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G357">
         <v>3021.2141718526</v>
@@ -9475,9 +9459,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B358" s="2">
         <v>41690</v>
@@ -9492,9 +9476,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B359" s="2">
         <v>41709</v>
@@ -9518,16 +9502,13 @@
         <v>331</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B360" s="2">
         <v>41710</v>
       </c>
-      <c r="T360">
-        <v>-3.7255186330325779E-3</v>
-      </c>
       <c r="U360">
         <v>203</v>
       </c>
@@ -9538,9 +9519,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B361" s="2">
         <v>41722</v>
@@ -9567,9 +9548,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B362" s="2">
         <v>41731</v>
@@ -9596,9 +9577,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B363" s="2">
         <v>41738</v>
@@ -9625,9 +9606,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B364" s="2">
         <v>41745</v>
@@ -9651,9 +9632,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B365" s="2">
         <v>41760</v>
@@ -9680,9 +9661,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B366" s="2">
         <v>41768</v>
@@ -9709,9 +9690,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B367" s="2">
         <v>41788</v>
@@ -9735,9 +9716,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B368" s="2">
         <v>41806</v>
@@ -9761,9 +9742,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B369" s="2">
         <v>41808</v>
@@ -9781,9 +9762,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B370" s="2">
         <v>41835</v>
@@ -9810,9 +9791,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B371" s="2">
         <v>41844</v>
@@ -9842,9 +9823,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B372" s="2">
         <v>41855</v>
@@ -9871,9 +9852,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B373" s="2">
         <v>41870</v>
@@ -9891,9 +9872,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B374" s="2">
         <v>41883</v>
@@ -9920,9 +9901,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B375" s="2">
         <v>41891</v>
@@ -9940,9 +9921,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B376" s="2">
         <v>41908</v>
@@ -9969,9 +9950,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B377" s="2">
         <v>41912</v>
@@ -9989,9 +9970,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B378" s="2">
         <v>41925</v>
@@ -10018,9 +9999,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B379" s="2">
         <v>41947</v>
@@ -10047,9 +10028,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B380" s="2">
         <v>41964</v>
@@ -10088,9 +10069,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B381" s="2">
         <v>41969</v>
@@ -10117,9 +10098,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B382" s="2">
         <v>41971</v>
@@ -10137,9 +10118,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B383" s="2">
         <v>41984</v>
@@ -10163,9 +10144,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B384" s="2">
         <v>41996</v>
@@ -10189,9 +10170,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B385" s="2">
         <v>42016</v>
@@ -10215,9 +10196,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B386" s="2">
         <v>42024</v>
@@ -10241,15 +10222,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B387" s="2">
         <v>42027</v>
       </c>
       <c r="C387" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G387">
         <v>2958.3922978387232</v>
@@ -10288,9 +10269,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B388" s="2">
         <v>41752</v>
@@ -10305,9 +10286,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B389" s="2">
         <v>41760</v>
@@ -10325,9 +10306,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B390" s="2">
         <v>41768</v>
@@ -10345,9 +10326,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B391" s="2">
         <v>41788</v>
@@ -10371,9 +10352,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B392" s="2">
         <v>41806</v>
@@ -10397,9 +10378,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B393" s="2">
         <v>41808</v>
@@ -10417,9 +10398,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B394" s="2">
         <v>41835</v>
@@ -10446,9 +10427,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B395" s="2">
         <v>41855</v>
@@ -10475,9 +10456,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B396" s="2">
         <v>41870</v>
@@ -10495,9 +10476,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B397" s="2">
         <v>41883</v>
@@ -10524,9 +10505,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B398" s="2">
         <v>41891</v>
@@ -10544,9 +10525,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B399" s="2">
         <v>41908</v>
@@ -10573,9 +10554,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B400" s="2">
         <v>41912</v>
@@ -10608,9 +10589,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B401" s="2">
         <v>41925</v>
@@ -10637,9 +10618,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B402" s="2">
         <v>41947</v>
@@ -10666,9 +10647,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B403" s="2">
         <v>41964</v>
@@ -10686,9 +10667,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B404" s="2">
         <v>41969</v>
@@ -10715,9 +10696,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B405" s="2">
         <v>41971</v>
@@ -10756,9 +10737,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B406" s="2">
         <v>41984</v>
@@ -10785,9 +10766,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B407" s="2">
         <v>41996</v>
@@ -10814,9 +10795,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B408" s="2">
         <v>42016</v>
@@ -10843,9 +10824,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B409" s="2">
         <v>42024</v>
@@ -10872,15 +10853,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B410" s="2">
         <v>42037</v>
       </c>
       <c r="C410" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G410">
         <v>2832.8489813897049</v>
@@ -10919,9 +10900,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B411" s="2">
         <v>41752</v>
@@ -10936,9 +10917,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B412" s="2">
         <v>41760</v>
@@ -10956,9 +10937,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B413" s="2">
         <v>41768</v>
@@ -10976,9 +10957,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B414" s="2">
         <v>41788</v>
@@ -11002,9 +10983,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B415" s="2">
         <v>41806</v>
@@ -11028,9 +11009,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B416" s="2">
         <v>41808</v>
@@ -11048,9 +11029,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B417" s="2">
         <v>41835</v>
@@ -11077,9 +11058,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B418" s="2">
         <v>41855</v>
@@ -11106,9 +11087,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B419" s="2">
         <v>41870</v>
@@ -11126,9 +11107,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B420" s="2">
         <v>41883</v>
@@ -11155,9 +11136,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B421" s="2">
         <v>41891</v>
@@ -11175,9 +11156,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B422" s="2">
         <v>41908</v>
@@ -11204,9 +11185,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B423" s="2">
         <v>41912</v>
@@ -11239,9 +11220,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B424" s="2">
         <v>41925</v>
@@ -11268,9 +11249,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B425" s="2">
         <v>41947</v>
@@ -11297,9 +11278,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B426" s="2">
         <v>41964</v>
@@ -11317,9 +11298,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B427" s="2">
         <v>41969</v>
@@ -11346,9 +11327,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B428" s="2">
         <v>41971</v>
@@ -11387,9 +11368,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B429" s="2">
         <v>41984</v>
@@ -11416,9 +11397,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B430" s="2">
         <v>41996</v>
@@ -11445,9 +11426,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B431" s="2">
         <v>42016</v>
@@ -11474,9 +11455,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B432" s="2">
         <v>42024</v>
@@ -11503,15 +11484,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B433" s="2">
         <v>42037</v>
       </c>
       <c r="C433" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G433">
         <v>2628.497178064712</v>
@@ -11550,9 +11531,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B434" s="2">
         <v>41724</v>
@@ -11567,9 +11548,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B435" s="2">
         <v>41738</v>
@@ -11593,9 +11574,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B436" s="2">
         <v>41745</v>
@@ -11619,9 +11600,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B437" s="2">
         <v>41760</v>
@@ -11648,9 +11629,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B438" s="2">
         <v>41768</v>
@@ -11677,9 +11658,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B439" s="2">
         <v>41788</v>
@@ -11703,9 +11684,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B440" s="2">
         <v>41806</v>
@@ -11729,9 +11710,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B441" s="2">
         <v>41808</v>
@@ -11749,9 +11730,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B442" s="2">
         <v>41835</v>
@@ -11778,9 +11759,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B443" s="2">
         <v>41855</v>
@@ -11807,9 +11788,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B444" s="2">
         <v>41870</v>
@@ -11827,9 +11808,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B445" s="2">
         <v>41883</v>
@@ -11856,9 +11837,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B446" s="2">
         <v>41891</v>
@@ -11891,9 +11872,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B447" s="2">
         <v>41908</v>
@@ -11920,9 +11901,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B448" s="2">
         <v>41912</v>
@@ -11940,9 +11921,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B449" s="2">
         <v>41925</v>
@@ -11969,9 +11950,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B450" s="2">
         <v>41947</v>
@@ -11998,9 +11979,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B451" s="2">
         <v>41964</v>
@@ -12018,9 +11999,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B452" s="2">
         <v>41969</v>
@@ -12047,9 +12028,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B453" s="2">
         <v>41971</v>
@@ -12088,9 +12069,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B454" s="2">
         <v>41984</v>
@@ -12117,9 +12098,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B455" s="2">
         <v>41996</v>
@@ -12146,9 +12127,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B456" s="2">
         <v>42016</v>
@@ -12175,9 +12156,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B457" s="2">
         <v>42024</v>
@@ -12204,15 +12185,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B458" s="2">
         <v>42027</v>
       </c>
       <c r="C458" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G458">
         <v>3036.0845989142622</v>
@@ -12251,9 +12232,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B459" s="2">
         <v>41724</v>
@@ -12268,9 +12249,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B460" s="2">
         <v>41738</v>
@@ -12294,9 +12275,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B461" s="2">
         <v>41745</v>
@@ -12320,9 +12301,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B462" s="2">
         <v>41760</v>
@@ -12349,9 +12330,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B463" s="2">
         <v>41768</v>
@@ -12378,9 +12359,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B464" s="2">
         <v>41788</v>
@@ -12404,9 +12385,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B465" s="2">
         <v>41806</v>
@@ -12430,9 +12411,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B466" s="2">
         <v>41808</v>
@@ -12450,9 +12431,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B467" s="2">
         <v>41835</v>
@@ -12479,9 +12460,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B468" s="2">
         <v>41855</v>
@@ -12508,9 +12489,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B469" s="2">
         <v>41870</v>
@@ -12528,9 +12509,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B470" s="2">
         <v>41883</v>
@@ -12557,9 +12538,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B471" s="2">
         <v>41891</v>
@@ -12592,9 +12573,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B472" s="2">
         <v>41908</v>
@@ -12621,9 +12602,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B473" s="2">
         <v>41912</v>
@@ -12641,9 +12622,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B474" s="2">
         <v>41925</v>
@@ -12670,9 +12651,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B475" s="2">
         <v>41947</v>
@@ -12699,9 +12680,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B476" s="2">
         <v>41964</v>
@@ -12719,9 +12700,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B477" s="2">
         <v>41969</v>
@@ -12748,9 +12729,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B478" s="2">
         <v>41971</v>
@@ -12789,9 +12770,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B479" s="2">
         <v>41984</v>
@@ -12818,9 +12799,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B480" s="2">
         <v>41996</v>
@@ -12847,9 +12828,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B481" s="2">
         <v>42016</v>
@@ -12876,9 +12857,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B482" s="2">
         <v>42024</v>
@@ -12905,15 +12886,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B483" s="2">
         <v>42027</v>
       </c>
       <c r="C483" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G483">
         <v>2757.9209185983241</v>
@@ -12952,9 +12933,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B484" s="2">
         <v>42103</v>
@@ -12969,9 +12950,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B485" s="2">
         <v>42118</v>
@@ -12989,9 +12970,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B486" s="2">
         <v>42135</v>
@@ -13015,9 +12996,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B487" s="2">
         <v>42151</v>
@@ -13041,9 +13022,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B488" s="2">
         <v>42172</v>
@@ -13067,9 +13048,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B489" s="2">
         <v>42202</v>
@@ -13093,9 +13074,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B490" s="2">
         <v>42215</v>
@@ -13113,9 +13094,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B491" s="2">
         <v>42235</v>
@@ -13139,9 +13120,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B492" s="2">
         <v>42255</v>
@@ -13165,9 +13146,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B493" s="2">
         <v>42268</v>
@@ -13185,9 +13166,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B494" s="2">
         <v>42276</v>
@@ -13223,9 +13204,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B495" s="2">
         <v>42278</v>
@@ -13249,9 +13230,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B496" s="2">
         <v>42298</v>
@@ -13275,9 +13256,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B497" s="2">
         <v>42320</v>
@@ -13301,9 +13282,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B498" s="2">
         <v>42332</v>
@@ -13321,9 +13302,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B499" s="2">
         <v>42339</v>
@@ -13341,9 +13322,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B500" s="2">
         <v>42346</v>
@@ -13388,9 +13369,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B501" s="2">
         <v>42374</v>
@@ -13411,9 +13392,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B502" s="2">
         <v>42394</v>
@@ -13434,15 +13415,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B503" s="2">
         <v>42411</v>
       </c>
       <c r="C503" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G503">
         <v>3311.4106193339821</v>
@@ -13481,9 +13462,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B504" s="2">
         <v>42073</v>
@@ -13498,9 +13479,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B505" s="2">
         <v>42087</v>
@@ -13524,9 +13505,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B506" s="2">
         <v>42096</v>
@@ -13550,9 +13531,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B507" s="2">
         <v>42102</v>
@@ -13576,9 +13557,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B508" s="2">
         <v>42118</v>
@@ -13602,9 +13583,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B509" s="2">
         <v>42135</v>
@@ -13628,9 +13609,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B510" s="2">
         <v>42151</v>
@@ -13654,9 +13635,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B511" s="2">
         <v>42172</v>
@@ -13680,9 +13661,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B512" s="2">
         <v>42202</v>
@@ -13706,9 +13687,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B513" s="2">
         <v>42215</v>
@@ -13726,9 +13707,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B514" s="2">
         <v>42235</v>
@@ -13752,9 +13733,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B515" s="2">
         <v>42255</v>
@@ -13796,9 +13777,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B516" s="2">
         <v>42268</v>
@@ -13816,9 +13797,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B517" s="2">
         <v>42276</v>
@@ -13836,9 +13817,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B518" s="2">
         <v>42278</v>
@@ -13862,9 +13843,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B519" s="2">
         <v>42298</v>
@@ -13888,9 +13869,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B520" s="2">
         <v>42320</v>
@@ -13914,9 +13895,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B521" s="2">
         <v>42332</v>
@@ -13934,9 +13915,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B522" s="2">
         <v>42339</v>
@@ -13975,9 +13956,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B523" s="2">
         <v>42346</v>
@@ -14001,9 +13982,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B524" s="2">
         <v>42374</v>
@@ -14024,9 +14005,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B525" s="2">
         <v>42394</v>
@@ -14047,15 +14028,15 @@
         <v>322</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B526" s="2">
         <v>42404</v>
       </c>
       <c r="C526" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G526">
         <v>3215.9740827244418</v>
@@ -14094,9 +14075,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B527" s="2">
         <v>42055</v>
@@ -14111,9 +14092,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B528" s="2">
         <v>42067</v>
@@ -14131,9 +14112,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B529" s="2">
         <v>42076</v>
@@ -14157,9 +14138,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B530" s="2">
         <v>42087</v>
@@ -14183,9 +14164,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B531" s="2">
         <v>42096</v>
@@ -14209,9 +14190,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B532" s="2">
         <v>42102</v>
@@ -14235,9 +14216,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B533" s="2">
         <v>42118</v>
@@ -14261,9 +14242,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B534" s="2">
         <v>42135</v>
@@ -14287,9 +14268,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B535" s="2">
         <v>42151</v>
@@ -14313,9 +14294,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B536" s="2">
         <v>42172</v>
@@ -14339,9 +14320,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B537" s="2">
         <v>42202</v>
@@ -14365,9 +14346,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B538" s="2">
         <v>42215</v>
@@ -14403,9 +14384,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B539" s="2">
         <v>42235</v>
@@ -14429,9 +14410,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B540" s="2">
         <v>42255</v>
@@ -14455,9 +14436,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B541" s="2">
         <v>42268</v>
@@ -14475,9 +14456,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B542" s="2">
         <v>42276</v>
@@ -14495,9 +14476,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B543" s="2">
         <v>42278</v>
@@ -14521,9 +14502,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B544" s="2">
         <v>42298</v>
@@ -14547,9 +14528,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B545" s="2">
         <v>42320</v>
@@ -14573,9 +14554,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B546" s="2">
         <v>42332</v>
@@ -14614,9 +14595,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B547" s="2">
         <v>42339</v>
@@ -14634,9 +14615,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B548" s="2">
         <v>42346</v>
@@ -14660,9 +14641,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B549" s="2">
         <v>42374</v>
@@ -14683,9 +14664,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B550" s="2">
         <v>42394</v>
@@ -14706,15 +14687,15 @@
         <v>334</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B551" s="2">
         <v>42404</v>
       </c>
       <c r="C551" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G551">
         <v>3019.3067355123289</v>
@@ -14753,9 +14734,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B552" s="2">
         <v>42083</v>
@@ -14770,9 +14751,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B553" s="2">
         <v>42096</v>
@@ -14783,9 +14764,6 @@
       <c r="E553">
         <v>0.1</v>
       </c>
-      <c r="T553">
-        <v>-2.2752132430339161E-2</v>
-      </c>
       <c r="U553">
         <v>188</v>
       </c>
@@ -14796,9 +14774,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B554" s="2">
         <v>42102</v>
@@ -14822,9 +14800,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B555" s="2">
         <v>42118</v>
@@ -14848,9 +14826,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B556" s="2">
         <v>42135</v>
@@ -14874,9 +14852,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B557" s="2">
         <v>42151</v>
@@ -14900,9 +14878,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B558" s="2">
         <v>42172</v>
@@ -14926,9 +14904,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B559" s="2">
         <v>42202</v>
@@ -14952,9 +14930,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B560" s="2">
         <v>42215</v>
@@ -14972,9 +14950,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B561" s="2">
         <v>42235</v>
@@ -14998,9 +14976,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B562" s="2">
         <v>42255</v>
@@ -15024,9 +15002,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B563" s="2">
         <v>42268</v>
@@ -15062,9 +15040,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B564" s="2">
         <v>42276</v>
@@ -15082,9 +15060,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B565" s="2">
         <v>42278</v>
@@ -15108,9 +15086,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B566" s="2">
         <v>42298</v>
@@ -15134,9 +15112,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B567" s="2">
         <v>42320</v>
@@ -15160,9 +15138,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B568" s="2">
         <v>42332</v>
@@ -15180,9 +15158,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B569" s="2">
         <v>42339</v>
@@ -15221,9 +15199,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B570" s="2">
         <v>42346</v>
@@ -15247,9 +15225,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B571" s="2">
         <v>42374</v>
@@ -15270,9 +15248,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B572" s="2">
         <v>42394</v>
@@ -15293,15 +15271,15 @@
         <v>312</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B573" s="2">
         <v>42404</v>
       </c>
       <c r="C573" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G573">
         <v>3142.8429349048379</v>
@@ -15340,9 +15318,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B574" s="2">
         <v>42437</v>
@@ -15357,9 +15335,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B575" s="2">
         <v>42466</v>
@@ -15383,9 +15361,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B576" s="2">
         <v>42478</v>
@@ -15409,9 +15387,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B577" s="2">
         <v>42487</v>
@@ -15429,9 +15407,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B578" s="2">
         <v>42488</v>
@@ -15449,9 +15427,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B579" s="2">
         <v>42500</v>
@@ -15469,9 +15447,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B580" s="2">
         <v>42501</v>
@@ -15495,9 +15473,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B581" s="2">
         <v>42521</v>
@@ -15518,9 +15496,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B582" s="2">
         <v>42544</v>
@@ -15544,9 +15522,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B583" s="2">
         <v>42558</v>
@@ -15564,9 +15542,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B584" s="2">
         <v>42565</v>
@@ -15590,9 +15568,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B585" s="2">
         <v>42590</v>
@@ -15616,9 +15594,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B586" s="2">
         <v>42611</v>
@@ -15636,9 +15614,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B587" s="2">
         <v>42612</v>
@@ -15662,9 +15640,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B588" s="2">
         <v>42626</v>
@@ -15700,9 +15678,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B589" s="2">
         <v>42641</v>
@@ -15726,9 +15704,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B590" s="2">
         <v>42646</v>
@@ -15746,9 +15724,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B591" s="2">
         <v>42663</v>
@@ -15769,9 +15747,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B592" s="2">
         <v>42689</v>
@@ -15795,9 +15773,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B593" s="2">
         <v>42697</v>
@@ -15815,9 +15793,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B594" s="2">
         <v>42702</v>
@@ -15853,9 +15831,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B595" s="2">
         <v>42709</v>
@@ -15879,9 +15857,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B596" s="2">
         <v>42726</v>
@@ -15902,9 +15880,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B597" s="2">
         <v>42747</v>
@@ -15925,16 +15903,13 @@
         <v>316</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B598" s="2">
         <v>42765</v>
       </c>
-      <c r="T598">
-        <v>-1.9089827758044429E-2</v>
-      </c>
       <c r="U598">
         <v>190</v>
       </c>
@@ -15945,9 +15920,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B599" s="2">
         <v>42766</v>
@@ -15968,15 +15943,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B600" s="2">
         <v>42776</v>
       </c>
       <c r="C600" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G600">
         <v>2354.3809974130422</v>
@@ -16015,9 +15990,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B601" s="2">
         <v>42474</v>
@@ -16032,9 +16007,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B602" s="2">
         <v>42487</v>
@@ -16052,9 +16027,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B603" s="2">
         <v>42488</v>
@@ -16072,9 +16047,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B604" s="2">
         <v>42500</v>
@@ -16092,9 +16067,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B605" s="2">
         <v>42501</v>
@@ -16118,9 +16093,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B606" s="2">
         <v>42521</v>
@@ -16141,9 +16116,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B607" s="2">
         <v>42544</v>
@@ -16167,9 +16142,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B608" s="2">
         <v>42558</v>
@@ -16187,9 +16162,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B609" s="2">
         <v>42565</v>
@@ -16213,9 +16188,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B610" s="2">
         <v>42590</v>
@@ -16239,9 +16214,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B611" s="2">
         <v>42611</v>
@@ -16259,9 +16234,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B612" s="2">
         <v>42612</v>
@@ -16285,9 +16260,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B613" s="2">
         <v>42626</v>
@@ -16305,9 +16280,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B614" s="2">
         <v>42641</v>
@@ -16331,9 +16306,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B615" s="2">
         <v>42646</v>
@@ -16369,9 +16344,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B616" s="2">
         <v>42663</v>
@@ -16392,9 +16367,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B617" s="2">
         <v>42689</v>
@@ -16418,9 +16393,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B618" s="2">
         <v>42697</v>
@@ -16438,9 +16413,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B619" s="2">
         <v>42709</v>
@@ -16485,9 +16460,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B620" s="2">
         <v>42726</v>
@@ -16508,9 +16483,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B621" s="2">
         <v>42747</v>
@@ -16531,16 +16506,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B622" s="2">
         <v>42765</v>
       </c>
-      <c r="T622">
-        <v>-2.943502529593473E-3</v>
-      </c>
       <c r="U622">
         <v>162</v>
       </c>
@@ -16551,9 +16523,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B623" s="2">
         <v>42766</v>
@@ -16574,15 +16546,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B624" s="2">
         <v>42776</v>
       </c>
       <c r="C624" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G624">
         <v>2928.2456381937632</v>
@@ -16621,9 +16593,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B625" s="2">
         <v>42424</v>
@@ -16638,9 +16610,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B626" s="2">
         <v>42447</v>
@@ -16664,9 +16636,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B627" s="2">
         <v>42466</v>
@@ -16690,9 +16662,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B628" s="2">
         <v>42478</v>
@@ -16716,9 +16688,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B629" s="2">
         <v>42487</v>
@@ -16736,9 +16708,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B630" s="2">
         <v>42488</v>
@@ -16756,9 +16728,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B631" s="2">
         <v>42500</v>
@@ -16776,9 +16748,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B632" s="2">
         <v>42501</v>
@@ -16802,9 +16774,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B633" s="2">
         <v>42521</v>
@@ -16825,9 +16797,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B634" s="2">
         <v>42544</v>
@@ -16851,9 +16823,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B635" s="2">
         <v>42558</v>
@@ -16871,9 +16843,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B636" s="2">
         <v>42565</v>
@@ -16897,9 +16869,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B637" s="2">
         <v>42579</v>
@@ -16932,9 +16904,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B638" s="2">
         <v>42590</v>
@@ -16958,9 +16930,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B639" s="2">
         <v>42611</v>
@@ -16978,9 +16950,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B640" s="2">
         <v>42612</v>
@@ -17004,9 +16976,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B641" s="2">
         <v>42626</v>
@@ -17024,9 +16996,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B642" s="2">
         <v>42641</v>
@@ -17050,9 +17022,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B643" s="2">
         <v>42646</v>
@@ -17070,9 +17042,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B644" s="2">
         <v>42663</v>
@@ -17093,9 +17065,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B645" s="2">
         <v>42689</v>
@@ -17119,9 +17091,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B646" s="2">
         <v>42697</v>
@@ -17139,9 +17111,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B647" s="2">
         <v>42702</v>
@@ -17177,9 +17149,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B648" s="2">
         <v>42709</v>
@@ -17203,9 +17175,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B649" s="2">
         <v>42726</v>
@@ -17226,9 +17198,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B650" s="2">
         <v>42747</v>
@@ -17249,16 +17221,13 @@
         <v>329</v>
       </c>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B651" s="2">
         <v>42765</v>
       </c>
-      <c r="T651">
-        <v>-3.2308876266460181E-2</v>
-      </c>
       <c r="U651">
         <v>203</v>
       </c>
@@ -17269,9 +17238,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B652" s="2">
         <v>42766</v>
@@ -17292,15 +17261,15 @@
         <v>329</v>
       </c>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B653" s="2">
         <v>42776</v>
       </c>
       <c r="C653" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G653">
         <v>2476.8616135208058</v>
@@ -17339,9 +17308,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B654" s="2">
         <v>42458</v>
@@ -17356,9 +17325,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B655" s="2">
         <v>42478</v>
@@ -17382,9 +17351,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B656" s="2">
         <v>42487</v>
@@ -17402,9 +17371,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B657" s="2">
         <v>42488</v>
@@ -17422,9 +17391,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B658" s="2">
         <v>42500</v>
@@ -17442,9 +17411,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B659" s="2">
         <v>42501</v>
@@ -17468,9 +17437,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B660" s="2">
         <v>42521</v>
@@ -17491,9 +17460,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B661" s="2">
         <v>42544</v>
@@ -17517,9 +17486,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B662" s="2">
         <v>42558</v>
@@ -17537,9 +17506,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B663" s="2">
         <v>42565</v>
@@ -17563,9 +17532,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="664" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B664" s="2">
         <v>42590</v>
@@ -17589,9 +17558,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B665" s="2">
         <v>42611</v>
@@ -17609,9 +17578,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B666" s="2">
         <v>42612</v>
@@ -17635,9 +17604,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B667" s="2">
         <v>42626</v>
@@ -17673,9 +17642,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B668" s="2">
         <v>42641</v>
@@ -17699,9 +17668,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B669" s="2">
         <v>42646</v>
@@ -17719,9 +17688,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B670" s="2">
         <v>42663</v>
@@ -17742,9 +17711,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B671" s="2">
         <v>42689</v>
@@ -17768,9 +17737,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B672" s="2">
         <v>42697</v>
@@ -17788,9 +17757,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B673" s="2">
         <v>42702</v>
@@ -17826,9 +17795,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B674" s="2">
         <v>42709</v>
@@ -17852,9 +17821,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B675" s="2">
         <v>42726</v>
@@ -17875,9 +17844,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="676" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B676" s="2">
         <v>42747</v>
@@ -17898,16 +17867,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="677" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B677" s="2">
         <v>42765</v>
       </c>
-      <c r="T677">
-        <v>-4.6578160066725362E-2</v>
-      </c>
       <c r="U677">
         <v>169</v>
       </c>
@@ -17918,9 +17884,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="678" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B678" s="2">
         <v>42766</v>
@@ -17941,15 +17907,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="679" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B679" s="2">
         <v>42776</v>
       </c>
       <c r="C679" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G679">
         <v>2922.4671431543529</v>
@@ -17988,9 +17954,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="680" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B680" s="2">
         <v>42803</v>
@@ -18005,9 +17971,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="681" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B681" s="2">
         <v>42818</v>
@@ -18021,9 +17987,6 @@
       <c r="N681">
         <v>11</v>
       </c>
-      <c r="T681">
-        <v>-1.6026081758791659E-2</v>
-      </c>
       <c r="U681">
         <v>185</v>
       </c>
@@ -18034,9 +17997,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="682" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B682" s="2">
         <v>42835</v>
@@ -18063,9 +18026,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="683" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B683" s="2">
         <v>42858</v>
@@ -18089,9 +18052,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="684" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B684" s="2">
         <v>42863</v>
@@ -18109,9 +18072,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="685" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B685" s="2">
         <v>42880</v>
@@ -18138,9 +18101,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="686" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B686" s="2">
         <v>42898</v>
@@ -18167,9 +18130,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="687" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B687" s="2">
         <v>42919</v>
@@ -18196,9 +18159,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="688" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B688" s="2">
         <v>42934</v>
@@ -18216,9 +18179,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B689" s="2">
         <v>42947</v>
@@ -18242,9 +18205,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B690" s="2">
         <v>42964</v>
@@ -18289,9 +18252,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B691" s="2">
         <v>42986</v>
@@ -18318,9 +18281,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B692" s="2">
         <v>43013</v>
@@ -18347,9 +18310,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B693" s="2">
         <v>43028</v>
@@ -18376,9 +18339,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B694" s="2">
         <v>43046</v>
@@ -18405,9 +18368,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B695" s="2">
         <v>43059</v>
@@ -18446,9 +18409,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B696" s="2">
         <v>43070</v>
@@ -18472,9 +18435,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B697" s="2">
         <v>43090</v>
@@ -18501,9 +18464,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B698" s="2">
         <v>43117</v>
@@ -18530,15 +18493,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B699" s="2">
         <v>43123</v>
       </c>
       <c r="C699" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G699">
         <v>2227.8126463596859</v>
@@ -18580,9 +18543,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B700" s="2">
         <v>42844</v>
@@ -18597,9 +18560,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B701" s="2">
         <v>42858</v>
@@ -18620,9 +18583,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B702" s="2">
         <v>42863</v>
@@ -18640,9 +18603,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B703" s="2">
         <v>42880</v>
@@ -18669,9 +18632,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B704" s="2">
         <v>42898</v>
@@ -18698,9 +18661,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="705" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B705" s="2">
         <v>42919</v>
@@ -18727,9 +18690,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="706" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B706" s="2">
         <v>42934</v>
@@ -18747,9 +18710,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="707" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B707" s="2">
         <v>42947</v>
@@ -18773,9 +18736,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="708" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B708" s="2">
         <v>42964</v>
@@ -18802,9 +18765,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="709" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B709" s="2">
         <v>42986</v>
@@ -18831,9 +18794,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="710" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B710" s="2">
         <v>43013</v>
@@ -18878,9 +18841,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="711" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B711" s="2">
         <v>43028</v>
@@ -18907,9 +18870,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="712" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B712" s="2">
         <v>43046</v>
@@ -18936,9 +18899,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="713" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B713" s="2">
         <v>43067</v>
@@ -18977,9 +18940,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="714" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B714" s="2">
         <v>43070</v>
@@ -19003,9 +18966,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="715" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B715" s="2">
         <v>43090</v>
@@ -19032,9 +18995,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="716" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B716" s="2">
         <v>43117</v>
@@ -19061,15 +19024,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="717" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B717" s="2">
         <v>43129</v>
       </c>
       <c r="C717" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D717">
         <v>13</v>
@@ -19117,9 +19080,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="718" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B718" s="2">
         <v>42824</v>
@@ -19134,9 +19097,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="719" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B719" s="2">
         <v>42835</v>
@@ -19147,9 +19110,6 @@
       <c r="N719">
         <v>10</v>
       </c>
-      <c r="T719">
-        <v>-3.5363352669784603E-2</v>
-      </c>
       <c r="U719">
         <v>176</v>
       </c>
@@ -19160,9 +19120,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="720" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B720" s="2">
         <v>42858</v>
@@ -19186,9 +19146,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="721" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B721" s="2">
         <v>42863</v>
@@ -19206,9 +19166,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="722" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B722" s="2">
         <v>42880</v>
@@ -19235,9 +19195,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="723" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B723" s="2">
         <v>42898</v>
@@ -19264,9 +19224,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="724" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B724" s="2">
         <v>42919</v>
@@ -19293,9 +19253,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="725" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B725" s="2">
         <v>42934</v>
@@ -19313,9 +19273,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="726" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B726" s="2">
         <v>42947</v>
@@ -19339,9 +19299,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="727" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B727" s="2">
         <v>42964</v>
@@ -19368,9 +19328,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="728" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B728" s="2">
         <v>42986</v>
@@ -19415,9 +19375,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="729" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B729" s="2">
         <v>43013</v>
@@ -19444,9 +19404,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="730" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B730" s="2">
         <v>43028</v>
@@ -19473,9 +19433,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="731" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B731" s="2">
         <v>43046</v>
@@ -19502,9 +19462,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="732" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B732" s="2">
         <v>43067</v>
@@ -19543,9 +19503,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="733" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B733" s="2">
         <v>43070</v>
@@ -19569,9 +19529,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="734" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B734" s="2">
         <v>43090</v>
@@ -19598,9 +19558,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="735" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B735" s="2">
         <v>43117</v>
@@ -19627,15 +19587,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="736" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B736" s="2">
         <v>43129</v>
       </c>
       <c r="C736" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D736">
         <v>14.6</v>
@@ -19683,12 +19643,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C737" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U737">
         <v>161</v>
@@ -19700,12 +19660,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C738" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F738">
         <v>13.631578947368419</v>
@@ -19720,12 +19680,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C739" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U739">
         <v>161</v>
@@ -19737,12 +19697,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C740" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U740">
         <v>161</v>
@@ -19754,12 +19714,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C741" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F741">
         <v>13.611111111111111</v>
@@ -19774,12 +19734,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C742" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U742">
         <v>199</v>
@@ -19791,12 +19751,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C743" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F743">
         <v>17.533333333333331</v>
@@ -19811,12 +19771,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C744" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U744">
         <v>199</v>
@@ -19828,12 +19788,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C745" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U745">
         <v>199</v>
@@ -19845,12 +19805,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C746" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F746">
         <v>17.84615384615385</v>
@@ -19865,12 +19825,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C747" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U747">
         <v>178</v>
@@ -19882,12 +19842,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C748" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F748">
         <v>14.65</v>
@@ -19902,12 +19862,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C749" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U749">
         <v>178</v>
@@ -19919,12 +19879,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C750" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U750">
         <v>178</v>
@@ -19936,12 +19896,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C751" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F751">
         <v>15.444444444444439</v>
@@ -19956,12 +19916,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C752" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F752">
         <v>15.27777777777778</v>
@@ -19976,12 +19936,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="753" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C753" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F753">
         <v>16.111111111111111</v>
@@ -19996,12 +19956,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="754" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C754" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F754">
         <v>17.333333333333329</v>
@@ -20016,12 +19976,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="755" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C755" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F755">
         <v>18</v>
@@ -20036,12 +19996,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="756" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C756" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F756">
         <v>12.95</v>
@@ -20056,12 +20016,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="757" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C757" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F757">
         <v>13.25</v>
@@ -20076,12 +20036,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="758" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C758" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F758">
         <v>14.45</v>
@@ -20096,12 +20056,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="759" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C759" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F759">
         <v>14.888888888888889</v>
@@ -20116,12 +20076,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="760" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C760" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F760">
         <v>12.8</v>
@@ -20136,12 +20096,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="761" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C761" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F761">
         <v>15</v>
@@ -20156,12 +20116,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="762" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C762" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F762">
         <v>16.76923076923077</v>
@@ -20176,12 +20136,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="763" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C763" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F763">
         <v>14.3</v>
@@ -20196,12 +20156,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="764" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C764" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F764">
         <v>16.07692307692308</v>
@@ -20216,12 +20176,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="765" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C765" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F765">
         <v>13.789473684210529</v>
@@ -20236,12 +20196,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="766" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C766" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F766">
         <v>17</v>
@@ -20256,12 +20216,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="767" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C767" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F767">
         <v>15</v>
@@ -20276,12 +20236,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="768" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C768" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F768">
         <v>14.94736842105263</v>
@@ -20296,12 +20256,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="769" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C769" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F769">
         <v>13</v>
@@ -20316,12 +20276,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="770" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
+        <v>54</v>
+      </c>
+      <c r="C770" t="s">
         <v>55</v>
-      </c>
-      <c r="C770" t="s">
-        <v>56</v>
       </c>
       <c r="F770">
         <v>14.6</v>

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Wheat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71C228-8BF6-484B-9FEF-F0DD8D63761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB80BE4-51D3-426D-9693-3F0E50F727BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.AppearedCohortNo</t>
   </si>
   <si>
     <t>Wheat.Leaf.ExpandedCohortNo</t>
@@ -50,12 +47,6 @@
   </si>
   <si>
     <t>Wheat.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Wheat.Structure.TotalStemPopn</t>
   </si>
   <si>
     <t>Wheat.Phenology.Zadok.Stage</t>
@@ -190,10 +181,19 @@
     <t>HarvestRipe</t>
   </si>
   <si>
-    <t>Wheat.Phenology.FinalLeafNumber</t>
+    <t>Wheat.Leaf.TillerPopulation</t>
   </si>
   <si>
-    <t>Wheat.Leaf.CoverGreen</t>
+    <t>Wheat.Leaf.FinalLeafNumber</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.HaunStage</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Canopy.LAI</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Canopy.CoverTotal</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W770"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,6 @@
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -590,69 +589,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>41380</v>
@@ -669,7 +668,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>41422</v>
@@ -689,7 +688,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>41456</v>
@@ -709,7 +708,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>41480</v>
@@ -729,7 +728,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>41512</v>
@@ -749,7 +748,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>41520</v>
@@ -769,7 +768,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>41548</v>
@@ -789,7 +788,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>41610</v>
@@ -827,13 +826,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>41667</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>2584.6752418452079</v>
@@ -874,7 +873,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>41380</v>
@@ -891,7 +890,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>41393</v>
@@ -899,6 +898,9 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="T12">
+        <v>-9.2657698149068433E-4</v>
+      </c>
       <c r="U12">
         <v>161</v>
       </c>
@@ -911,7 +913,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>41409</v>
@@ -937,7 +939,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>41422</v>
@@ -957,7 +959,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>41431</v>
@@ -980,7 +982,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>41451</v>
@@ -1003,7 +1005,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>41456</v>
@@ -1023,7 +1025,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>41473</v>
@@ -1046,7 +1048,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>41480</v>
@@ -1066,7 +1068,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>41501</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>41512</v>
@@ -1109,7 +1111,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>41520</v>
@@ -1129,7 +1131,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>41535</v>
@@ -1152,7 +1154,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>41548</v>
@@ -1172,7 +1174,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>41562</v>
@@ -1198,7 +1200,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>41576</v>
@@ -1224,7 +1226,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>41597</v>
@@ -1250,7 +1252,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
         <v>41610</v>
@@ -1288,7 +1290,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>41617</v>
@@ -1305,7 +1307,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2">
         <v>41631</v>
@@ -1325,7 +1327,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2">
         <v>41646</v>
@@ -1345,7 +1347,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
         <v>41656</v>
@@ -1362,7 +1364,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
         <v>41660</v>
@@ -1379,13 +1381,13 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2">
         <v>41667</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G34">
         <v>2504.2002985697291</v>
@@ -1426,7 +1428,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2">
         <v>41380</v>
@@ -1443,7 +1445,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2">
         <v>41422</v>
@@ -1463,7 +1465,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2">
         <v>41456</v>
@@ -1483,7 +1485,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2">
         <v>41480</v>
@@ -1503,7 +1505,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2">
         <v>41512</v>
@@ -1523,7 +1525,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2">
         <v>41520</v>
@@ -1543,7 +1545,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2">
         <v>41548</v>
@@ -1563,7 +1565,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B42" s="2">
         <v>41610</v>
@@ -1601,13 +1603,13 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2">
         <v>41667</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G43">
         <v>2487.5529363685941</v>
@@ -1648,7 +1650,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2">
         <v>41380</v>
@@ -1665,7 +1667,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2">
         <v>41393</v>
@@ -1673,6 +1675,9 @@
       <c r="N45">
         <v>11</v>
       </c>
+      <c r="T45">
+        <v>-1.4066410774834981E-2</v>
+      </c>
       <c r="U45">
         <v>161</v>
       </c>
@@ -1685,7 +1690,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2">
         <v>41409</v>
@@ -1708,7 +1713,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2">
         <v>41422</v>
@@ -1728,7 +1733,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2">
         <v>41431</v>
@@ -1748,7 +1753,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2">
         <v>41451</v>
@@ -1768,7 +1773,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2">
         <v>41456</v>
@@ -1788,7 +1793,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2">
         <v>41473</v>
@@ -1808,7 +1813,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2">
         <v>41480</v>
@@ -1828,7 +1833,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2">
         <v>41501</v>
@@ -1848,7 +1853,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2">
         <v>41512</v>
@@ -1868,7 +1873,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2">
         <v>41520</v>
@@ -1888,7 +1893,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2">
         <v>41535</v>
@@ -1908,7 +1913,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>41548</v>
@@ -1928,7 +1933,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2">
         <v>41562</v>
@@ -1951,7 +1956,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2">
         <v>41576</v>
@@ -1974,7 +1979,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2">
         <v>41597</v>
@@ -1997,7 +2002,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2">
         <v>41610</v>
@@ -2035,7 +2040,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2">
         <v>41617</v>
@@ -2055,7 +2060,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2">
         <v>41631</v>
@@ -2078,7 +2083,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2">
         <v>41646</v>
@@ -2101,7 +2106,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2">
         <v>41656</v>
@@ -2121,13 +2126,13 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2">
         <v>41667</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G66">
         <v>2692.6749147675118</v>
@@ -2168,7 +2173,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B67" s="2">
         <v>41380</v>
@@ -2185,7 +2190,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B68" s="2">
         <v>41393</v>
@@ -2196,6 +2201,9 @@
       <c r="N68">
         <v>11</v>
       </c>
+      <c r="T68">
+        <v>-5.8913933668641449E-3</v>
+      </c>
       <c r="U68">
         <v>161</v>
       </c>
@@ -2208,7 +2216,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B69" s="2">
         <v>41409</v>
@@ -2237,7 +2245,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B70" s="2">
         <v>41422</v>
@@ -2257,7 +2265,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B71" s="2">
         <v>41431</v>
@@ -2283,7 +2291,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B72" s="2">
         <v>41451</v>
@@ -2309,7 +2317,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B73" s="2">
         <v>41456</v>
@@ -2329,7 +2337,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B74" s="2">
         <v>41473</v>
@@ -2355,7 +2363,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B75" s="2">
         <v>41480</v>
@@ -2375,7 +2383,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B76" s="2">
         <v>41501</v>
@@ -2401,7 +2409,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B77" s="2">
         <v>41512</v>
@@ -2421,7 +2429,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B78" s="2">
         <v>41520</v>
@@ -2441,7 +2449,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B79" s="2">
         <v>41535</v>
@@ -2467,7 +2475,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B80" s="2">
         <v>41548</v>
@@ -2487,7 +2495,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B81" s="2">
         <v>41562</v>
@@ -2516,7 +2524,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B82" s="2">
         <v>41576</v>
@@ -2545,7 +2553,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B83" s="2">
         <v>41597</v>
@@ -2574,7 +2582,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B84" s="2">
         <v>41610</v>
@@ -2612,7 +2620,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B85" s="2">
         <v>41617</v>
@@ -2632,7 +2640,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B86" s="2">
         <v>41631</v>
@@ -2655,7 +2663,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B87" s="2">
         <v>41646</v>
@@ -2678,7 +2686,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B88" s="2">
         <v>41656</v>
@@ -2698,7 +2706,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B89" s="2">
         <v>41660</v>
@@ -2715,13 +2723,13 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90" s="2">
         <v>41667</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G90">
         <v>2422.6624638590788</v>
@@ -2762,7 +2770,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91" s="2">
         <v>41325</v>
@@ -2779,7 +2787,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B92" s="2">
         <v>41422</v>
@@ -2799,7 +2807,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B93" s="2">
         <v>41456</v>
@@ -2819,7 +2827,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B94" s="2">
         <v>41480</v>
@@ -2839,7 +2847,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B95" s="2">
         <v>41512</v>
@@ -2859,7 +2867,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B96" s="2">
         <v>41520</v>
@@ -2879,7 +2887,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B97" s="2">
         <v>41548</v>
@@ -2899,7 +2907,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B98" s="2">
         <v>41592</v>
@@ -2937,13 +2945,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B99" s="2">
         <v>41667</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G99">
         <v>2335.5720763093418</v>
@@ -2984,7 +2992,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B100" s="2">
         <v>41325</v>
@@ -3001,7 +3009,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B101" s="2">
         <v>41380</v>
@@ -3024,7 +3032,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B102" s="2">
         <v>41393</v>
@@ -3050,7 +3058,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B103" s="2">
         <v>41409</v>
@@ -3076,7 +3084,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B104" s="2">
         <v>41422</v>
@@ -3096,7 +3104,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B105" s="2">
         <v>41431</v>
@@ -3119,7 +3127,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B106" s="2">
         <v>41451</v>
@@ -3142,7 +3150,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B107" s="2">
         <v>41456</v>
@@ -3162,7 +3170,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B108" s="2">
         <v>41473</v>
@@ -3185,7 +3193,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B109" s="2">
         <v>41480</v>
@@ -3205,7 +3213,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B110" s="2">
         <v>41501</v>
@@ -3228,7 +3236,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B111" s="2">
         <v>41512</v>
@@ -3248,7 +3256,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B112" s="2">
         <v>41520</v>
@@ -3268,7 +3276,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B113" s="2">
         <v>41535</v>
@@ -3291,7 +3299,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B114" s="2">
         <v>41548</v>
@@ -3311,7 +3319,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B115" s="2">
         <v>41562</v>
@@ -3337,7 +3345,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B116" s="2">
         <v>41576</v>
@@ -3363,7 +3371,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B117" s="2">
         <v>41592</v>
@@ -3401,7 +3409,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B118" s="2">
         <v>41597</v>
@@ -3427,7 +3435,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B119" s="2">
         <v>41617</v>
@@ -3444,7 +3452,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B120" s="2">
         <v>41631</v>
@@ -3464,7 +3472,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B121" s="2">
         <v>41646</v>
@@ -3484,7 +3492,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B122" s="2">
         <v>41656</v>
@@ -3501,13 +3509,13 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B123" s="2">
         <v>41667</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G123">
         <v>2236.5439790303089</v>
@@ -3548,7 +3556,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B124" s="2">
         <v>41325</v>
@@ -3565,7 +3573,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B125" s="2">
         <v>41422</v>
@@ -3585,7 +3593,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B126" s="2">
         <v>41456</v>
@@ -3605,7 +3613,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B127" s="2">
         <v>41480</v>
@@ -3625,7 +3633,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B128" s="2">
         <v>41512</v>
@@ -3645,7 +3653,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B129" s="2">
         <v>41520</v>
@@ -3665,7 +3673,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B130" s="2">
         <v>41548</v>
@@ -3685,7 +3693,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B131" s="2">
         <v>41592</v>
@@ -3723,13 +3731,13 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B132" s="2">
         <v>41667</v>
       </c>
       <c r="C132" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G132">
         <v>2290.6455012801321</v>
@@ -3770,7 +3778,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B133" s="2">
         <v>41325</v>
@@ -3787,7 +3795,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B134" s="2">
         <v>41380</v>
@@ -3807,7 +3815,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B135" s="2">
         <v>41393</v>
@@ -3830,7 +3838,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B136" s="2">
         <v>41409</v>
@@ -3853,7 +3861,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B137" s="2">
         <v>41422</v>
@@ -3873,7 +3881,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B138" s="2">
         <v>41431</v>
@@ -3893,7 +3901,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B139" s="2">
         <v>41451</v>
@@ -3913,7 +3921,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B140" s="2">
         <v>41456</v>
@@ -3933,7 +3941,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B141" s="2">
         <v>41473</v>
@@ -3953,7 +3961,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B142" s="2">
         <v>41480</v>
@@ -3973,7 +3981,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B143" s="2">
         <v>41501</v>
@@ -3993,7 +4001,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B144" s="2">
         <v>41512</v>
@@ -4013,7 +4021,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B145" s="2">
         <v>41520</v>
@@ -4033,7 +4041,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B146" s="2">
         <v>41535</v>
@@ -4053,7 +4061,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B147" s="2">
         <v>41548</v>
@@ -4073,7 +4081,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B148" s="2">
         <v>41562</v>
@@ -4096,7 +4104,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B149" s="2">
         <v>41576</v>
@@ -4119,7 +4127,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B150" s="2">
         <v>41592</v>
@@ -4157,7 +4165,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B151" s="2">
         <v>41597</v>
@@ -4180,7 +4188,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B152" s="2">
         <v>41617</v>
@@ -4200,7 +4208,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B153" s="2">
         <v>41631</v>
@@ -4223,7 +4231,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B154" s="2">
         <v>41646</v>
@@ -4246,7 +4254,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B155" s="2">
         <v>41656</v>
@@ -4266,13 +4274,13 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B156" s="2">
         <v>41667</v>
       </c>
       <c r="C156" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G156">
         <v>2375.1309075664558</v>
@@ -4313,7 +4321,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B157" s="2">
         <v>41325</v>
@@ -4330,7 +4338,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B158" s="2">
         <v>41380</v>
@@ -4356,7 +4364,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B159" s="2">
         <v>41393</v>
@@ -4385,7 +4393,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B160" s="2">
         <v>41409</v>
@@ -4414,7 +4422,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B161" s="2">
         <v>41422</v>
@@ -4434,7 +4442,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B162" s="2">
         <v>41431</v>
@@ -4460,7 +4468,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B163" s="2">
         <v>41451</v>
@@ -4486,7 +4494,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B164" s="2">
         <v>41456</v>
@@ -4506,7 +4514,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B165" s="2">
         <v>41473</v>
@@ -4532,7 +4540,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B166" s="2">
         <v>41480</v>
@@ -4552,7 +4560,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B167" s="2">
         <v>41501</v>
@@ -4578,7 +4586,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B168" s="2">
         <v>41512</v>
@@ -4598,7 +4606,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B169" s="2">
         <v>41520</v>
@@ -4618,7 +4626,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B170" s="2">
         <v>41535</v>
@@ -4644,7 +4652,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B171" s="2">
         <v>41548</v>
@@ -4664,7 +4672,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B172" s="2">
         <v>41562</v>
@@ -4693,7 +4701,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B173" s="2">
         <v>41576</v>
@@ -4722,7 +4730,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B174" s="2">
         <v>41592</v>
@@ -4760,7 +4768,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B175" s="2">
         <v>41597</v>
@@ -4789,7 +4797,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B176" s="2">
         <v>41617</v>
@@ -4809,7 +4817,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B177" s="2">
         <v>41631</v>
@@ -4832,7 +4840,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B178" s="2">
         <v>41646</v>
@@ -4855,7 +4863,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B179" s="2">
         <v>41656</v>
@@ -4875,13 +4883,13 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B180" s="2">
         <v>41667</v>
       </c>
       <c r="C180" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G180">
         <v>2266.0947553518008</v>
@@ -4922,7 +4930,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B181" s="2">
         <v>41359</v>
@@ -4939,7 +4947,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B182" s="2">
         <v>41422</v>
@@ -4959,7 +4967,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B183" s="2">
         <v>41456</v>
@@ -4979,7 +4987,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B184" s="2">
         <v>41480</v>
@@ -4999,7 +5007,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B185" s="2">
         <v>41512</v>
@@ -5019,7 +5027,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B186" s="2">
         <v>41520</v>
@@ -5039,7 +5047,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B187" s="2">
         <v>41548</v>
@@ -5059,7 +5067,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B188" s="2">
         <v>41600</v>
@@ -5097,13 +5105,13 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B189" s="2">
         <v>41667</v>
       </c>
       <c r="C189" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G189">
         <v>2603.7907279094038</v>
@@ -5144,7 +5152,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B190" s="2">
         <v>41359</v>
@@ -5161,7 +5169,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B191" s="2">
         <v>41380</v>
@@ -5184,7 +5192,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B192" s="2">
         <v>41393</v>
@@ -5210,7 +5218,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B193" s="2">
         <v>41409</v>
@@ -5236,7 +5244,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B194" s="2">
         <v>41422</v>
@@ -5256,7 +5264,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B195" s="2">
         <v>41431</v>
@@ -5279,7 +5287,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B196" s="2">
         <v>41451</v>
@@ -5302,7 +5310,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B197" s="2">
         <v>41456</v>
@@ -5322,7 +5330,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B198" s="2">
         <v>41473</v>
@@ -5345,7 +5353,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B199" s="2">
         <v>41480</v>
@@ -5365,7 +5373,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B200" s="2">
         <v>41501</v>
@@ -5388,7 +5396,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B201" s="2">
         <v>41506</v>
@@ -5405,7 +5413,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B202" s="2">
         <v>41512</v>
@@ -5425,7 +5433,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B203" s="2">
         <v>41520</v>
@@ -5445,7 +5453,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B204" s="2">
         <v>41535</v>
@@ -5468,7 +5476,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B205" s="2">
         <v>41548</v>
@@ -5488,7 +5496,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B206" s="2">
         <v>41562</v>
@@ -5514,7 +5522,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B207" s="2">
         <v>41576</v>
@@ -5540,7 +5548,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B208" s="2">
         <v>41597</v>
@@ -5566,7 +5574,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B209" s="2">
         <v>41600</v>
@@ -5604,7 +5612,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B210" s="2">
         <v>41617</v>
@@ -5621,7 +5629,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B211" s="2">
         <v>41631</v>
@@ -5641,7 +5649,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B212" s="2">
         <v>41646</v>
@@ -5661,7 +5669,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B213" s="2">
         <v>41656</v>
@@ -5678,13 +5686,13 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B214" s="2">
         <v>41667</v>
       </c>
       <c r="C214" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G214">
         <v>2684.9023198238069</v>
@@ -5725,7 +5733,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B215" s="2">
         <v>41359</v>
@@ -5742,7 +5750,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B216" s="2">
         <v>41422</v>
@@ -5762,7 +5770,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B217" s="2">
         <v>41456</v>
@@ -5782,7 +5790,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B218" s="2">
         <v>41480</v>
@@ -5802,7 +5810,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B219" s="2">
         <v>41512</v>
@@ -5822,7 +5830,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B220" s="2">
         <v>41520</v>
@@ -5842,7 +5850,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B221" s="2">
         <v>41548</v>
@@ -5862,7 +5870,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B222" s="2">
         <v>41600</v>
@@ -5900,13 +5908,13 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B223" s="2">
         <v>41667</v>
       </c>
       <c r="C223" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G223">
         <v>2751.579279285515</v>
@@ -5947,7 +5955,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B224" s="2">
         <v>41359</v>
@@ -5964,7 +5972,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B225" s="2">
         <v>41380</v>
@@ -5984,7 +5992,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B226" s="2">
         <v>41393</v>
@@ -6007,7 +6015,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B227" s="2">
         <v>41409</v>
@@ -6030,7 +6038,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B228" s="2">
         <v>41422</v>
@@ -6050,7 +6058,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B229" s="2">
         <v>41431</v>
@@ -6070,7 +6078,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B230" s="2">
         <v>41451</v>
@@ -6090,7 +6098,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B231" s="2">
         <v>41456</v>
@@ -6110,7 +6118,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B232" s="2">
         <v>41473</v>
@@ -6130,7 +6138,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B233" s="2">
         <v>41480</v>
@@ -6150,7 +6158,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B234" s="2">
         <v>41501</v>
@@ -6170,7 +6178,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B235" s="2">
         <v>41506</v>
@@ -6187,7 +6195,7 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B236" s="2">
         <v>41512</v>
@@ -6207,7 +6215,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B237" s="2">
         <v>41520</v>
@@ -6227,7 +6235,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B238" s="2">
         <v>41535</v>
@@ -6247,7 +6255,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B239" s="2">
         <v>41548</v>
@@ -6267,7 +6275,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B240" s="2">
         <v>41562</v>
@@ -6290,7 +6298,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B241" s="2">
         <v>41576</v>
@@ -6313,7 +6321,7 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B242" s="2">
         <v>41597</v>
@@ -6336,7 +6344,7 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B243" s="2">
         <v>41600</v>
@@ -6374,7 +6382,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B244" s="2">
         <v>41617</v>
@@ -6394,7 +6402,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B245" s="2">
         <v>41631</v>
@@ -6417,7 +6425,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B246" s="2">
         <v>41646</v>
@@ -6440,7 +6448,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B247" s="2">
         <v>41656</v>
@@ -6460,13 +6468,13 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B248" s="2">
         <v>41667</v>
       </c>
       <c r="C248" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G248">
         <v>2793.31827785019</v>
@@ -6507,7 +6515,7 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B249" s="2">
         <v>41359</v>
@@ -6524,7 +6532,7 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B250" s="2">
         <v>41380</v>
@@ -6550,7 +6558,7 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B251" s="2">
         <v>41393</v>
@@ -6579,7 +6587,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B252" s="2">
         <v>41409</v>
@@ -6608,7 +6616,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B253" s="2">
         <v>41422</v>
@@ -6628,7 +6636,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B254" s="2">
         <v>41431</v>
@@ -6654,7 +6662,7 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B255" s="2">
         <v>41451</v>
@@ -6680,7 +6688,7 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B256" s="2">
         <v>41456</v>
@@ -6700,7 +6708,7 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B257" s="2">
         <v>41473</v>
@@ -6726,7 +6734,7 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B258" s="2">
         <v>41480</v>
@@ -6746,7 +6754,7 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B259" s="2">
         <v>41501</v>
@@ -6772,7 +6780,7 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B260" s="2">
         <v>41506</v>
@@ -6789,7 +6797,7 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B261" s="2">
         <v>41512</v>
@@ -6809,7 +6817,7 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B262" s="2">
         <v>41520</v>
@@ -6829,7 +6837,7 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B263" s="2">
         <v>41535</v>
@@ -6855,7 +6863,7 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B264" s="2">
         <v>41548</v>
@@ -6875,7 +6883,7 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B265" s="2">
         <v>41562</v>
@@ -6904,7 +6912,7 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B266" s="2">
         <v>41576</v>
@@ -6933,7 +6941,7 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B267" s="2">
         <v>41597</v>
@@ -6962,7 +6970,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B268" s="2">
         <v>41600</v>
@@ -7000,7 +7008,7 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B269" s="2">
         <v>41617</v>
@@ -7020,7 +7028,7 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B270" s="2">
         <v>41631</v>
@@ -7043,7 +7051,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B271" s="2">
         <v>41646</v>
@@ -7066,7 +7074,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B272" s="2">
         <v>41656</v>
@@ -7086,13 +7094,13 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B273" s="2">
         <v>41667</v>
       </c>
       <c r="C273" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G273">
         <v>2828.1043460015708</v>
@@ -7133,7 +7141,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B274" s="2">
         <v>41708</v>
@@ -7150,7 +7158,7 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B275" s="2">
         <v>41722</v>
@@ -7164,6 +7172,9 @@
       <c r="N275">
         <v>12</v>
       </c>
+      <c r="T275">
+        <v>-1.3091725676993449E-2</v>
+      </c>
       <c r="U275">
         <v>185</v>
       </c>
@@ -7176,7 +7187,7 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B276" s="2">
         <v>41731</v>
@@ -7205,7 +7216,7 @@
     </row>
     <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B277" s="2">
         <v>41738</v>
@@ -7234,7 +7245,7 @@
     </row>
     <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B278" s="2">
         <v>41745</v>
@@ -7260,7 +7271,7 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B279" s="2">
         <v>41760</v>
@@ -7289,7 +7300,7 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B280" s="2">
         <v>41768</v>
@@ -7318,7 +7329,7 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B281" s="2">
         <v>41788</v>
@@ -7344,7 +7355,7 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B282" s="2">
         <v>41806</v>
@@ -7370,7 +7381,7 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B283" s="2">
         <v>41808</v>
@@ -7390,7 +7401,7 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B284" s="2">
         <v>41835</v>
@@ -7419,7 +7430,7 @@
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B285" s="2">
         <v>41855</v>
@@ -7448,7 +7459,7 @@
     </row>
     <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B286" s="2">
         <v>41870</v>
@@ -7483,7 +7494,7 @@
     </row>
     <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B287" s="2">
         <v>41883</v>
@@ -7512,7 +7523,7 @@
     </row>
     <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B288" s="2">
         <v>41891</v>
@@ -7532,7 +7543,7 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B289" s="2">
         <v>41908</v>
@@ -7561,7 +7572,7 @@
     </row>
     <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B290" s="2">
         <v>41912</v>
@@ -7581,7 +7592,7 @@
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B291" s="2">
         <v>41925</v>
@@ -7610,7 +7621,7 @@
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B292" s="2">
         <v>41947</v>
@@ -7639,7 +7650,7 @@
     </row>
     <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B293" s="2">
         <v>41964</v>
@@ -7680,7 +7691,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B294" s="2">
         <v>41969</v>
@@ -7709,7 +7720,7 @@
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B295" s="2">
         <v>41971</v>
@@ -7729,7 +7740,7 @@
     </row>
     <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B296" s="2">
         <v>41984</v>
@@ -7758,7 +7769,7 @@
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B297" s="2">
         <v>41996</v>
@@ -7787,7 +7798,7 @@
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B298" s="2">
         <v>42016</v>
@@ -7816,7 +7827,7 @@
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B299" s="2">
         <v>42024</v>
@@ -7830,6 +7841,9 @@
       <c r="N299">
         <v>92</v>
       </c>
+      <c r="T299">
+        <v>-4.3804869583570884E-3</v>
+      </c>
       <c r="U299">
         <v>185</v>
       </c>
@@ -7842,13 +7856,13 @@
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B300" s="2">
         <v>42027</v>
       </c>
       <c r="C300" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G300">
         <v>2837.8688491249868</v>
@@ -7889,7 +7903,7 @@
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B301" s="2">
         <v>41708</v>
@@ -7906,7 +7920,7 @@
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B302" s="2">
         <v>41722</v>
@@ -7920,6 +7934,9 @@
       <c r="N302">
         <v>12</v>
       </c>
+      <c r="T302">
+        <v>-3.4601834309400753E-2</v>
+      </c>
       <c r="U302">
         <v>185</v>
       </c>
@@ -7932,7 +7949,7 @@
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B303" s="2">
         <v>41731</v>
@@ -7961,7 +7978,7 @@
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B304" s="2">
         <v>41738</v>
@@ -7990,7 +8007,7 @@
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B305" s="2">
         <v>41745</v>
@@ -8016,7 +8033,7 @@
     </row>
     <row r="306" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B306" s="2">
         <v>41760</v>
@@ -8045,7 +8062,7 @@
     </row>
     <row r="307" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B307" s="2">
         <v>41768</v>
@@ -8074,7 +8091,7 @@
     </row>
     <row r="308" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B308" s="2">
         <v>41788</v>
@@ -8100,7 +8117,7 @@
     </row>
     <row r="309" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B309" s="2">
         <v>41806</v>
@@ -8126,7 +8143,7 @@
     </row>
     <row r="310" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B310" s="2">
         <v>41808</v>
@@ -8146,7 +8163,7 @@
     </row>
     <row r="311" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B311" s="2">
         <v>41835</v>
@@ -8175,7 +8192,7 @@
     </row>
     <row r="312" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B312" s="2">
         <v>41855</v>
@@ -8204,7 +8221,7 @@
     </row>
     <row r="313" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B313" s="2">
         <v>41870</v>
@@ -8239,7 +8256,7 @@
     </row>
     <row r="314" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B314" s="2">
         <v>41883</v>
@@ -8268,7 +8285,7 @@
     </row>
     <row r="315" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B315" s="2">
         <v>41891</v>
@@ -8288,7 +8305,7 @@
     </row>
     <row r="316" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B316" s="2">
         <v>41908</v>
@@ -8317,7 +8334,7 @@
     </row>
     <row r="317" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B317" s="2">
         <v>41912</v>
@@ -8337,7 +8354,7 @@
     </row>
     <row r="318" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B318" s="2">
         <v>41925</v>
@@ -8366,7 +8383,7 @@
     </row>
     <row r="319" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B319" s="2">
         <v>41947</v>
@@ -8395,7 +8412,7 @@
     </row>
     <row r="320" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B320" s="2">
         <v>41964</v>
@@ -8436,7 +8453,7 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B321" s="2">
         <v>41969</v>
@@ -8465,7 +8482,7 @@
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B322" s="2">
         <v>41971</v>
@@ -8485,7 +8502,7 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B323" s="2">
         <v>41984</v>
@@ -8514,7 +8531,7 @@
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B324" s="2">
         <v>41996</v>
@@ -8543,7 +8560,7 @@
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B325" s="2">
         <v>42016</v>
@@ -8572,7 +8589,7 @@
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B326" s="2">
         <v>42024</v>
@@ -8601,13 +8618,13 @@
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B327" s="2">
         <v>42027</v>
       </c>
       <c r="C327" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G327">
         <v>2898.60999748734</v>
@@ -8648,7 +8665,7 @@
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B328" s="2">
         <v>41690</v>
@@ -8665,7 +8682,7 @@
     </row>
     <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B329" s="2">
         <v>41709</v>
@@ -8691,7 +8708,7 @@
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B330" s="2">
         <v>41710</v>
@@ -8711,7 +8728,7 @@
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B331" s="2">
         <v>41722</v>
@@ -8740,7 +8757,7 @@
     </row>
     <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B332" s="2">
         <v>41731</v>
@@ -8769,7 +8786,7 @@
     </row>
     <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B333" s="2">
         <v>41738</v>
@@ -8798,7 +8815,7 @@
     </row>
     <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B334" s="2">
         <v>41745</v>
@@ -8824,7 +8841,7 @@
     </row>
     <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B335" s="2">
         <v>41760</v>
@@ -8853,7 +8870,7 @@
     </row>
     <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B336" s="2">
         <v>41768</v>
@@ -8882,7 +8899,7 @@
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B337" s="2">
         <v>41788</v>
@@ -8908,7 +8925,7 @@
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B338" s="2">
         <v>41806</v>
@@ -8934,7 +8951,7 @@
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B339" s="2">
         <v>41808</v>
@@ -8954,7 +8971,7 @@
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B340" s="2">
         <v>41835</v>
@@ -8983,7 +9000,7 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B341" s="2">
         <v>41844</v>
@@ -9015,7 +9032,7 @@
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B342" s="2">
         <v>41855</v>
@@ -9044,7 +9061,7 @@
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B343" s="2">
         <v>41870</v>
@@ -9064,7 +9081,7 @@
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B344" s="2">
         <v>41883</v>
@@ -9093,7 +9110,7 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B345" s="2">
         <v>41891</v>
@@ -9113,7 +9130,7 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B346" s="2">
         <v>41908</v>
@@ -9142,7 +9159,7 @@
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B347" s="2">
         <v>41912</v>
@@ -9162,7 +9179,7 @@
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B348" s="2">
         <v>41925</v>
@@ -9191,7 +9208,7 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B349" s="2">
         <v>41947</v>
@@ -9220,7 +9237,7 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B350" s="2">
         <v>41964</v>
@@ -9261,7 +9278,7 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B351" s="2">
         <v>41969</v>
@@ -9290,7 +9307,7 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B352" s="2">
         <v>41971</v>
@@ -9310,7 +9327,7 @@
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B353" s="2">
         <v>41984</v>
@@ -9336,7 +9353,7 @@
     </row>
     <row r="354" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B354" s="2">
         <v>41996</v>
@@ -9362,7 +9379,7 @@
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B355" s="2">
         <v>42016</v>
@@ -9388,7 +9405,7 @@
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B356" s="2">
         <v>42024</v>
@@ -9414,13 +9431,13 @@
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B357" s="2">
         <v>42027</v>
       </c>
       <c r="C357" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G357">
         <v>3021.2141718526</v>
@@ -9461,7 +9478,7 @@
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B358" s="2">
         <v>41690</v>
@@ -9478,7 +9495,7 @@
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B359" s="2">
         <v>41709</v>
@@ -9504,11 +9521,14 @@
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B360" s="2">
         <v>41710</v>
       </c>
+      <c r="T360">
+        <v>-3.7255186330325779E-3</v>
+      </c>
       <c r="U360">
         <v>203</v>
       </c>
@@ -9521,7 +9541,7 @@
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B361" s="2">
         <v>41722</v>
@@ -9550,7 +9570,7 @@
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B362" s="2">
         <v>41731</v>
@@ -9579,7 +9599,7 @@
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B363" s="2">
         <v>41738</v>
@@ -9608,7 +9628,7 @@
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B364" s="2">
         <v>41745</v>
@@ -9634,7 +9654,7 @@
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B365" s="2">
         <v>41760</v>
@@ -9663,7 +9683,7 @@
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B366" s="2">
         <v>41768</v>
@@ -9692,7 +9712,7 @@
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B367" s="2">
         <v>41788</v>
@@ -9718,7 +9738,7 @@
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B368" s="2">
         <v>41806</v>
@@ -9744,7 +9764,7 @@
     </row>
     <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B369" s="2">
         <v>41808</v>
@@ -9764,7 +9784,7 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B370" s="2">
         <v>41835</v>
@@ -9793,7 +9813,7 @@
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B371" s="2">
         <v>41844</v>
@@ -9825,7 +9845,7 @@
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B372" s="2">
         <v>41855</v>
@@ -9854,7 +9874,7 @@
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B373" s="2">
         <v>41870</v>
@@ -9874,7 +9894,7 @@
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B374" s="2">
         <v>41883</v>
@@ -9903,7 +9923,7 @@
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B375" s="2">
         <v>41891</v>
@@ -9923,7 +9943,7 @@
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B376" s="2">
         <v>41908</v>
@@ -9952,7 +9972,7 @@
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B377" s="2">
         <v>41912</v>
@@ -9972,7 +9992,7 @@
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B378" s="2">
         <v>41925</v>
@@ -10001,7 +10021,7 @@
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B379" s="2">
         <v>41947</v>
@@ -10030,7 +10050,7 @@
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B380" s="2">
         <v>41964</v>
@@ -10071,7 +10091,7 @@
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B381" s="2">
         <v>41969</v>
@@ -10100,7 +10120,7 @@
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B382" s="2">
         <v>41971</v>
@@ -10120,7 +10140,7 @@
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B383" s="2">
         <v>41984</v>
@@ -10146,7 +10166,7 @@
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B384" s="2">
         <v>41996</v>
@@ -10172,7 +10192,7 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B385" s="2">
         <v>42016</v>
@@ -10198,7 +10218,7 @@
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B386" s="2">
         <v>42024</v>
@@ -10224,13 +10244,13 @@
     </row>
     <row r="387" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B387" s="2">
         <v>42027</v>
       </c>
       <c r="C387" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G387">
         <v>2958.3922978387232</v>
@@ -10271,7 +10291,7 @@
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B388" s="2">
         <v>41752</v>
@@ -10288,7 +10308,7 @@
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B389" s="2">
         <v>41760</v>
@@ -10308,7 +10328,7 @@
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B390" s="2">
         <v>41768</v>
@@ -10328,7 +10348,7 @@
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B391" s="2">
         <v>41788</v>
@@ -10354,7 +10374,7 @@
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B392" s="2">
         <v>41806</v>
@@ -10380,7 +10400,7 @@
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B393" s="2">
         <v>41808</v>
@@ -10400,7 +10420,7 @@
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B394" s="2">
         <v>41835</v>
@@ -10429,7 +10449,7 @@
     </row>
     <row r="395" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B395" s="2">
         <v>41855</v>
@@ -10458,7 +10478,7 @@
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B396" s="2">
         <v>41870</v>
@@ -10478,7 +10498,7 @@
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B397" s="2">
         <v>41883</v>
@@ -10507,7 +10527,7 @@
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B398" s="2">
         <v>41891</v>
@@ -10527,7 +10547,7 @@
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B399" s="2">
         <v>41908</v>
@@ -10556,7 +10576,7 @@
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B400" s="2">
         <v>41912</v>
@@ -10591,7 +10611,7 @@
     </row>
     <row r="401" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B401" s="2">
         <v>41925</v>
@@ -10620,7 +10640,7 @@
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B402" s="2">
         <v>41947</v>
@@ -10649,7 +10669,7 @@
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B403" s="2">
         <v>41964</v>
@@ -10669,7 +10689,7 @@
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B404" s="2">
         <v>41969</v>
@@ -10698,7 +10718,7 @@
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B405" s="2">
         <v>41971</v>
@@ -10739,7 +10759,7 @@
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B406" s="2">
         <v>41984</v>
@@ -10768,7 +10788,7 @@
     </row>
     <row r="407" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B407" s="2">
         <v>41996</v>
@@ -10797,7 +10817,7 @@
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B408" s="2">
         <v>42016</v>
@@ -10826,7 +10846,7 @@
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B409" s="2">
         <v>42024</v>
@@ -10855,13 +10875,13 @@
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B410" s="2">
         <v>42037</v>
       </c>
       <c r="C410" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G410">
         <v>2832.8489813897049</v>
@@ -10902,7 +10922,7 @@
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B411" s="2">
         <v>41752</v>
@@ -10919,7 +10939,7 @@
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B412" s="2">
         <v>41760</v>
@@ -10939,7 +10959,7 @@
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B413" s="2">
         <v>41768</v>
@@ -10959,7 +10979,7 @@
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B414" s="2">
         <v>41788</v>
@@ -10985,7 +11005,7 @@
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B415" s="2">
         <v>41806</v>
@@ -11011,7 +11031,7 @@
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B416" s="2">
         <v>41808</v>
@@ -11031,7 +11051,7 @@
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B417" s="2">
         <v>41835</v>
@@ -11060,7 +11080,7 @@
     </row>
     <row r="418" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B418" s="2">
         <v>41855</v>
@@ -11089,7 +11109,7 @@
     </row>
     <row r="419" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B419" s="2">
         <v>41870</v>
@@ -11109,7 +11129,7 @@
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B420" s="2">
         <v>41883</v>
@@ -11138,7 +11158,7 @@
     </row>
     <row r="421" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B421" s="2">
         <v>41891</v>
@@ -11158,7 +11178,7 @@
     </row>
     <row r="422" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B422" s="2">
         <v>41908</v>
@@ -11187,7 +11207,7 @@
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B423" s="2">
         <v>41912</v>
@@ -11222,7 +11242,7 @@
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B424" s="2">
         <v>41925</v>
@@ -11251,7 +11271,7 @@
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B425" s="2">
         <v>41947</v>
@@ -11280,7 +11300,7 @@
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B426" s="2">
         <v>41964</v>
@@ -11300,7 +11320,7 @@
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B427" s="2">
         <v>41969</v>
@@ -11329,7 +11349,7 @@
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B428" s="2">
         <v>41971</v>
@@ -11370,7 +11390,7 @@
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B429" s="2">
         <v>41984</v>
@@ -11399,7 +11419,7 @@
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B430" s="2">
         <v>41996</v>
@@ -11428,7 +11448,7 @@
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B431" s="2">
         <v>42016</v>
@@ -11457,7 +11477,7 @@
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B432" s="2">
         <v>42024</v>
@@ -11486,13 +11506,13 @@
     </row>
     <row r="433" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B433" s="2">
         <v>42037</v>
       </c>
       <c r="C433" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G433">
         <v>2628.497178064712</v>
@@ -11533,7 +11553,7 @@
     </row>
     <row r="434" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B434" s="2">
         <v>41724</v>
@@ -11550,7 +11570,7 @@
     </row>
     <row r="435" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B435" s="2">
         <v>41738</v>
@@ -11576,7 +11596,7 @@
     </row>
     <row r="436" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B436" s="2">
         <v>41745</v>
@@ -11602,7 +11622,7 @@
     </row>
     <row r="437" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B437" s="2">
         <v>41760</v>
@@ -11631,7 +11651,7 @@
     </row>
     <row r="438" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B438" s="2">
         <v>41768</v>
@@ -11660,7 +11680,7 @@
     </row>
     <row r="439" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B439" s="2">
         <v>41788</v>
@@ -11686,7 +11706,7 @@
     </row>
     <row r="440" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B440" s="2">
         <v>41806</v>
@@ -11712,7 +11732,7 @@
     </row>
     <row r="441" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B441" s="2">
         <v>41808</v>
@@ -11732,7 +11752,7 @@
     </row>
     <row r="442" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B442" s="2">
         <v>41835</v>
@@ -11761,7 +11781,7 @@
     </row>
     <row r="443" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B443" s="2">
         <v>41855</v>
@@ -11790,7 +11810,7 @@
     </row>
     <row r="444" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B444" s="2">
         <v>41870</v>
@@ -11810,7 +11830,7 @@
     </row>
     <row r="445" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B445" s="2">
         <v>41883</v>
@@ -11839,7 +11859,7 @@
     </row>
     <row r="446" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B446" s="2">
         <v>41891</v>
@@ -11874,7 +11894,7 @@
     </row>
     <row r="447" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B447" s="2">
         <v>41908</v>
@@ -11903,7 +11923,7 @@
     </row>
     <row r="448" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B448" s="2">
         <v>41912</v>
@@ -11923,7 +11943,7 @@
     </row>
     <row r="449" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B449" s="2">
         <v>41925</v>
@@ -11952,7 +11972,7 @@
     </row>
     <row r="450" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B450" s="2">
         <v>41947</v>
@@ -11981,7 +12001,7 @@
     </row>
     <row r="451" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B451" s="2">
         <v>41964</v>
@@ -12001,7 +12021,7 @@
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B452" s="2">
         <v>41969</v>
@@ -12030,7 +12050,7 @@
     </row>
     <row r="453" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B453" s="2">
         <v>41971</v>
@@ -12071,7 +12091,7 @@
     </row>
     <row r="454" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B454" s="2">
         <v>41984</v>
@@ -12100,7 +12120,7 @@
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B455" s="2">
         <v>41996</v>
@@ -12129,7 +12149,7 @@
     </row>
     <row r="456" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B456" s="2">
         <v>42016</v>
@@ -12158,7 +12178,7 @@
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B457" s="2">
         <v>42024</v>
@@ -12187,13 +12207,13 @@
     </row>
     <row r="458" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B458" s="2">
         <v>42027</v>
       </c>
       <c r="C458" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G458">
         <v>3036.0845989142622</v>
@@ -12234,7 +12254,7 @@
     </row>
     <row r="459" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B459" s="2">
         <v>41724</v>
@@ -12251,7 +12271,7 @@
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B460" s="2">
         <v>41738</v>
@@ -12277,7 +12297,7 @@
     </row>
     <row r="461" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B461" s="2">
         <v>41745</v>
@@ -12303,7 +12323,7 @@
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B462" s="2">
         <v>41760</v>
@@ -12332,7 +12352,7 @@
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B463" s="2">
         <v>41768</v>
@@ -12361,7 +12381,7 @@
     </row>
     <row r="464" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B464" s="2">
         <v>41788</v>
@@ -12387,7 +12407,7 @@
     </row>
     <row r="465" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B465" s="2">
         <v>41806</v>
@@ -12413,7 +12433,7 @@
     </row>
     <row r="466" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B466" s="2">
         <v>41808</v>
@@ -12433,7 +12453,7 @@
     </row>
     <row r="467" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B467" s="2">
         <v>41835</v>
@@ -12462,7 +12482,7 @@
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B468" s="2">
         <v>41855</v>
@@ -12491,7 +12511,7 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B469" s="2">
         <v>41870</v>
@@ -12511,7 +12531,7 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B470" s="2">
         <v>41883</v>
@@ -12540,7 +12560,7 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B471" s="2">
         <v>41891</v>
@@ -12575,7 +12595,7 @@
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B472" s="2">
         <v>41908</v>
@@ -12604,7 +12624,7 @@
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B473" s="2">
         <v>41912</v>
@@ -12624,7 +12644,7 @@
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B474" s="2">
         <v>41925</v>
@@ -12653,7 +12673,7 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B475" s="2">
         <v>41947</v>
@@ -12682,7 +12702,7 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B476" s="2">
         <v>41964</v>
@@ -12702,7 +12722,7 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B477" s="2">
         <v>41969</v>
@@ -12731,7 +12751,7 @@
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B478" s="2">
         <v>41971</v>
@@ -12772,7 +12792,7 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B479" s="2">
         <v>41984</v>
@@ -12801,7 +12821,7 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B480" s="2">
         <v>41996</v>
@@ -12830,7 +12850,7 @@
     </row>
     <row r="481" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B481" s="2">
         <v>42016</v>
@@ -12859,7 +12879,7 @@
     </row>
     <row r="482" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B482" s="2">
         <v>42024</v>
@@ -12888,13 +12908,13 @@
     </row>
     <row r="483" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B483" s="2">
         <v>42027</v>
       </c>
       <c r="C483" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G483">
         <v>2757.9209185983241</v>
@@ -12935,7 +12955,7 @@
     </row>
     <row r="484" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B484" s="2">
         <v>42103</v>
@@ -12952,7 +12972,7 @@
     </row>
     <row r="485" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B485" s="2">
         <v>42118</v>
@@ -12972,7 +12992,7 @@
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B486" s="2">
         <v>42135</v>
@@ -12998,7 +13018,7 @@
     </row>
     <row r="487" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B487" s="2">
         <v>42151</v>
@@ -13024,7 +13044,7 @@
     </row>
     <row r="488" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B488" s="2">
         <v>42172</v>
@@ -13050,7 +13070,7 @@
     </row>
     <row r="489" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B489" s="2">
         <v>42202</v>
@@ -13076,7 +13096,7 @@
     </row>
     <row r="490" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B490" s="2">
         <v>42215</v>
@@ -13096,7 +13116,7 @@
     </row>
     <row r="491" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B491" s="2">
         <v>42235</v>
@@ -13122,7 +13142,7 @@
     </row>
     <row r="492" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B492" s="2">
         <v>42255</v>
@@ -13148,7 +13168,7 @@
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B493" s="2">
         <v>42268</v>
@@ -13168,7 +13188,7 @@
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B494" s="2">
         <v>42276</v>
@@ -13206,7 +13226,7 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B495" s="2">
         <v>42278</v>
@@ -13232,7 +13252,7 @@
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B496" s="2">
         <v>42298</v>
@@ -13258,7 +13278,7 @@
     </row>
     <row r="497" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B497" s="2">
         <v>42320</v>
@@ -13284,7 +13304,7 @@
     </row>
     <row r="498" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B498" s="2">
         <v>42332</v>
@@ -13304,7 +13324,7 @@
     </row>
     <row r="499" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B499" s="2">
         <v>42339</v>
@@ -13324,7 +13344,7 @@
     </row>
     <row r="500" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B500" s="2">
         <v>42346</v>
@@ -13371,7 +13391,7 @@
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B501" s="2">
         <v>42374</v>
@@ -13394,7 +13414,7 @@
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B502" s="2">
         <v>42394</v>
@@ -13417,13 +13437,13 @@
     </row>
     <row r="503" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B503" s="2">
         <v>42411</v>
       </c>
       <c r="C503" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G503">
         <v>3311.4106193339821</v>
@@ -13464,7 +13484,7 @@
     </row>
     <row r="504" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B504" s="2">
         <v>42073</v>
@@ -13481,7 +13501,7 @@
     </row>
     <row r="505" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B505" s="2">
         <v>42087</v>
@@ -13507,7 +13527,7 @@
     </row>
     <row r="506" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B506" s="2">
         <v>42096</v>
@@ -13533,7 +13553,7 @@
     </row>
     <row r="507" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B507" s="2">
         <v>42102</v>
@@ -13559,7 +13579,7 @@
     </row>
     <row r="508" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B508" s="2">
         <v>42118</v>
@@ -13585,7 +13605,7 @@
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B509" s="2">
         <v>42135</v>
@@ -13611,7 +13631,7 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B510" s="2">
         <v>42151</v>
@@ -13637,7 +13657,7 @@
     </row>
     <row r="511" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B511" s="2">
         <v>42172</v>
@@ -13663,7 +13683,7 @@
     </row>
     <row r="512" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B512" s="2">
         <v>42202</v>
@@ -13689,7 +13709,7 @@
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B513" s="2">
         <v>42215</v>
@@ -13709,7 +13729,7 @@
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B514" s="2">
         <v>42235</v>
@@ -13735,7 +13755,7 @@
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B515" s="2">
         <v>42255</v>
@@ -13779,7 +13799,7 @@
     </row>
     <row r="516" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B516" s="2">
         <v>42268</v>
@@ -13799,7 +13819,7 @@
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B517" s="2">
         <v>42276</v>
@@ -13819,7 +13839,7 @@
     </row>
     <row r="518" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B518" s="2">
         <v>42278</v>
@@ -13845,7 +13865,7 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B519" s="2">
         <v>42298</v>
@@ -13871,7 +13891,7 @@
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B520" s="2">
         <v>42320</v>
@@ -13897,7 +13917,7 @@
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B521" s="2">
         <v>42332</v>
@@ -13917,7 +13937,7 @@
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B522" s="2">
         <v>42339</v>
@@ -13958,7 +13978,7 @@
     </row>
     <row r="523" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B523" s="2">
         <v>42346</v>
@@ -13984,7 +14004,7 @@
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B524" s="2">
         <v>42374</v>
@@ -14007,7 +14027,7 @@
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B525" s="2">
         <v>42394</v>
@@ -14030,13 +14050,13 @@
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B526" s="2">
         <v>42404</v>
       </c>
       <c r="C526" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G526">
         <v>3215.9740827244418</v>
@@ -14077,7 +14097,7 @@
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B527" s="2">
         <v>42055</v>
@@ -14094,7 +14114,7 @@
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B528" s="2">
         <v>42067</v>
@@ -14114,7 +14134,7 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B529" s="2">
         <v>42076</v>
@@ -14140,7 +14160,7 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B530" s="2">
         <v>42087</v>
@@ -14166,7 +14186,7 @@
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B531" s="2">
         <v>42096</v>
@@ -14192,7 +14212,7 @@
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B532" s="2">
         <v>42102</v>
@@ -14218,7 +14238,7 @@
     </row>
     <row r="533" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B533" s="2">
         <v>42118</v>
@@ -14244,7 +14264,7 @@
     </row>
     <row r="534" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B534" s="2">
         <v>42135</v>
@@ -14270,7 +14290,7 @@
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B535" s="2">
         <v>42151</v>
@@ -14296,7 +14316,7 @@
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B536" s="2">
         <v>42172</v>
@@ -14322,7 +14342,7 @@
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B537" s="2">
         <v>42202</v>
@@ -14348,7 +14368,7 @@
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B538" s="2">
         <v>42215</v>
@@ -14386,7 +14406,7 @@
     </row>
     <row r="539" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B539" s="2">
         <v>42235</v>
@@ -14412,7 +14432,7 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B540" s="2">
         <v>42255</v>
@@ -14438,7 +14458,7 @@
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B541" s="2">
         <v>42268</v>
@@ -14458,7 +14478,7 @@
     </row>
     <row r="542" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B542" s="2">
         <v>42276</v>
@@ -14478,7 +14498,7 @@
     </row>
     <row r="543" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B543" s="2">
         <v>42278</v>
@@ -14504,7 +14524,7 @@
     </row>
     <row r="544" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B544" s="2">
         <v>42298</v>
@@ -14530,7 +14550,7 @@
     </row>
     <row r="545" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B545" s="2">
         <v>42320</v>
@@ -14556,7 +14576,7 @@
     </row>
     <row r="546" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B546" s="2">
         <v>42332</v>
@@ -14597,7 +14617,7 @@
     </row>
     <row r="547" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B547" s="2">
         <v>42339</v>
@@ -14617,7 +14637,7 @@
     </row>
     <row r="548" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B548" s="2">
         <v>42346</v>
@@ -14643,7 +14663,7 @@
     </row>
     <row r="549" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B549" s="2">
         <v>42374</v>
@@ -14666,7 +14686,7 @@
     </row>
     <row r="550" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B550" s="2">
         <v>42394</v>
@@ -14689,13 +14709,13 @@
     </row>
     <row r="551" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B551" s="2">
         <v>42404</v>
       </c>
       <c r="C551" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G551">
         <v>3019.3067355123289</v>
@@ -14736,7 +14756,7 @@
     </row>
     <row r="552" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B552" s="2">
         <v>42083</v>
@@ -14753,7 +14773,7 @@
     </row>
     <row r="553" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B553" s="2">
         <v>42096</v>
@@ -14764,6 +14784,9 @@
       <c r="E553">
         <v>0.1</v>
       </c>
+      <c r="T553">
+        <v>-2.2752132430339161E-2</v>
+      </c>
       <c r="U553">
         <v>188</v>
       </c>
@@ -14776,7 +14799,7 @@
     </row>
     <row r="554" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B554" s="2">
         <v>42102</v>
@@ -14802,7 +14825,7 @@
     </row>
     <row r="555" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B555" s="2">
         <v>42118</v>
@@ -14828,7 +14851,7 @@
     </row>
     <row r="556" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B556" s="2">
         <v>42135</v>
@@ -14854,7 +14877,7 @@
     </row>
     <row r="557" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B557" s="2">
         <v>42151</v>
@@ -14880,7 +14903,7 @@
     </row>
     <row r="558" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B558" s="2">
         <v>42172</v>
@@ -14906,7 +14929,7 @@
     </row>
     <row r="559" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B559" s="2">
         <v>42202</v>
@@ -14932,7 +14955,7 @@
     </row>
     <row r="560" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B560" s="2">
         <v>42215</v>
@@ -14952,7 +14975,7 @@
     </row>
     <row r="561" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B561" s="2">
         <v>42235</v>
@@ -14978,7 +15001,7 @@
     </row>
     <row r="562" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B562" s="2">
         <v>42255</v>
@@ -15004,7 +15027,7 @@
     </row>
     <row r="563" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B563" s="2">
         <v>42268</v>
@@ -15042,7 +15065,7 @@
     </row>
     <row r="564" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B564" s="2">
         <v>42276</v>
@@ -15062,7 +15085,7 @@
     </row>
     <row r="565" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B565" s="2">
         <v>42278</v>
@@ -15088,7 +15111,7 @@
     </row>
     <row r="566" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B566" s="2">
         <v>42298</v>
@@ -15114,7 +15137,7 @@
     </row>
     <row r="567" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B567" s="2">
         <v>42320</v>
@@ -15140,7 +15163,7 @@
     </row>
     <row r="568" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B568" s="2">
         <v>42332</v>
@@ -15160,7 +15183,7 @@
     </row>
     <row r="569" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B569" s="2">
         <v>42339</v>
@@ -15201,7 +15224,7 @@
     </row>
     <row r="570" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B570" s="2">
         <v>42346</v>
@@ -15227,7 +15250,7 @@
     </row>
     <row r="571" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B571" s="2">
         <v>42374</v>
@@ -15250,7 +15273,7 @@
     </row>
     <row r="572" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B572" s="2">
         <v>42394</v>
@@ -15273,13 +15296,13 @@
     </row>
     <row r="573" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B573" s="2">
         <v>42404</v>
       </c>
       <c r="C573" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G573">
         <v>3142.8429349048379</v>
@@ -15320,7 +15343,7 @@
     </row>
     <row r="574" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B574" s="2">
         <v>42437</v>
@@ -15337,7 +15360,7 @@
     </row>
     <row r="575" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B575" s="2">
         <v>42466</v>
@@ -15363,7 +15386,7 @@
     </row>
     <row r="576" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B576" s="2">
         <v>42478</v>
@@ -15389,7 +15412,7 @@
     </row>
     <row r="577" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B577" s="2">
         <v>42487</v>
@@ -15409,7 +15432,7 @@
     </row>
     <row r="578" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B578" s="2">
         <v>42488</v>
@@ -15429,7 +15452,7 @@
     </row>
     <row r="579" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B579" s="2">
         <v>42500</v>
@@ -15449,7 +15472,7 @@
     </row>
     <row r="580" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B580" s="2">
         <v>42501</v>
@@ -15475,7 +15498,7 @@
     </row>
     <row r="581" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B581" s="2">
         <v>42521</v>
@@ -15498,7 +15521,7 @@
     </row>
     <row r="582" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B582" s="2">
         <v>42544</v>
@@ -15524,7 +15547,7 @@
     </row>
     <row r="583" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B583" s="2">
         <v>42558</v>
@@ -15544,7 +15567,7 @@
     </row>
     <row r="584" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B584" s="2">
         <v>42565</v>
@@ -15570,7 +15593,7 @@
     </row>
     <row r="585" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B585" s="2">
         <v>42590</v>
@@ -15596,7 +15619,7 @@
     </row>
     <row r="586" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B586" s="2">
         <v>42611</v>
@@ -15616,7 +15639,7 @@
     </row>
     <row r="587" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B587" s="2">
         <v>42612</v>
@@ -15642,7 +15665,7 @@
     </row>
     <row r="588" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B588" s="2">
         <v>42626</v>
@@ -15680,7 +15703,7 @@
     </row>
     <row r="589" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B589" s="2">
         <v>42641</v>
@@ -15706,7 +15729,7 @@
     </row>
     <row r="590" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B590" s="2">
         <v>42646</v>
@@ -15726,7 +15749,7 @@
     </row>
     <row r="591" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B591" s="2">
         <v>42663</v>
@@ -15749,7 +15772,7 @@
     </row>
     <row r="592" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B592" s="2">
         <v>42689</v>
@@ -15775,7 +15798,7 @@
     </row>
     <row r="593" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B593" s="2">
         <v>42697</v>
@@ -15795,7 +15818,7 @@
     </row>
     <row r="594" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B594" s="2">
         <v>42702</v>
@@ -15833,7 +15856,7 @@
     </row>
     <row r="595" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B595" s="2">
         <v>42709</v>
@@ -15859,7 +15882,7 @@
     </row>
     <row r="596" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B596" s="2">
         <v>42726</v>
@@ -15882,7 +15905,7 @@
     </row>
     <row r="597" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B597" s="2">
         <v>42747</v>
@@ -15905,11 +15928,14 @@
     </row>
     <row r="598" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B598" s="2">
         <v>42765</v>
       </c>
+      <c r="T598">
+        <v>-1.9089827758044429E-2</v>
+      </c>
       <c r="U598">
         <v>190</v>
       </c>
@@ -15922,7 +15948,7 @@
     </row>
     <row r="599" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B599" s="2">
         <v>42766</v>
@@ -15945,13 +15971,13 @@
     </row>
     <row r="600" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B600" s="2">
         <v>42776</v>
       </c>
       <c r="C600" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G600">
         <v>2354.3809974130422</v>
@@ -15992,7 +16018,7 @@
     </row>
     <row r="601" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B601" s="2">
         <v>42474</v>
@@ -16009,7 +16035,7 @@
     </row>
     <row r="602" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B602" s="2">
         <v>42487</v>
@@ -16029,7 +16055,7 @@
     </row>
     <row r="603" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B603" s="2">
         <v>42488</v>
@@ -16049,7 +16075,7 @@
     </row>
     <row r="604" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B604" s="2">
         <v>42500</v>
@@ -16069,7 +16095,7 @@
     </row>
     <row r="605" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B605" s="2">
         <v>42501</v>
@@ -16095,7 +16121,7 @@
     </row>
     <row r="606" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B606" s="2">
         <v>42521</v>
@@ -16118,7 +16144,7 @@
     </row>
     <row r="607" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B607" s="2">
         <v>42544</v>
@@ -16144,7 +16170,7 @@
     </row>
     <row r="608" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B608" s="2">
         <v>42558</v>
@@ -16164,7 +16190,7 @@
     </row>
     <row r="609" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B609" s="2">
         <v>42565</v>
@@ -16190,7 +16216,7 @@
     </row>
     <row r="610" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B610" s="2">
         <v>42590</v>
@@ -16216,7 +16242,7 @@
     </row>
     <row r="611" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B611" s="2">
         <v>42611</v>
@@ -16236,7 +16262,7 @@
     </row>
     <row r="612" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B612" s="2">
         <v>42612</v>
@@ -16262,7 +16288,7 @@
     </row>
     <row r="613" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B613" s="2">
         <v>42626</v>
@@ -16282,7 +16308,7 @@
     </row>
     <row r="614" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B614" s="2">
         <v>42641</v>
@@ -16308,7 +16334,7 @@
     </row>
     <row r="615" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B615" s="2">
         <v>42646</v>
@@ -16346,7 +16372,7 @@
     </row>
     <row r="616" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B616" s="2">
         <v>42663</v>
@@ -16369,7 +16395,7 @@
     </row>
     <row r="617" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B617" s="2">
         <v>42689</v>
@@ -16395,7 +16421,7 @@
     </row>
     <row r="618" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B618" s="2">
         <v>42697</v>
@@ -16415,7 +16441,7 @@
     </row>
     <row r="619" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B619" s="2">
         <v>42709</v>
@@ -16462,7 +16488,7 @@
     </row>
     <row r="620" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B620" s="2">
         <v>42726</v>
@@ -16485,7 +16511,7 @@
     </row>
     <row r="621" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B621" s="2">
         <v>42747</v>
@@ -16508,11 +16534,14 @@
     </row>
     <row r="622" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B622" s="2">
         <v>42765</v>
       </c>
+      <c r="T622">
+        <v>-2.943502529593473E-3</v>
+      </c>
       <c r="U622">
         <v>162</v>
       </c>
@@ -16525,7 +16554,7 @@
     </row>
     <row r="623" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B623" s="2">
         <v>42766</v>
@@ -16548,13 +16577,13 @@
     </row>
     <row r="624" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B624" s="2">
         <v>42776</v>
       </c>
       <c r="C624" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G624">
         <v>2928.2456381937632</v>
@@ -16595,7 +16624,7 @@
     </row>
     <row r="625" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B625" s="2">
         <v>42424</v>
@@ -16612,7 +16641,7 @@
     </row>
     <row r="626" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B626" s="2">
         <v>42447</v>
@@ -16638,7 +16667,7 @@
     </row>
     <row r="627" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B627" s="2">
         <v>42466</v>
@@ -16664,7 +16693,7 @@
     </row>
     <row r="628" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B628" s="2">
         <v>42478</v>
@@ -16690,7 +16719,7 @@
     </row>
     <row r="629" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B629" s="2">
         <v>42487</v>
@@ -16710,7 +16739,7 @@
     </row>
     <row r="630" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B630" s="2">
         <v>42488</v>
@@ -16730,7 +16759,7 @@
     </row>
     <row r="631" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B631" s="2">
         <v>42500</v>
@@ -16750,7 +16779,7 @@
     </row>
     <row r="632" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B632" s="2">
         <v>42501</v>
@@ -16776,7 +16805,7 @@
     </row>
     <row r="633" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B633" s="2">
         <v>42521</v>
@@ -16799,7 +16828,7 @@
     </row>
     <row r="634" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B634" s="2">
         <v>42544</v>
@@ -16825,7 +16854,7 @@
     </row>
     <row r="635" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B635" s="2">
         <v>42558</v>
@@ -16845,7 +16874,7 @@
     </row>
     <row r="636" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B636" s="2">
         <v>42565</v>
@@ -16871,7 +16900,7 @@
     </row>
     <row r="637" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B637" s="2">
         <v>42579</v>
@@ -16906,7 +16935,7 @@
     </row>
     <row r="638" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B638" s="2">
         <v>42590</v>
@@ -16932,7 +16961,7 @@
     </row>
     <row r="639" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B639" s="2">
         <v>42611</v>
@@ -16952,7 +16981,7 @@
     </row>
     <row r="640" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B640" s="2">
         <v>42612</v>
@@ -16978,7 +17007,7 @@
     </row>
     <row r="641" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B641" s="2">
         <v>42626</v>
@@ -16998,7 +17027,7 @@
     </row>
     <row r="642" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B642" s="2">
         <v>42641</v>
@@ -17024,7 +17053,7 @@
     </row>
     <row r="643" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B643" s="2">
         <v>42646</v>
@@ -17044,7 +17073,7 @@
     </row>
     <row r="644" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B644" s="2">
         <v>42663</v>
@@ -17067,7 +17096,7 @@
     </row>
     <row r="645" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B645" s="2">
         <v>42689</v>
@@ -17093,7 +17122,7 @@
     </row>
     <row r="646" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B646" s="2">
         <v>42697</v>
@@ -17113,7 +17142,7 @@
     </row>
     <row r="647" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B647" s="2">
         <v>42702</v>
@@ -17151,7 +17180,7 @@
     </row>
     <row r="648" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B648" s="2">
         <v>42709</v>
@@ -17177,7 +17206,7 @@
     </row>
     <row r="649" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B649" s="2">
         <v>42726</v>
@@ -17200,7 +17229,7 @@
     </row>
     <row r="650" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B650" s="2">
         <v>42747</v>
@@ -17223,11 +17252,14 @@
     </row>
     <row r="651" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B651" s="2">
         <v>42765</v>
       </c>
+      <c r="T651">
+        <v>-3.2308876266460181E-2</v>
+      </c>
       <c r="U651">
         <v>203</v>
       </c>
@@ -17240,7 +17272,7 @@
     </row>
     <row r="652" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B652" s="2">
         <v>42766</v>
@@ -17263,13 +17295,13 @@
     </row>
     <row r="653" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B653" s="2">
         <v>42776</v>
       </c>
       <c r="C653" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G653">
         <v>2476.8616135208058</v>
@@ -17310,7 +17342,7 @@
     </row>
     <row r="654" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B654" s="2">
         <v>42458</v>
@@ -17327,7 +17359,7 @@
     </row>
     <row r="655" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B655" s="2">
         <v>42478</v>
@@ -17353,7 +17385,7 @@
     </row>
     <row r="656" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B656" s="2">
         <v>42487</v>
@@ -17373,7 +17405,7 @@
     </row>
     <row r="657" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B657" s="2">
         <v>42488</v>
@@ -17393,7 +17425,7 @@
     </row>
     <row r="658" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B658" s="2">
         <v>42500</v>
@@ -17413,7 +17445,7 @@
     </row>
     <row r="659" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B659" s="2">
         <v>42501</v>
@@ -17439,7 +17471,7 @@
     </row>
     <row r="660" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B660" s="2">
         <v>42521</v>
@@ -17462,7 +17494,7 @@
     </row>
     <row r="661" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B661" s="2">
         <v>42544</v>
@@ -17488,7 +17520,7 @@
     </row>
     <row r="662" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B662" s="2">
         <v>42558</v>
@@ -17508,7 +17540,7 @@
     </row>
     <row r="663" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B663" s="2">
         <v>42565</v>
@@ -17534,7 +17566,7 @@
     </row>
     <row r="664" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B664" s="2">
         <v>42590</v>
@@ -17560,7 +17592,7 @@
     </row>
     <row r="665" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B665" s="2">
         <v>42611</v>
@@ -17580,7 +17612,7 @@
     </row>
     <row r="666" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B666" s="2">
         <v>42612</v>
@@ -17606,7 +17638,7 @@
     </row>
     <row r="667" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B667" s="2">
         <v>42626</v>
@@ -17644,7 +17676,7 @@
     </row>
     <row r="668" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B668" s="2">
         <v>42641</v>
@@ -17670,7 +17702,7 @@
     </row>
     <row r="669" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B669" s="2">
         <v>42646</v>
@@ -17690,7 +17722,7 @@
     </row>
     <row r="670" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B670" s="2">
         <v>42663</v>
@@ -17713,7 +17745,7 @@
     </row>
     <row r="671" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B671" s="2">
         <v>42689</v>
@@ -17739,7 +17771,7 @@
     </row>
     <row r="672" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B672" s="2">
         <v>42697</v>
@@ -17759,7 +17791,7 @@
     </row>
     <row r="673" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B673" s="2">
         <v>42702</v>
@@ -17797,7 +17829,7 @@
     </row>
     <row r="674" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B674" s="2">
         <v>42709</v>
@@ -17823,7 +17855,7 @@
     </row>
     <row r="675" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B675" s="2">
         <v>42726</v>
@@ -17846,7 +17878,7 @@
     </row>
     <row r="676" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B676" s="2">
         <v>42747</v>
@@ -17869,11 +17901,14 @@
     </row>
     <row r="677" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B677" s="2">
         <v>42765</v>
       </c>
+      <c r="T677">
+        <v>-4.6578160066725362E-2</v>
+      </c>
       <c r="U677">
         <v>169</v>
       </c>
@@ -17886,7 +17921,7 @@
     </row>
     <row r="678" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B678" s="2">
         <v>42766</v>
@@ -17909,13 +17944,13 @@
     </row>
     <row r="679" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B679" s="2">
         <v>42776</v>
       </c>
       <c r="C679" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G679">
         <v>2922.4671431543529</v>
@@ -17956,7 +17991,7 @@
     </row>
     <row r="680" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B680" s="2">
         <v>42803</v>
@@ -17973,7 +18008,7 @@
     </row>
     <row r="681" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B681" s="2">
         <v>42818</v>
@@ -17987,6 +18022,9 @@
       <c r="N681">
         <v>11</v>
       </c>
+      <c r="T681">
+        <v>-1.6026081758791659E-2</v>
+      </c>
       <c r="U681">
         <v>185</v>
       </c>
@@ -17999,7 +18037,7 @@
     </row>
     <row r="682" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B682" s="2">
         <v>42835</v>
@@ -18028,7 +18066,7 @@
     </row>
     <row r="683" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B683" s="2">
         <v>42858</v>
@@ -18054,7 +18092,7 @@
     </row>
     <row r="684" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B684" s="2">
         <v>42863</v>
@@ -18074,7 +18112,7 @@
     </row>
     <row r="685" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B685" s="2">
         <v>42880</v>
@@ -18103,7 +18141,7 @@
     </row>
     <row r="686" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B686" s="2">
         <v>42898</v>
@@ -18132,7 +18170,7 @@
     </row>
     <row r="687" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B687" s="2">
         <v>42919</v>
@@ -18161,7 +18199,7 @@
     </row>
     <row r="688" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B688" s="2">
         <v>42934</v>
@@ -18181,7 +18219,7 @@
     </row>
     <row r="689" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B689" s="2">
         <v>42947</v>
@@ -18207,7 +18245,7 @@
     </row>
     <row r="690" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B690" s="2">
         <v>42964</v>
@@ -18254,7 +18292,7 @@
     </row>
     <row r="691" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B691" s="2">
         <v>42986</v>
@@ -18283,7 +18321,7 @@
     </row>
     <row r="692" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B692" s="2">
         <v>43013</v>
@@ -18312,7 +18350,7 @@
     </row>
     <row r="693" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B693" s="2">
         <v>43028</v>
@@ -18341,7 +18379,7 @@
     </row>
     <row r="694" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B694" s="2">
         <v>43046</v>
@@ -18370,7 +18408,7 @@
     </row>
     <row r="695" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B695" s="2">
         <v>43059</v>
@@ -18411,7 +18449,7 @@
     </row>
     <row r="696" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B696" s="2">
         <v>43070</v>
@@ -18437,7 +18475,7 @@
     </row>
     <row r="697" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B697" s="2">
         <v>43090</v>
@@ -18466,7 +18504,7 @@
     </row>
     <row r="698" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B698" s="2">
         <v>43117</v>
@@ -18495,13 +18533,13 @@
     </row>
     <row r="699" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B699" s="2">
         <v>43123</v>
       </c>
       <c r="C699" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G699">
         <v>2227.8126463596859</v>
@@ -18545,7 +18583,7 @@
     </row>
     <row r="700" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B700" s="2">
         <v>42844</v>
@@ -18562,7 +18600,7 @@
     </row>
     <row r="701" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B701" s="2">
         <v>42858</v>
@@ -18585,7 +18623,7 @@
     </row>
     <row r="702" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B702" s="2">
         <v>42863</v>
@@ -18605,7 +18643,7 @@
     </row>
     <row r="703" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B703" s="2">
         <v>42880</v>
@@ -18634,7 +18672,7 @@
     </row>
     <row r="704" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B704" s="2">
         <v>42898</v>
@@ -18663,7 +18701,7 @@
     </row>
     <row r="705" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B705" s="2">
         <v>42919</v>
@@ -18692,7 +18730,7 @@
     </row>
     <row r="706" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B706" s="2">
         <v>42934</v>
@@ -18712,7 +18750,7 @@
     </row>
     <row r="707" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B707" s="2">
         <v>42947</v>
@@ -18738,7 +18776,7 @@
     </row>
     <row r="708" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B708" s="2">
         <v>42964</v>
@@ -18767,7 +18805,7 @@
     </row>
     <row r="709" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B709" s="2">
         <v>42986</v>
@@ -18796,7 +18834,7 @@
     </row>
     <row r="710" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B710" s="2">
         <v>43013</v>
@@ -18843,7 +18881,7 @@
     </row>
     <row r="711" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B711" s="2">
         <v>43028</v>
@@ -18872,7 +18910,7 @@
     </row>
     <row r="712" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B712" s="2">
         <v>43046</v>
@@ -18901,7 +18939,7 @@
     </row>
     <row r="713" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B713" s="2">
         <v>43067</v>
@@ -18942,7 +18980,7 @@
     </row>
     <row r="714" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B714" s="2">
         <v>43070</v>
@@ -18968,7 +19006,7 @@
     </row>
     <row r="715" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B715" s="2">
         <v>43090</v>
@@ -18997,7 +19035,7 @@
     </row>
     <row r="716" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B716" s="2">
         <v>43117</v>
@@ -19026,13 +19064,13 @@
     </row>
     <row r="717" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B717" s="2">
         <v>43129</v>
       </c>
       <c r="C717" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D717">
         <v>13</v>
@@ -19082,7 +19120,7 @@
     </row>
     <row r="718" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B718" s="2">
         <v>42824</v>
@@ -19099,7 +19137,7 @@
     </row>
     <row r="719" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B719" s="2">
         <v>42835</v>
@@ -19110,6 +19148,9 @@
       <c r="N719">
         <v>10</v>
       </c>
+      <c r="T719">
+        <v>-3.5363352669784603E-2</v>
+      </c>
       <c r="U719">
         <v>176</v>
       </c>
@@ -19122,7 +19163,7 @@
     </row>
     <row r="720" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B720" s="2">
         <v>42858</v>
@@ -19148,7 +19189,7 @@
     </row>
     <row r="721" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B721" s="2">
         <v>42863</v>
@@ -19168,7 +19209,7 @@
     </row>
     <row r="722" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B722" s="2">
         <v>42880</v>
@@ -19197,7 +19238,7 @@
     </row>
     <row r="723" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B723" s="2">
         <v>42898</v>
@@ -19226,7 +19267,7 @@
     </row>
     <row r="724" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B724" s="2">
         <v>42919</v>
@@ -19255,7 +19296,7 @@
     </row>
     <row r="725" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B725" s="2">
         <v>42934</v>
@@ -19275,7 +19316,7 @@
     </row>
     <row r="726" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B726" s="2">
         <v>42947</v>
@@ -19301,7 +19342,7 @@
     </row>
     <row r="727" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B727" s="2">
         <v>42964</v>
@@ -19330,7 +19371,7 @@
     </row>
     <row r="728" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B728" s="2">
         <v>42986</v>
@@ -19377,7 +19418,7 @@
     </row>
     <row r="729" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B729" s="2">
         <v>43013</v>
@@ -19406,7 +19447,7 @@
     </row>
     <row r="730" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B730" s="2">
         <v>43028</v>
@@ -19435,7 +19476,7 @@
     </row>
     <row r="731" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B731" s="2">
         <v>43046</v>
@@ -19464,7 +19505,7 @@
     </row>
     <row r="732" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B732" s="2">
         <v>43067</v>
@@ -19505,7 +19546,7 @@
     </row>
     <row r="733" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B733" s="2">
         <v>43070</v>
@@ -19531,7 +19572,7 @@
     </row>
     <row r="734" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B734" s="2">
         <v>43090</v>
@@ -19560,7 +19601,7 @@
     </row>
     <row r="735" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B735" s="2">
         <v>43117</v>
@@ -19589,13 +19630,13 @@
     </row>
     <row r="736" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B736" s="2">
         <v>43129</v>
       </c>
       <c r="C736" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D736">
         <v>14.6</v>
@@ -19645,10 +19686,10 @@
     </row>
     <row r="737" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C737" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U737">
         <v>161</v>
@@ -19662,13 +19703,13 @@
     </row>
     <row r="738" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C738" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F738">
-        <v>13.631578947368419</v>
+        <v>13.63157895</v>
       </c>
       <c r="U738">
         <v>161</v>
@@ -19682,10 +19723,10 @@
     </row>
     <row r="739" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C739" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U739">
         <v>161</v>
@@ -19699,10 +19740,10 @@
     </row>
     <row r="740" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C740" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U740">
         <v>161</v>
@@ -19716,13 +19757,13 @@
     </row>
     <row r="741" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C741" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F741">
-        <v>13.611111111111111</v>
+        <v>13.61111111</v>
       </c>
       <c r="U741">
         <v>161</v>
@@ -19736,10 +19777,10 @@
     </row>
     <row r="742" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C742" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U742">
         <v>199</v>
@@ -19753,13 +19794,13 @@
     </row>
     <row r="743" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C743" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F743">
-        <v>17.533333333333331</v>
+        <v>17.533333330000001</v>
       </c>
       <c r="U743">
         <v>199</v>
@@ -19773,10 +19814,10 @@
     </row>
     <row r="744" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C744" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U744">
         <v>199</v>
@@ -19790,10 +19831,10 @@
     </row>
     <row r="745" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C745" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U745">
         <v>199</v>
@@ -19807,13 +19848,13 @@
     </row>
     <row r="746" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C746" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F746">
-        <v>17.84615384615385</v>
+        <v>17.84615385</v>
       </c>
       <c r="U746">
         <v>199</v>
@@ -19827,10 +19868,10 @@
     </row>
     <row r="747" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C747" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U747">
         <v>178</v>
@@ -19844,10 +19885,10 @@
     </row>
     <row r="748" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C748" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F748">
         <v>14.65</v>
@@ -19864,10 +19905,10 @@
     </row>
     <row r="749" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C749" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U749">
         <v>178</v>
@@ -19881,10 +19922,10 @@
     </row>
     <row r="750" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C750" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U750">
         <v>178</v>
@@ -19898,13 +19939,13 @@
     </row>
     <row r="751" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C751" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F751">
-        <v>15.444444444444439</v>
+        <v>15.44444444</v>
       </c>
       <c r="U751">
         <v>178</v>
@@ -19918,13 +19959,13 @@
     </row>
     <row r="752" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C752" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F752">
-        <v>15.27777777777778</v>
+        <v>15.277777779999999</v>
       </c>
       <c r="U752">
         <v>185</v>
@@ -19938,13 +19979,13 @@
     </row>
     <row r="753" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C753" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F753">
-        <v>16.111111111111111</v>
+        <v>16.11111111</v>
       </c>
       <c r="U753">
         <v>185</v>
@@ -19958,13 +19999,13 @@
     </row>
     <row r="754" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C754" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F754">
-        <v>17.333333333333329</v>
+        <v>17.333333329999999</v>
       </c>
       <c r="U754">
         <v>203</v>
@@ -19978,10 +20019,10 @@
     </row>
     <row r="755" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C755" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F755">
         <v>18</v>
@@ -19998,10 +20039,10 @@
     </row>
     <row r="756" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C756" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F756">
         <v>12.95</v>
@@ -20018,10 +20059,10 @@
     </row>
     <row r="757" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C757" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F757">
         <v>13.25</v>
@@ -20038,10 +20079,10 @@
     </row>
     <row r="758" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C758" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F758">
         <v>14.45</v>
@@ -20058,13 +20099,13 @@
     </row>
     <row r="759" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C759" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F759">
-        <v>14.888888888888889</v>
+        <v>14.88888889</v>
       </c>
       <c r="U759">
         <v>169</v>
@@ -20078,10 +20119,10 @@
     </row>
     <row r="760" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C760" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F760">
         <v>12.8</v>
@@ -20098,10 +20139,10 @@
     </row>
     <row r="761" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C761" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F761">
         <v>15</v>
@@ -20118,13 +20159,13 @@
     </row>
     <row r="762" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C762" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F762">
-        <v>16.76923076923077</v>
+        <v>16.76923077</v>
       </c>
       <c r="U762">
         <v>203</v>
@@ -20138,10 +20179,10 @@
     </row>
     <row r="763" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C763" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F763">
         <v>14.3</v>
@@ -20158,13 +20199,13 @@
     </row>
     <row r="764" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C764" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F764">
-        <v>16.07692307692308</v>
+        <v>16.07692308</v>
       </c>
       <c r="U764">
         <v>190</v>
@@ -20178,13 +20219,13 @@
     </row>
     <row r="765" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C765" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F765">
-        <v>13.789473684210529</v>
+        <v>13.78947368</v>
       </c>
       <c r="U765">
         <v>162</v>
@@ -20198,10 +20239,10 @@
     </row>
     <row r="766" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C766" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F766">
         <v>17</v>
@@ -20218,10 +20259,10 @@
     </row>
     <row r="767" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C767" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F767">
         <v>15</v>
@@ -20238,13 +20279,13 @@
     </row>
     <row r="768" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
+        <v>49</v>
+      </c>
+      <c r="C768" t="s">
         <v>52</v>
       </c>
-      <c r="C768" t="s">
-        <v>55</v>
-      </c>
       <c r="F768">
-        <v>14.94736842105263</v>
+        <v>14.94736842</v>
       </c>
       <c r="U768">
         <v>185</v>
@@ -20258,10 +20299,10 @@
     </row>
     <row r="769" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C769" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F769">
         <v>13</v>
@@ -20278,10 +20319,10 @@
     </row>
     <row r="770" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C770" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F770">
         <v>14.6</v>

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB80BE4-51D3-426D-9693-3F0E50F727BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71C228-8BF6-484B-9FEF-F0DD8D63761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Wheat.Phenology.CurrentStageName</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.AppearedCohortNo</t>
   </si>
   <si>
     <t>Wheat.Leaf.ExpandedCohortNo</t>
@@ -47,6 +50,12 @@
   </si>
   <si>
     <t>Wheat.Stem.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Wheat.Structure.TotalStemPopn</t>
   </si>
   <si>
     <t>Wheat.Phenology.Zadok.Stage</t>
@@ -181,19 +190,10 @@
     <t>HarvestRipe</t>
   </si>
   <si>
-    <t>Wheat.Leaf.TillerPopulation</t>
+    <t>Wheat.Phenology.FinalLeafNumber</t>
   </si>
   <si>
-    <t>Wheat.Leaf.FinalLeafNumber</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Canopy.LAI</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Canopy.CoverTotal</t>
+    <t>Wheat.Leaf.CoverGreen</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +576,7 @@
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -589,69 +590,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
         <v>41380</v>
@@ -668,7 +669,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
         <v>41422</v>
@@ -688,7 +689,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
         <v>41456</v>
@@ -708,7 +709,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
         <v>41480</v>
@@ -728,7 +729,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>41512</v>
@@ -748,7 +749,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>41520</v>
@@ -768,7 +769,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>41548</v>
@@ -788,7 +789,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>41610</v>
@@ -826,13 +827,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>41667</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>2584.6752418452079</v>
@@ -873,7 +874,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>41380</v>
@@ -890,7 +891,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>41393</v>
@@ -898,9 +899,6 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="T12">
-        <v>-9.2657698149068433E-4</v>
-      </c>
       <c r="U12">
         <v>161</v>
       </c>
@@ -913,7 +911,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>41409</v>
@@ -939,7 +937,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>41422</v>
@@ -959,7 +957,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>41431</v>
@@ -982,7 +980,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>41451</v>
@@ -1005,7 +1003,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>41456</v>
@@ -1025,7 +1023,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>41473</v>
@@ -1048,7 +1046,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>41480</v>
@@ -1068,7 +1066,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>41501</v>
@@ -1091,7 +1089,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>41512</v>
@@ -1111,7 +1109,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>41520</v>
@@ -1131,7 +1129,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>41535</v>
@@ -1154,7 +1152,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>41548</v>
@@ -1174,7 +1172,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>41562</v>
@@ -1200,7 +1198,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>41576</v>
@@ -1226,7 +1224,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>41597</v>
@@ -1252,7 +1250,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
         <v>41610</v>
@@ -1290,7 +1288,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2">
         <v>41617</v>
@@ -1307,7 +1305,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2">
         <v>41631</v>
@@ -1327,7 +1325,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
         <v>41646</v>
@@ -1347,7 +1345,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2">
         <v>41656</v>
@@ -1364,7 +1362,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2">
         <v>41660</v>
@@ -1381,13 +1379,13 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2">
         <v>41667</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G34">
         <v>2504.2002985697291</v>
@@ -1428,7 +1426,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
         <v>41380</v>
@@ -1445,7 +1443,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
         <v>41422</v>
@@ -1465,7 +1463,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2">
         <v>41456</v>
@@ -1485,7 +1483,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <v>41480</v>
@@ -1505,7 +1503,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>41512</v>
@@ -1525,7 +1523,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>41520</v>
@@ -1545,7 +1543,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
         <v>41548</v>
@@ -1565,7 +1563,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
         <v>41610</v>
@@ -1603,13 +1601,13 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2">
         <v>41667</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G43">
         <v>2487.5529363685941</v>
@@ -1650,7 +1648,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2">
         <v>41380</v>
@@ -1667,7 +1665,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2">
         <v>41393</v>
@@ -1675,9 +1673,6 @@
       <c r="N45">
         <v>11</v>
       </c>
-      <c r="T45">
-        <v>-1.4066410774834981E-2</v>
-      </c>
       <c r="U45">
         <v>161</v>
       </c>
@@ -1690,7 +1685,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2">
         <v>41409</v>
@@ -1713,7 +1708,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2">
         <v>41422</v>
@@ -1733,7 +1728,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2">
         <v>41431</v>
@@ -1753,7 +1748,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2">
         <v>41451</v>
@@ -1773,7 +1768,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2">
         <v>41456</v>
@@ -1793,7 +1788,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B51" s="2">
         <v>41473</v>
@@ -1813,7 +1808,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B52" s="2">
         <v>41480</v>
@@ -1833,7 +1828,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B53" s="2">
         <v>41501</v>
@@ -1853,7 +1848,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2">
         <v>41512</v>
@@ -1873,7 +1868,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2">
         <v>41520</v>
@@ -1893,7 +1888,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2">
         <v>41535</v>
@@ -1913,7 +1908,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B57" s="2">
         <v>41548</v>
@@ -1933,7 +1928,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B58" s="2">
         <v>41562</v>
@@ -1956,7 +1951,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B59" s="2">
         <v>41576</v>
@@ -1979,7 +1974,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B60" s="2">
         <v>41597</v>
@@ -2002,7 +1997,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B61" s="2">
         <v>41610</v>
@@ -2040,7 +2035,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B62" s="2">
         <v>41617</v>
@@ -2060,7 +2055,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B63" s="2">
         <v>41631</v>
@@ -2083,7 +2078,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B64" s="2">
         <v>41646</v>
@@ -2106,7 +2101,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2">
         <v>41656</v>
@@ -2126,13 +2121,13 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B66" s="2">
         <v>41667</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G66">
         <v>2692.6749147675118</v>
@@ -2173,7 +2168,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B67" s="2">
         <v>41380</v>
@@ -2190,7 +2185,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B68" s="2">
         <v>41393</v>
@@ -2201,9 +2196,6 @@
       <c r="N68">
         <v>11</v>
       </c>
-      <c r="T68">
-        <v>-5.8913933668641449E-3</v>
-      </c>
       <c r="U68">
         <v>161</v>
       </c>
@@ -2216,7 +2208,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B69" s="2">
         <v>41409</v>
@@ -2245,7 +2237,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B70" s="2">
         <v>41422</v>
@@ -2265,7 +2257,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B71" s="2">
         <v>41431</v>
@@ -2291,7 +2283,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B72" s="2">
         <v>41451</v>
@@ -2317,7 +2309,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B73" s="2">
         <v>41456</v>
@@ -2337,7 +2329,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2">
         <v>41473</v>
@@ -2363,7 +2355,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2">
         <v>41480</v>
@@ -2383,7 +2375,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B76" s="2">
         <v>41501</v>
@@ -2409,7 +2401,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2">
         <v>41512</v>
@@ -2429,7 +2421,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2">
         <v>41520</v>
@@ -2449,7 +2441,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B79" s="2">
         <v>41535</v>
@@ -2475,7 +2467,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B80" s="2">
         <v>41548</v>
@@ -2495,7 +2487,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B81" s="2">
         <v>41562</v>
@@ -2524,7 +2516,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B82" s="2">
         <v>41576</v>
@@ -2553,7 +2545,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B83" s="2">
         <v>41597</v>
@@ -2582,7 +2574,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B84" s="2">
         <v>41610</v>
@@ -2620,7 +2612,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2">
         <v>41617</v>
@@ -2640,7 +2632,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
         <v>41631</v>
@@ -2663,7 +2655,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2">
         <v>41646</v>
@@ -2686,7 +2678,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2">
         <v>41656</v>
@@ -2706,7 +2698,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B89" s="2">
         <v>41660</v>
@@ -2723,13 +2715,13 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B90" s="2">
         <v>41667</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G90">
         <v>2422.6624638590788</v>
@@ -2770,7 +2762,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B91" s="2">
         <v>41325</v>
@@ -2787,7 +2779,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B92" s="2">
         <v>41422</v>
@@ -2807,7 +2799,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B93" s="2">
         <v>41456</v>
@@ -2827,7 +2819,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B94" s="2">
         <v>41480</v>
@@ -2847,7 +2839,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B95" s="2">
         <v>41512</v>
@@ -2867,7 +2859,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B96" s="2">
         <v>41520</v>
@@ -2887,7 +2879,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B97" s="2">
         <v>41548</v>
@@ -2907,7 +2899,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B98" s="2">
         <v>41592</v>
@@ -2945,13 +2937,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B99" s="2">
         <v>41667</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G99">
         <v>2335.5720763093418</v>
@@ -2992,7 +2984,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B100" s="2">
         <v>41325</v>
@@ -3009,7 +3001,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B101" s="2">
         <v>41380</v>
@@ -3032,7 +3024,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B102" s="2">
         <v>41393</v>
@@ -3058,7 +3050,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B103" s="2">
         <v>41409</v>
@@ -3084,7 +3076,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B104" s="2">
         <v>41422</v>
@@ -3104,7 +3096,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B105" s="2">
         <v>41431</v>
@@ -3127,7 +3119,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B106" s="2">
         <v>41451</v>
@@ -3150,7 +3142,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B107" s="2">
         <v>41456</v>
@@ -3170,7 +3162,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B108" s="2">
         <v>41473</v>
@@ -3193,7 +3185,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B109" s="2">
         <v>41480</v>
@@ -3213,7 +3205,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B110" s="2">
         <v>41501</v>
@@ -3236,7 +3228,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B111" s="2">
         <v>41512</v>
@@ -3256,7 +3248,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B112" s="2">
         <v>41520</v>
@@ -3276,7 +3268,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B113" s="2">
         <v>41535</v>
@@ -3299,7 +3291,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B114" s="2">
         <v>41548</v>
@@ -3319,7 +3311,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B115" s="2">
         <v>41562</v>
@@ -3345,7 +3337,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B116" s="2">
         <v>41576</v>
@@ -3371,7 +3363,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B117" s="2">
         <v>41592</v>
@@ -3409,7 +3401,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B118" s="2">
         <v>41597</v>
@@ -3435,7 +3427,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B119" s="2">
         <v>41617</v>
@@ -3452,7 +3444,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B120" s="2">
         <v>41631</v>
@@ -3472,7 +3464,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B121" s="2">
         <v>41646</v>
@@ -3492,7 +3484,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B122" s="2">
         <v>41656</v>
@@ -3509,13 +3501,13 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B123" s="2">
         <v>41667</v>
       </c>
       <c r="C123" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G123">
         <v>2236.5439790303089</v>
@@ -3556,7 +3548,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B124" s="2">
         <v>41325</v>
@@ -3573,7 +3565,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B125" s="2">
         <v>41422</v>
@@ -3593,7 +3585,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B126" s="2">
         <v>41456</v>
@@ -3613,7 +3605,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B127" s="2">
         <v>41480</v>
@@ -3633,7 +3625,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B128" s="2">
         <v>41512</v>
@@ -3653,7 +3645,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B129" s="2">
         <v>41520</v>
@@ -3673,7 +3665,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B130" s="2">
         <v>41548</v>
@@ -3693,7 +3685,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B131" s="2">
         <v>41592</v>
@@ -3731,13 +3723,13 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B132" s="2">
         <v>41667</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G132">
         <v>2290.6455012801321</v>
@@ -3778,7 +3770,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B133" s="2">
         <v>41325</v>
@@ -3795,7 +3787,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B134" s="2">
         <v>41380</v>
@@ -3815,7 +3807,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B135" s="2">
         <v>41393</v>
@@ -3838,7 +3830,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B136" s="2">
         <v>41409</v>
@@ -3861,7 +3853,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B137" s="2">
         <v>41422</v>
@@ -3881,7 +3873,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B138" s="2">
         <v>41431</v>
@@ -3901,7 +3893,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B139" s="2">
         <v>41451</v>
@@ -3921,7 +3913,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B140" s="2">
         <v>41456</v>
@@ -3941,7 +3933,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B141" s="2">
         <v>41473</v>
@@ -3961,7 +3953,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B142" s="2">
         <v>41480</v>
@@ -3981,7 +3973,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B143" s="2">
         <v>41501</v>
@@ -4001,7 +3993,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B144" s="2">
         <v>41512</v>
@@ -4021,7 +4013,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B145" s="2">
         <v>41520</v>
@@ -4041,7 +4033,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B146" s="2">
         <v>41535</v>
@@ -4061,7 +4053,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B147" s="2">
         <v>41548</v>
@@ -4081,7 +4073,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B148" s="2">
         <v>41562</v>
@@ -4104,7 +4096,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B149" s="2">
         <v>41576</v>
@@ -4127,7 +4119,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B150" s="2">
         <v>41592</v>
@@ -4165,7 +4157,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B151" s="2">
         <v>41597</v>
@@ -4188,7 +4180,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B152" s="2">
         <v>41617</v>
@@ -4208,7 +4200,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B153" s="2">
         <v>41631</v>
@@ -4231,7 +4223,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B154" s="2">
         <v>41646</v>
@@ -4254,7 +4246,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B155" s="2">
         <v>41656</v>
@@ -4274,13 +4266,13 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B156" s="2">
         <v>41667</v>
       </c>
       <c r="C156" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G156">
         <v>2375.1309075664558</v>
@@ -4321,7 +4313,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B157" s="2">
         <v>41325</v>
@@ -4338,7 +4330,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B158" s="2">
         <v>41380</v>
@@ -4364,7 +4356,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B159" s="2">
         <v>41393</v>
@@ -4393,7 +4385,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B160" s="2">
         <v>41409</v>
@@ -4422,7 +4414,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B161" s="2">
         <v>41422</v>
@@ -4442,7 +4434,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B162" s="2">
         <v>41431</v>
@@ -4468,7 +4460,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B163" s="2">
         <v>41451</v>
@@ -4494,7 +4486,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B164" s="2">
         <v>41456</v>
@@ -4514,7 +4506,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B165" s="2">
         <v>41473</v>
@@ -4540,7 +4532,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B166" s="2">
         <v>41480</v>
@@ -4560,7 +4552,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B167" s="2">
         <v>41501</v>
@@ -4586,7 +4578,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B168" s="2">
         <v>41512</v>
@@ -4606,7 +4598,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B169" s="2">
         <v>41520</v>
@@ -4626,7 +4618,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B170" s="2">
         <v>41535</v>
@@ -4652,7 +4644,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B171" s="2">
         <v>41548</v>
@@ -4672,7 +4664,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B172" s="2">
         <v>41562</v>
@@ -4701,7 +4693,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B173" s="2">
         <v>41576</v>
@@ -4730,7 +4722,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B174" s="2">
         <v>41592</v>
@@ -4768,7 +4760,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B175" s="2">
         <v>41597</v>
@@ -4797,7 +4789,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B176" s="2">
         <v>41617</v>
@@ -4817,7 +4809,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B177" s="2">
         <v>41631</v>
@@ -4840,7 +4832,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B178" s="2">
         <v>41646</v>
@@ -4863,7 +4855,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B179" s="2">
         <v>41656</v>
@@ -4883,13 +4875,13 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B180" s="2">
         <v>41667</v>
       </c>
       <c r="C180" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G180">
         <v>2266.0947553518008</v>
@@ -4930,7 +4922,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B181" s="2">
         <v>41359</v>
@@ -4947,7 +4939,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B182" s="2">
         <v>41422</v>
@@ -4967,7 +4959,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B183" s="2">
         <v>41456</v>
@@ -4987,7 +4979,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B184" s="2">
         <v>41480</v>
@@ -5007,7 +4999,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B185" s="2">
         <v>41512</v>
@@ -5027,7 +5019,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B186" s="2">
         <v>41520</v>
@@ -5047,7 +5039,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B187" s="2">
         <v>41548</v>
@@ -5067,7 +5059,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B188" s="2">
         <v>41600</v>
@@ -5105,13 +5097,13 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B189" s="2">
         <v>41667</v>
       </c>
       <c r="C189" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G189">
         <v>2603.7907279094038</v>
@@ -5152,7 +5144,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B190" s="2">
         <v>41359</v>
@@ -5169,7 +5161,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B191" s="2">
         <v>41380</v>
@@ -5192,7 +5184,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B192" s="2">
         <v>41393</v>
@@ -5218,7 +5210,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B193" s="2">
         <v>41409</v>
@@ -5244,7 +5236,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B194" s="2">
         <v>41422</v>
@@ -5264,7 +5256,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B195" s="2">
         <v>41431</v>
@@ -5287,7 +5279,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B196" s="2">
         <v>41451</v>
@@ -5310,7 +5302,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B197" s="2">
         <v>41456</v>
@@ -5330,7 +5322,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B198" s="2">
         <v>41473</v>
@@ -5353,7 +5345,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B199" s="2">
         <v>41480</v>
@@ -5373,7 +5365,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B200" s="2">
         <v>41501</v>
@@ -5396,7 +5388,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B201" s="2">
         <v>41506</v>
@@ -5413,7 +5405,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B202" s="2">
         <v>41512</v>
@@ -5433,7 +5425,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B203" s="2">
         <v>41520</v>
@@ -5453,7 +5445,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B204" s="2">
         <v>41535</v>
@@ -5476,7 +5468,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B205" s="2">
         <v>41548</v>
@@ -5496,7 +5488,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B206" s="2">
         <v>41562</v>
@@ -5522,7 +5514,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B207" s="2">
         <v>41576</v>
@@ -5548,7 +5540,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B208" s="2">
         <v>41597</v>
@@ -5574,7 +5566,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B209" s="2">
         <v>41600</v>
@@ -5612,7 +5604,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B210" s="2">
         <v>41617</v>
@@ -5629,7 +5621,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B211" s="2">
         <v>41631</v>
@@ -5649,7 +5641,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B212" s="2">
         <v>41646</v>
@@ -5669,7 +5661,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B213" s="2">
         <v>41656</v>
@@ -5686,13 +5678,13 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B214" s="2">
         <v>41667</v>
       </c>
       <c r="C214" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G214">
         <v>2684.9023198238069</v>
@@ -5733,7 +5725,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B215" s="2">
         <v>41359</v>
@@ -5750,7 +5742,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B216" s="2">
         <v>41422</v>
@@ -5770,7 +5762,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B217" s="2">
         <v>41456</v>
@@ -5790,7 +5782,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B218" s="2">
         <v>41480</v>
@@ -5810,7 +5802,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B219" s="2">
         <v>41512</v>
@@ -5830,7 +5822,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B220" s="2">
         <v>41520</v>
@@ -5850,7 +5842,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B221" s="2">
         <v>41548</v>
@@ -5870,7 +5862,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B222" s="2">
         <v>41600</v>
@@ -5908,13 +5900,13 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B223" s="2">
         <v>41667</v>
       </c>
       <c r="C223" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G223">
         <v>2751.579279285515</v>
@@ -5955,7 +5947,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B224" s="2">
         <v>41359</v>
@@ -5972,7 +5964,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B225" s="2">
         <v>41380</v>
@@ -5992,7 +5984,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B226" s="2">
         <v>41393</v>
@@ -6015,7 +6007,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B227" s="2">
         <v>41409</v>
@@ -6038,7 +6030,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B228" s="2">
         <v>41422</v>
@@ -6058,7 +6050,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B229" s="2">
         <v>41431</v>
@@ -6078,7 +6070,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B230" s="2">
         <v>41451</v>
@@ -6098,7 +6090,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B231" s="2">
         <v>41456</v>
@@ -6118,7 +6110,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B232" s="2">
         <v>41473</v>
@@ -6138,7 +6130,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B233" s="2">
         <v>41480</v>
@@ -6158,7 +6150,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B234" s="2">
         <v>41501</v>
@@ -6178,7 +6170,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B235" s="2">
         <v>41506</v>
@@ -6195,7 +6187,7 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B236" s="2">
         <v>41512</v>
@@ -6215,7 +6207,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B237" s="2">
         <v>41520</v>
@@ -6235,7 +6227,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B238" s="2">
         <v>41535</v>
@@ -6255,7 +6247,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B239" s="2">
         <v>41548</v>
@@ -6275,7 +6267,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B240" s="2">
         <v>41562</v>
@@ -6298,7 +6290,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B241" s="2">
         <v>41576</v>
@@ -6321,7 +6313,7 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B242" s="2">
         <v>41597</v>
@@ -6344,7 +6336,7 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B243" s="2">
         <v>41600</v>
@@ -6382,7 +6374,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B244" s="2">
         <v>41617</v>
@@ -6402,7 +6394,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B245" s="2">
         <v>41631</v>
@@ -6425,7 +6417,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B246" s="2">
         <v>41646</v>
@@ -6448,7 +6440,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B247" s="2">
         <v>41656</v>
@@ -6468,13 +6460,13 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B248" s="2">
         <v>41667</v>
       </c>
       <c r="C248" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G248">
         <v>2793.31827785019</v>
@@ -6515,7 +6507,7 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B249" s="2">
         <v>41359</v>
@@ -6532,7 +6524,7 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B250" s="2">
         <v>41380</v>
@@ -6558,7 +6550,7 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B251" s="2">
         <v>41393</v>
@@ -6587,7 +6579,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B252" s="2">
         <v>41409</v>
@@ -6616,7 +6608,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B253" s="2">
         <v>41422</v>
@@ -6636,7 +6628,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B254" s="2">
         <v>41431</v>
@@ -6662,7 +6654,7 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B255" s="2">
         <v>41451</v>
@@ -6688,7 +6680,7 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B256" s="2">
         <v>41456</v>
@@ -6708,7 +6700,7 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B257" s="2">
         <v>41473</v>
@@ -6734,7 +6726,7 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B258" s="2">
         <v>41480</v>
@@ -6754,7 +6746,7 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B259" s="2">
         <v>41501</v>
@@ -6780,7 +6772,7 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B260" s="2">
         <v>41506</v>
@@ -6797,7 +6789,7 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B261" s="2">
         <v>41512</v>
@@ -6817,7 +6809,7 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B262" s="2">
         <v>41520</v>
@@ -6837,7 +6829,7 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B263" s="2">
         <v>41535</v>
@@ -6863,7 +6855,7 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B264" s="2">
         <v>41548</v>
@@ -6883,7 +6875,7 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B265" s="2">
         <v>41562</v>
@@ -6912,7 +6904,7 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B266" s="2">
         <v>41576</v>
@@ -6941,7 +6933,7 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B267" s="2">
         <v>41597</v>
@@ -6970,7 +6962,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B268" s="2">
         <v>41600</v>
@@ -7008,7 +7000,7 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B269" s="2">
         <v>41617</v>
@@ -7028,7 +7020,7 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B270" s="2">
         <v>41631</v>
@@ -7051,7 +7043,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B271" s="2">
         <v>41646</v>
@@ -7074,7 +7066,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B272" s="2">
         <v>41656</v>
@@ -7094,13 +7086,13 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B273" s="2">
         <v>41667</v>
       </c>
       <c r="C273" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G273">
         <v>2828.1043460015708</v>
@@ -7141,7 +7133,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B274" s="2">
         <v>41708</v>
@@ -7158,7 +7150,7 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B275" s="2">
         <v>41722</v>
@@ -7172,9 +7164,6 @@
       <c r="N275">
         <v>12</v>
       </c>
-      <c r="T275">
-        <v>-1.3091725676993449E-2</v>
-      </c>
       <c r="U275">
         <v>185</v>
       </c>
@@ -7187,7 +7176,7 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B276" s="2">
         <v>41731</v>
@@ -7216,7 +7205,7 @@
     </row>
     <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B277" s="2">
         <v>41738</v>
@@ -7245,7 +7234,7 @@
     </row>
     <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B278" s="2">
         <v>41745</v>
@@ -7271,7 +7260,7 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B279" s="2">
         <v>41760</v>
@@ -7300,7 +7289,7 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B280" s="2">
         <v>41768</v>
@@ -7329,7 +7318,7 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B281" s="2">
         <v>41788</v>
@@ -7355,7 +7344,7 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B282" s="2">
         <v>41806</v>
@@ -7381,7 +7370,7 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B283" s="2">
         <v>41808</v>
@@ -7401,7 +7390,7 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B284" s="2">
         <v>41835</v>
@@ -7430,7 +7419,7 @@
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B285" s="2">
         <v>41855</v>
@@ -7459,7 +7448,7 @@
     </row>
     <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B286" s="2">
         <v>41870</v>
@@ -7494,7 +7483,7 @@
     </row>
     <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B287" s="2">
         <v>41883</v>
@@ -7523,7 +7512,7 @@
     </row>
     <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B288" s="2">
         <v>41891</v>
@@ -7543,7 +7532,7 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B289" s="2">
         <v>41908</v>
@@ -7572,7 +7561,7 @@
     </row>
     <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B290" s="2">
         <v>41912</v>
@@ -7592,7 +7581,7 @@
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B291" s="2">
         <v>41925</v>
@@ -7621,7 +7610,7 @@
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B292" s="2">
         <v>41947</v>
@@ -7650,7 +7639,7 @@
     </row>
     <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B293" s="2">
         <v>41964</v>
@@ -7691,7 +7680,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B294" s="2">
         <v>41969</v>
@@ -7720,7 +7709,7 @@
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B295" s="2">
         <v>41971</v>
@@ -7740,7 +7729,7 @@
     </row>
     <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B296" s="2">
         <v>41984</v>
@@ -7769,7 +7758,7 @@
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B297" s="2">
         <v>41996</v>
@@ -7798,7 +7787,7 @@
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B298" s="2">
         <v>42016</v>
@@ -7827,7 +7816,7 @@
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B299" s="2">
         <v>42024</v>
@@ -7841,9 +7830,6 @@
       <c r="N299">
         <v>92</v>
       </c>
-      <c r="T299">
-        <v>-4.3804869583570884E-3</v>
-      </c>
       <c r="U299">
         <v>185</v>
       </c>
@@ -7856,13 +7842,13 @@
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B300" s="2">
         <v>42027</v>
       </c>
       <c r="C300" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G300">
         <v>2837.8688491249868</v>
@@ -7903,7 +7889,7 @@
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B301" s="2">
         <v>41708</v>
@@ -7920,7 +7906,7 @@
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B302" s="2">
         <v>41722</v>
@@ -7934,9 +7920,6 @@
       <c r="N302">
         <v>12</v>
       </c>
-      <c r="T302">
-        <v>-3.4601834309400753E-2</v>
-      </c>
       <c r="U302">
         <v>185</v>
       </c>
@@ -7949,7 +7932,7 @@
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B303" s="2">
         <v>41731</v>
@@ -7978,7 +7961,7 @@
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B304" s="2">
         <v>41738</v>
@@ -8007,7 +7990,7 @@
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B305" s="2">
         <v>41745</v>
@@ -8033,7 +8016,7 @@
     </row>
     <row r="306" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B306" s="2">
         <v>41760</v>
@@ -8062,7 +8045,7 @@
     </row>
     <row r="307" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B307" s="2">
         <v>41768</v>
@@ -8091,7 +8074,7 @@
     </row>
     <row r="308" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B308" s="2">
         <v>41788</v>
@@ -8117,7 +8100,7 @@
     </row>
     <row r="309" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B309" s="2">
         <v>41806</v>
@@ -8143,7 +8126,7 @@
     </row>
     <row r="310" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B310" s="2">
         <v>41808</v>
@@ -8163,7 +8146,7 @@
     </row>
     <row r="311" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B311" s="2">
         <v>41835</v>
@@ -8192,7 +8175,7 @@
     </row>
     <row r="312" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B312" s="2">
         <v>41855</v>
@@ -8221,7 +8204,7 @@
     </row>
     <row r="313" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B313" s="2">
         <v>41870</v>
@@ -8256,7 +8239,7 @@
     </row>
     <row r="314" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B314" s="2">
         <v>41883</v>
@@ -8285,7 +8268,7 @@
     </row>
     <row r="315" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B315" s="2">
         <v>41891</v>
@@ -8305,7 +8288,7 @@
     </row>
     <row r="316" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B316" s="2">
         <v>41908</v>
@@ -8334,7 +8317,7 @@
     </row>
     <row r="317" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B317" s="2">
         <v>41912</v>
@@ -8354,7 +8337,7 @@
     </row>
     <row r="318" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B318" s="2">
         <v>41925</v>
@@ -8383,7 +8366,7 @@
     </row>
     <row r="319" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B319" s="2">
         <v>41947</v>
@@ -8412,7 +8395,7 @@
     </row>
     <row r="320" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B320" s="2">
         <v>41964</v>
@@ -8453,7 +8436,7 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B321" s="2">
         <v>41969</v>
@@ -8482,7 +8465,7 @@
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B322" s="2">
         <v>41971</v>
@@ -8502,7 +8485,7 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B323" s="2">
         <v>41984</v>
@@ -8531,7 +8514,7 @@
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B324" s="2">
         <v>41996</v>
@@ -8560,7 +8543,7 @@
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B325" s="2">
         <v>42016</v>
@@ -8589,7 +8572,7 @@
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B326" s="2">
         <v>42024</v>
@@ -8618,13 +8601,13 @@
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B327" s="2">
         <v>42027</v>
       </c>
       <c r="C327" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G327">
         <v>2898.60999748734</v>
@@ -8665,7 +8648,7 @@
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B328" s="2">
         <v>41690</v>
@@ -8682,7 +8665,7 @@
     </row>
     <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B329" s="2">
         <v>41709</v>
@@ -8708,7 +8691,7 @@
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B330" s="2">
         <v>41710</v>
@@ -8728,7 +8711,7 @@
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B331" s="2">
         <v>41722</v>
@@ -8757,7 +8740,7 @@
     </row>
     <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B332" s="2">
         <v>41731</v>
@@ -8786,7 +8769,7 @@
     </row>
     <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B333" s="2">
         <v>41738</v>
@@ -8815,7 +8798,7 @@
     </row>
     <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B334" s="2">
         <v>41745</v>
@@ -8841,7 +8824,7 @@
     </row>
     <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B335" s="2">
         <v>41760</v>
@@ -8870,7 +8853,7 @@
     </row>
     <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B336" s="2">
         <v>41768</v>
@@ -8899,7 +8882,7 @@
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B337" s="2">
         <v>41788</v>
@@ -8925,7 +8908,7 @@
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B338" s="2">
         <v>41806</v>
@@ -8951,7 +8934,7 @@
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B339" s="2">
         <v>41808</v>
@@ -8971,7 +8954,7 @@
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B340" s="2">
         <v>41835</v>
@@ -9000,7 +8983,7 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B341" s="2">
         <v>41844</v>
@@ -9032,7 +9015,7 @@
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B342" s="2">
         <v>41855</v>
@@ -9061,7 +9044,7 @@
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B343" s="2">
         <v>41870</v>
@@ -9081,7 +9064,7 @@
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B344" s="2">
         <v>41883</v>
@@ -9110,7 +9093,7 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B345" s="2">
         <v>41891</v>
@@ -9130,7 +9113,7 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B346" s="2">
         <v>41908</v>
@@ -9159,7 +9142,7 @@
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B347" s="2">
         <v>41912</v>
@@ -9179,7 +9162,7 @@
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B348" s="2">
         <v>41925</v>
@@ -9208,7 +9191,7 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B349" s="2">
         <v>41947</v>
@@ -9237,7 +9220,7 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B350" s="2">
         <v>41964</v>
@@ -9278,7 +9261,7 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B351" s="2">
         <v>41969</v>
@@ -9307,7 +9290,7 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B352" s="2">
         <v>41971</v>
@@ -9327,7 +9310,7 @@
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B353" s="2">
         <v>41984</v>
@@ -9353,7 +9336,7 @@
     </row>
     <row r="354" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B354" s="2">
         <v>41996</v>
@@ -9379,7 +9362,7 @@
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B355" s="2">
         <v>42016</v>
@@ -9405,7 +9388,7 @@
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B356" s="2">
         <v>42024</v>
@@ -9431,13 +9414,13 @@
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B357" s="2">
         <v>42027</v>
       </c>
       <c r="C357" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G357">
         <v>3021.2141718526</v>
@@ -9478,7 +9461,7 @@
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B358" s="2">
         <v>41690</v>
@@ -9495,7 +9478,7 @@
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B359" s="2">
         <v>41709</v>
@@ -9521,14 +9504,11 @@
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B360" s="2">
         <v>41710</v>
       </c>
-      <c r="T360">
-        <v>-3.7255186330325779E-3</v>
-      </c>
       <c r="U360">
         <v>203</v>
       </c>
@@ -9541,7 +9521,7 @@
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B361" s="2">
         <v>41722</v>
@@ -9570,7 +9550,7 @@
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B362" s="2">
         <v>41731</v>
@@ -9599,7 +9579,7 @@
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B363" s="2">
         <v>41738</v>
@@ -9628,7 +9608,7 @@
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B364" s="2">
         <v>41745</v>
@@ -9654,7 +9634,7 @@
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B365" s="2">
         <v>41760</v>
@@ -9683,7 +9663,7 @@
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B366" s="2">
         <v>41768</v>
@@ -9712,7 +9692,7 @@
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B367" s="2">
         <v>41788</v>
@@ -9738,7 +9718,7 @@
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B368" s="2">
         <v>41806</v>
@@ -9764,7 +9744,7 @@
     </row>
     <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B369" s="2">
         <v>41808</v>
@@ -9784,7 +9764,7 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B370" s="2">
         <v>41835</v>
@@ -9813,7 +9793,7 @@
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B371" s="2">
         <v>41844</v>
@@ -9845,7 +9825,7 @@
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B372" s="2">
         <v>41855</v>
@@ -9874,7 +9854,7 @@
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B373" s="2">
         <v>41870</v>
@@ -9894,7 +9874,7 @@
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B374" s="2">
         <v>41883</v>
@@ -9923,7 +9903,7 @@
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B375" s="2">
         <v>41891</v>
@@ -9943,7 +9923,7 @@
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B376" s="2">
         <v>41908</v>
@@ -9972,7 +9952,7 @@
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B377" s="2">
         <v>41912</v>
@@ -9992,7 +9972,7 @@
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B378" s="2">
         <v>41925</v>
@@ -10021,7 +10001,7 @@
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B379" s="2">
         <v>41947</v>
@@ -10050,7 +10030,7 @@
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B380" s="2">
         <v>41964</v>
@@ -10091,7 +10071,7 @@
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B381" s="2">
         <v>41969</v>
@@ -10120,7 +10100,7 @@
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B382" s="2">
         <v>41971</v>
@@ -10140,7 +10120,7 @@
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B383" s="2">
         <v>41984</v>
@@ -10166,7 +10146,7 @@
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B384" s="2">
         <v>41996</v>
@@ -10192,7 +10172,7 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B385" s="2">
         <v>42016</v>
@@ -10218,7 +10198,7 @@
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B386" s="2">
         <v>42024</v>
@@ -10244,13 +10224,13 @@
     </row>
     <row r="387" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B387" s="2">
         <v>42027</v>
       </c>
       <c r="C387" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G387">
         <v>2958.3922978387232</v>
@@ -10291,7 +10271,7 @@
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B388" s="2">
         <v>41752</v>
@@ -10308,7 +10288,7 @@
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B389" s="2">
         <v>41760</v>
@@ -10328,7 +10308,7 @@
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B390" s="2">
         <v>41768</v>
@@ -10348,7 +10328,7 @@
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B391" s="2">
         <v>41788</v>
@@ -10374,7 +10354,7 @@
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B392" s="2">
         <v>41806</v>
@@ -10400,7 +10380,7 @@
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B393" s="2">
         <v>41808</v>
@@ -10420,7 +10400,7 @@
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B394" s="2">
         <v>41835</v>
@@ -10449,7 +10429,7 @@
     </row>
     <row r="395" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B395" s="2">
         <v>41855</v>
@@ -10478,7 +10458,7 @@
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B396" s="2">
         <v>41870</v>
@@ -10498,7 +10478,7 @@
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B397" s="2">
         <v>41883</v>
@@ -10527,7 +10507,7 @@
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B398" s="2">
         <v>41891</v>
@@ -10547,7 +10527,7 @@
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B399" s="2">
         <v>41908</v>
@@ -10576,7 +10556,7 @@
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B400" s="2">
         <v>41912</v>
@@ -10611,7 +10591,7 @@
     </row>
     <row r="401" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B401" s="2">
         <v>41925</v>
@@ -10640,7 +10620,7 @@
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B402" s="2">
         <v>41947</v>
@@ -10669,7 +10649,7 @@
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B403" s="2">
         <v>41964</v>
@@ -10689,7 +10669,7 @@
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B404" s="2">
         <v>41969</v>
@@ -10718,7 +10698,7 @@
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B405" s="2">
         <v>41971</v>
@@ -10759,7 +10739,7 @@
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B406" s="2">
         <v>41984</v>
@@ -10788,7 +10768,7 @@
     </row>
     <row r="407" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B407" s="2">
         <v>41996</v>
@@ -10817,7 +10797,7 @@
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B408" s="2">
         <v>42016</v>
@@ -10846,7 +10826,7 @@
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B409" s="2">
         <v>42024</v>
@@ -10875,13 +10855,13 @@
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B410" s="2">
         <v>42037</v>
       </c>
       <c r="C410" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G410">
         <v>2832.8489813897049</v>
@@ -10922,7 +10902,7 @@
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B411" s="2">
         <v>41752</v>
@@ -10939,7 +10919,7 @@
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B412" s="2">
         <v>41760</v>
@@ -10959,7 +10939,7 @@
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B413" s="2">
         <v>41768</v>
@@ -10979,7 +10959,7 @@
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B414" s="2">
         <v>41788</v>
@@ -11005,7 +10985,7 @@
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B415" s="2">
         <v>41806</v>
@@ -11031,7 +11011,7 @@
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B416" s="2">
         <v>41808</v>
@@ -11051,7 +11031,7 @@
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B417" s="2">
         <v>41835</v>
@@ -11080,7 +11060,7 @@
     </row>
     <row r="418" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B418" s="2">
         <v>41855</v>
@@ -11109,7 +11089,7 @@
     </row>
     <row r="419" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B419" s="2">
         <v>41870</v>
@@ -11129,7 +11109,7 @@
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B420" s="2">
         <v>41883</v>
@@ -11158,7 +11138,7 @@
     </row>
     <row r="421" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B421" s="2">
         <v>41891</v>
@@ -11178,7 +11158,7 @@
     </row>
     <row r="422" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B422" s="2">
         <v>41908</v>
@@ -11207,7 +11187,7 @@
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B423" s="2">
         <v>41912</v>
@@ -11242,7 +11222,7 @@
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B424" s="2">
         <v>41925</v>
@@ -11271,7 +11251,7 @@
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B425" s="2">
         <v>41947</v>
@@ -11300,7 +11280,7 @@
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B426" s="2">
         <v>41964</v>
@@ -11320,7 +11300,7 @@
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B427" s="2">
         <v>41969</v>
@@ -11349,7 +11329,7 @@
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B428" s="2">
         <v>41971</v>
@@ -11390,7 +11370,7 @@
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B429" s="2">
         <v>41984</v>
@@ -11419,7 +11399,7 @@
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B430" s="2">
         <v>41996</v>
@@ -11448,7 +11428,7 @@
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B431" s="2">
         <v>42016</v>
@@ -11477,7 +11457,7 @@
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B432" s="2">
         <v>42024</v>
@@ -11506,13 +11486,13 @@
     </row>
     <row r="433" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B433" s="2">
         <v>42037</v>
       </c>
       <c r="C433" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G433">
         <v>2628.497178064712</v>
@@ -11553,7 +11533,7 @@
     </row>
     <row r="434" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B434" s="2">
         <v>41724</v>
@@ -11570,7 +11550,7 @@
     </row>
     <row r="435" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B435" s="2">
         <v>41738</v>
@@ -11596,7 +11576,7 @@
     </row>
     <row r="436" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B436" s="2">
         <v>41745</v>
@@ -11622,7 +11602,7 @@
     </row>
     <row r="437" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B437" s="2">
         <v>41760</v>
@@ -11651,7 +11631,7 @@
     </row>
     <row r="438" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B438" s="2">
         <v>41768</v>
@@ -11680,7 +11660,7 @@
     </row>
     <row r="439" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B439" s="2">
         <v>41788</v>
@@ -11706,7 +11686,7 @@
     </row>
     <row r="440" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B440" s="2">
         <v>41806</v>
@@ -11732,7 +11712,7 @@
     </row>
     <row r="441" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B441" s="2">
         <v>41808</v>
@@ -11752,7 +11732,7 @@
     </row>
     <row r="442" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B442" s="2">
         <v>41835</v>
@@ -11781,7 +11761,7 @@
     </row>
     <row r="443" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B443" s="2">
         <v>41855</v>
@@ -11810,7 +11790,7 @@
     </row>
     <row r="444" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B444" s="2">
         <v>41870</v>
@@ -11830,7 +11810,7 @@
     </row>
     <row r="445" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B445" s="2">
         <v>41883</v>
@@ -11859,7 +11839,7 @@
     </row>
     <row r="446" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B446" s="2">
         <v>41891</v>
@@ -11894,7 +11874,7 @@
     </row>
     <row r="447" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B447" s="2">
         <v>41908</v>
@@ -11923,7 +11903,7 @@
     </row>
     <row r="448" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B448" s="2">
         <v>41912</v>
@@ -11943,7 +11923,7 @@
     </row>
     <row r="449" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B449" s="2">
         <v>41925</v>
@@ -11972,7 +11952,7 @@
     </row>
     <row r="450" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B450" s="2">
         <v>41947</v>
@@ -12001,7 +11981,7 @@
     </row>
     <row r="451" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B451" s="2">
         <v>41964</v>
@@ -12021,7 +12001,7 @@
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B452" s="2">
         <v>41969</v>
@@ -12050,7 +12030,7 @@
     </row>
     <row r="453" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B453" s="2">
         <v>41971</v>
@@ -12091,7 +12071,7 @@
     </row>
     <row r="454" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B454" s="2">
         <v>41984</v>
@@ -12120,7 +12100,7 @@
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B455" s="2">
         <v>41996</v>
@@ -12149,7 +12129,7 @@
     </row>
     <row r="456" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B456" s="2">
         <v>42016</v>
@@ -12178,7 +12158,7 @@
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B457" s="2">
         <v>42024</v>
@@ -12207,13 +12187,13 @@
     </row>
     <row r="458" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B458" s="2">
         <v>42027</v>
       </c>
       <c r="C458" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G458">
         <v>3036.0845989142622</v>
@@ -12254,7 +12234,7 @@
     </row>
     <row r="459" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B459" s="2">
         <v>41724</v>
@@ -12271,7 +12251,7 @@
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B460" s="2">
         <v>41738</v>
@@ -12297,7 +12277,7 @@
     </row>
     <row r="461" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B461" s="2">
         <v>41745</v>
@@ -12323,7 +12303,7 @@
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B462" s="2">
         <v>41760</v>
@@ -12352,7 +12332,7 @@
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B463" s="2">
         <v>41768</v>
@@ -12381,7 +12361,7 @@
     </row>
     <row r="464" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B464" s="2">
         <v>41788</v>
@@ -12407,7 +12387,7 @@
     </row>
     <row r="465" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B465" s="2">
         <v>41806</v>
@@ -12433,7 +12413,7 @@
     </row>
     <row r="466" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B466" s="2">
         <v>41808</v>
@@ -12453,7 +12433,7 @@
     </row>
     <row r="467" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B467" s="2">
         <v>41835</v>
@@ -12482,7 +12462,7 @@
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B468" s="2">
         <v>41855</v>
@@ -12511,7 +12491,7 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B469" s="2">
         <v>41870</v>
@@ -12531,7 +12511,7 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B470" s="2">
         <v>41883</v>
@@ -12560,7 +12540,7 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B471" s="2">
         <v>41891</v>
@@ -12595,7 +12575,7 @@
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B472" s="2">
         <v>41908</v>
@@ -12624,7 +12604,7 @@
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B473" s="2">
         <v>41912</v>
@@ -12644,7 +12624,7 @@
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B474" s="2">
         <v>41925</v>
@@ -12673,7 +12653,7 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B475" s="2">
         <v>41947</v>
@@ -12702,7 +12682,7 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B476" s="2">
         <v>41964</v>
@@ -12722,7 +12702,7 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B477" s="2">
         <v>41969</v>
@@ -12751,7 +12731,7 @@
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B478" s="2">
         <v>41971</v>
@@ -12792,7 +12772,7 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B479" s="2">
         <v>41984</v>
@@ -12821,7 +12801,7 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B480" s="2">
         <v>41996</v>
@@ -12850,7 +12830,7 @@
     </row>
     <row r="481" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B481" s="2">
         <v>42016</v>
@@ -12879,7 +12859,7 @@
     </row>
     <row r="482" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B482" s="2">
         <v>42024</v>
@@ -12908,13 +12888,13 @@
     </row>
     <row r="483" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B483" s="2">
         <v>42027</v>
       </c>
       <c r="C483" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G483">
         <v>2757.9209185983241</v>
@@ -12955,7 +12935,7 @@
     </row>
     <row r="484" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B484" s="2">
         <v>42103</v>
@@ -12972,7 +12952,7 @@
     </row>
     <row r="485" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B485" s="2">
         <v>42118</v>
@@ -12992,7 +12972,7 @@
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B486" s="2">
         <v>42135</v>
@@ -13018,7 +12998,7 @@
     </row>
     <row r="487" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B487" s="2">
         <v>42151</v>
@@ -13044,7 +13024,7 @@
     </row>
     <row r="488" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B488" s="2">
         <v>42172</v>
@@ -13070,7 +13050,7 @@
     </row>
     <row r="489" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B489" s="2">
         <v>42202</v>
@@ -13096,7 +13076,7 @@
     </row>
     <row r="490" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B490" s="2">
         <v>42215</v>
@@ -13116,7 +13096,7 @@
     </row>
     <row r="491" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B491" s="2">
         <v>42235</v>
@@ -13142,7 +13122,7 @@
     </row>
     <row r="492" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B492" s="2">
         <v>42255</v>
@@ -13168,7 +13148,7 @@
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B493" s="2">
         <v>42268</v>
@@ -13188,7 +13168,7 @@
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B494" s="2">
         <v>42276</v>
@@ -13226,7 +13206,7 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B495" s="2">
         <v>42278</v>
@@ -13252,7 +13232,7 @@
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B496" s="2">
         <v>42298</v>
@@ -13278,7 +13258,7 @@
     </row>
     <row r="497" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B497" s="2">
         <v>42320</v>
@@ -13304,7 +13284,7 @@
     </row>
     <row r="498" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B498" s="2">
         <v>42332</v>
@@ -13324,7 +13304,7 @@
     </row>
     <row r="499" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B499" s="2">
         <v>42339</v>
@@ -13344,7 +13324,7 @@
     </row>
     <row r="500" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B500" s="2">
         <v>42346</v>
@@ -13391,7 +13371,7 @@
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B501" s="2">
         <v>42374</v>
@@ -13414,7 +13394,7 @@
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B502" s="2">
         <v>42394</v>
@@ -13437,13 +13417,13 @@
     </row>
     <row r="503" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B503" s="2">
         <v>42411</v>
       </c>
       <c r="C503" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G503">
         <v>3311.4106193339821</v>
@@ -13484,7 +13464,7 @@
     </row>
     <row r="504" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B504" s="2">
         <v>42073</v>
@@ -13501,7 +13481,7 @@
     </row>
     <row r="505" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B505" s="2">
         <v>42087</v>
@@ -13527,7 +13507,7 @@
     </row>
     <row r="506" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B506" s="2">
         <v>42096</v>
@@ -13553,7 +13533,7 @@
     </row>
     <row r="507" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B507" s="2">
         <v>42102</v>
@@ -13579,7 +13559,7 @@
     </row>
     <row r="508" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B508" s="2">
         <v>42118</v>
@@ -13605,7 +13585,7 @@
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B509" s="2">
         <v>42135</v>
@@ -13631,7 +13611,7 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B510" s="2">
         <v>42151</v>
@@ -13657,7 +13637,7 @@
     </row>
     <row r="511" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B511" s="2">
         <v>42172</v>
@@ -13683,7 +13663,7 @@
     </row>
     <row r="512" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B512" s="2">
         <v>42202</v>
@@ -13709,7 +13689,7 @@
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B513" s="2">
         <v>42215</v>
@@ -13729,7 +13709,7 @@
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B514" s="2">
         <v>42235</v>
@@ -13755,7 +13735,7 @@
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B515" s="2">
         <v>42255</v>
@@ -13799,7 +13779,7 @@
     </row>
     <row r="516" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B516" s="2">
         <v>42268</v>
@@ -13819,7 +13799,7 @@
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B517" s="2">
         <v>42276</v>
@@ -13839,7 +13819,7 @@
     </row>
     <row r="518" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B518" s="2">
         <v>42278</v>
@@ -13865,7 +13845,7 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B519" s="2">
         <v>42298</v>
@@ -13891,7 +13871,7 @@
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B520" s="2">
         <v>42320</v>
@@ -13917,7 +13897,7 @@
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B521" s="2">
         <v>42332</v>
@@ -13937,7 +13917,7 @@
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B522" s="2">
         <v>42339</v>
@@ -13978,7 +13958,7 @@
     </row>
     <row r="523" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B523" s="2">
         <v>42346</v>
@@ -14004,7 +13984,7 @@
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B524" s="2">
         <v>42374</v>
@@ -14027,7 +14007,7 @@
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B525" s="2">
         <v>42394</v>
@@ -14050,13 +14030,13 @@
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B526" s="2">
         <v>42404</v>
       </c>
       <c r="C526" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G526">
         <v>3215.9740827244418</v>
@@ -14097,7 +14077,7 @@
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B527" s="2">
         <v>42055</v>
@@ -14114,7 +14094,7 @@
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B528" s="2">
         <v>42067</v>
@@ -14134,7 +14114,7 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B529" s="2">
         <v>42076</v>
@@ -14160,7 +14140,7 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B530" s="2">
         <v>42087</v>
@@ -14186,7 +14166,7 @@
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B531" s="2">
         <v>42096</v>
@@ -14212,7 +14192,7 @@
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B532" s="2">
         <v>42102</v>
@@ -14238,7 +14218,7 @@
     </row>
     <row r="533" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B533" s="2">
         <v>42118</v>
@@ -14264,7 +14244,7 @@
     </row>
     <row r="534" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B534" s="2">
         <v>42135</v>
@@ -14290,7 +14270,7 @@
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B535" s="2">
         <v>42151</v>
@@ -14316,7 +14296,7 @@
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B536" s="2">
         <v>42172</v>
@@ -14342,7 +14322,7 @@
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B537" s="2">
         <v>42202</v>
@@ -14368,7 +14348,7 @@
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B538" s="2">
         <v>42215</v>
@@ -14406,7 +14386,7 @@
     </row>
     <row r="539" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B539" s="2">
         <v>42235</v>
@@ -14432,7 +14412,7 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B540" s="2">
         <v>42255</v>
@@ -14458,7 +14438,7 @@
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B541" s="2">
         <v>42268</v>
@@ -14478,7 +14458,7 @@
     </row>
     <row r="542" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B542" s="2">
         <v>42276</v>
@@ -14498,7 +14478,7 @@
     </row>
     <row r="543" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B543" s="2">
         <v>42278</v>
@@ -14524,7 +14504,7 @@
     </row>
     <row r="544" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B544" s="2">
         <v>42298</v>
@@ -14550,7 +14530,7 @@
     </row>
     <row r="545" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B545" s="2">
         <v>42320</v>
@@ -14576,7 +14556,7 @@
     </row>
     <row r="546" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B546" s="2">
         <v>42332</v>
@@ -14617,7 +14597,7 @@
     </row>
     <row r="547" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B547" s="2">
         <v>42339</v>
@@ -14637,7 +14617,7 @@
     </row>
     <row r="548" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B548" s="2">
         <v>42346</v>
@@ -14663,7 +14643,7 @@
     </row>
     <row r="549" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B549" s="2">
         <v>42374</v>
@@ -14686,7 +14666,7 @@
     </row>
     <row r="550" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B550" s="2">
         <v>42394</v>
@@ -14709,13 +14689,13 @@
     </row>
     <row r="551" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B551" s="2">
         <v>42404</v>
       </c>
       <c r="C551" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G551">
         <v>3019.3067355123289</v>
@@ -14756,7 +14736,7 @@
     </row>
     <row r="552" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B552" s="2">
         <v>42083</v>
@@ -14773,7 +14753,7 @@
     </row>
     <row r="553" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B553" s="2">
         <v>42096</v>
@@ -14784,9 +14764,6 @@
       <c r="E553">
         <v>0.1</v>
       </c>
-      <c r="T553">
-        <v>-2.2752132430339161E-2</v>
-      </c>
       <c r="U553">
         <v>188</v>
       </c>
@@ -14799,7 +14776,7 @@
     </row>
     <row r="554" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B554" s="2">
         <v>42102</v>
@@ -14825,7 +14802,7 @@
     </row>
     <row r="555" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B555" s="2">
         <v>42118</v>
@@ -14851,7 +14828,7 @@
     </row>
     <row r="556" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B556" s="2">
         <v>42135</v>
@@ -14877,7 +14854,7 @@
     </row>
     <row r="557" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B557" s="2">
         <v>42151</v>
@@ -14903,7 +14880,7 @@
     </row>
     <row r="558" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B558" s="2">
         <v>42172</v>
@@ -14929,7 +14906,7 @@
     </row>
     <row r="559" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B559" s="2">
         <v>42202</v>
@@ -14955,7 +14932,7 @@
     </row>
     <row r="560" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B560" s="2">
         <v>42215</v>
@@ -14975,7 +14952,7 @@
     </row>
     <row r="561" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B561" s="2">
         <v>42235</v>
@@ -15001,7 +14978,7 @@
     </row>
     <row r="562" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B562" s="2">
         <v>42255</v>
@@ -15027,7 +15004,7 @@
     </row>
     <row r="563" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B563" s="2">
         <v>42268</v>
@@ -15065,7 +15042,7 @@
     </row>
     <row r="564" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B564" s="2">
         <v>42276</v>
@@ -15085,7 +15062,7 @@
     </row>
     <row r="565" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B565" s="2">
         <v>42278</v>
@@ -15111,7 +15088,7 @@
     </row>
     <row r="566" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B566" s="2">
         <v>42298</v>
@@ -15137,7 +15114,7 @@
     </row>
     <row r="567" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B567" s="2">
         <v>42320</v>
@@ -15163,7 +15140,7 @@
     </row>
     <row r="568" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B568" s="2">
         <v>42332</v>
@@ -15183,7 +15160,7 @@
     </row>
     <row r="569" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B569" s="2">
         <v>42339</v>
@@ -15224,7 +15201,7 @@
     </row>
     <row r="570" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B570" s="2">
         <v>42346</v>
@@ -15250,7 +15227,7 @@
     </row>
     <row r="571" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B571" s="2">
         <v>42374</v>
@@ -15273,7 +15250,7 @@
     </row>
     <row r="572" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B572" s="2">
         <v>42394</v>
@@ -15296,13 +15273,13 @@
     </row>
     <row r="573" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B573" s="2">
         <v>42404</v>
       </c>
       <c r="C573" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G573">
         <v>3142.8429349048379</v>
@@ -15343,7 +15320,7 @@
     </row>
     <row r="574" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B574" s="2">
         <v>42437</v>
@@ -15360,7 +15337,7 @@
     </row>
     <row r="575" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B575" s="2">
         <v>42466</v>
@@ -15386,7 +15363,7 @@
     </row>
     <row r="576" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B576" s="2">
         <v>42478</v>
@@ -15412,7 +15389,7 @@
     </row>
     <row r="577" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B577" s="2">
         <v>42487</v>
@@ -15432,7 +15409,7 @@
     </row>
     <row r="578" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B578" s="2">
         <v>42488</v>
@@ -15452,7 +15429,7 @@
     </row>
     <row r="579" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B579" s="2">
         <v>42500</v>
@@ -15472,7 +15449,7 @@
     </row>
     <row r="580" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B580" s="2">
         <v>42501</v>
@@ -15498,7 +15475,7 @@
     </row>
     <row r="581" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B581" s="2">
         <v>42521</v>
@@ -15521,7 +15498,7 @@
     </row>
     <row r="582" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B582" s="2">
         <v>42544</v>
@@ -15547,7 +15524,7 @@
     </row>
     <row r="583" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B583" s="2">
         <v>42558</v>
@@ -15567,7 +15544,7 @@
     </row>
     <row r="584" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B584" s="2">
         <v>42565</v>
@@ -15593,7 +15570,7 @@
     </row>
     <row r="585" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B585" s="2">
         <v>42590</v>
@@ -15619,7 +15596,7 @@
     </row>
     <row r="586" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B586" s="2">
         <v>42611</v>
@@ -15639,7 +15616,7 @@
     </row>
     <row r="587" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B587" s="2">
         <v>42612</v>
@@ -15665,7 +15642,7 @@
     </row>
     <row r="588" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B588" s="2">
         <v>42626</v>
@@ -15703,7 +15680,7 @@
     </row>
     <row r="589" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B589" s="2">
         <v>42641</v>
@@ -15729,7 +15706,7 @@
     </row>
     <row r="590" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B590" s="2">
         <v>42646</v>
@@ -15749,7 +15726,7 @@
     </row>
     <row r="591" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B591" s="2">
         <v>42663</v>
@@ -15772,7 +15749,7 @@
     </row>
     <row r="592" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B592" s="2">
         <v>42689</v>
@@ -15798,7 +15775,7 @@
     </row>
     <row r="593" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B593" s="2">
         <v>42697</v>
@@ -15818,7 +15795,7 @@
     </row>
     <row r="594" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B594" s="2">
         <v>42702</v>
@@ -15856,7 +15833,7 @@
     </row>
     <row r="595" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B595" s="2">
         <v>42709</v>
@@ -15882,7 +15859,7 @@
     </row>
     <row r="596" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B596" s="2">
         <v>42726</v>
@@ -15905,7 +15882,7 @@
     </row>
     <row r="597" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B597" s="2">
         <v>42747</v>
@@ -15928,14 +15905,11 @@
     </row>
     <row r="598" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B598" s="2">
         <v>42765</v>
       </c>
-      <c r="T598">
-        <v>-1.9089827758044429E-2</v>
-      </c>
       <c r="U598">
         <v>190</v>
       </c>
@@ -15948,7 +15922,7 @@
     </row>
     <row r="599" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B599" s="2">
         <v>42766</v>
@@ -15971,13 +15945,13 @@
     </row>
     <row r="600" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B600" s="2">
         <v>42776</v>
       </c>
       <c r="C600" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G600">
         <v>2354.3809974130422</v>
@@ -16018,7 +15992,7 @@
     </row>
     <row r="601" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B601" s="2">
         <v>42474</v>
@@ -16035,7 +16009,7 @@
     </row>
     <row r="602" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B602" s="2">
         <v>42487</v>
@@ -16055,7 +16029,7 @@
     </row>
     <row r="603" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B603" s="2">
         <v>42488</v>
@@ -16075,7 +16049,7 @@
     </row>
     <row r="604" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B604" s="2">
         <v>42500</v>
@@ -16095,7 +16069,7 @@
     </row>
     <row r="605" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B605" s="2">
         <v>42501</v>
@@ -16121,7 +16095,7 @@
     </row>
     <row r="606" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B606" s="2">
         <v>42521</v>
@@ -16144,7 +16118,7 @@
     </row>
     <row r="607" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B607" s="2">
         <v>42544</v>
@@ -16170,7 +16144,7 @@
     </row>
     <row r="608" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B608" s="2">
         <v>42558</v>
@@ -16190,7 +16164,7 @@
     </row>
     <row r="609" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B609" s="2">
         <v>42565</v>
@@ -16216,7 +16190,7 @@
     </row>
     <row r="610" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B610" s="2">
         <v>42590</v>
@@ -16242,7 +16216,7 @@
     </row>
     <row r="611" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B611" s="2">
         <v>42611</v>
@@ -16262,7 +16236,7 @@
     </row>
     <row r="612" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B612" s="2">
         <v>42612</v>
@@ -16288,7 +16262,7 @@
     </row>
     <row r="613" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B613" s="2">
         <v>42626</v>
@@ -16308,7 +16282,7 @@
     </row>
     <row r="614" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B614" s="2">
         <v>42641</v>
@@ -16334,7 +16308,7 @@
     </row>
     <row r="615" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B615" s="2">
         <v>42646</v>
@@ -16372,7 +16346,7 @@
     </row>
     <row r="616" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B616" s="2">
         <v>42663</v>
@@ -16395,7 +16369,7 @@
     </row>
     <row r="617" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B617" s="2">
         <v>42689</v>
@@ -16421,7 +16395,7 @@
     </row>
     <row r="618" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B618" s="2">
         <v>42697</v>
@@ -16441,7 +16415,7 @@
     </row>
     <row r="619" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B619" s="2">
         <v>42709</v>
@@ -16488,7 +16462,7 @@
     </row>
     <row r="620" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B620" s="2">
         <v>42726</v>
@@ -16511,7 +16485,7 @@
     </row>
     <row r="621" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B621" s="2">
         <v>42747</v>
@@ -16534,14 +16508,11 @@
     </row>
     <row r="622" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B622" s="2">
         <v>42765</v>
       </c>
-      <c r="T622">
-        <v>-2.943502529593473E-3</v>
-      </c>
       <c r="U622">
         <v>162</v>
       </c>
@@ -16554,7 +16525,7 @@
     </row>
     <row r="623" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B623" s="2">
         <v>42766</v>
@@ -16577,13 +16548,13 @@
     </row>
     <row r="624" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B624" s="2">
         <v>42776</v>
       </c>
       <c r="C624" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G624">
         <v>2928.2456381937632</v>
@@ -16624,7 +16595,7 @@
     </row>
     <row r="625" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B625" s="2">
         <v>42424</v>
@@ -16641,7 +16612,7 @@
     </row>
     <row r="626" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B626" s="2">
         <v>42447</v>
@@ -16667,7 +16638,7 @@
     </row>
     <row r="627" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B627" s="2">
         <v>42466</v>
@@ -16693,7 +16664,7 @@
     </row>
     <row r="628" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B628" s="2">
         <v>42478</v>
@@ -16719,7 +16690,7 @@
     </row>
     <row r="629" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B629" s="2">
         <v>42487</v>
@@ -16739,7 +16710,7 @@
     </row>
     <row r="630" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B630" s="2">
         <v>42488</v>
@@ -16759,7 +16730,7 @@
     </row>
     <row r="631" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B631" s="2">
         <v>42500</v>
@@ -16779,7 +16750,7 @@
     </row>
     <row r="632" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B632" s="2">
         <v>42501</v>
@@ -16805,7 +16776,7 @@
     </row>
     <row r="633" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B633" s="2">
         <v>42521</v>
@@ -16828,7 +16799,7 @@
     </row>
     <row r="634" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B634" s="2">
         <v>42544</v>
@@ -16854,7 +16825,7 @@
     </row>
     <row r="635" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B635" s="2">
         <v>42558</v>
@@ -16874,7 +16845,7 @@
     </row>
     <row r="636" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B636" s="2">
         <v>42565</v>
@@ -16900,7 +16871,7 @@
     </row>
     <row r="637" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B637" s="2">
         <v>42579</v>
@@ -16935,7 +16906,7 @@
     </row>
     <row r="638" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B638" s="2">
         <v>42590</v>
@@ -16961,7 +16932,7 @@
     </row>
     <row r="639" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B639" s="2">
         <v>42611</v>
@@ -16981,7 +16952,7 @@
     </row>
     <row r="640" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B640" s="2">
         <v>42612</v>
@@ -17007,7 +16978,7 @@
     </row>
     <row r="641" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B641" s="2">
         <v>42626</v>
@@ -17027,7 +16998,7 @@
     </row>
     <row r="642" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B642" s="2">
         <v>42641</v>
@@ -17053,7 +17024,7 @@
     </row>
     <row r="643" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B643" s="2">
         <v>42646</v>
@@ -17073,7 +17044,7 @@
     </row>
     <row r="644" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B644" s="2">
         <v>42663</v>
@@ -17096,7 +17067,7 @@
     </row>
     <row r="645" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B645" s="2">
         <v>42689</v>
@@ -17122,7 +17093,7 @@
     </row>
     <row r="646" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B646" s="2">
         <v>42697</v>
@@ -17142,7 +17113,7 @@
     </row>
     <row r="647" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B647" s="2">
         <v>42702</v>
@@ -17180,7 +17151,7 @@
     </row>
     <row r="648" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B648" s="2">
         <v>42709</v>
@@ -17206,7 +17177,7 @@
     </row>
     <row r="649" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B649" s="2">
         <v>42726</v>
@@ -17229,7 +17200,7 @@
     </row>
     <row r="650" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B650" s="2">
         <v>42747</v>
@@ -17252,14 +17223,11 @@
     </row>
     <row r="651" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B651" s="2">
         <v>42765</v>
       </c>
-      <c r="T651">
-        <v>-3.2308876266460181E-2</v>
-      </c>
       <c r="U651">
         <v>203</v>
       </c>
@@ -17272,7 +17240,7 @@
     </row>
     <row r="652" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B652" s="2">
         <v>42766</v>
@@ -17295,13 +17263,13 @@
     </row>
     <row r="653" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B653" s="2">
         <v>42776</v>
       </c>
       <c r="C653" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G653">
         <v>2476.8616135208058</v>
@@ -17342,7 +17310,7 @@
     </row>
     <row r="654" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B654" s="2">
         <v>42458</v>
@@ -17359,7 +17327,7 @@
     </row>
     <row r="655" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B655" s="2">
         <v>42478</v>
@@ -17385,7 +17353,7 @@
     </row>
     <row r="656" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B656" s="2">
         <v>42487</v>
@@ -17405,7 +17373,7 @@
     </row>
     <row r="657" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B657" s="2">
         <v>42488</v>
@@ -17425,7 +17393,7 @@
     </row>
     <row r="658" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B658" s="2">
         <v>42500</v>
@@ -17445,7 +17413,7 @@
     </row>
     <row r="659" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B659" s="2">
         <v>42501</v>
@@ -17471,7 +17439,7 @@
     </row>
     <row r="660" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B660" s="2">
         <v>42521</v>
@@ -17494,7 +17462,7 @@
     </row>
     <row r="661" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B661" s="2">
         <v>42544</v>
@@ -17520,7 +17488,7 @@
     </row>
     <row r="662" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B662" s="2">
         <v>42558</v>
@@ -17540,7 +17508,7 @@
     </row>
     <row r="663" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B663" s="2">
         <v>42565</v>
@@ -17566,7 +17534,7 @@
     </row>
     <row r="664" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B664" s="2">
         <v>42590</v>
@@ -17592,7 +17560,7 @@
     </row>
     <row r="665" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B665" s="2">
         <v>42611</v>
@@ -17612,7 +17580,7 @@
     </row>
     <row r="666" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B666" s="2">
         <v>42612</v>
@@ -17638,7 +17606,7 @@
     </row>
     <row r="667" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B667" s="2">
         <v>42626</v>
@@ -17676,7 +17644,7 @@
     </row>
     <row r="668" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B668" s="2">
         <v>42641</v>
@@ -17702,7 +17670,7 @@
     </row>
     <row r="669" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B669" s="2">
         <v>42646</v>
@@ -17722,7 +17690,7 @@
     </row>
     <row r="670" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B670" s="2">
         <v>42663</v>
@@ -17745,7 +17713,7 @@
     </row>
     <row r="671" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B671" s="2">
         <v>42689</v>
@@ -17771,7 +17739,7 @@
     </row>
     <row r="672" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B672" s="2">
         <v>42697</v>
@@ -17791,7 +17759,7 @@
     </row>
     <row r="673" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B673" s="2">
         <v>42702</v>
@@ -17829,7 +17797,7 @@
     </row>
     <row r="674" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B674" s="2">
         <v>42709</v>
@@ -17855,7 +17823,7 @@
     </row>
     <row r="675" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B675" s="2">
         <v>42726</v>
@@ -17878,7 +17846,7 @@
     </row>
     <row r="676" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B676" s="2">
         <v>42747</v>
@@ -17901,14 +17869,11 @@
     </row>
     <row r="677" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B677" s="2">
         <v>42765</v>
       </c>
-      <c r="T677">
-        <v>-4.6578160066725362E-2</v>
-      </c>
       <c r="U677">
         <v>169</v>
       </c>
@@ -17921,7 +17886,7 @@
     </row>
     <row r="678" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B678" s="2">
         <v>42766</v>
@@ -17944,13 +17909,13 @@
     </row>
     <row r="679" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B679" s="2">
         <v>42776</v>
       </c>
       <c r="C679" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G679">
         <v>2922.4671431543529</v>
@@ -17991,7 +17956,7 @@
     </row>
     <row r="680" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B680" s="2">
         <v>42803</v>
@@ -18008,7 +17973,7 @@
     </row>
     <row r="681" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B681" s="2">
         <v>42818</v>
@@ -18022,9 +17987,6 @@
       <c r="N681">
         <v>11</v>
       </c>
-      <c r="T681">
-        <v>-1.6026081758791659E-2</v>
-      </c>
       <c r="U681">
         <v>185</v>
       </c>
@@ -18037,7 +17999,7 @@
     </row>
     <row r="682" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B682" s="2">
         <v>42835</v>
@@ -18066,7 +18028,7 @@
     </row>
     <row r="683" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B683" s="2">
         <v>42858</v>
@@ -18092,7 +18054,7 @@
     </row>
     <row r="684" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B684" s="2">
         <v>42863</v>
@@ -18112,7 +18074,7 @@
     </row>
     <row r="685" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B685" s="2">
         <v>42880</v>
@@ -18141,7 +18103,7 @@
     </row>
     <row r="686" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B686" s="2">
         <v>42898</v>
@@ -18170,7 +18132,7 @@
     </row>
     <row r="687" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B687" s="2">
         <v>42919</v>
@@ -18199,7 +18161,7 @@
     </row>
     <row r="688" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B688" s="2">
         <v>42934</v>
@@ -18219,7 +18181,7 @@
     </row>
     <row r="689" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B689" s="2">
         <v>42947</v>
@@ -18245,7 +18207,7 @@
     </row>
     <row r="690" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B690" s="2">
         <v>42964</v>
@@ -18292,7 +18254,7 @@
     </row>
     <row r="691" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B691" s="2">
         <v>42986</v>
@@ -18321,7 +18283,7 @@
     </row>
     <row r="692" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B692" s="2">
         <v>43013</v>
@@ -18350,7 +18312,7 @@
     </row>
     <row r="693" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B693" s="2">
         <v>43028</v>
@@ -18379,7 +18341,7 @@
     </row>
     <row r="694" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B694" s="2">
         <v>43046</v>
@@ -18408,7 +18370,7 @@
     </row>
     <row r="695" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B695" s="2">
         <v>43059</v>
@@ -18449,7 +18411,7 @@
     </row>
     <row r="696" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B696" s="2">
         <v>43070</v>
@@ -18475,7 +18437,7 @@
     </row>
     <row r="697" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B697" s="2">
         <v>43090</v>
@@ -18504,7 +18466,7 @@
     </row>
     <row r="698" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B698" s="2">
         <v>43117</v>
@@ -18533,13 +18495,13 @@
     </row>
     <row r="699" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B699" s="2">
         <v>43123</v>
       </c>
       <c r="C699" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G699">
         <v>2227.8126463596859</v>
@@ -18583,7 +18545,7 @@
     </row>
     <row r="700" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B700" s="2">
         <v>42844</v>
@@ -18600,7 +18562,7 @@
     </row>
     <row r="701" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B701" s="2">
         <v>42858</v>
@@ -18623,7 +18585,7 @@
     </row>
     <row r="702" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B702" s="2">
         <v>42863</v>
@@ -18643,7 +18605,7 @@
     </row>
     <row r="703" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B703" s="2">
         <v>42880</v>
@@ -18672,7 +18634,7 @@
     </row>
     <row r="704" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B704" s="2">
         <v>42898</v>
@@ -18701,7 +18663,7 @@
     </row>
     <row r="705" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B705" s="2">
         <v>42919</v>
@@ -18730,7 +18692,7 @@
     </row>
     <row r="706" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B706" s="2">
         <v>42934</v>
@@ -18750,7 +18712,7 @@
     </row>
     <row r="707" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B707" s="2">
         <v>42947</v>
@@ -18776,7 +18738,7 @@
     </row>
     <row r="708" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B708" s="2">
         <v>42964</v>
@@ -18805,7 +18767,7 @@
     </row>
     <row r="709" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B709" s="2">
         <v>42986</v>
@@ -18834,7 +18796,7 @@
     </row>
     <row r="710" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B710" s="2">
         <v>43013</v>
@@ -18881,7 +18843,7 @@
     </row>
     <row r="711" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B711" s="2">
         <v>43028</v>
@@ -18910,7 +18872,7 @@
     </row>
     <row r="712" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B712" s="2">
         <v>43046</v>
@@ -18939,7 +18901,7 @@
     </row>
     <row r="713" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B713" s="2">
         <v>43067</v>
@@ -18980,7 +18942,7 @@
     </row>
     <row r="714" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B714" s="2">
         <v>43070</v>
@@ -19006,7 +18968,7 @@
     </row>
     <row r="715" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B715" s="2">
         <v>43090</v>
@@ -19035,7 +18997,7 @@
     </row>
     <row r="716" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B716" s="2">
         <v>43117</v>
@@ -19064,13 +19026,13 @@
     </row>
     <row r="717" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B717" s="2">
         <v>43129</v>
       </c>
       <c r="C717" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D717">
         <v>13</v>
@@ -19120,7 +19082,7 @@
     </row>
     <row r="718" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B718" s="2">
         <v>42824</v>
@@ -19137,7 +19099,7 @@
     </row>
     <row r="719" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B719" s="2">
         <v>42835</v>
@@ -19148,9 +19110,6 @@
       <c r="N719">
         <v>10</v>
       </c>
-      <c r="T719">
-        <v>-3.5363352669784603E-2</v>
-      </c>
       <c r="U719">
         <v>176</v>
       </c>
@@ -19163,7 +19122,7 @@
     </row>
     <row r="720" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B720" s="2">
         <v>42858</v>
@@ -19189,7 +19148,7 @@
     </row>
     <row r="721" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B721" s="2">
         <v>42863</v>
@@ -19209,7 +19168,7 @@
     </row>
     <row r="722" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B722" s="2">
         <v>42880</v>
@@ -19238,7 +19197,7 @@
     </row>
     <row r="723" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B723" s="2">
         <v>42898</v>
@@ -19267,7 +19226,7 @@
     </row>
     <row r="724" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B724" s="2">
         <v>42919</v>
@@ -19296,7 +19255,7 @@
     </row>
     <row r="725" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B725" s="2">
         <v>42934</v>
@@ -19316,7 +19275,7 @@
     </row>
     <row r="726" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B726" s="2">
         <v>42947</v>
@@ -19342,7 +19301,7 @@
     </row>
     <row r="727" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B727" s="2">
         <v>42964</v>
@@ -19371,7 +19330,7 @@
     </row>
     <row r="728" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B728" s="2">
         <v>42986</v>
@@ -19418,7 +19377,7 @@
     </row>
     <row r="729" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B729" s="2">
         <v>43013</v>
@@ -19447,7 +19406,7 @@
     </row>
     <row r="730" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B730" s="2">
         <v>43028</v>
@@ -19476,7 +19435,7 @@
     </row>
     <row r="731" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B731" s="2">
         <v>43046</v>
@@ -19505,7 +19464,7 @@
     </row>
     <row r="732" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B732" s="2">
         <v>43067</v>
@@ -19546,7 +19505,7 @@
     </row>
     <row r="733" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B733" s="2">
         <v>43070</v>
@@ -19572,7 +19531,7 @@
     </row>
     <row r="734" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B734" s="2">
         <v>43090</v>
@@ -19601,7 +19560,7 @@
     </row>
     <row r="735" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B735" s="2">
         <v>43117</v>
@@ -19630,13 +19589,13 @@
     </row>
     <row r="736" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B736" s="2">
         <v>43129</v>
       </c>
       <c r="C736" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D736">
         <v>14.6</v>
@@ -19686,10 +19645,10 @@
     </row>
     <row r="737" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C737" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U737">
         <v>161</v>
@@ -19703,13 +19662,13 @@
     </row>
     <row r="738" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C738" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F738">
-        <v>13.63157895</v>
+        <v>13.631578947368419</v>
       </c>
       <c r="U738">
         <v>161</v>
@@ -19723,10 +19682,10 @@
     </row>
     <row r="739" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C739" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U739">
         <v>161</v>
@@ -19740,10 +19699,10 @@
     </row>
     <row r="740" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C740" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U740">
         <v>161</v>
@@ -19757,13 +19716,13 @@
     </row>
     <row r="741" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C741" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F741">
-        <v>13.61111111</v>
+        <v>13.611111111111111</v>
       </c>
       <c r="U741">
         <v>161</v>
@@ -19777,10 +19736,10 @@
     </row>
     <row r="742" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C742" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U742">
         <v>199</v>
@@ -19794,13 +19753,13 @@
     </row>
     <row r="743" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C743" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F743">
-        <v>17.533333330000001</v>
+        <v>17.533333333333331</v>
       </c>
       <c r="U743">
         <v>199</v>
@@ -19814,10 +19773,10 @@
     </row>
     <row r="744" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C744" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U744">
         <v>199</v>
@@ -19831,10 +19790,10 @@
     </row>
     <row r="745" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C745" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U745">
         <v>199</v>
@@ -19848,13 +19807,13 @@
     </row>
     <row r="746" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C746" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F746">
-        <v>17.84615385</v>
+        <v>17.84615384615385</v>
       </c>
       <c r="U746">
         <v>199</v>
@@ -19868,10 +19827,10 @@
     </row>
     <row r="747" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C747" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U747">
         <v>178</v>
@@ -19885,10 +19844,10 @@
     </row>
     <row r="748" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C748" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F748">
         <v>14.65</v>
@@ -19905,10 +19864,10 @@
     </row>
     <row r="749" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C749" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U749">
         <v>178</v>
@@ -19922,10 +19881,10 @@
     </row>
     <row r="750" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C750" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U750">
         <v>178</v>
@@ -19939,13 +19898,13 @@
     </row>
     <row r="751" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C751" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F751">
-        <v>15.44444444</v>
+        <v>15.444444444444439</v>
       </c>
       <c r="U751">
         <v>178</v>
@@ -19959,13 +19918,13 @@
     </row>
     <row r="752" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C752" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F752">
-        <v>15.277777779999999</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="U752">
         <v>185</v>
@@ -19979,13 +19938,13 @@
     </row>
     <row r="753" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C753" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F753">
-        <v>16.11111111</v>
+        <v>16.111111111111111</v>
       </c>
       <c r="U753">
         <v>185</v>
@@ -19999,13 +19958,13 @@
     </row>
     <row r="754" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C754" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F754">
-        <v>17.333333329999999</v>
+        <v>17.333333333333329</v>
       </c>
       <c r="U754">
         <v>203</v>
@@ -20019,10 +19978,10 @@
     </row>
     <row r="755" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C755" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F755">
         <v>18</v>
@@ -20039,10 +19998,10 @@
     </row>
     <row r="756" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C756" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F756">
         <v>12.95</v>
@@ -20059,10 +20018,10 @@
     </row>
     <row r="757" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C757" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F757">
         <v>13.25</v>
@@ -20079,10 +20038,10 @@
     </row>
     <row r="758" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C758" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F758">
         <v>14.45</v>
@@ -20099,13 +20058,13 @@
     </row>
     <row r="759" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C759" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F759">
-        <v>14.88888889</v>
+        <v>14.888888888888889</v>
       </c>
       <c r="U759">
         <v>169</v>
@@ -20119,10 +20078,10 @@
     </row>
     <row r="760" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C760" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F760">
         <v>12.8</v>
@@ -20139,10 +20098,10 @@
     </row>
     <row r="761" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C761" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F761">
         <v>15</v>
@@ -20159,13 +20118,13 @@
     </row>
     <row r="762" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C762" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F762">
-        <v>16.76923077</v>
+        <v>16.76923076923077</v>
       </c>
       <c r="U762">
         <v>203</v>
@@ -20179,10 +20138,10 @@
     </row>
     <row r="763" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C763" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F763">
         <v>14.3</v>
@@ -20199,13 +20158,13 @@
     </row>
     <row r="764" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C764" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F764">
-        <v>16.07692308</v>
+        <v>16.07692307692308</v>
       </c>
       <c r="U764">
         <v>190</v>
@@ -20219,13 +20178,13 @@
     </row>
     <row r="765" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C765" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F765">
-        <v>13.78947368</v>
+        <v>13.789473684210529</v>
       </c>
       <c r="U765">
         <v>162</v>
@@ -20239,10 +20198,10 @@
     </row>
     <row r="766" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C766" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F766">
         <v>17</v>
@@ -20259,10 +20218,10 @@
     </row>
     <row r="767" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C767" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F767">
         <v>15</v>
@@ -20279,13 +20238,13 @@
     </row>
     <row r="768" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C768" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F768">
-        <v>14.94736842</v>
+        <v>14.94736842105263</v>
       </c>
       <c r="U768">
         <v>185</v>
@@ -20299,10 +20258,10 @@
     </row>
     <row r="769" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C769" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F769">
         <v>13</v>
@@ -20319,10 +20278,10 @@
     </row>
     <row r="770" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C770" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F770">
         <v>14.6</v>

--- a/Tests/Validation/Wheat/2020Results.xlsx
+++ b/Tests/Validation/Wheat/2020Results.xlsx
@@ -443,12 +443,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Wheat.Leaf.AppearedCohortNo</t>
+          <t>Wheat.Leaf.Tips</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Wheat.Leaf.ExpandedCohortNo</t>
+          <t>Wheat.Leaf.Ligules</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
